--- a/Analyzer Results/RESULTS_MTT_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED.xlsx
@@ -521,16 +521,16 @@
         <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09903196147255083</v>
+        <v>61.8</v>
       </c>
       <c r="I2" t="n">
-        <v>0.106924735605204</v>
+        <v>16.444</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7427552126925454</v>
+        <v>163.184</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1169269452662272</v>
+        <v>6528.83</v>
       </c>
     </row>
     <row r="3">
@@ -564,16 +564,16 @@
         <v>18.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06346631074585597</v>
+        <v>54.25</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06432823866777983</v>
+        <v>14.1775</v>
       </c>
       <c r="J3" t="n">
-        <v>0.669497130630234</v>
+        <v>153.2125</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06539468814083486</v>
+        <v>5510.422500000001</v>
       </c>
     </row>
     <row r="4">
@@ -607,16 +607,16 @@
         <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02920143418515941</v>
+        <v>44</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01777609090875769</v>
+        <v>10.145</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3447240884788881</v>
+        <v>117.96</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01526179660825317</v>
+        <v>3796.44</v>
       </c>
     </row>
     <row r="5">
@@ -650,16 +650,16 @@
         <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1076572498736275</v>
+        <v>63.4</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1135536538660778</v>
+        <v>16.75</v>
       </c>
       <c r="J5" t="n">
-        <v>0.805245602313424</v>
+        <v>173.34</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1263463016468569</v>
+        <v>6687.386</v>
       </c>
     </row>
     <row r="6">
@@ -693,16 +693,16 @@
         <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02213697905398733</v>
+        <v>41</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02100479620731599</v>
+        <v>10.57</v>
       </c>
       <c r="J6" t="n">
-        <v>0.797346605655663</v>
+        <v>171.9375</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02073624617012265</v>
+        <v>4088.4475</v>
       </c>
     </row>
     <row r="7">
@@ -736,16 +736,16 @@
         <v>16.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07182063972886547</v>
+        <v>56.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07182058943371852</v>
+        <v>14.626</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5866995500365944</v>
+        <v>143.384</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07535439616827472</v>
+        <v>5734.658</v>
       </c>
     </row>
     <row r="8">
@@ -779,16 +779,16 @@
         <v>19.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1043797649752605</v>
+        <v>62.8</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1091983715475009</v>
+        <v>16.55</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7601085738459208</v>
+        <v>165.812</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1205147190436853</v>
+        <v>6589.93</v>
       </c>
     </row>
     <row r="9">
@@ -822,16 +822,16 @@
         <v>18.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1043797649752605</v>
+        <v>62.8</v>
       </c>
       <c r="I9" t="n">
-        <v>0.102283404164046</v>
+        <v>16.224</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6856279658520501</v>
+        <v>155.28</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1052298079166267</v>
+        <v>6322.86</v>
       </c>
     </row>
     <row r="10">
@@ -865,16 +865,16 @@
         <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0318435810560002</v>
+        <v>45</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03081604112204984</v>
+        <v>11.642</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8136214693744565</v>
+        <v>174.874</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03641823467890725</v>
+        <v>4710.397999999999</v>
       </c>
     </row>
     <row r="11">
@@ -908,16 +908,16 @@
         <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02006039085891521</v>
+        <v>40</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01717320476372707</v>
+        <v>10.06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7341142816362605</v>
+        <v>161.92</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01931055638881876</v>
+        <v>4017.9725</v>
       </c>
     </row>
     <row r="12">
@@ -951,16 +951,16 @@
         <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01811773302367799</v>
+        <v>39</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01421105249303076</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5325273029603333</v>
+        <v>137.4475</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01473777852558481</v>
+        <v>3764.9425</v>
       </c>
     </row>
     <row r="13">
@@ -994,16 +994,16 @@
         <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05158210589468217</v>
+        <v>51.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04911034465376373</v>
+        <v>13.162</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6261194683540628</v>
+        <v>147.922</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05157508024204821</v>
+        <v>5163.52</v>
       </c>
     </row>
     <row r="14">
@@ -1037,16 +1037,16 @@
         <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0340634431300029</v>
+        <v>45.8</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02540314399562171</v>
+        <v>11.084</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5360193941161141</v>
+        <v>137.822</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02354636219776903</v>
+        <v>4218.411999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1080,16 +1080,16 @@
         <v>17.6</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03349956689110567</v>
+        <v>45.6</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03462810625412766</v>
+        <v>11.998</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6816468816509487</v>
+        <v>154.764</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03904513573834149</v>
+        <v>4796.368</v>
       </c>
     </row>
     <row r="16">
@@ -1123,16 +1123,16 @@
         <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03392191534696527</v>
+        <v>45.75</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03207465588021555</v>
+        <v>11.7625</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7679333931699251</v>
+        <v>167.04</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03248731450888814</v>
+        <v>4574.085</v>
       </c>
     </row>
     <row r="17">
@@ -1166,16 +1166,16 @@
         <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02670464151272334</v>
+        <v>43</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02074905470335989</v>
+        <v>10.538</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5230141306745442</v>
+        <v>136.432</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01784874457770977</v>
+        <v>3941.98</v>
       </c>
     </row>
     <row r="18">
@@ -1209,16 +1209,16 @@
         <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03349956689110567</v>
+        <v>45.6</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02983635238483971</v>
+        <v>11.546</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7334640667817257</v>
+        <v>161.826</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0303916693546187</v>
+        <v>4497.066</v>
       </c>
     </row>
     <row r="19">
@@ -1252,16 +1252,16 @@
         <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06875404531488132</v>
+        <v>55.5</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06678159900107034</v>
+        <v>14.3275</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6183097943229443</v>
+        <v>147.005</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06747392678296747</v>
+        <v>5558.764999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1295,16 +1295,16 @@
         <v>22.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7957009957588432</v>
+        <v>162.6</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8227912335885734</v>
+        <v>43.534</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4418980688588144</v>
+        <v>127.974</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7889473725028759</v>
+        <v>15918.314</v>
       </c>
     </row>
     <row r="21">
@@ -1338,16 +1338,16 @@
         <v>23</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6919309950550903</v>
+        <v>142.75</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7271792488424371</v>
+        <v>38.3775</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5125039391671953</v>
+        <v>135.3175</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6844284224872503</v>
+        <v>14010.35</v>
       </c>
     </row>
     <row r="22">
@@ -1381,16 +1381,16 @@
         <v>24.4</v>
       </c>
       <c r="H22" t="n">
-        <v>0.540330720213451</v>
+        <v>120.6</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5277813373800215</v>
+        <v>30.728</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4655585310592162</v>
+        <v>130.414</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4802436537415369</v>
+        <v>11216.966</v>
       </c>
     </row>
     <row r="23">
@@ -1424,16 +1424,16 @@
         <v>24.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7656366490040495</v>
+        <v>156.2</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7954766315197319</v>
+        <v>41.878</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5919483122582745</v>
+        <v>143.976</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7706071782230298</v>
+        <v>15539.71</v>
       </c>
     </row>
     <row r="24">
@@ -1467,16 +1467,16 @@
         <v>24.4</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7912108471917429</v>
+        <v>161.6</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8506047905732794</v>
+        <v>45.44600000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6479190394730965</v>
+        <v>150.536</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8223913839174448</v>
+        <v>16680.038</v>
       </c>
     </row>
     <row r="25">
@@ -1510,16 +1510,16 @@
         <v>20.8</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7345386263328391</v>
+        <v>150.2</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7995936928341992</v>
+        <v>42.116</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8016022601602739</v>
+        <v>172.688</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8100064700088556</v>
+        <v>16385.752</v>
       </c>
     </row>
     <row r="26">
@@ -1553,16 +1553,16 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7562672643227799</v>
+        <v>154.3333333333333</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7489921318744035</v>
+        <v>39.41666666666666</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4188183214505833</v>
+        <v>125.6033333333333</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6815329547514033</v>
+        <v>13964.33333333333</v>
       </c>
     </row>
     <row r="27">
@@ -1596,16 +1596,16 @@
         <v>35.6</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6508404005457304</v>
+        <v>136.2</v>
       </c>
       <c r="I27" t="n">
-        <v>0.699994809297144</v>
+        <v>37.162</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4016774913000496</v>
+        <v>123.844</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5638178645917302</v>
+        <v>12276.214</v>
       </c>
     </row>
     <row r="28">
@@ -1639,16 +1639,16 @@
         <v>20.4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6738394834420278</v>
+        <v>139.8</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7317467443456184</v>
+        <v>38.59</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6130610103563148</v>
+        <v>146.394</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7268033587055949</v>
+        <v>14719.204</v>
       </c>
     </row>
     <row r="29">
@@ -1682,16 +1682,16 @@
         <v>20.5</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6904244784391651</v>
+        <v>142.5</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7266924069898772</v>
+        <v>38.355</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4331766136674042</v>
+        <v>127.0775</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7014399138518184</v>
+        <v>14286.5725</v>
       </c>
     </row>
     <row r="30">
@@ -1725,16 +1725,16 @@
         <v>20.4</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5804425385797072</v>
+        <v>126</v>
       </c>
       <c r="I30" t="n">
-        <v>0.598581292698102</v>
+        <v>33.178</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4265017105948841</v>
+        <v>126.392</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5486905650647473</v>
+        <v>12078.422</v>
       </c>
     </row>
     <row r="31">
@@ -1768,16 +1768,16 @@
         <v>20.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7110632941356001</v>
+        <v>146</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7451706227787473</v>
+        <v>39.23</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5533667223930419</v>
+        <v>139.6975</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7190555346389336</v>
+        <v>14584.175</v>
       </c>
     </row>
     <row r="32">
@@ -1811,16 +1811,16 @@
         <v>19.5</v>
       </c>
       <c r="H32" t="n">
-        <v>0.654418858868457</v>
+        <v>136.75</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7205822603656049</v>
+        <v>38.075</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6464527965984594</v>
+        <v>150.3575</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7014195160650374</v>
+        <v>14286.235</v>
       </c>
     </row>
     <row r="33">
@@ -1854,16 +1854,16 @@
         <v>24.4</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7586353539927251</v>
+        <v>154.8</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8149976781880386</v>
+        <v>43.04199999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6520898384869125</v>
+        <v>151.046</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7773162083598624</v>
+        <v>15675.44</v>
       </c>
     </row>
     <row r="34">
@@ -1897,16 +1897,16 @@
         <v>20.5</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7181974258925166</v>
+        <v>147.25</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7453249808372451</v>
+        <v>39.2375</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4818342886824264</v>
+        <v>132.1025</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7225801887452472</v>
+        <v>14645.2725</v>
       </c>
     </row>
     <row r="35">
@@ -1940,16 +1940,16 @@
         <v>18</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5847855917153468</v>
+        <v>126.6</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6027791458810242</v>
+        <v>33.33</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4192730287791646</v>
+        <v>125.65</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5618847013435853</v>
+        <v>12250.756</v>
       </c>
     </row>
     <row r="36">
@@ -1983,16 +1983,16 @@
         <v>17</v>
       </c>
       <c r="H36" t="n">
-        <v>0.702337580108652</v>
+        <v>144.5</v>
       </c>
       <c r="I36" t="n">
-        <v>0.755411802646928</v>
+        <v>39.735</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6207457971142825</v>
+        <v>147.29</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7856346827419171</v>
+        <v>15848.1175</v>
       </c>
     </row>
     <row r="37">
@@ -2026,16 +2026,16 @@
         <v>20.5</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6193322258741214</v>
+        <v>131.5</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6124874332276022</v>
+        <v>33.685</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4011516115188469</v>
+        <v>123.79</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5382362414942136</v>
+        <v>11943.53</v>
       </c>
     </row>
     <row r="38">
@@ -2069,16 +2069,16 @@
         <v>20</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5948257047293386</v>
+        <v>128</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5506912509968986</v>
+        <v>31.5</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2419655130759417</v>
+        <v>106.794</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4448655873744199</v>
+        <v>10787.114</v>
       </c>
     </row>
     <row r="39">
@@ -2112,16 +2112,16 @@
         <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5749804956959105</v>
+        <v>125.25</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5766497194596247</v>
+        <v>32.3975</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3476252850947324</v>
+        <v>118.2625</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5024443285373271</v>
+        <v>11491.285</v>
       </c>
     </row>
     <row r="40">
@@ -2155,16 +2155,16 @@
         <v>24.8</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1639315321921822</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1287521988933977</v>
+        <v>17.42</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3963225840444694</v>
+        <v>123.294</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1087592695466713</v>
+        <v>6386.172</v>
       </c>
     </row>
     <row r="41">
@@ -2198,16 +2198,16 @@
         <v>20</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5983791491407149</v>
+        <v>128.5</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5750811168376542</v>
+        <v>32.3425</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2824051807313401</v>
+        <v>111.3225</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4457834043700492</v>
+        <v>10798.175</v>
       </c>
     </row>
     <row r="42">
@@ -2241,16 +2241,16 @@
         <v>20</v>
       </c>
       <c r="H42" t="n">
-        <v>0.593399529206289</v>
+        <v>127.8</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5455135715370506</v>
+        <v>31.324</v>
       </c>
       <c r="J42" t="n">
-        <v>0.22437701687674</v>
+        <v>104.742</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4056294886005224</v>
+        <v>10317.342</v>
       </c>
     </row>
     <row r="43">
@@ -2284,16 +2284,16 @@
         <v>19.2</v>
       </c>
       <c r="H43" t="n">
-        <v>0.442541485196013</v>
+        <v>108.2</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3839524971448126</v>
+        <v>26.14</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2434448381645715</v>
+        <v>106.964</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2912126118285558</v>
+        <v>8947.166000000001</v>
       </c>
     </row>
     <row r="44">
@@ -2327,16 +2327,16 @@
         <v>25</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3200290312665059</v>
+        <v>93.25</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3187763251925274</v>
+        <v>24.1025</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5652204175340017</v>
+        <v>140.995</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2650677524259418</v>
+        <v>8624.377500000001</v>
       </c>
     </row>
     <row r="45">
@@ -2370,16 +2370,16 @@
         <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5687462834101373</v>
+        <v>124.4</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5260399396586951</v>
+        <v>30.67</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2802990513336692</v>
+        <v>111.092</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4325196916396682</v>
+        <v>10638.702</v>
       </c>
     </row>
     <row r="46">
@@ -2413,16 +2413,16 @@
         <v>18.8</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4554974921371309</v>
+        <v>109.8</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4226469783192396</v>
+        <v>27.348</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3014746765531812</v>
+        <v>113.388</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3496158998603488</v>
+        <v>9650.784000000001</v>
       </c>
     </row>
     <row r="47">
@@ -2456,16 +2456,16 @@
         <v>17.2</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4922630849237142</v>
+        <v>114.4</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4448414048488686</v>
+        <v>28.046</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2668368377815596</v>
+        <v>109.606</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3792290942617793</v>
+        <v>10003.226</v>
       </c>
     </row>
     <row r="48">
@@ -2499,16 +2499,16 @@
         <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2557676885239866</v>
+        <v>85.2</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2502239800902256</v>
+        <v>21.894</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4425202391970449</v>
+        <v>128.038</v>
       </c>
       <c r="K48" t="n">
-        <v>0.238261783597039</v>
+        <v>8285.182000000001</v>
       </c>
     </row>
     <row r="49">
@@ -2542,16 +2542,16 @@
         <v>19</v>
       </c>
       <c r="H49" t="n">
-        <v>0.309881239548279</v>
+        <v>92</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2704405730140476</v>
+        <v>22.5575</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2550490765055831</v>
+        <v>108.285</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1761128441941521</v>
+        <v>7447.6525</v>
       </c>
     </row>
     <row r="50">
@@ -2585,16 +2585,16 @@
         <v>25.5</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5204107968234787</v>
+        <v>118</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5019855884439033</v>
+        <v>29.8775</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2086266755183411</v>
+        <v>102.85</v>
       </c>
       <c r="K50" t="n">
-        <v>0.369076218689496</v>
+        <v>9882.497499999999</v>
       </c>
     </row>
     <row r="51">
@@ -2628,16 +2628,16 @@
         <v>23.6</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4262527462409104</v>
+        <v>106.2</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4149808774397473</v>
+        <v>27.108</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4142061039129323</v>
+        <v>125.13</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3363909269477967</v>
+        <v>9492.828000000001</v>
       </c>
     </row>
     <row r="52">
@@ -2671,16 +2671,16 @@
         <v>17.5</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3343050335645771</v>
+        <v>95</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3385918840790577</v>
+        <v>24.725</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4481505692044658</v>
+        <v>128.6175</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3189956411690567</v>
+        <v>9284.075000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2714,16 +2714,16 @@
         <v>18.66666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>0.241348291949557</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2367338890414242</v>
+        <v>21.44333333333333</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5171255747935483</v>
+        <v>135.8066666666667</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2305106022146558</v>
+        <v>8185.126666666666</v>
       </c>
     </row>
     <row r="54">
@@ -2757,16 +2757,16 @@
         <v>19.6</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3131234591195673</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>0.2987503698194479</v>
+        <v>23.468</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4638180977791834</v>
+        <v>130.234</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2702648445126679</v>
+        <v>8689.092000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2800,16 +2800,16 @@
         <v>20</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3938690083538922</v>
+        <v>102.25</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2919210149472284</v>
+        <v>23.25</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1714630608870907</v>
+        <v>98.1225</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1718515141667757</v>
+        <v>7386.5225</v>
       </c>
     </row>
     <row r="56">
@@ -2843,16 +2843,16 @@
         <v>18.8</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2793739299044856</v>
+        <v>88.2</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2732274312424265</v>
+        <v>22.648</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5936440516639223</v>
+        <v>144.168</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2839994979709384</v>
+        <v>8858.762000000001</v>
       </c>
     </row>
     <row r="57">
@@ -2886,16 +2886,16 @@
         <v>20</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2403271807738311</v>
+        <v>83.2</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2550624414508082</v>
+        <v>22.054</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7708678937957849</v>
+        <v>167.508</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2719482162613467</v>
+        <v>8709.990000000002</v>
       </c>
     </row>
     <row r="58">
@@ -2929,16 +2929,16 @@
         <v>19</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0508533022715093</v>
+        <v>51</v>
       </c>
       <c r="I58" t="n">
-        <v>0.04737755944052003</v>
+        <v>13.035</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8368535920535489</v>
+        <v>179.42</v>
       </c>
       <c r="K58" t="n">
-        <v>0.05131241585794773</v>
+        <v>5156.42</v>
       </c>
     </row>
     <row r="59">
@@ -2972,16 +2972,16 @@
         <v>19</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1751103797529694</v>
+        <v>74.25</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1553083015624809</v>
+        <v>18.5075</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6787621088034079</v>
+        <v>154.3925</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1571178076918183</v>
+        <v>7170.19</v>
       </c>
     </row>
     <row r="60">
@@ -3015,16 +3015,16 @@
         <v>18</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1979594088900423</v>
+        <v>77.5</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1693631488209984</v>
+        <v>19.05</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5477973762633814</v>
+        <v>139.0925</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1619284325640951</v>
+        <v>7241.7225</v>
       </c>
     </row>
     <row r="61">
@@ -3058,16 +3058,16 @@
         <v>18.4</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2372712891177208</v>
+        <v>82.8</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2330798259237838</v>
+        <v>21.32</v>
       </c>
       <c r="J61" t="n">
-        <v>0.6350098088960692</v>
+        <v>148.978</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2344437966430839</v>
+        <v>8236.022000000001</v>
       </c>
     </row>
     <row r="62">
@@ -3101,16 +3101,16 @@
         <v>19.5</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1997596530616615</v>
+        <v>77.75</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2180843544159653</v>
+        <v>20.8075</v>
       </c>
       <c r="J62" t="n">
-        <v>0.7801844827442823</v>
+        <v>169.0225</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2439814830005963</v>
+        <v>8358.4</v>
       </c>
     </row>
     <row r="63">
@@ -3144,16 +3144,16 @@
         <v>18.4</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1789018665233632</v>
+        <v>74.8</v>
       </c>
       <c r="I63" t="n">
-        <v>0.153747590233746</v>
+        <v>18.446</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5642840815775461</v>
+        <v>140.892</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1446063000859901</v>
+        <v>6979.564</v>
       </c>
     </row>
     <row r="64">
@@ -3187,16 +3187,16 @@
         <v>19.2</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1816791509618586</v>
+        <v>75.2</v>
       </c>
       <c r="I64" t="n">
-        <v>0.168520106376906</v>
+        <v>19.018</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5788779054589344</v>
+        <v>142.508</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1653287358000076</v>
+        <v>7291.744000000001</v>
       </c>
     </row>
     <row r="65">
@@ -3230,16 +3230,16 @@
         <v>18.8</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1802884399849394</v>
+        <v>75</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1825359771054605</v>
+        <v>19.542</v>
       </c>
       <c r="J65" t="n">
-        <v>0.7082595976081034</v>
+        <v>158.292</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1971055594890969</v>
+        <v>7740.770000000001</v>
       </c>
     </row>
     <row r="66">
@@ -3273,16 +3273,16 @@
         <v>18.4</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1679619746950226</v>
+        <v>73.2</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1531403789523958</v>
+        <v>18.422</v>
       </c>
       <c r="J66" t="n">
-        <v>0.5888488265279286</v>
+        <v>143.626</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1531545855664298</v>
+        <v>7110.55</v>
       </c>
     </row>
     <row r="67">
@@ -3316,16 +3316,16 @@
         <v>18.5</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1180813698940261</v>
+        <v>65.25</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1093062142593492</v>
+        <v>16.555</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6399859946675496</v>
+        <v>149.575</v>
       </c>
       <c r="K67" t="n">
-        <v>0.114234423103338</v>
+        <v>6482.3675</v>
       </c>
     </row>
     <row r="68">
@@ -3359,16 +3359,16 @@
         <v>18.4</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1393794745324718</v>
+        <v>68.8</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1245325912859967</v>
+        <v>17.238</v>
       </c>
       <c r="J68" t="n">
-        <v>0.6417857005548706</v>
+        <v>149.792</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1285007085307911</v>
+        <v>6722.842</v>
       </c>
     </row>
     <row r="69">
@@ -3402,16 +3402,16 @@
         <v>18.8</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1456717559770596</v>
+        <v>69.8</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1262864947015342</v>
+        <v>17.314</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5764721917257742</v>
+        <v>142.24</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1265227096153101</v>
+        <v>6690.3</v>
       </c>
     </row>
     <row r="70">
@@ -3445,16 +3445,16 @@
         <v>18.4</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1143646188146924</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1102792054078744</v>
+        <v>16.6</v>
       </c>
       <c r="J70" t="n">
-        <v>0.7087584317658665</v>
+        <v>158.36</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1183221409094005</v>
+        <v>6552.698</v>
       </c>
     </row>
     <row r="71">
@@ -3488,16 +3488,16 @@
         <v>19</v>
       </c>
       <c r="H71" t="n">
-        <v>0.08605718919665153</v>
+        <v>59.25</v>
       </c>
       <c r="I71" t="n">
-        <v>0.07419416108004577</v>
+        <v>14.7625</v>
       </c>
       <c r="J71" t="n">
-        <v>0.6521224420189973</v>
+        <v>151.05</v>
       </c>
       <c r="K71" t="n">
-        <v>0.07260919923560347</v>
+        <v>5674.622499999999</v>
       </c>
     </row>
     <row r="72">
@@ -3531,16 +3531,16 @@
         <v>18.5</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1961650010625324</v>
+        <v>77.25</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2110300422662215</v>
+        <v>20.5625</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7851293148854521</v>
+        <v>169.845</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2431140165473216</v>
+        <v>8347.327499999999</v>
       </c>
     </row>
     <row r="73">
@@ -3574,16 +3574,16 @@
         <v>18</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1298766552731387</v>
+        <v>67.25</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1276444906958243</v>
+        <v>17.3725</v>
       </c>
       <c r="J73" t="n">
-        <v>0.6845122858795387</v>
+        <v>155.135</v>
       </c>
       <c r="K73" t="n">
-        <v>0.1308588985177016</v>
+        <v>6761.33</v>
       </c>
     </row>
     <row r="74">
@@ -3617,16 +3617,16 @@
         <v>18.8</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1872827371553371</v>
+        <v>76</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2419371945378345</v>
+        <v>21.618</v>
       </c>
       <c r="J74" t="n">
-        <v>0.7712297429254379</v>
+        <v>167.566</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3119808376661459</v>
+        <v>9199.476000000001</v>
       </c>
     </row>
     <row r="75">
@@ -3660,16 +3660,16 @@
         <v>19.6</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1625970232281548</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1711073226035024</v>
+        <v>19.116</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5357399857733124</v>
+        <v>137.792</v>
       </c>
       <c r="K75" t="n">
-        <v>0.1780470562012298</v>
+        <v>7475.204000000001</v>
       </c>
     </row>
     <row r="76">
@@ -3703,16 +3703,16 @@
         <v>18</v>
       </c>
       <c r="H76" t="n">
-        <v>0.03757248025025771</v>
+        <v>47</v>
       </c>
       <c r="I76" t="n">
-        <v>0.04165259016481453</v>
+        <v>12.594</v>
       </c>
       <c r="J76" t="n">
-        <v>0.762958623736978</v>
+        <v>166.256</v>
       </c>
       <c r="K76" t="n">
-        <v>0.0550492684987084</v>
+        <v>5255.456</v>
       </c>
     </row>
     <row r="77">
@@ -3746,16 +3746,16 @@
         <v>19.5</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2274196189736153</v>
+        <v>81.5</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2674456055005483</v>
+        <v>22.46</v>
       </c>
       <c r="J77" t="n">
-        <v>0.7889506338240354</v>
+        <v>170.49</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3242615927916151</v>
+        <v>9347.4125</v>
       </c>
     </row>
     <row r="78">
@@ -3789,16 +3789,16 @@
         <v>20</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1507940637221812</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1665247847349689</v>
+        <v>18.942</v>
       </c>
       <c r="J78" t="n">
-        <v>0.7859807940289697</v>
+        <v>169.988</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2029124052432757</v>
+        <v>7819.762</v>
       </c>
     </row>
     <row r="79">
@@ -3832,16 +3832,16 @@
         <v>19.5</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1344362259320287</v>
+        <v>68</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1726726207943023</v>
+        <v>19.175</v>
       </c>
       <c r="J79" t="n">
-        <v>0.7822232813782279</v>
+        <v>169.36</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2075063512078667</v>
+        <v>7881.687500000001</v>
       </c>
     </row>
     <row r="80">
@@ -3875,16 +3875,16 @@
         <v>19.5</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1943764935201569</v>
+        <v>77</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2397585568584083</v>
+        <v>21.545</v>
       </c>
       <c r="J80" t="n">
-        <v>0.7945322295196657</v>
+        <v>171.4475</v>
       </c>
       <c r="K80" t="n">
-        <v>0.296858014906258</v>
+        <v>9016.057499999999</v>
       </c>
     </row>
     <row r="81">
@@ -3918,16 +3918,16 @@
         <v>19.6</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1573046390645763</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1946370966272916</v>
+        <v>19.982</v>
       </c>
       <c r="J81" t="n">
-        <v>0.7760445617370491</v>
+        <v>168.344</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2403483223939448</v>
+        <v>8311.950000000001</v>
       </c>
     </row>
     <row r="82">
@@ -3961,16 +3961,16 @@
         <v>20.5</v>
       </c>
       <c r="H82" t="n">
-        <v>0.163263712609225</v>
+        <v>72.5</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1913218185706849</v>
+        <v>19.8625</v>
       </c>
       <c r="J82" t="n">
-        <v>0.6980988492755575</v>
+        <v>156.9225</v>
       </c>
       <c r="K82" t="n">
-        <v>0.2261344635131612</v>
+        <v>8128.184999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4004,16 +4004,16 @@
         <v>18</v>
       </c>
       <c r="H83" t="n">
-        <v>0.09745584840918012</v>
+        <v>61.5</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1131143035913437</v>
+        <v>16.73</v>
       </c>
       <c r="J83" t="n">
-        <v>0.6369062148455472</v>
+        <v>149.205</v>
       </c>
       <c r="K83" t="n">
-        <v>0.1506402337468946</v>
+        <v>7072.365</v>
       </c>
     </row>
     <row r="84">
@@ -4047,16 +4047,16 @@
         <v>19</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1054665633924674</v>
+        <v>63</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1119104569325693</v>
+        <v>16.675</v>
       </c>
       <c r="J84" t="n">
-        <v>0.6926511561579272</v>
+        <v>156.2</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1350048845178383</v>
+        <v>6828.215</v>
       </c>
     </row>
     <row r="85">
@@ -4090,16 +4090,16 @@
         <v>18.8</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07093676465779199</v>
+        <v>56</v>
       </c>
       <c r="I85" t="n">
-        <v>0.08509158209460463</v>
+        <v>15.36</v>
       </c>
       <c r="J85" t="n">
-        <v>0.7630736673970554</v>
+        <v>166.274</v>
       </c>
       <c r="K85" t="n">
-        <v>0.105930935078164</v>
+        <v>6335.522</v>
       </c>
     </row>
     <row r="86">
@@ -4133,16 +4133,16 @@
         <v>19.2</v>
       </c>
       <c r="H86" t="n">
-        <v>0.09589286610528221</v>
+        <v>61.2</v>
       </c>
       <c r="I86" t="n">
-        <v>0.08954332645535268</v>
+        <v>15.592</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7469372059787418</v>
+        <v>163.806</v>
       </c>
       <c r="K86" t="n">
-        <v>0.09809273934177699</v>
+        <v>6191.412</v>
       </c>
     </row>
     <row r="87">
@@ -4176,16 +4176,16 @@
         <v>20</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1236172985628444</v>
+        <v>66.2</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1425382778094386</v>
+        <v>17.996</v>
       </c>
       <c r="J87" t="n">
-        <v>0.7456512426928779</v>
+        <v>163.614</v>
       </c>
       <c r="K87" t="n">
-        <v>0.1657959879261267</v>
+        <v>7298.584</v>
       </c>
     </row>
     <row r="88">
@@ -4219,16 +4219,16 @@
         <v>19.2</v>
       </c>
       <c r="H88" t="n">
-        <v>0.09693339258114061</v>
+        <v>61.4</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1049287626682518</v>
+        <v>16.35</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7222355459308289</v>
+        <v>160.226</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1238066167371015</v>
+        <v>6645.216</v>
       </c>
     </row>
     <row r="89">
@@ -4262,16 +4262,16 @@
         <v>19.2</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1666140379124892</v>
+        <v>73</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2090145844680983</v>
+        <v>20.492</v>
       </c>
       <c r="J89" t="n">
-        <v>0.7989335656118204</v>
+        <v>172.216</v>
       </c>
       <c r="K89" t="n">
-        <v>0.2662524431071048</v>
+        <v>8639.155999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4305,16 +4305,16 @@
         <v>20</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1065590647042463</v>
+        <v>63.2</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1091983715475009</v>
+        <v>16.55</v>
       </c>
       <c r="J90" t="n">
-        <v>0.796743050363925</v>
+        <v>171.832</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1286868441086218</v>
+        <v>6725.892</v>
       </c>
     </row>
     <row r="91">
@@ -4348,16 +4348,16 @@
         <v>20.4</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1319953670515352</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1361874284253265</v>
+        <v>17.734</v>
       </c>
       <c r="J91" t="n">
-        <v>0.6401935813432382</v>
+        <v>149.6</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1442327098003932</v>
+        <v>6973.762000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4391,16 +4391,16 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6340616267488581</v>
+        <v>133.6666666666667</v>
       </c>
       <c r="I92" t="n">
-        <v>0.6952250433856548</v>
+        <v>36.95666666666666</v>
       </c>
       <c r="J92" t="n">
-        <v>0.6155223337972915</v>
+        <v>146.68</v>
       </c>
       <c r="K92" t="n">
-        <v>0.769951504610157</v>
+        <v>15526.60666666667</v>
       </c>
     </row>
     <row r="93">
@@ -4434,16 +4434,16 @@
         <v>20</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8350461163840883</v>
+        <v>172.2</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8792095066084015</v>
+        <v>47.748</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4956823337501059</v>
+        <v>133.548</v>
       </c>
       <c r="K93" t="n">
-        <v>0.888580197176256</v>
+        <v>18619.364</v>
       </c>
     </row>
     <row r="94">
@@ -4477,16 +4477,16 @@
         <v>20</v>
       </c>
       <c r="H94" t="n">
-        <v>0.7261317308376545</v>
+        <v>148.6666666666667</v>
       </c>
       <c r="I94" t="n">
-        <v>0.6569110147055423</v>
+        <v>35.38</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3362127412195844</v>
+        <v>117.07</v>
       </c>
       <c r="K94" t="n">
-        <v>0.6370775208789575</v>
+        <v>13289.28666666667</v>
       </c>
     </row>
     <row r="95">
@@ -4520,16 +4520,16 @@
         <v>21</v>
       </c>
       <c r="H95" t="n">
-        <v>0.7779946255171653</v>
+        <v>158.75</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7798113976100631</v>
+        <v>41.005</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1487977778407834</v>
+        <v>94.9975</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7937654814302977</v>
+        <v>16021.9425</v>
       </c>
     </row>
     <row r="96">
@@ -4563,16 +4563,16 @@
         <v>13.6</v>
       </c>
       <c r="H96" t="n">
-        <v>0.6534452111700517</v>
+        <v>136.6</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7243251851215192</v>
+        <v>38.246</v>
       </c>
       <c r="J96" t="n">
-        <v>0.6420175666907146</v>
+        <v>149.82</v>
       </c>
       <c r="K96" t="n">
-        <v>0.811232411790377</v>
+        <v>16414.192</v>
       </c>
     </row>
     <row r="97">
@@ -4606,16 +4606,16 @@
         <v>17.2</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5628369926035159</v>
+        <v>123.6</v>
       </c>
       <c r="I97" t="n">
-        <v>0.649389746721778</v>
+        <v>35.084</v>
       </c>
       <c r="J97" t="n">
-        <v>0.833970636057845</v>
+        <v>178.83</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7504466231016347</v>
+        <v>15148.98</v>
       </c>
     </row>
     <row r="98">
@@ -4649,16 +4649,16 @@
         <v>18.66666666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5731517078515</v>
+        <v>125</v>
       </c>
       <c r="I98" t="n">
-        <v>0.6996403928541233</v>
+        <v>37.14666666666667</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9320700543239505</v>
+        <v>206.5333333333333</v>
       </c>
       <c r="K98" t="n">
-        <v>0.8086323746415438</v>
+        <v>16354.04666666667</v>
       </c>
     </row>
     <row r="99">
@@ -4692,16 +4692,16 @@
         <v>19.6</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6934325537637376</v>
+        <v>143</v>
       </c>
       <c r="I99" t="n">
-        <v>0.7743153503379122</v>
+        <v>40.71</v>
       </c>
       <c r="J99" t="n">
-        <v>0.7164067758890929</v>
+        <v>159.412</v>
       </c>
       <c r="K99" t="n">
-        <v>0.8098916596807469</v>
+        <v>16383.096</v>
       </c>
     </row>
     <row r="100">
@@ -4735,16 +4735,16 @@
         <v>21.6</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2372712891177208</v>
+        <v>82.8</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1955284150247867</v>
+        <v>20.014</v>
       </c>
       <c r="J100" t="n">
-        <v>0.4397394172707403</v>
+        <v>127.752</v>
       </c>
       <c r="K100" t="n">
-        <v>0.1981257522661977</v>
+        <v>7754.707999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4778,16 +4778,16 @@
         <v>18.8</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5311824893255236</v>
+        <v>119.4</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6045393436708033</v>
+        <v>33.394</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3629880141577875</v>
+        <v>119.858</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6994484637263962</v>
+        <v>14253.696</v>
       </c>
     </row>
     <row r="102">
@@ -4821,16 +4821,16 @@
         <v>17.5</v>
       </c>
       <c r="H102" t="n">
-        <v>0.4246189936755788</v>
+        <v>106</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4649869158287711</v>
+        <v>28.685</v>
       </c>
       <c r="J102" t="n">
-        <v>0.6087480680525631</v>
+        <v>145.895</v>
       </c>
       <c r="K102" t="n">
-        <v>0.4773021470616648</v>
+        <v>11180.915</v>
       </c>
     </row>
     <row r="103">
@@ -4864,16 +4864,16 @@
         <v>25</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1666140379124892</v>
+        <v>73</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2157003382687424</v>
+        <v>20.725</v>
       </c>
       <c r="J103" t="n">
-        <v>0.835270338341106</v>
+        <v>179.095</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2888109045014246</v>
+        <v>8917.779999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4907,16 +4907,16 @@
         <v>17.6</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3261384591909354</v>
+        <v>94</v>
       </c>
       <c r="I104" t="n">
-        <v>0.3464237815350795</v>
+        <v>24.97</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5066705043318326</v>
+        <v>134.702</v>
       </c>
       <c r="K104" t="n">
-        <v>0.4157518138128441</v>
+        <v>10438.068</v>
       </c>
     </row>
     <row r="105">
@@ -4950,16 +4950,16 @@
         <v>20.8</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6675516405268864</v>
+        <v>138.8</v>
       </c>
       <c r="I105" t="n">
-        <v>0.6791457790473029</v>
+        <v>36.28</v>
       </c>
       <c r="J105" t="n">
-        <v>0.6960361633264649</v>
+        <v>156.648</v>
       </c>
       <c r="K105" t="n">
-        <v>0.6871906076918529</v>
+        <v>14054.51</v>
       </c>
     </row>
     <row r="106">
@@ -4993,16 +4993,16 @@
         <v>18.5</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5894635204074987</v>
+        <v>127.25</v>
       </c>
       <c r="I106" t="n">
-        <v>0.665299429774179</v>
+        <v>35.715</v>
       </c>
       <c r="J106" t="n">
-        <v>0.7634792054038123</v>
+        <v>166.3375</v>
       </c>
       <c r="K106" t="n">
-        <v>0.7139739170907555</v>
+        <v>14497.0275</v>
       </c>
     </row>
     <row r="107">
@@ -5036,16 +5036,16 @@
         <v>19</v>
       </c>
       <c r="H107" t="n">
-        <v>0.7081746786844486</v>
+        <v>145.5</v>
       </c>
       <c r="I107" t="n">
-        <v>0.7729015889256843</v>
+        <v>40.635</v>
       </c>
       <c r="J107" t="n">
-        <v>0.6421417473474911</v>
+        <v>149.835</v>
       </c>
       <c r="K107" t="n">
-        <v>0.8137684119541544</v>
+        <v>16473.49</v>
       </c>
     </row>
     <row r="108">
@@ -5079,16 +5079,16 @@
         <v>17.5</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2698731351438171</v>
+        <v>87</v>
       </c>
       <c r="I108" t="n">
-        <v>0.3309361431246095</v>
+        <v>24.485</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9332444410563798</v>
+        <v>207.035</v>
       </c>
       <c r="K108" t="n">
-        <v>0.3973744992810639</v>
+        <v>10219.04</v>
       </c>
     </row>
     <row r="109">
@@ -5122,16 +5122,16 @@
         <v>19.2</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4875142523236361</v>
+        <v>113.8</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4608727345921317</v>
+        <v>28.55399999999999</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5674261840138974</v>
+        <v>141.238</v>
       </c>
       <c r="K109" t="n">
-        <v>0.485642499672013</v>
+        <v>11283.304</v>
       </c>
     </row>
     <row r="110">
@@ -5165,16 +5165,16 @@
         <v>26</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3650754788522133</v>
+        <v>98.75</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4120064914263776</v>
+        <v>27.015</v>
       </c>
       <c r="J110" t="n">
-        <v>0.6718869709089839</v>
+        <v>153.515</v>
       </c>
       <c r="K110" t="n">
-        <v>0.4423173232865106</v>
+        <v>10756.425</v>
       </c>
     </row>
     <row r="111">
@@ -5208,16 +5208,16 @@
         <v>19.2</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2433941743930961</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I111" t="n">
-        <v>0.258646275715645</v>
+        <v>22.172</v>
       </c>
       <c r="J111" t="n">
-        <v>0.8129007284810366</v>
+        <v>174.74</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3007634102345237</v>
+        <v>9063.574000000001</v>
       </c>
     </row>
     <row r="112">
@@ -5251,16 +5251,16 @@
         <v>17.2</v>
       </c>
       <c r="H112" t="n">
-        <v>0.06408805988581329</v>
+        <v>54.4</v>
       </c>
       <c r="I112" t="n">
-        <v>0.08054206641522081</v>
+        <v>15.116</v>
       </c>
       <c r="J112" t="n">
-        <v>0.862718662964488</v>
+        <v>185.114</v>
       </c>
       <c r="K112" t="n">
-        <v>0.1403464800812143</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="113">
@@ -5294,16 +5294,16 @@
         <v>20</v>
       </c>
       <c r="H113" t="n">
-        <v>0.4368512211368263</v>
+        <v>107.5</v>
       </c>
       <c r="I113" t="n">
-        <v>0.4644378178471005</v>
+        <v>28.6675</v>
       </c>
       <c r="J113" t="n">
-        <v>0.434490600502948</v>
+        <v>127.2125</v>
       </c>
       <c r="K113" t="n">
-        <v>0.501875035952575</v>
+        <v>11484.1975</v>
       </c>
     </row>
     <row r="114">
@@ -5337,16 +5337,16 @@
         <v>18.8</v>
       </c>
       <c r="H114" t="n">
-        <v>0.301798741522164</v>
+        <v>91</v>
       </c>
       <c r="I114" t="n">
-        <v>0.3354317458400112</v>
+        <v>24.626</v>
       </c>
       <c r="J114" t="n">
-        <v>0.5676256557337179</v>
+        <v>141.26</v>
       </c>
       <c r="K114" t="n">
-        <v>0.4084186398595182</v>
+        <v>10350.584</v>
       </c>
     </row>
     <row r="115">
@@ -5380,16 +5380,16 @@
         <v>20.8</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3326699946399521</v>
+        <v>94.8</v>
       </c>
       <c r="I115" t="n">
-        <v>0.362188670063007</v>
+        <v>25.462</v>
       </c>
       <c r="J115" t="n">
-        <v>0.5895936745601307</v>
+        <v>143.71</v>
       </c>
       <c r="K115" t="n">
-        <v>0.4181226786051903</v>
+        <v>10466.382</v>
       </c>
     </row>
     <row r="116">
@@ -5423,16 +5423,16 @@
         <v>19.2</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3654867175723286</v>
+        <v>98.8</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3849156078184471</v>
+        <v>26.17</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4727033185995159</v>
+        <v>131.154</v>
       </c>
       <c r="K116" t="n">
-        <v>0.4433588093641807</v>
+        <v>10768.964</v>
       </c>
     </row>
     <row r="117">
@@ -5466,16 +5466,16 @@
         <v>18.8</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3179958444585787</v>
+        <v>93</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3441206164486502</v>
+        <v>24.898</v>
       </c>
       <c r="J117" t="n">
-        <v>0.5862014800600112</v>
+        <v>143.328</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4030791756091339</v>
+        <v>10286.96</v>
       </c>
     </row>
     <row r="118">
@@ -5509,16 +5509,16 @@
         <v>18</v>
       </c>
       <c r="H118" t="n">
-        <v>0.2433941743930961</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2772419183396829</v>
+        <v>22.778</v>
       </c>
       <c r="J118" t="n">
-        <v>0.6183525989498078</v>
+        <v>147.01</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3548351572221429</v>
+        <v>9712.994000000001</v>
       </c>
     </row>
     <row r="119">
@@ -5552,16 +5552,16 @@
         <v>16</v>
       </c>
       <c r="H119" t="n">
-        <v>0.1929499785198192</v>
+        <v>76.8</v>
       </c>
       <c r="I119" t="n">
-        <v>0.217462237675948</v>
+        <v>20.786</v>
       </c>
       <c r="J119" t="n">
-        <v>0.5017461503176381</v>
+        <v>134.184</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3041194559756087</v>
+        <v>9104.32</v>
       </c>
     </row>
     <row r="120">
@@ -5595,16 +5595,16 @@
         <v>18.8</v>
       </c>
       <c r="H120" t="n">
-        <v>0.1546862483097397</v>
+        <v>71.2</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1850965337322457</v>
+        <v>19.636</v>
       </c>
       <c r="J120" t="n">
-        <v>0.7537735787499402</v>
+        <v>164.838</v>
       </c>
       <c r="K120" t="n">
-        <v>0.2891119444656143</v>
+        <v>8921.466</v>
       </c>
     </row>
     <row r="121">
@@ -5638,16 +5638,16 @@
         <v>18</v>
       </c>
       <c r="H121" t="n">
-        <v>0.2143639758527157</v>
+        <v>79.75</v>
       </c>
       <c r="I121" t="n">
-        <v>0.2307187448970876</v>
+        <v>21.24</v>
       </c>
       <c r="J121" t="n">
-        <v>0.6416448851554649</v>
+        <v>149.775</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3042239555641288</v>
+        <v>9105.587500000001</v>
       </c>
     </row>
     <row r="122">
@@ -5681,16 +5681,16 @@
         <v>18.4</v>
       </c>
       <c r="H122" t="n">
-        <v>0.1469450414260873</v>
+        <v>70</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1765437560353054</v>
+        <v>19.32</v>
       </c>
       <c r="J122" t="n">
-        <v>0.9657691989185208</v>
+        <v>225.452</v>
       </c>
       <c r="K122" t="n">
-        <v>0.2854954912361262</v>
+        <v>8877.134</v>
       </c>
     </row>
     <row r="123">
@@ -5724,16 +5724,16 @@
         <v>18</v>
       </c>
       <c r="H123" t="n">
-        <v>0.1143646188146924</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1316651352993878</v>
+        <v>17.544</v>
       </c>
       <c r="J123" t="n">
-        <v>0.9142480950789839</v>
+        <v>199.71</v>
       </c>
       <c r="K123" t="n">
-        <v>0.1838178538019116</v>
+        <v>7556.714</v>
       </c>
     </row>
     <row r="124">
@@ -5767,16 +5767,16 @@
         <v>18.5</v>
       </c>
       <c r="H124" t="n">
-        <v>0.1820274714975859</v>
+        <v>75.25</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1748709696232939</v>
+        <v>19.2575</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4483447748387395</v>
+        <v>128.6375</v>
       </c>
       <c r="K124" t="n">
-        <v>0.2146352115770812</v>
+        <v>7976.855</v>
       </c>
     </row>
     <row r="125">
@@ -5810,16 +5810,16 @@
         <v>18.66666666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>0.2439064001256452</v>
+        <v>83.66666666666667</v>
       </c>
       <c r="I125" t="n">
-        <v>0.2444909987279099</v>
+        <v>21.70333333333333</v>
       </c>
       <c r="J125" t="n">
-        <v>0.647021344664888</v>
+        <v>150.4266666666667</v>
       </c>
       <c r="K125" t="n">
-        <v>0.2905600774282494</v>
+        <v>8939.186666666666</v>
       </c>
     </row>
     <row r="126">
@@ -5853,16 +5853,16 @@
         <v>18.66666666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1533841046626789</v>
+        <v>71</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1635155402219534</v>
+        <v>18.82666666666667</v>
       </c>
       <c r="J126" t="n">
-        <v>0.7030536651303636</v>
+        <v>157.5866666666667</v>
       </c>
       <c r="K126" t="n">
-        <v>0.207106742522164</v>
+        <v>7876.32</v>
       </c>
     </row>
     <row r="127">
@@ -5896,16 +5896,16 @@
         <v>19.6</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2015656694248187</v>
+        <v>78</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2496812041098158</v>
+        <v>21.876</v>
       </c>
       <c r="J127" t="n">
-        <v>0.7745176294948117</v>
+        <v>168.096</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3649872476469458</v>
+        <v>9833.856000000002</v>
       </c>
     </row>
     <row r="128">
@@ -5939,16 +5939,16 @@
         <v>24.4</v>
       </c>
       <c r="H128" t="n">
-        <v>0.9814379287203742</v>
+        <v>256</v>
       </c>
       <c r="I128" t="n">
-        <v>0.977472426823545</v>
+        <v>64.006</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07874291046930156</v>
+        <v>83.208</v>
       </c>
       <c r="K128" t="n">
-        <v>0.9325621910137867</v>
+        <v>20564.348</v>
       </c>
     </row>
     <row r="129">
@@ -5982,16 +5982,16 @@
         <v>20</v>
       </c>
       <c r="H129" t="n">
-        <v>0.952552268087266</v>
+        <v>222.25</v>
       </c>
       <c r="I129" t="n">
-        <v>0.906499889025571</v>
+        <v>50.425</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03548946733776535</v>
+        <v>71.92749999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>0.7970818081596831</v>
+        <v>16094.365</v>
       </c>
     </row>
     <row r="130">
@@ -6025,16 +6025,16 @@
         <v>19</v>
       </c>
       <c r="H130" t="n">
-        <v>0.8176404527896312</v>
+        <v>167.75</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6613095047441619</v>
+        <v>35.555</v>
       </c>
       <c r="J130" t="n">
-        <v>0.014987852315667</v>
+        <v>62.44</v>
       </c>
       <c r="K130" t="n">
-        <v>0.5549090999479988</v>
+        <v>12159.3425</v>
       </c>
     </row>
     <row r="131">
@@ -6068,16 +6068,16 @@
         <v>20</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9641604272900055</v>
+        <v>232.6</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9440841313307157</v>
+        <v>55.54600000000001</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05586591965753367</v>
+        <v>77.976</v>
       </c>
       <c r="K131" t="n">
-        <v>0.8644949139156943</v>
+        <v>17823.932</v>
       </c>
     </row>
     <row r="132">
@@ -6111,16 +6111,16 @@
         <v>20</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9640619787995781</v>
+        <v>232.5</v>
       </c>
       <c r="I132" t="n">
-        <v>0.8635498340122061</v>
+        <v>46.4375</v>
       </c>
       <c r="J132" t="n">
-        <v>0.003364249303148309</v>
+        <v>50.0925</v>
       </c>
       <c r="K132" t="n">
-        <v>0.6469003207090003</v>
+        <v>13433.7775</v>
       </c>
     </row>
     <row r="133">
@@ -6154,16 +6154,16 @@
         <v>25.5</v>
       </c>
       <c r="H133" t="n">
-        <v>0.9713985531171961</v>
+        <v>240.75</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9586768301677406</v>
+        <v>58.4325</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05509622175169789</v>
+        <v>77.7775</v>
       </c>
       <c r="K133" t="n">
-        <v>0.8681202863856283</v>
+        <v>17935.625</v>
       </c>
     </row>
     <row r="134">
@@ -6197,16 +6197,16 @@
         <v>20</v>
       </c>
       <c r="H134" t="n">
-        <v>0.9076363987288203</v>
+        <v>196.5</v>
       </c>
       <c r="I134" t="n">
-        <v>0.8275804840533602</v>
+        <v>43.845</v>
       </c>
       <c r="J134" t="n">
-        <v>0.009416077143939418</v>
+        <v>58.14</v>
       </c>
       <c r="K134" t="n">
-        <v>0.675671467626846</v>
+        <v>13872.015</v>
       </c>
     </row>
     <row r="135">
@@ -6240,16 +6240,16 @@
         <v>24.4</v>
       </c>
       <c r="H135" t="n">
-        <v>0.9635660013932932</v>
+        <v>232</v>
       </c>
       <c r="I135" t="n">
-        <v>0.942965503087061</v>
+        <v>55.354</v>
       </c>
       <c r="J135" t="n">
-        <v>0.05252215069323007</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>0.8370743951971968</v>
+        <v>17051.03</v>
       </c>
     </row>
     <row r="136">
@@ -6283,16 +6283,16 @@
         <v>20.8</v>
       </c>
       <c r="H136" t="n">
-        <v>0.939393308632868</v>
+        <v>213</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8793682305634783</v>
+        <v>47.762</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02500636620725213</v>
+        <v>67.8</v>
       </c>
       <c r="K136" t="n">
-        <v>0.7454352190771221</v>
+        <v>15055.496</v>
       </c>
     </row>
     <row r="137">
@@ -6326,16 +6326,16 @@
         <v>24.8</v>
       </c>
       <c r="H137" t="n">
-        <v>0.9415754281770029</v>
+        <v>214.4</v>
       </c>
       <c r="I137" t="n">
-        <v>0.8981156764767213</v>
+        <v>49.538</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02486388287351534</v>
+        <v>67.736</v>
       </c>
       <c r="K137" t="n">
-        <v>0.7759231068147314</v>
+        <v>15647.004</v>
       </c>
     </row>
     <row r="138">
@@ -6369,16 +6369,16 @@
         <v>20</v>
       </c>
       <c r="H138" t="n">
-        <v>0.9361492346482496</v>
+        <v>211</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8777214417711771</v>
+        <v>47.6175</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02648698898583045</v>
+        <v>68.45</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7558866276026458</v>
+        <v>15252.0325</v>
       </c>
     </row>
     <row r="139">
@@ -6412,16 +6412,16 @@
         <v>21.6</v>
       </c>
       <c r="H139" t="n">
-        <v>0.9247016869372253</v>
+        <v>204.6</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8688718399727595</v>
+        <v>46.86799999999999</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02829191016139358</v>
+        <v>69.208</v>
       </c>
       <c r="K139" t="n">
-        <v>0.7303384488088587</v>
+        <v>14781.716</v>
       </c>
     </row>
     <row r="140">
@@ -6455,16 +6455,16 @@
         <v>20.5</v>
       </c>
       <c r="H140" t="n">
-        <v>0.9230519046829906</v>
+        <v>203.75</v>
       </c>
       <c r="I140" t="n">
-        <v>0.8546113778426144</v>
+        <v>45.745</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02485610775283572</v>
+        <v>67.7325</v>
       </c>
       <c r="K140" t="n">
-        <v>0.7337821914357814</v>
+        <v>14843.1775</v>
       </c>
     </row>
     <row r="141">
@@ -6498,16 +6498,16 @@
         <v>20</v>
       </c>
       <c r="H141" t="n">
-        <v>0.940024113313925</v>
+        <v>213.4</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8983116525159305</v>
+        <v>49.558</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03527963386721719</v>
+        <v>71.854</v>
       </c>
       <c r="K141" t="n">
-        <v>0.8057848253285101</v>
+        <v>16288.91</v>
       </c>
     </row>
     <row r="142">
@@ -6541,16 +6541,16 @@
         <v>20.5</v>
       </c>
       <c r="H142" t="n">
-        <v>0.9185298375002602</v>
+        <v>201.5</v>
       </c>
       <c r="I142" t="n">
-        <v>0.8578277051176524</v>
+        <v>45.98999999999999</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02388718066193169</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>0.7357149786585304</v>
+        <v>14877.9225</v>
       </c>
     </row>
     <row r="143">
@@ -6584,16 +6584,16 @@
         <v>24.4</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9544847041458973</v>
+        <v>223.8</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9282655279489099</v>
+        <v>53.102</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03085179127783117</v>
+        <v>70.226</v>
       </c>
       <c r="K143" t="n">
-        <v>0.8159583819634136</v>
+        <v>16525.214</v>
       </c>
     </row>
     <row r="144">
@@ -6627,16 +6627,16 @@
         <v>20</v>
       </c>
       <c r="H144" t="n">
-        <v>0.9369744949404806</v>
+        <v>211.5</v>
       </c>
       <c r="I144" t="n">
-        <v>0.8768015688348287</v>
+        <v>47.5375</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01903431204115575</v>
+        <v>64.85249999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>0.751389787708003</v>
+        <v>15166.7275</v>
       </c>
     </row>
     <row r="145">
@@ -6670,16 +6670,16 @@
         <v>24.8</v>
       </c>
       <c r="H145" t="n">
-        <v>0.9552133283713821</v>
+        <v>224.4</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9281355738136968</v>
+        <v>53.084</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02916921462592513</v>
+        <v>69.56399999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>0.8220657383399197</v>
+        <v>16672.094</v>
       </c>
     </row>
     <row r="146">
@@ -6713,16 +6713,16 @@
         <v>17.6</v>
       </c>
       <c r="H146" t="n">
-        <v>0.4571116313378735</v>
+        <v>110</v>
       </c>
       <c r="I146" t="n">
-        <v>0.3734858155451138</v>
+        <v>25.814</v>
       </c>
       <c r="J146" t="n">
-        <v>0.3539444713100636</v>
+        <v>118.92</v>
       </c>
       <c r="K146" t="n">
-        <v>0.2913480720148119</v>
+        <v>8948.822</v>
       </c>
     </row>
     <row r="147">
@@ -6756,16 +6756,16 @@
         <v>15.6</v>
       </c>
       <c r="H147" t="n">
-        <v>0.5775340095924774</v>
+        <v>125.6</v>
       </c>
       <c r="I147" t="n">
-        <v>0.5229709404962885</v>
+        <v>30.568</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2307297691471887</v>
+        <v>105.49</v>
       </c>
       <c r="K147" t="n">
-        <v>0.4992033939735307</v>
+        <v>11450.976</v>
       </c>
     </row>
     <row r="148">
@@ -6799,16 +6799,16 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H148" t="n">
-        <v>0.1688630542620363</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1484866391964617</v>
+        <v>18.23666666666667</v>
       </c>
       <c r="J148" t="n">
-        <v>0.4772575765713128</v>
+        <v>131.6266666666667</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1627286245662859</v>
+        <v>7253.533333333333</v>
       </c>
     </row>
     <row r="149">
@@ -6842,16 +6842,16 @@
         <v>12.8</v>
       </c>
       <c r="H149" t="n">
-        <v>0.3770050804937865</v>
+        <v>100.2</v>
       </c>
       <c r="I149" t="n">
-        <v>0.3388154350323166</v>
+        <v>24.732</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3250472075106172</v>
+        <v>115.896</v>
       </c>
       <c r="K149" t="n">
-        <v>0.3895617490891244</v>
+        <v>10126.09</v>
       </c>
     </row>
     <row r="150">
@@ -6885,16 +6885,16 @@
         <v>14.5</v>
       </c>
       <c r="H150" t="n">
-        <v>0.3548001867348955</v>
+        <v>97.5</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3432252729914671</v>
+        <v>24.87</v>
       </c>
       <c r="J150" t="n">
-        <v>0.3808263207876166</v>
+        <v>121.7</v>
       </c>
       <c r="K150" t="n">
-        <v>0.3554805371978573</v>
+        <v>9720.682499999999</v>
       </c>
     </row>
     <row r="151">
@@ -6928,16 +6928,16 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>0.2162138375514038</v>
+        <v>80</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1638622657056056</v>
+        <v>18.84</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1756716207804241</v>
+        <v>98.67999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1445295977620768</v>
+        <v>6978.373333333333</v>
       </c>
     </row>
     <row r="152">
@@ -6971,16 +6971,16 @@
         <v>13.6</v>
       </c>
       <c r="H152" t="n">
-        <v>0.3245078905782107</v>
+        <v>93.8</v>
       </c>
       <c r="I152" t="n">
-        <v>0.2669548772209931</v>
+        <v>22.444</v>
       </c>
       <c r="J152" t="n">
-        <v>0.4346414523058091</v>
+        <v>127.228</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2902912199591027</v>
+        <v>8935.897999999999</v>
       </c>
     </row>
     <row r="153">
@@ -7014,16 +7014,16 @@
         <v>18</v>
       </c>
       <c r="H153" t="n">
-        <v>0.3383960538268315</v>
+        <v>95.5</v>
       </c>
       <c r="I153" t="n">
-        <v>0.2997552422984035</v>
+        <v>23.5</v>
       </c>
       <c r="J153" t="n">
-        <v>0.6040545587781414</v>
+        <v>145.355</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3105979429152562</v>
+        <v>9182.765000000001</v>
       </c>
     </row>
     <row r="154">
@@ -7057,16 +7057,16 @@
         <v>13.6</v>
       </c>
       <c r="H154" t="n">
-        <v>0.4213491537537083</v>
+        <v>105.6</v>
       </c>
       <c r="I154" t="n">
-        <v>0.331987728758822</v>
+        <v>24.518</v>
       </c>
       <c r="J154" t="n">
-        <v>0.3862655568171943</v>
+        <v>122.26</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2844007774762903</v>
+        <v>8863.691999999999</v>
       </c>
     </row>
     <row r="155">
@@ -7100,16 +7100,16 @@
         <v>11.2</v>
       </c>
       <c r="H155" t="n">
-        <v>0.4115228089242008</v>
+        <v>104.4</v>
       </c>
       <c r="I155" t="n">
-        <v>0.3312866312692699</v>
+        <v>24.496</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3084048414195345</v>
+        <v>114.13</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3650080916726562</v>
+        <v>9834.103999999999</v>
       </c>
     </row>
     <row r="156">
@@ -7143,16 +7143,16 @@
         <v>20.5</v>
       </c>
       <c r="H156" t="n">
-        <v>0.5223418852680017</v>
+        <v>118.25</v>
       </c>
       <c r="I156" t="n">
-        <v>0.5042818941246507</v>
+        <v>29.9525</v>
       </c>
       <c r="J156" t="n">
-        <v>0.7504408999442009</v>
+        <v>164.3325</v>
       </c>
       <c r="K156" t="n">
-        <v>0.4887128331626373</v>
+        <v>11321.1325</v>
       </c>
     </row>
     <row r="157">
@@ -7186,16 +7186,16 @@
         <v>13.5</v>
       </c>
       <c r="H157" t="n">
-        <v>0.4082424484202461</v>
+        <v>104</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3089667391026256</v>
+        <v>23.7925</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2264544195631248</v>
+        <v>104.9875</v>
       </c>
       <c r="K157" t="n">
-        <v>0.2019832581450307</v>
+        <v>7807.1775</v>
       </c>
     </row>
     <row r="158">
@@ -7229,16 +7229,16 @@
         <v>15.2</v>
       </c>
       <c r="H158" t="n">
-        <v>0.2873443912158815</v>
+        <v>89.2</v>
       </c>
       <c r="I158" t="n">
-        <v>0.2149219914078448</v>
+        <v>20.698</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1955405330486713</v>
+        <v>101.232</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1607201819178161</v>
+        <v>7223.842</v>
       </c>
     </row>
     <row r="159">
@@ -7272,16 +7272,16 @@
         <v>12.8</v>
       </c>
       <c r="H159" t="n">
-        <v>0.293752489722349</v>
+        <v>90</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2320754790915712</v>
+        <v>21.286</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2963638314364692</v>
+        <v>112.838</v>
       </c>
       <c r="K159" t="n">
-        <v>0.2345507228996715</v>
+        <v>8237.402</v>
       </c>
     </row>
     <row r="160">
@@ -7315,16 +7315,16 @@
         <v>10.8</v>
       </c>
       <c r="H160" t="n">
-        <v>0.3066441566045398</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>0.2743995416521688</v>
+        <v>22.686</v>
       </c>
       <c r="J160" t="n">
-        <v>0.399866233407098</v>
+        <v>123.658</v>
       </c>
       <c r="K160" t="n">
-        <v>0.3317464864971441</v>
+        <v>9437.218000000001</v>
       </c>
     </row>
     <row r="161">
@@ -7358,16 +7358,16 @@
         <v>17</v>
       </c>
       <c r="H161" t="n">
-        <v>0.2581055856618727</v>
+        <v>85.5</v>
       </c>
       <c r="I161" t="n">
-        <v>0.2386416011350629</v>
+        <v>21.5075</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4263604782331408</v>
+        <v>126.3775</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2173289801635648</v>
+        <v>8012.5375</v>
       </c>
     </row>
     <row r="162">
@@ -7401,16 +7401,16 @@
         <v>15.2</v>
       </c>
       <c r="H162" t="n">
-        <v>0.4667690498563389</v>
+        <v>111.2</v>
       </c>
       <c r="I162" t="n">
-        <v>0.3838240797952465</v>
+        <v>26.136</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1334446570062118</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>0.3080067926132007</v>
+        <v>9151.422</v>
       </c>
     </row>
     <row r="163">
@@ -7444,16 +7444,16 @@
         <v>12.4</v>
       </c>
       <c r="H163" t="n">
-        <v>0.4522655005006556</v>
+        <v>109.4</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2568831213652656</v>
+        <v>22.114</v>
       </c>
       <c r="J163" t="n">
-        <v>0.06271522623637572</v>
+        <v>79.66800000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1200954396083256</v>
+        <v>6582.836</v>
       </c>
     </row>
     <row r="164">
@@ -7487,16 +7487,16 @@
         <v>30</v>
       </c>
       <c r="H164" t="n">
-        <v>0.6812815157208061</v>
+        <v>141</v>
       </c>
       <c r="I164" t="n">
-        <v>0.8115892212534012</v>
+        <v>42.832</v>
       </c>
       <c r="J164" t="n">
-        <v>0.6604610389256186</v>
+        <v>152.08</v>
       </c>
       <c r="K164" t="n">
-        <v>0.8386347433583329</v>
+        <v>17092.026</v>
       </c>
     </row>
     <row r="165">
@@ -7530,16 +7530,16 @@
         <v>24.8</v>
       </c>
       <c r="H165" t="n">
-        <v>0.6886101200470434</v>
+        <v>142.2</v>
       </c>
       <c r="I165" t="n">
-        <v>0.7766007951425437</v>
+        <v>40.83199999999999</v>
       </c>
       <c r="J165" t="n">
-        <v>0.5493603363688815</v>
+        <v>139.262</v>
       </c>
       <c r="K165" t="n">
-        <v>0.8097232356410935</v>
+        <v>16379.202</v>
       </c>
     </row>
     <row r="166">
@@ -7573,16 +7573,16 @@
         <v>23.6</v>
       </c>
       <c r="H166" t="n">
-        <v>0.2117830080748678</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>0.2190838446789362</v>
+        <v>20.842</v>
       </c>
       <c r="J166" t="n">
-        <v>0.6266783759939546</v>
+        <v>147.988</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2880614351732964</v>
+        <v>8908.6</v>
       </c>
     </row>
     <row r="167">
@@ -7616,16 +7616,16 @@
         <v>17.2</v>
       </c>
       <c r="H167" t="n">
-        <v>0.6158845171277626</v>
+        <v>131</v>
       </c>
       <c r="I167" t="n">
-        <v>0.7256734559163744</v>
+        <v>38.308</v>
       </c>
       <c r="J167" t="n">
-        <v>0.5870907022316547</v>
+        <v>143.428</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7974894282792401</v>
+        <v>16103.33</v>
       </c>
     </row>
     <row r="168">
@@ -7659,16 +7659,16 @@
         <v>24.4</v>
       </c>
       <c r="H168" t="n">
-        <v>0.6534452111700517</v>
+        <v>136.6</v>
       </c>
       <c r="I168" t="n">
-        <v>0.7556713635148132</v>
+        <v>39.748</v>
       </c>
       <c r="J168" t="n">
-        <v>0.6616819364613682</v>
+        <v>152.232</v>
       </c>
       <c r="K168" t="n">
-        <v>0.8010280751817902</v>
+        <v>16181.754</v>
       </c>
     </row>
     <row r="169">
@@ -7702,16 +7702,16 @@
         <v>25.5</v>
       </c>
       <c r="H169" t="n">
-        <v>0.5261942697206642</v>
+        <v>118.75</v>
       </c>
       <c r="I169" t="n">
-        <v>0.6300389240188712</v>
+        <v>34.34</v>
       </c>
       <c r="J169" t="n">
-        <v>0.6272453105487301</v>
+        <v>148.055</v>
       </c>
       <c r="K169" t="n">
-        <v>0.6947968146179726</v>
+        <v>14177.475</v>
       </c>
     </row>
     <row r="170">
@@ -7745,16 +7745,16 @@
         <v>24.8</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6534452111700517</v>
+        <v>136.6</v>
       </c>
       <c r="I170" t="n">
-        <v>0.76708323655069</v>
+        <v>40.33</v>
       </c>
       <c r="J170" t="n">
-        <v>0.7915990475501948</v>
+        <v>170.942</v>
       </c>
       <c r="K170" t="n">
-        <v>0.8274673986330746</v>
+        <v>16805.4</v>
       </c>
     </row>
     <row r="171">
@@ -7788,16 +7788,16 @@
         <v>20</v>
       </c>
       <c r="H171" t="n">
-        <v>0.5891046865753431</v>
+        <v>127.2</v>
       </c>
       <c r="I171" t="n">
-        <v>0.6564565608032382</v>
+        <v>35.362</v>
       </c>
       <c r="J171" t="n">
-        <v>0.5745469883309816</v>
+        <v>142.026</v>
       </c>
       <c r="K171" t="n">
-        <v>0.7277856433910777</v>
+        <v>14736.516</v>
       </c>
     </row>
     <row r="172">
@@ -7831,16 +7831,16 @@
         <v>20</v>
       </c>
       <c r="H172" t="n">
-        <v>0.4751780714773708</v>
+        <v>112.25</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5649579633853723</v>
+        <v>31.99</v>
       </c>
       <c r="J172" t="n">
-        <v>0.6526112913865461</v>
+        <v>151.11</v>
       </c>
       <c r="K172" t="n">
-        <v>0.6534500230308322</v>
+        <v>13531.5</v>
       </c>
     </row>
     <row r="173">
@@ -7874,16 +7874,16 @@
         <v>21.6</v>
       </c>
       <c r="H173" t="n">
-        <v>0.3819421886765915</v>
+        <v>100.8</v>
       </c>
       <c r="I173" t="n">
-        <v>0.4411016503208414</v>
+        <v>27.928</v>
       </c>
       <c r="J173" t="n">
-        <v>0.555353324666243</v>
+        <v>139.914</v>
       </c>
       <c r="K173" t="n">
-        <v>0.5348247385855476</v>
+        <v>11899.808</v>
       </c>
     </row>
     <row r="174">
@@ -7917,16 +7917,16 @@
         <v>20</v>
       </c>
       <c r="H174" t="n">
-        <v>0.4409169733121514</v>
+        <v>108</v>
       </c>
       <c r="I174" t="n">
-        <v>0.4664765223636069</v>
+        <v>28.7325</v>
       </c>
       <c r="J174" t="n">
-        <v>0.4889344803507198</v>
+        <v>132.8425</v>
       </c>
       <c r="K174" t="n">
-        <v>0.5302388832433862</v>
+        <v>11841.255</v>
       </c>
     </row>
     <row r="175">
@@ -7960,16 +7960,16 @@
         <v>22</v>
       </c>
       <c r="H175" t="n">
-        <v>0.6033249411321204</v>
+        <v>129.2</v>
       </c>
       <c r="I175" t="n">
-        <v>0.6375523062902375</v>
+        <v>34.626</v>
       </c>
       <c r="J175" t="n">
-        <v>0.6012343134502562</v>
+        <v>145.032</v>
       </c>
       <c r="K175" t="n">
-        <v>0.6875781192944682</v>
+        <v>14060.726</v>
       </c>
     </row>
     <row r="176">
@@ -8003,16 +8003,16 @@
         <v>24.8</v>
       </c>
       <c r="H176" t="n">
-        <v>0.586227966764474</v>
+        <v>126.8</v>
       </c>
       <c r="I176" t="n">
-        <v>0.6814124230760409</v>
+        <v>36.374</v>
       </c>
       <c r="J176" t="n">
-        <v>0.6433905349949851</v>
+        <v>149.986</v>
       </c>
       <c r="K176" t="n">
-        <v>0.7297132427361861</v>
+        <v>14770.618</v>
       </c>
     </row>
     <row r="177">
@@ -8046,16 +8046,16 @@
         <v>19.5</v>
       </c>
       <c r="H177" t="n">
-        <v>0.5107077212568729</v>
+        <v>116.75</v>
       </c>
       <c r="I177" t="n">
-        <v>0.5878968371732054</v>
+        <v>32.795</v>
       </c>
       <c r="J177" t="n">
-        <v>0.5092366214464823</v>
+        <v>134.9725</v>
       </c>
       <c r="K177" t="n">
-        <v>0.664422775149669</v>
+        <v>13697.8425</v>
       </c>
     </row>
     <row r="178">
@@ -8089,16 +8089,16 @@
         <v>20</v>
       </c>
       <c r="H178" t="n">
-        <v>0.5840634052032272</v>
+        <v>126.5</v>
       </c>
       <c r="I178" t="n">
-        <v>0.6811958629375425</v>
+        <v>36.365</v>
       </c>
       <c r="J178" t="n">
-        <v>0.6365724271312507</v>
+        <v>149.165</v>
       </c>
       <c r="K178" t="n">
-        <v>0.7622917022379355</v>
+        <v>15375.5675</v>
       </c>
     </row>
     <row r="179">
@@ -8132,16 +8132,16 @@
         <v>24.8</v>
       </c>
       <c r="H179" t="n">
-        <v>0.6172657642377373</v>
+        <v>131.2</v>
       </c>
       <c r="I179" t="n">
-        <v>0.7104041927934054</v>
+        <v>37.618</v>
       </c>
       <c r="J179" t="n">
-        <v>0.5020507408316409</v>
+        <v>134.216</v>
       </c>
       <c r="K179" t="n">
-        <v>0.7469868721361739</v>
+        <v>15084.296</v>
       </c>
     </row>
     <row r="180">
@@ -8175,16 +8175,16 @@
         <v>19.5</v>
       </c>
       <c r="H180" t="n">
-        <v>0.5858676231803541</v>
+        <v>126.75</v>
       </c>
       <c r="I180" t="n">
-        <v>0.6388302492987966</v>
+        <v>34.675</v>
       </c>
       <c r="J180" t="n">
-        <v>0.420734546369003</v>
+        <v>125.8</v>
       </c>
       <c r="K180" t="n">
-        <v>0.6951661189534069</v>
+        <v>14183.4975</v>
       </c>
     </row>
     <row r="181">
@@ -8218,16 +8218,16 @@
         <v>20</v>
       </c>
       <c r="H181" t="n">
-        <v>0.5538988947986735</v>
+        <v>122.4</v>
       </c>
       <c r="I181" t="n">
-        <v>0.6428546521928971</v>
+        <v>34.83</v>
       </c>
       <c r="J181" t="n">
-        <v>0.6008493953326883</v>
+        <v>144.988</v>
       </c>
       <c r="K181" t="n">
-        <v>0.7222040252449251</v>
+        <v>14638.726</v>
       </c>
     </row>
     <row r="182">
@@ -8261,16 +8261,16 @@
         <v>21</v>
       </c>
       <c r="H182" t="n">
-        <v>0.3877011683528042</v>
+        <v>101.5</v>
       </c>
       <c r="I182" t="n">
-        <v>0.4850297069751972</v>
+        <v>29.3275</v>
       </c>
       <c r="J182" t="n">
-        <v>0.7695042348115629</v>
+        <v>167.29</v>
       </c>
       <c r="K182" t="n">
-        <v>0.6088148320440804</v>
+        <v>12886.09</v>
       </c>
     </row>
     <row r="183">
@@ -8304,16 +8304,16 @@
         <v>21.6</v>
       </c>
       <c r="H183" t="n">
-        <v>0.4795663362768021</v>
+        <v>112.8</v>
       </c>
       <c r="I183" t="n">
-        <v>0.5177166748093855</v>
+        <v>30.394</v>
       </c>
       <c r="J183" t="n">
-        <v>0.6060656428577038</v>
+        <v>145.586</v>
       </c>
       <c r="K183" t="n">
-        <v>0.6096068718518839</v>
+        <v>12897.156</v>
       </c>
     </row>
     <row r="184">
@@ -8347,16 +8347,16 @@
         <v>26</v>
       </c>
       <c r="H184" t="n">
-        <v>0.1313883914906606</v>
+        <v>67.5</v>
       </c>
       <c r="I184" t="n">
-        <v>0.1575404805408976</v>
+        <v>18.595</v>
       </c>
       <c r="J184" t="n">
-        <v>0.8475283245033663</v>
+        <v>181.6775</v>
       </c>
       <c r="K184" t="n">
-        <v>0.2386924452802979</v>
+        <v>8290.7125</v>
       </c>
     </row>
     <row r="185">
@@ -8390,16 +8390,16 @@
         <v>19.6</v>
       </c>
       <c r="H185" t="n">
-        <v>0.6376341111800985</v>
+        <v>134.2</v>
       </c>
       <c r="I185" t="n">
-        <v>0.7376810390485561</v>
+        <v>38.86999999999999</v>
       </c>
       <c r="J185" t="n">
-        <v>0.8181976439955997</v>
+        <v>175.734</v>
       </c>
       <c r="K185" t="n">
-        <v>0.8408991595707449</v>
+        <v>17152.098</v>
       </c>
     </row>
     <row r="186">
@@ -8433,16 +8433,16 @@
         <v>20.4</v>
       </c>
       <c r="H186" t="n">
-        <v>0.3983896126185939</v>
+        <v>102.8</v>
       </c>
       <c r="I186" t="n">
-        <v>0.4953042719244075</v>
+        <v>29.66</v>
       </c>
       <c r="J186" t="n">
-        <v>0.8408912424927957</v>
+        <v>180.26</v>
       </c>
       <c r="K186" t="n">
-        <v>0.6432748793899232</v>
+        <v>13380.166</v>
       </c>
     </row>
     <row r="187">
@@ -8476,16 +8476,16 @@
         <v>20.4</v>
       </c>
       <c r="H187" t="n">
-        <v>0.608935323204352</v>
+        <v>130</v>
       </c>
       <c r="I187" t="n">
-        <v>0.720648233187648</v>
+        <v>38.078</v>
       </c>
       <c r="J187" t="n">
-        <v>0.833724526771798</v>
+        <v>178.78</v>
       </c>
       <c r="K187" t="n">
-        <v>0.8375367368932245</v>
+        <v>17063.144</v>
       </c>
     </row>
     <row r="188">
@@ -8519,16 +8519,16 @@
         <v>22</v>
       </c>
       <c r="H188" t="n">
-        <v>0.5300333818892907</v>
+        <v>119.25</v>
       </c>
       <c r="I188" t="n">
-        <v>0.657541571081923</v>
+        <v>35.405</v>
       </c>
       <c r="J188" t="n">
-        <v>0.881346747807119</v>
+        <v>189.77</v>
       </c>
       <c r="K188" t="n">
-        <v>0.7859656207206323</v>
+        <v>15855.0925</v>
       </c>
     </row>
     <row r="189">
@@ -8562,16 +8562,16 @@
         <v>20</v>
       </c>
       <c r="H189" t="n">
-        <v>0.6637415482680119</v>
+        <v>138.2</v>
       </c>
       <c r="I189" t="n">
-        <v>0.7935165642398445</v>
+        <v>41.766</v>
       </c>
       <c r="J189" t="n">
-        <v>0.8159096009391626</v>
+        <v>175.302</v>
       </c>
       <c r="K189" t="n">
-        <v>0.8879603450667829</v>
+        <v>18597.14</v>
       </c>
     </row>
     <row r="190">
@@ -8605,16 +8605,16 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H190" t="n">
-        <v>0.3424915686154881</v>
+        <v>96</v>
       </c>
       <c r="I190" t="n">
-        <v>0.4096064259521388</v>
+        <v>26.94</v>
       </c>
       <c r="J190" t="n">
-        <v>0.8173492049360013</v>
+        <v>175.5733333333334</v>
       </c>
       <c r="K190" t="n">
-        <v>0.5380318625122533</v>
+        <v>11940.90666666667</v>
       </c>
     </row>
     <row r="191">
@@ -8648,16 +8648,16 @@
         <v>20</v>
       </c>
       <c r="H191" t="n">
-        <v>0.5095381427978455</v>
+        <v>116.6</v>
       </c>
       <c r="I191" t="n">
-        <v>0.6142502808428951</v>
+        <v>33.75</v>
       </c>
       <c r="J191" t="n">
-        <v>0.8730643109046377</v>
+        <v>187.632</v>
       </c>
       <c r="K191" t="n">
-        <v>0.7583421153160717</v>
+        <v>15299.104</v>
       </c>
     </row>
     <row r="192">
@@ -8691,16 +8691,16 @@
         <v>20.5</v>
       </c>
       <c r="H192" t="n">
-        <v>0.4490287111607099</v>
+        <v>109</v>
       </c>
       <c r="I192" t="n">
-        <v>0.5684175840269471</v>
+        <v>32.11</v>
       </c>
       <c r="J192" t="n">
-        <v>0.832266768460616</v>
+        <v>178.485</v>
       </c>
       <c r="K192" t="n">
-        <v>0.7136629645426195</v>
+        <v>14491.73</v>
       </c>
     </row>
     <row r="193">
@@ -8734,16 +8734,16 @@
         <v>19.6</v>
       </c>
       <c r="H193" t="n">
-        <v>0.4278856866690342</v>
+        <v>106.4</v>
       </c>
       <c r="I193" t="n">
-        <v>0.5331085005845538</v>
+        <v>30.906</v>
       </c>
       <c r="J193" t="n">
-        <v>0.863690754480908</v>
+        <v>185.344</v>
       </c>
       <c r="K193" t="n">
-        <v>0.6778646175296028</v>
+        <v>13906.428</v>
       </c>
     </row>
     <row r="194">
@@ -8777,16 +8777,16 @@
         <v>20</v>
       </c>
       <c r="H194" t="n">
-        <v>0.5372902245594187</v>
+        <v>120.2</v>
       </c>
       <c r="I194" t="n">
-        <v>0.6738483691561297</v>
+        <v>36.062</v>
       </c>
       <c r="J194" t="n">
-        <v>0.8791139245037545</v>
+        <v>189.182</v>
       </c>
       <c r="K194" t="n">
-        <v>0.8077412940405284</v>
+        <v>16333.582</v>
       </c>
     </row>
     <row r="195">
@@ -8820,16 +8820,16 @@
         <v>20</v>
       </c>
       <c r="H195" t="n">
-        <v>0.6193322258741214</v>
+        <v>131.5</v>
       </c>
       <c r="I195" t="n">
-        <v>0.7390973433109091</v>
+        <v>38.9375</v>
       </c>
       <c r="J195" t="n">
-        <v>0.823893322430111</v>
+        <v>176.8275</v>
       </c>
       <c r="K195" t="n">
-        <v>0.8410812941097954</v>
+        <v>17156.96</v>
       </c>
     </row>
     <row r="196">
@@ -8863,16 +8863,16 @@
         <v>20</v>
       </c>
       <c r="H196" t="n">
-        <v>0.5087578174900399</v>
+        <v>116.5</v>
       </c>
       <c r="I196" t="n">
-        <v>0.5797069957966375</v>
+        <v>32.505</v>
       </c>
       <c r="J196" t="n">
-        <v>0.7613021809976723</v>
+        <v>165.9975</v>
       </c>
       <c r="K196" t="n">
-        <v>0.7089483445175009</v>
+        <v>14411.895</v>
       </c>
     </row>
     <row r="197">
@@ -8906,16 +8906,16 @@
         <v>21.2</v>
       </c>
       <c r="H197" t="n">
-        <v>0.5847855917153468</v>
+        <v>126.6</v>
       </c>
       <c r="I197" t="n">
-        <v>0.6600815544116789</v>
+        <v>35.506</v>
       </c>
       <c r="J197" t="n">
-        <v>0.7810530115035293</v>
+        <v>169.166</v>
       </c>
       <c r="K197" t="n">
-        <v>0.7609209723830822</v>
+        <v>15348.924</v>
       </c>
     </row>
     <row r="198">
@@ -8949,16 +8949,16 @@
         <v>20.8</v>
       </c>
       <c r="H198" t="n">
-        <v>0.3638418467856724</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I198" t="n">
-        <v>0.4691548126846567</v>
+        <v>28.818</v>
       </c>
       <c r="J198" t="n">
-        <v>0.8979960355456323</v>
+        <v>194.466</v>
       </c>
       <c r="K198" t="n">
-        <v>0.6085343310548965</v>
+        <v>12882.174</v>
       </c>
     </row>
     <row r="199">
@@ -8992,16 +8992,16 @@
         <v>20.5</v>
       </c>
       <c r="H199" t="n">
-        <v>0.5768052455192261</v>
+        <v>125.5</v>
       </c>
       <c r="I199" t="n">
-        <v>0.6538107178611064</v>
+        <v>35.25750000000001</v>
       </c>
       <c r="J199" t="n">
-        <v>0.7605305077780458</v>
+        <v>165.8775</v>
       </c>
       <c r="K199" t="n">
-        <v>0.7583402184108374</v>
+        <v>15299.0675</v>
       </c>
     </row>
     <row r="200">
@@ -9035,16 +9035,16 @@
         <v>18</v>
       </c>
       <c r="H200" t="n">
-        <v>0.9818604922268923</v>
+        <v>256.8</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9561298184979434</v>
+        <v>57.86800000000001</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4611476576869297</v>
+        <v>129.958</v>
       </c>
       <c r="K200" t="n">
-        <v>0.9322009859463888</v>
+        <v>20544.272</v>
       </c>
     </row>
     <row r="201">
@@ -9078,16 +9078,16 @@
         <v>24.4</v>
       </c>
       <c r="H201" t="n">
-        <v>0.9917155721286642</v>
+        <v>283.4</v>
       </c>
       <c r="I201" t="n">
-        <v>0.9978165184062457</v>
+        <v>83.69800000000001</v>
       </c>
       <c r="J201" t="n">
-        <v>0.8631842634457761</v>
+        <v>185.224</v>
       </c>
       <c r="K201" t="n">
-        <v>0.9991746686795181</v>
+        <v>34880.332</v>
       </c>
     </row>
     <row r="202">
@@ -9121,16 +9121,16 @@
         <v>21</v>
       </c>
       <c r="H202" t="n">
-        <v>0.9482566726460927</v>
+        <v>219</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9741799723002387</v>
+        <v>62.77500000000001</v>
       </c>
       <c r="J202" t="n">
-        <v>0.8642104551818839</v>
+        <v>185.4675</v>
       </c>
       <c r="K202" t="n">
-        <v>0.9869363692645514</v>
+        <v>26306.805</v>
       </c>
     </row>
     <row r="203">
@@ -9164,16 +9164,16 @@
         <v>24</v>
       </c>
       <c r="H203" t="n">
-        <v>0.985867672735867</v>
+        <v>265.4</v>
       </c>
       <c r="I203" t="n">
-        <v>0.9937060632084689</v>
+        <v>75.03400000000001</v>
       </c>
       <c r="J203" t="n">
-        <v>0.8240090794290078</v>
+        <v>176.85</v>
       </c>
       <c r="K203" t="n">
-        <v>0.9968370421464274</v>
+        <v>30825.388</v>
       </c>
     </row>
     <row r="204">
@@ -9207,16 +9207,16 @@
         <v>31</v>
       </c>
       <c r="H204" t="n">
-        <v>0.9854910824439039</v>
+        <v>264.5</v>
       </c>
       <c r="I204" t="n">
-        <v>0.9944009323654276</v>
+        <v>76.00999999999999</v>
       </c>
       <c r="J204" t="n">
-        <v>0.8647139113044541</v>
+        <v>185.5875</v>
       </c>
       <c r="K204" t="n">
-        <v>0.9963135682528939</v>
+        <v>30350.975</v>
       </c>
     </row>
     <row r="205">
@@ -9250,16 +9250,16 @@
         <v>28.4</v>
       </c>
       <c r="H205" t="n">
-        <v>0.9899657838045192</v>
+        <v>277</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9930112771457539</v>
+        <v>74.15599999999999</v>
       </c>
       <c r="J205" t="n">
-        <v>0.667955202453111</v>
+        <v>153.018</v>
       </c>
       <c r="K205" t="n">
-        <v>0.9936335856045133</v>
+        <v>28633.92</v>
       </c>
     </row>
     <row r="206">
@@ -9293,16 +9293,16 @@
         <v>20</v>
       </c>
       <c r="H206" t="n">
-        <v>0.9835815901187867</v>
+        <v>260.25</v>
       </c>
       <c r="I206" t="n">
-        <v>0.9783018837258203</v>
+        <v>64.3425</v>
       </c>
       <c r="J206" t="n">
-        <v>0.6497542979222137</v>
+        <v>150.76</v>
       </c>
       <c r="K206" t="n">
-        <v>0.9808161009004654</v>
+        <v>25024.24</v>
       </c>
     </row>
     <row r="207">
@@ -9336,16 +9336,16 @@
         <v>20</v>
       </c>
       <c r="H207" t="n">
-        <v>0.9830747194761615</v>
+        <v>259.2</v>
       </c>
       <c r="I207" t="n">
-        <v>0.978027797320557</v>
+        <v>64.22999999999999</v>
       </c>
       <c r="J207" t="n">
-        <v>0.588245407258817</v>
+        <v>143.558</v>
       </c>
       <c r="K207" t="n">
-        <v>0.9809866404102535</v>
+        <v>25054.396</v>
       </c>
     </row>
     <row r="208">
@@ -9379,16 +9379,16 @@
         <v>25.5</v>
       </c>
       <c r="H208" t="n">
-        <v>0.9866130384019585</v>
+        <v>267.25</v>
       </c>
       <c r="I208" t="n">
-        <v>0.988331528990149</v>
+        <v>69.7925</v>
       </c>
       <c r="J208" t="n">
-        <v>0.5909222364645852</v>
+        <v>143.86</v>
       </c>
       <c r="K208" t="n">
-        <v>0.9840193045234976</v>
+        <v>25637.8025</v>
       </c>
     </row>
     <row r="209">
@@ -9422,16 +9422,16 @@
         <v>17</v>
       </c>
       <c r="H209" t="n">
-        <v>0.9898907745848744</v>
+        <v>276.75</v>
       </c>
       <c r="I209" t="n">
-        <v>0.9933276785082382</v>
+        <v>74.545</v>
       </c>
       <c r="J209" t="n">
-        <v>0.5693015280060759</v>
+        <v>141.445</v>
       </c>
       <c r="K209" t="n">
-        <v>0.9977728796963551</v>
+        <v>31901.815</v>
       </c>
     </row>
     <row r="210">
@@ -9465,16 +9465,16 @@
         <v>31</v>
       </c>
       <c r="H210" t="n">
-        <v>0.9872838546355583</v>
+        <v>269</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9974389227175856</v>
+        <v>82.41499999999999</v>
       </c>
       <c r="J210" t="n">
-        <v>0.9249502757460549</v>
+        <v>203.6425</v>
       </c>
       <c r="K210" t="n">
-        <v>0.9987834290450234</v>
+        <v>33727.0425</v>
       </c>
     </row>
     <row r="211">
@@ -9508,16 +9508,16 @@
         <v>20</v>
       </c>
       <c r="H211" t="n">
-        <v>0.9223633538002626</v>
+        <v>203.4</v>
       </c>
       <c r="I211" t="n">
-        <v>0.9108431926583437</v>
+        <v>50.912</v>
       </c>
       <c r="J211" t="n">
-        <v>0.5443370049601273</v>
+        <v>138.718</v>
       </c>
       <c r="K211" t="n">
-        <v>0.9140310479991114</v>
+        <v>19639.294</v>
       </c>
     </row>
     <row r="212">
@@ -9551,16 +9551,16 @@
         <v>17.6</v>
       </c>
       <c r="H212" t="n">
-        <v>0.9351461814344576</v>
+        <v>210.4</v>
       </c>
       <c r="I212" t="n">
-        <v>0.9628737408118212</v>
+        <v>59.436</v>
       </c>
       <c r="J212" t="n">
-        <v>0.7718277799105072</v>
+        <v>167.662</v>
       </c>
       <c r="K212" t="n">
-        <v>0.9830234246925584</v>
+        <v>25435.552</v>
       </c>
     </row>
     <row r="213">
@@ -9594,16 +9594,16 @@
         <v>19.6</v>
       </c>
       <c r="H213" t="n">
-        <v>0.9559313212808069</v>
+        <v>225</v>
       </c>
       <c r="I213" t="n">
-        <v>0.9743644375055366</v>
+        <v>62.84000000000001</v>
       </c>
       <c r="J213" t="n">
-        <v>0.8189870705078101</v>
+        <v>175.884</v>
       </c>
       <c r="K213" t="n">
-        <v>0.988644045364569</v>
+        <v>26767.248</v>
       </c>
     </row>
     <row r="214">
@@ -9637,16 +9637,16 @@
         <v>20</v>
       </c>
       <c r="H214" t="n">
-        <v>0.9719917319971156</v>
+        <v>241.5</v>
       </c>
       <c r="I214" t="n">
-        <v>0.9784648020794779</v>
+        <v>64.41</v>
       </c>
       <c r="J214" t="n">
-        <v>0.6499996903325285</v>
+        <v>150.79</v>
       </c>
       <c r="K214" t="n">
-        <v>0.9874324071204139</v>
+        <v>26434.4</v>
       </c>
     </row>
     <row r="215">
@@ -9680,16 +9680,16 @@
         <v>20</v>
       </c>
       <c r="H215" t="n">
-        <v>0.9888108878137752</v>
+        <v>273.3333333333333</v>
       </c>
       <c r="I215" t="n">
-        <v>0.9928209403256297</v>
+        <v>73.92999999999999</v>
       </c>
       <c r="J215" t="n">
-        <v>0.7268384520912512</v>
+        <v>160.8766666666667</v>
       </c>
       <c r="K215" t="n">
-        <v>0.9969110935525645</v>
+        <v>30898.52333333333</v>
       </c>
     </row>
     <row r="216">
@@ -9723,16 +9723,16 @@
         <v>20</v>
       </c>
       <c r="H216" t="n">
-        <v>0.9680339368826666</v>
+        <v>236.75</v>
       </c>
       <c r="I216" t="n">
-        <v>0.9857684999191094</v>
+        <v>68.07000000000001</v>
       </c>
       <c r="J216" t="n">
-        <v>0.8817325151449805</v>
+        <v>189.8725</v>
       </c>
       <c r="K216" t="n">
-        <v>0.9938209004782734</v>
+        <v>28728.8325</v>
       </c>
     </row>
     <row r="217">
@@ -9766,16 +9766,16 @@
         <v>21.6</v>
       </c>
       <c r="H217" t="n">
-        <v>0.9714384573150278</v>
+        <v>240.8</v>
       </c>
       <c r="I217" t="n">
-        <v>0.9837419937668799</v>
+        <v>66.904</v>
       </c>
       <c r="J217" t="n">
-        <v>0.829206253767045</v>
+        <v>177.872</v>
       </c>
       <c r="K217" t="n">
-        <v>0.9931555096548946</v>
+        <v>28403.252</v>
       </c>
     </row>
     <row r="218">
@@ -9809,16 +9809,16 @@
         <v>21.5</v>
       </c>
       <c r="H218" t="n">
-        <v>0.06984058540630722</v>
+        <v>55.75</v>
       </c>
       <c r="I218" t="n">
-        <v>0.07878958840852325</v>
+        <v>15.02</v>
       </c>
       <c r="J218" t="n">
-        <v>0.9223231699709004</v>
+        <v>202.635</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1212727458276062</v>
+        <v>6602.725</v>
       </c>
     </row>
     <row r="219">
@@ -9852,16 +9852,16 @@
         <v>19</v>
       </c>
       <c r="H219" t="n">
-        <v>0.1890470086674206</v>
+        <v>76.25</v>
       </c>
       <c r="I219" t="n">
-        <v>0.2297616422817073</v>
+        <v>21.2075</v>
       </c>
       <c r="J219" t="n">
-        <v>0.7602567924989768</v>
+        <v>165.835</v>
       </c>
       <c r="K219" t="n">
-        <v>0.3347640164719738</v>
+        <v>9473.3575</v>
       </c>
     </row>
     <row r="220">
@@ -9895,16 +9895,16 @@
         <v>18.8</v>
       </c>
       <c r="H220" t="n">
-        <v>0.09797976322385921</v>
+        <v>61.6</v>
       </c>
       <c r="I220" t="n">
-        <v>0.1336557274174096</v>
+        <v>17.628</v>
       </c>
       <c r="J220" t="n">
-        <v>0.9350650751384925</v>
+        <v>207.828</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2172517096870656</v>
+        <v>8011.516000000001</v>
       </c>
     </row>
     <row r="221">
@@ -9938,16 +9938,16 @@
         <v>18.8</v>
       </c>
       <c r="H221" t="n">
-        <v>0.1507940637221812</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I221" t="n">
-        <v>0.2162486208954276</v>
+        <v>20.744</v>
       </c>
       <c r="J221" t="n">
-        <v>0.873604715176311</v>
+        <v>187.768</v>
       </c>
       <c r="K221" t="n">
-        <v>0.3342107578898235</v>
+        <v>9466.734</v>
       </c>
     </row>
     <row r="222">
@@ -9981,16 +9981,16 @@
         <v>19.5</v>
       </c>
       <c r="H222" t="n">
-        <v>0.3343050335645771</v>
+        <v>95</v>
       </c>
       <c r="I222" t="n">
-        <v>0.4720323062045278</v>
+        <v>28.91</v>
       </c>
       <c r="J222" t="n">
-        <v>0.9428545235910744</v>
+        <v>211.455</v>
       </c>
       <c r="K222" t="n">
-        <v>0.6528143078275188</v>
+        <v>13521.965</v>
       </c>
     </row>
     <row r="223">
@@ -10024,16 +10024,16 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H223" t="n">
-        <v>0.2088461667949008</v>
+        <v>79</v>
       </c>
       <c r="I223" t="n">
-        <v>0.2987085130593685</v>
+        <v>23.46666666666667</v>
       </c>
       <c r="J223" t="n">
-        <v>0.944442098095821</v>
+        <v>212.2466666666667</v>
       </c>
       <c r="K223" t="n">
-        <v>0.4385724811918194</v>
+        <v>10711.38</v>
       </c>
     </row>
     <row r="224">
@@ -10067,16 +10067,16 @@
         <v>18</v>
       </c>
       <c r="H224" t="n">
-        <v>0.2327088663043564</v>
+        <v>82.2</v>
       </c>
       <c r="I224" t="n">
-        <v>0.3337730544072144</v>
+        <v>24.574</v>
       </c>
       <c r="J224" t="n">
-        <v>0.9767900663057887</v>
+        <v>235.574</v>
       </c>
       <c r="K224" t="n">
-        <v>0.4975699500375816</v>
+        <v>11430.696</v>
       </c>
     </row>
     <row r="225">
@@ -10110,16 +10110,16 @@
         <v>18.4</v>
       </c>
       <c r="H225" t="n">
-        <v>0.2449317488573698</v>
+        <v>83.8</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3291206381509797</v>
+        <v>24.428</v>
       </c>
       <c r="J225" t="n">
-        <v>0.8962869880549342</v>
+        <v>193.956</v>
       </c>
       <c r="K225" t="n">
-        <v>0.4719659703103563</v>
+        <v>11115.674</v>
       </c>
     </row>
     <row r="226">
@@ -10153,16 +10153,16 @@
         <v>18</v>
       </c>
       <c r="H226" t="n">
-        <v>0.2143639758527157</v>
+        <v>79.75</v>
       </c>
       <c r="I226" t="n">
-        <v>0.3121261759320738</v>
+        <v>23.8925</v>
       </c>
       <c r="J226" t="n">
-        <v>0.8963595120898833</v>
+        <v>193.9775</v>
       </c>
       <c r="K226" t="n">
-        <v>0.4720066005320548</v>
+        <v>11116.17</v>
       </c>
     </row>
     <row r="227">
@@ -10196,16 +10196,16 @@
         <v>17</v>
       </c>
       <c r="H227" t="n">
-        <v>0.03757248025025771</v>
+        <v>47</v>
       </c>
       <c r="I227" t="n">
-        <v>0.05634496255082362</v>
+        <v>13.665</v>
       </c>
       <c r="J227" t="n">
-        <v>0.9906239932606744</v>
+        <v>257.935</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1050433273107965</v>
+        <v>6319.485</v>
       </c>
     </row>
     <row r="228">
@@ -10239,16 +10239,16 @@
         <v>20</v>
       </c>
       <c r="H228" t="n">
-        <v>0.09797976322385921</v>
+        <v>61.6</v>
       </c>
       <c r="I228" t="n">
-        <v>0.1357080701984631</v>
+        <v>17.714</v>
       </c>
       <c r="J228" t="n">
-        <v>0.8725779522710404</v>
+        <v>187.51</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2323286028669958</v>
+        <v>8208.683999999999</v>
       </c>
     </row>
     <row r="229">
@@ -10282,16 +10282,16 @@
         <v>20.4</v>
       </c>
       <c r="H229" t="n">
-        <v>0.1201066856278724</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="I229" t="n">
-        <v>0.1459358724135716</v>
+        <v>18.134</v>
       </c>
       <c r="J229" t="n">
-        <v>0.9359670211283866</v>
+        <v>208.228</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2252634072443802</v>
+        <v>8116.81</v>
       </c>
     </row>
     <row r="230">
@@ -10325,16 +10325,16 @@
         <v>44</v>
       </c>
       <c r="H230" t="n">
-        <v>0.02719248644473574</v>
+        <v>43.2</v>
       </c>
       <c r="I230" t="n">
-        <v>0.04568246848660858</v>
+        <v>12.908</v>
       </c>
       <c r="J230" t="n">
-        <v>0.9097546656217338</v>
+        <v>198.182</v>
       </c>
       <c r="K230" t="n">
-        <v>0.0830881536510619</v>
+        <v>5897.505999999999</v>
       </c>
     </row>
     <row r="231">
@@ -10368,16 +10368,16 @@
         <v>18.8</v>
       </c>
       <c r="H231" t="n">
-        <v>0.08290477812701906</v>
+        <v>58.6</v>
       </c>
       <c r="I231" t="n">
-        <v>0.1043379186429084</v>
+        <v>16.322</v>
       </c>
       <c r="J231" t="n">
-        <v>0.8063863576068963</v>
+        <v>173.546</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1715964318587044</v>
+        <v>7382.844</v>
       </c>
     </row>
     <row r="232">
@@ -10411,16 +10411,16 @@
         <v>20.4</v>
       </c>
       <c r="H232" t="n">
-        <v>0.1121064380652436</v>
+        <v>64.2</v>
       </c>
       <c r="I232" t="n">
-        <v>0.1438143241406443</v>
+        <v>18.048</v>
       </c>
       <c r="J232" t="n">
-        <v>0.8448695858162214</v>
+        <v>181.104</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2361967412013256</v>
+        <v>8258.621999999999</v>
       </c>
     </row>
     <row r="233">
@@ -10454,16 +10454,16 @@
         <v>22.4</v>
       </c>
       <c r="H233" t="n">
-        <v>0.04524584093362278</v>
+        <v>49.4</v>
       </c>
       <c r="I233" t="n">
-        <v>0.05924795751410551</v>
+        <v>13.856</v>
       </c>
       <c r="J233" t="n">
-        <v>0.8803636192212868</v>
+        <v>189.51</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1030916067395372</v>
+        <v>6283.976000000001</v>
       </c>
     </row>
     <row r="234">
@@ -10497,16 +10497,16 @@
         <v>19.6</v>
       </c>
       <c r="H234" t="n">
-        <v>0.05685765852701843</v>
+        <v>52.6</v>
       </c>
       <c r="I234" t="n">
-        <v>0.0837724452191894</v>
+        <v>15.29</v>
       </c>
       <c r="J234" t="n">
-        <v>0.9021698044494938</v>
+        <v>195.742</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1426860833838192</v>
+        <v>6949.67</v>
       </c>
     </row>
     <row r="235">
@@ -10540,16 +10540,16 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H235" t="n">
-        <v>0.1967624845709371</v>
+        <v>77.33333333333333</v>
       </c>
       <c r="I235" t="n">
-        <v>0.228364994067577</v>
+        <v>21.16</v>
       </c>
       <c r="J235" t="n">
-        <v>0.8504039780403405</v>
+        <v>182.3066666666666</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3177766583096028</v>
+        <v>9269.393333333333</v>
       </c>
     </row>
     <row r="236">
@@ -10583,16 +10583,16 @@
         <v>24</v>
       </c>
       <c r="H236" t="n">
-        <v>0.9064801373375567</v>
+        <v>196</v>
       </c>
       <c r="I236" t="n">
-        <v>0.9453868362056581</v>
+        <v>55.774</v>
       </c>
       <c r="J236" t="n">
-        <v>0.8056116279403982</v>
+        <v>173.406</v>
       </c>
       <c r="K236" t="n">
-        <v>0.9581028039297437</v>
+        <v>22309.752</v>
       </c>
     </row>
     <row r="237">
@@ -10626,16 +10626,16 @@
         <v>20</v>
       </c>
       <c r="H237" t="n">
-        <v>0.9188726549279845</v>
+        <v>201.6666666666667</v>
       </c>
       <c r="I237" t="n">
-        <v>0.9323748268017202</v>
+        <v>53.68666666666667</v>
       </c>
       <c r="J237" t="n">
-        <v>0.5575149454234105</v>
+        <v>140.15</v>
       </c>
       <c r="K237" t="n">
-        <v>0.9388468414039288</v>
+        <v>20929.94</v>
       </c>
     </row>
     <row r="238">
@@ -10669,16 +10669,16 @@
         <v>20</v>
       </c>
       <c r="H238" t="n">
-        <v>0.7064319270591756</v>
+        <v>145.2</v>
       </c>
       <c r="I238" t="n">
-        <v>0.7572244454696584</v>
+        <v>39.826</v>
       </c>
       <c r="J238" t="n">
-        <v>0.8806819674764634</v>
+        <v>189.594</v>
       </c>
       <c r="K238" t="n">
-        <v>0.8055717392410529</v>
+        <v>16284.066</v>
       </c>
     </row>
     <row r="239">
@@ -10712,16 +10712,16 @@
         <v>14</v>
       </c>
       <c r="H239" t="n">
-        <v>0.9053113020569641</v>
+        <v>195.5</v>
       </c>
       <c r="I239" t="n">
-        <v>0.9293083630105003</v>
+        <v>53.2475</v>
       </c>
       <c r="J239" t="n">
-        <v>0.5717876859983985</v>
+        <v>141.72</v>
       </c>
       <c r="K239" t="n">
-        <v>0.9578707612090313</v>
+        <v>22289.95</v>
       </c>
     </row>
     <row r="240">
@@ -10755,16 +10755,16 @@
         <v>20</v>
       </c>
       <c r="H240" t="n">
-        <v>0.9012418274507464</v>
+        <v>193.8</v>
       </c>
       <c r="I240" t="n">
-        <v>0.9300349072642693</v>
+        <v>53.35</v>
       </c>
       <c r="J240" t="n">
-        <v>0.8540669628433916</v>
+        <v>183.122</v>
       </c>
       <c r="K240" t="n">
-        <v>0.9514523729338467</v>
+        <v>21778.136</v>
       </c>
     </row>
     <row r="241">
@@ -10798,16 +10798,16 @@
         <v>28.4</v>
       </c>
       <c r="H241" t="n">
-        <v>0.8481178411621381</v>
+        <v>175.8</v>
       </c>
       <c r="I241" t="n">
-        <v>0.8851178512614565</v>
+        <v>48.28</v>
       </c>
       <c r="J241" t="n">
-        <v>0.7008765972127148</v>
+        <v>157.294</v>
       </c>
       <c r="K241" t="n">
-        <v>0.8885717937276894</v>
+        <v>18619.062</v>
       </c>
     </row>
     <row r="242">
@@ -10841,16 +10841,16 @@
         <v>17.6</v>
       </c>
       <c r="H242" t="n">
-        <v>0.8474146656884238</v>
+        <v>175.6</v>
       </c>
       <c r="I242" t="n">
-        <v>0.8740596716622427</v>
+        <v>47.302</v>
       </c>
       <c r="J242" t="n">
-        <v>0.5978691230243725</v>
+        <v>144.648</v>
       </c>
       <c r="K242" t="n">
-        <v>0.8877978131523759</v>
+        <v>18591.33</v>
       </c>
     </row>
     <row r="243">
@@ -10884,16 +10884,16 @@
         <v>20</v>
       </c>
       <c r="H243" t="n">
-        <v>0.9035342487648335</v>
+        <v>194.75</v>
       </c>
       <c r="I243" t="n">
-        <v>0.9588630194059058</v>
+        <v>58.47499999999999</v>
       </c>
       <c r="J243" t="n">
-        <v>0.9004961728350469</v>
+        <v>195.225</v>
       </c>
       <c r="K243" t="n">
-        <v>0.9778395709254945</v>
+        <v>24534.6525</v>
       </c>
     </row>
     <row r="244">
@@ -10927,16 +10927,16 @@
         <v>20</v>
       </c>
       <c r="H244" t="n">
-        <v>0.8361693398783229</v>
+        <v>172.5</v>
       </c>
       <c r="I244" t="n">
-        <v>0.8440389989862035</v>
+        <v>44.97</v>
       </c>
       <c r="J244" t="n">
-        <v>0.5399527900451065</v>
+        <v>138.245</v>
       </c>
       <c r="K244" t="n">
-        <v>0.8551193920006319</v>
+        <v>17546.2225</v>
       </c>
     </row>
     <row r="245">
@@ -10970,16 +10970,16 @@
         <v>20</v>
       </c>
       <c r="H245" t="n">
-        <v>0.8936905268162211</v>
+        <v>190.8</v>
       </c>
       <c r="I245" t="n">
-        <v>0.9243053125895313</v>
+        <v>52.566</v>
       </c>
       <c r="J245" t="n">
-        <v>0.7526035490756322</v>
+        <v>164.66</v>
       </c>
       <c r="K245" t="n">
-        <v>0.9458709906952724</v>
+        <v>21380.694</v>
       </c>
     </row>
     <row r="246">
@@ -11013,16 +11013,16 @@
         <v>18</v>
       </c>
       <c r="H246" t="n">
-        <v>0.8817202231572143</v>
+        <v>186.4</v>
       </c>
       <c r="I246" t="n">
-        <v>0.8804068809452956</v>
+        <v>47.854</v>
       </c>
       <c r="J246" t="n">
-        <v>0.4567699529792805</v>
+        <v>129.506</v>
       </c>
       <c r="K246" t="n">
-        <v>0.8852087584799528</v>
+        <v>18499.734</v>
       </c>
     </row>
     <row r="247">
@@ -11056,16 +11056,16 @@
         <v>20</v>
       </c>
       <c r="H247" t="n">
-        <v>0.8609777198349026</v>
+        <v>179.6</v>
       </c>
       <c r="I247" t="n">
-        <v>0.8839387244074816</v>
+        <v>48.172</v>
       </c>
       <c r="J247" t="n">
-        <v>0.7599538432277343</v>
+        <v>165.788</v>
       </c>
       <c r="K247" t="n">
-        <v>0.9054331712648761</v>
+        <v>19268.512</v>
       </c>
     </row>
     <row r="248">
@@ -11099,16 +11099,16 @@
         <v>20</v>
       </c>
       <c r="H248" t="n">
-        <v>0.9087801885461214</v>
+        <v>197</v>
       </c>
       <c r="I248" t="n">
-        <v>0.9347421711851448</v>
+        <v>54.038</v>
       </c>
       <c r="J248" t="n">
-        <v>0.7563889928050382</v>
+        <v>165.238</v>
       </c>
       <c r="K248" t="n">
-        <v>0.955315731660705</v>
+        <v>22078.24</v>
       </c>
     </row>
     <row r="249">
@@ -11142,16 +11142,16 @@
         <v>20.5</v>
       </c>
       <c r="H249" t="n">
-        <v>0.8841183543752831</v>
+        <v>187.25</v>
       </c>
       <c r="I249" t="n">
-        <v>0.9074966971392227</v>
+        <v>50.535</v>
       </c>
       <c r="J249" t="n">
-        <v>0.783095034845161</v>
+        <v>169.505</v>
       </c>
       <c r="K249" t="n">
-        <v>0.9212254539380158</v>
+        <v>19975.365</v>
       </c>
     </row>
     <row r="250">
@@ -11185,16 +11185,16 @@
         <v>20</v>
       </c>
       <c r="H250" t="n">
-        <v>0.8855095672543007</v>
+        <v>187.75</v>
       </c>
       <c r="I250" t="n">
-        <v>0.9036169648032318</v>
+        <v>50.1125</v>
       </c>
       <c r="J250" t="n">
-        <v>0.6682885154952243</v>
+        <v>153.06</v>
       </c>
       <c r="K250" t="n">
-        <v>0.9264285889951831</v>
+        <v>20235.6825</v>
       </c>
     </row>
     <row r="251">
@@ -11228,16 +11228,16 @@
         <v>19.6</v>
       </c>
       <c r="H251" t="n">
-        <v>0.8661142849466121</v>
+        <v>181.2</v>
       </c>
       <c r="I251" t="n">
-        <v>0.9059614002674442</v>
+        <v>50.366</v>
       </c>
       <c r="J251" t="n">
-        <v>0.8030051461944983</v>
+        <v>172.938</v>
       </c>
       <c r="K251" t="n">
-        <v>0.9380374940804798</v>
+        <v>20881.026</v>
       </c>
     </row>
     <row r="252">
@@ -11271,16 +11271,16 @@
         <v>20</v>
       </c>
       <c r="H252" t="n">
-        <v>0.8502113648128976</v>
+        <v>176.4</v>
       </c>
       <c r="I252" t="n">
-        <v>0.8927409293539363</v>
+        <v>49.002</v>
       </c>
       <c r="J252" t="n">
-        <v>0.7717032799289253</v>
+        <v>167.642</v>
       </c>
       <c r="K252" t="n">
-        <v>0.9199315090070597</v>
+        <v>19912.986</v>
       </c>
     </row>
     <row r="253">
@@ -11314,16 +11314,16 @@
         <v>20</v>
       </c>
       <c r="H253" t="n">
-        <v>0.8839784436185583</v>
+        <v>187.2</v>
       </c>
       <c r="I253" t="n">
-        <v>0.9126954062375062</v>
+        <v>51.126</v>
       </c>
       <c r="J253" t="n">
-        <v>0.6633485827420569</v>
+        <v>152.44</v>
       </c>
       <c r="K253" t="n">
-        <v>0.9349400224555757</v>
+        <v>20698.95</v>
       </c>
     </row>
     <row r="254">
@@ -11357,16 +11357,16 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H254" t="n">
-        <v>0.8266168632578699</v>
+        <v>170</v>
       </c>
       <c r="I254" t="n">
-        <v>0.5766259749776</v>
+        <v>32.39666666666667</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0007415952532230569</v>
+        <v>40.90666666666667</v>
       </c>
       <c r="K254" t="n">
-        <v>0.2439739059345025</v>
+        <v>8358.303333333331</v>
       </c>
     </row>
     <row r="255">
@@ -11400,16 +11400,16 @@
         <v>15.6</v>
       </c>
       <c r="H255" t="n">
-        <v>0.7110632941356001</v>
+        <v>146</v>
       </c>
       <c r="I255" t="n">
-        <v>0.5708311029086865</v>
+        <v>32.194</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04162272685984542</v>
+        <v>73.95400000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>0.4984054364433038</v>
+        <v>11441.066</v>
       </c>
     </row>
     <row r="256">
@@ -11443,16 +11443,16 @@
         <v>21.5</v>
       </c>
       <c r="H256" t="n">
-        <v>0.5165389923019524</v>
+        <v>117.5</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3614829578860444</v>
+        <v>25.44</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1732122922606679</v>
+        <v>98.35499999999999</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3182578636929266</v>
+        <v>9275.190000000001</v>
       </c>
     </row>
     <row r="257">
@@ -11486,16 +11486,16 @@
         <v>20.4</v>
       </c>
       <c r="H257" t="n">
-        <v>0.8556778298068037</v>
+        <v>178</v>
       </c>
       <c r="I257" t="n">
-        <v>0.6628841432404385</v>
+        <v>35.618</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01522504039948592</v>
+        <v>62.59400000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>0.4205914068130998</v>
+        <v>10495.882</v>
       </c>
     </row>
     <row r="258">
@@ -11529,16 +11529,16 @@
         <v>15.6</v>
       </c>
       <c r="H258" t="n">
-        <v>0.8445751292329149</v>
+        <v>174.8</v>
       </c>
       <c r="I258" t="n">
-        <v>0.6124602766349256</v>
+        <v>33.684</v>
       </c>
       <c r="J258" t="n">
-        <v>0.000318362850355395</v>
+        <v>36.75</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3650548227857098</v>
+        <v>9834.66</v>
       </c>
     </row>
     <row r="259">
@@ -11572,16 +11572,16 @@
         <v>18</v>
       </c>
       <c r="H259" t="n">
-        <v>0.6910276797680444</v>
+        <v>142.6</v>
       </c>
       <c r="I259" t="n">
-        <v>0.4512931466124777</v>
+        <v>28.25</v>
       </c>
       <c r="J259" t="n">
-        <v>0.06775652538305978</v>
+        <v>80.83799999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>0.2657299417151329</v>
+        <v>8632.639999999999</v>
       </c>
     </row>
     <row r="260">
@@ -11615,16 +11615,16 @@
         <v>19.5</v>
       </c>
       <c r="H260" t="n">
-        <v>0.7744125187965618</v>
+        <v>158</v>
       </c>
       <c r="I260" t="n">
-        <v>0.5105379252398189</v>
+        <v>30.1575</v>
       </c>
       <c r="J260" t="n">
-        <v>0.001577285312979701</v>
+        <v>45.1675</v>
       </c>
       <c r="K260" t="n">
-        <v>0.2307964974317241</v>
+        <v>8188.835</v>
       </c>
     </row>
     <row r="261">
@@ -11658,16 +11658,16 @@
         <v>17.6</v>
       </c>
       <c r="H261" t="n">
-        <v>0.7893935013071629</v>
+        <v>161.2</v>
       </c>
       <c r="I261" t="n">
-        <v>0.5385875176576955</v>
+        <v>31.09</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0009924655260769434</v>
+        <v>42.48399999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3166819736957846</v>
+        <v>9256.202000000001</v>
       </c>
     </row>
     <row r="262">
@@ -11701,16 +11701,16 @@
         <v>20.5</v>
       </c>
       <c r="H262" t="n">
-        <v>0.6071869191580761</v>
+        <v>129.75</v>
       </c>
       <c r="I262" t="n">
-        <v>0.4014382518530984</v>
+        <v>26.685</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2363269463836432</v>
+        <v>106.1425</v>
       </c>
       <c r="K262" t="n">
-        <v>0.267731960929723</v>
+        <v>8657.59</v>
       </c>
     </row>
     <row r="263">
@@ -11744,16 +11744,16 @@
         <v>17.6</v>
       </c>
       <c r="H263" t="n">
-        <v>0.7930160128433941</v>
+        <v>162</v>
       </c>
       <c r="I263" t="n">
-        <v>0.5756375982429176</v>
+        <v>32.362</v>
       </c>
       <c r="J263" t="n">
-        <v>0.002438762960447082</v>
+        <v>47.912</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3706201584439012</v>
+        <v>9900.859999999999</v>
       </c>
     </row>
     <row r="264">
@@ -11787,16 +11787,16 @@
         <v>19.2</v>
       </c>
       <c r="H264" t="n">
-        <v>0.6713337161570321</v>
+        <v>139.4</v>
       </c>
       <c r="I264" t="n">
-        <v>0.4512931466124777</v>
+        <v>28.25</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01156225026150717</v>
+        <v>59.98</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3440916001900026</v>
+        <v>9584.866</v>
       </c>
     </row>
     <row r="265">
@@ -11830,16 +11830,16 @@
         <v>18.8</v>
       </c>
       <c r="H265" t="n">
-        <v>0.7535397982577439</v>
+        <v>153.8</v>
       </c>
       <c r="I265" t="n">
-        <v>0.4992401878732457</v>
+        <v>29.788</v>
       </c>
       <c r="J265" t="n">
-        <v>0.002269827046582546</v>
+        <v>47.444</v>
       </c>
       <c r="K265" t="n">
-        <v>0.2889734223997956</v>
+        <v>8919.77</v>
       </c>
     </row>
     <row r="266">
@@ -11873,16 +11873,16 @@
         <v>20</v>
       </c>
       <c r="H266" t="n">
-        <v>0.59304255894127</v>
+        <v>127.75</v>
       </c>
       <c r="I266" t="n">
-        <v>0.3590775600880401</v>
+        <v>25.365</v>
       </c>
       <c r="J266" t="n">
-        <v>0.03300670285101568</v>
+        <v>71.03749999999999</v>
       </c>
       <c r="K266" t="n">
-        <v>0.2240867815796302</v>
+        <v>8101.4225</v>
       </c>
     </row>
     <row r="267">
@@ -11916,16 +11916,16 @@
         <v>19.5</v>
       </c>
       <c r="H267" t="n">
-        <v>0.7873343877938097</v>
+        <v>160.75</v>
       </c>
       <c r="I267" t="n">
-        <v>0.5737240248142285</v>
+        <v>32.295</v>
       </c>
       <c r="J267" t="n">
-        <v>0.001953882342014806</v>
+        <v>46.4875</v>
       </c>
       <c r="K267" t="n">
-        <v>0.3192603768890281</v>
+        <v>9287.262500000001</v>
       </c>
     </row>
     <row r="268">
@@ -11959,16 +11959,16 @@
         <v>19.5</v>
       </c>
       <c r="H268" t="n">
-        <v>0.5527754964475436</v>
+        <v>122.25</v>
       </c>
       <c r="I268" t="n">
-        <v>0.3489041767457884</v>
+        <v>25.0475</v>
       </c>
       <c r="J268" t="n">
-        <v>0.02481725847120395</v>
+        <v>67.715</v>
       </c>
       <c r="K268" t="n">
-        <v>0.2743308208200382</v>
+        <v>8739.517500000002</v>
       </c>
     </row>
     <row r="269">
@@ -12002,16 +12002,16 @@
         <v>19.6</v>
       </c>
       <c r="H269" t="n">
-        <v>0.7734499084552888</v>
+        <v>157.8</v>
       </c>
       <c r="I269" t="n">
-        <v>0.5350174776393524</v>
+        <v>30.97</v>
       </c>
       <c r="J269" t="n">
-        <v>0.001904237659215977</v>
+        <v>46.326</v>
       </c>
       <c r="K269" t="n">
-        <v>0.3072070751258668</v>
+        <v>9141.74</v>
       </c>
     </row>
     <row r="270">
@@ -12045,16 +12045,16 @@
         <v>15.5</v>
       </c>
       <c r="H270" t="n">
-        <v>0.8398685168573374</v>
+        <v>173.5</v>
       </c>
       <c r="I270" t="n">
-        <v>0.6526674329077464</v>
+        <v>35.2125</v>
       </c>
       <c r="J270" t="n">
-        <v>0.00968818683797217</v>
+        <v>58.39</v>
       </c>
       <c r="K270" t="n">
-        <v>0.5389322442371366</v>
+        <v>11952.4675</v>
       </c>
     </row>
     <row r="271">
@@ -12088,16 +12088,16 @@
         <v>21.6</v>
       </c>
       <c r="H271" t="n">
-        <v>0.6946302283292503</v>
+        <v>143.2</v>
       </c>
       <c r="I271" t="n">
-        <v>0.4267928747860542</v>
+        <v>27.478</v>
       </c>
       <c r="J271" t="n">
-        <v>0.01890937047474941</v>
+        <v>64.78399999999999</v>
       </c>
       <c r="K271" t="n">
-        <v>0.1936230716060923</v>
+        <v>7692.992000000001</v>
       </c>
     </row>
     <row r="272">
@@ -12131,16 +12131,16 @@
         <v>20</v>
       </c>
       <c r="H272" t="n">
-        <v>0.6158845171277626</v>
+        <v>131</v>
       </c>
       <c r="I272" t="n">
-        <v>0.6435270154994339</v>
+        <v>34.856</v>
       </c>
       <c r="J272" t="n">
-        <v>0.5331853768107311</v>
+        <v>137.518</v>
       </c>
       <c r="K272" t="n">
-        <v>0.6014105747643261</v>
+        <v>12783.242</v>
       </c>
     </row>
     <row r="273">
@@ -12174,16 +12174,16 @@
         <v>19.5</v>
       </c>
       <c r="H273" t="n">
-        <v>0.4831479139511222</v>
+        <v>113.25</v>
       </c>
       <c r="I273" t="n">
-        <v>0.4446513827762679</v>
+        <v>28.04</v>
       </c>
       <c r="J273" t="n">
-        <v>0.4148882012762307</v>
+        <v>125.2</v>
       </c>
       <c r="K273" t="n">
-        <v>0.3750767375996558</v>
+        <v>9953.855000000001</v>
       </c>
     </row>
     <row r="274">
@@ -12217,16 +12217,16 @@
         <v>21.6</v>
       </c>
       <c r="H274" t="n">
-        <v>0.301798741522164</v>
+        <v>91</v>
       </c>
       <c r="I274" t="n">
-        <v>0.2434326467774181</v>
+        <v>21.668</v>
       </c>
       <c r="J274" t="n">
-        <v>0.4008789427670504</v>
+        <v>123.762</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1964251810714943</v>
+        <v>7731.460000000001</v>
       </c>
     </row>
     <row r="275">
@@ -12260,16 +12260,16 @@
         <v>20</v>
       </c>
       <c r="H275" t="n">
-        <v>0.586227966764474</v>
+        <v>126.8</v>
       </c>
       <c r="I275" t="n">
-        <v>0.5564245144406987</v>
+        <v>31.696</v>
       </c>
       <c r="J275" t="n">
-        <v>0.3234178240411542</v>
+        <v>115.724</v>
       </c>
       <c r="K275" t="n">
-        <v>0.4639310286840706</v>
+        <v>11017.802</v>
       </c>
     </row>
     <row r="276">
@@ -12303,16 +12303,16 @@
         <v>19.5</v>
       </c>
       <c r="H276" t="n">
-        <v>0.5028901565868622</v>
+        <v>115.75</v>
       </c>
       <c r="I276" t="n">
-        <v>0.4959199883085468</v>
+        <v>29.68</v>
       </c>
       <c r="J276" t="n">
-        <v>0.3901055811037974</v>
+        <v>122.655</v>
       </c>
       <c r="K276" t="n">
-        <v>0.4256759697926278</v>
+        <v>10556.7</v>
       </c>
     </row>
     <row r="277">
@@ -12346,16 +12346,16 @@
         <v>19.6</v>
       </c>
       <c r="H277" t="n">
-        <v>0.5110973370893538</v>
+        <v>116.8</v>
       </c>
       <c r="I277" t="n">
-        <v>0.4969660893119676</v>
+        <v>29.714</v>
       </c>
       <c r="J277" t="n">
-        <v>0.4536482447469868</v>
+        <v>129.184</v>
       </c>
       <c r="K277" t="n">
-        <v>0.4122304448566115</v>
+        <v>10396.042</v>
       </c>
     </row>
     <row r="278">
@@ -12389,16 +12389,16 @@
         <v>20.8</v>
       </c>
       <c r="H278" t="n">
-        <v>0.6611859770033961</v>
+        <v>137.8</v>
       </c>
       <c r="I278" t="n">
-        <v>0.6238765499978082</v>
+        <v>34.108</v>
       </c>
       <c r="J278" t="n">
-        <v>0.3528668165176885</v>
+        <v>118.808</v>
       </c>
       <c r="K278" t="n">
-        <v>0.5357246817872472</v>
+        <v>11911.328</v>
       </c>
     </row>
     <row r="279">
@@ -12432,16 +12432,16 @@
         <v>20</v>
       </c>
       <c r="H279" t="n">
-        <v>0.6362969172638611</v>
+        <v>134</v>
       </c>
       <c r="I279" t="n">
-        <v>0.6011940112607495</v>
+        <v>33.2725</v>
       </c>
       <c r="J279" t="n">
-        <v>0.4119649530706282</v>
+        <v>124.9</v>
       </c>
       <c r="K279" t="n">
-        <v>0.5241110163936514</v>
+        <v>11763.3925</v>
       </c>
     </row>
     <row r="280">
@@ -12475,16 +12475,16 @@
         <v>20</v>
       </c>
       <c r="H280" t="n">
-        <v>0.5126545747217343</v>
+        <v>117</v>
       </c>
       <c r="I280" t="n">
-        <v>0.4516089447075987</v>
+        <v>28.26</v>
       </c>
       <c r="J280" t="n">
-        <v>0.3055047148583377</v>
+        <v>113.82</v>
       </c>
       <c r="K280" t="n">
-        <v>0.3592104557453415</v>
+        <v>9765.102500000001</v>
       </c>
     </row>
     <row r="281">
@@ -12518,16 +12518,16 @@
         <v>18.66666666666667</v>
       </c>
       <c r="H281" t="n">
-        <v>0.5332223200568204</v>
+        <v>119.6666666666667</v>
       </c>
       <c r="I281" t="n">
-        <v>0.4777523256386025</v>
+        <v>29.09333333333333</v>
       </c>
       <c r="J281" t="n">
-        <v>0.3178672664915791</v>
+        <v>115.1366666666667</v>
       </c>
       <c r="K281" t="n">
-        <v>0.4035087475711865</v>
+        <v>10292.07666666667</v>
       </c>
     </row>
     <row r="282">
@@ -12561,16 +12561,16 @@
         <v>20</v>
       </c>
       <c r="H282" t="n">
-        <v>0.5818928664115857</v>
+        <v>126.2</v>
       </c>
       <c r="I282" t="n">
-        <v>0.5601496743615989</v>
+        <v>31.824</v>
       </c>
       <c r="J282" t="n">
-        <v>0.3535595384612562</v>
+        <v>118.88</v>
       </c>
       <c r="K282" t="n">
-        <v>0.47080286646613</v>
+        <v>11101.48</v>
       </c>
     </row>
     <row r="283">
@@ -12604,16 +12604,16 @@
         <v>20</v>
       </c>
       <c r="H283" t="n">
-        <v>0.4843399646117237</v>
+        <v>113.4</v>
       </c>
       <c r="I283" t="n">
-        <v>0.480636135652343</v>
+        <v>29.186</v>
       </c>
       <c r="J283" t="n">
-        <v>0.4142645693448753</v>
+        <v>125.136</v>
       </c>
       <c r="K283" t="n">
-        <v>0.4182855773852182</v>
+        <v>10468.328</v>
       </c>
     </row>
     <row r="284">
@@ -12647,16 +12647,16 @@
         <v>19.6</v>
       </c>
       <c r="H284" t="n">
-        <v>0.477971956090076</v>
+        <v>112.6</v>
       </c>
       <c r="I284" t="n">
-        <v>0.4242421376106373</v>
+        <v>27.398</v>
       </c>
       <c r="J284" t="n">
-        <v>0.3491181801169579</v>
+        <v>118.418</v>
       </c>
       <c r="K284" t="n">
-        <v>0.3440353188336969</v>
+        <v>9584.194</v>
       </c>
     </row>
     <row r="285">
@@ -12690,16 +12690,16 @@
         <v>19.6</v>
       </c>
       <c r="H285" t="n">
-        <v>0.4715791360382226</v>
+        <v>111.8</v>
       </c>
       <c r="I285" t="n">
-        <v>0.4366576722400266</v>
+        <v>27.788</v>
       </c>
       <c r="J285" t="n">
-        <v>0.4097238979042868</v>
+        <v>124.67</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3801433386298147</v>
+        <v>10014.096</v>
       </c>
     </row>
     <row r="286">
@@ -12733,16 +12733,16 @@
         <v>23.6</v>
       </c>
       <c r="H286" t="n">
-        <v>0.6131134057170418</v>
+        <v>130.6</v>
       </c>
       <c r="I286" t="n">
-        <v>0.5664588191003787</v>
+        <v>32.04199999999999</v>
       </c>
       <c r="J286" t="n">
-        <v>0.3166541533972326</v>
+        <v>115.008</v>
       </c>
       <c r="K286" t="n">
-        <v>0.4535127314718322</v>
+        <v>10891.494</v>
       </c>
     </row>
     <row r="287">
@@ -12776,16 +12776,16 @@
         <v>20</v>
       </c>
       <c r="H287" t="n">
-        <v>0.4463278558464299</v>
+        <v>108.6666666666667</v>
       </c>
       <c r="I287" t="n">
-        <v>0.3814910794952991</v>
+        <v>26.06333333333333</v>
       </c>
       <c r="J287" t="n">
-        <v>0.3119062623313486</v>
+        <v>114.5033333333333</v>
       </c>
       <c r="K287" t="n">
-        <v>0.3051249903886046</v>
+        <v>9116.513333333334</v>
       </c>
     </row>
     <row r="288">
@@ -12819,16 +12819,16 @@
         <v>20</v>
       </c>
       <c r="H288" t="n">
-        <v>0.5713189055206722</v>
+        <v>124.75</v>
       </c>
       <c r="I288" t="n">
-        <v>0.5336009859955521</v>
+        <v>30.9225</v>
       </c>
       <c r="J288" t="n">
-        <v>0.3330429434809801</v>
+        <v>116.7375</v>
       </c>
       <c r="K288" t="n">
-        <v>0.4560275310402662</v>
+        <v>10921.925</v>
       </c>
     </row>
     <row r="289">
@@ -12862,16 +12862,16 @@
         <v>20</v>
       </c>
       <c r="H289" t="n">
-        <v>0.5527754964475436</v>
+        <v>122.25</v>
       </c>
       <c r="I289" t="n">
-        <v>0.4986873726579013</v>
+        <v>29.77</v>
       </c>
       <c r="J289" t="n">
-        <v>0.3830595480164747</v>
+        <v>121.93</v>
       </c>
       <c r="K289" t="n">
-        <v>0.4185362330337496</v>
+        <v>10471.3225</v>
       </c>
     </row>
     <row r="290">
@@ -12905,16 +12905,16 @@
         <v>19.6</v>
       </c>
       <c r="H290" t="n">
-        <v>0.5048489995851966</v>
+        <v>116</v>
       </c>
       <c r="I290" t="n">
-        <v>0.566747150015393</v>
+        <v>32.052</v>
       </c>
       <c r="J290" t="n">
-        <v>0.5975880909227249</v>
+        <v>144.616</v>
       </c>
       <c r="K290" t="n">
-        <v>0.630079811073851</v>
+        <v>13187.788</v>
       </c>
     </row>
     <row r="291">
@@ -12948,16 +12948,16 @@
         <v>21.6</v>
       </c>
       <c r="H291" t="n">
-        <v>0.5017134526127051</v>
+        <v>115.6</v>
       </c>
       <c r="I291" t="n">
-        <v>0.5575902548211241</v>
+        <v>31.736</v>
       </c>
       <c r="J291" t="n">
-        <v>0.5588501540478589</v>
+        <v>140.296</v>
       </c>
       <c r="K291" t="n">
-        <v>0.5826742254588773</v>
+        <v>12527.556</v>
       </c>
     </row>
     <row r="292">
@@ -12991,16 +12991,16 @@
         <v>24</v>
       </c>
       <c r="H292" t="n">
-        <v>0.3277699860253067</v>
+        <v>94.2</v>
       </c>
       <c r="I292" t="n">
-        <v>0.376375348502167</v>
+        <v>25.904</v>
       </c>
       <c r="J292" t="n">
-        <v>0.6402433925759645</v>
+        <v>149.606</v>
       </c>
       <c r="K292" t="n">
-        <v>0.4306286549916371</v>
+        <v>10616.026</v>
       </c>
     </row>
     <row r="293">
@@ -13034,16 +13034,16 @@
         <v>23.6</v>
       </c>
       <c r="H293" t="n">
-        <v>0.6725881639136115</v>
+        <v>139.6</v>
       </c>
       <c r="I293" t="n">
-        <v>0.7441398234447818</v>
+        <v>39.18</v>
       </c>
       <c r="J293" t="n">
-        <v>0.5104258957620376</v>
+        <v>135.098</v>
       </c>
       <c r="K293" t="n">
-        <v>0.7797985270679185</v>
+        <v>15726.446</v>
       </c>
     </row>
     <row r="294">
@@ -13077,16 +13077,16 @@
         <v>22.4</v>
       </c>
       <c r="H294" t="n">
-        <v>0.1802884399849394</v>
+        <v>75</v>
       </c>
       <c r="I294" t="n">
-        <v>0.1904238225755907</v>
+        <v>19.83</v>
       </c>
       <c r="J294" t="n">
-        <v>0.5436521029304181</v>
+        <v>138.644</v>
       </c>
       <c r="K294" t="n">
-        <v>0.205558346282822</v>
+        <v>7855.488</v>
       </c>
     </row>
     <row r="295">
@@ -13120,16 +13120,16 @@
         <v>20.5</v>
       </c>
       <c r="H295" t="n">
-        <v>0.4510522567932941</v>
+        <v>109.25</v>
       </c>
       <c r="I295" t="n">
-        <v>0.505963317859967</v>
+        <v>30.0075</v>
       </c>
       <c r="J295" t="n">
-        <v>0.6070780201233907</v>
+        <v>145.7025</v>
       </c>
       <c r="K295" t="n">
-        <v>0.531616215310819</v>
+        <v>11858.815</v>
       </c>
     </row>
     <row r="296">
@@ -13163,16 +13163,16 @@
         <v>19.5</v>
       </c>
       <c r="H296" t="n">
-        <v>0.4490287111607099</v>
+        <v>109</v>
       </c>
       <c r="I296" t="n">
-        <v>0.5252133309484913</v>
+        <v>30.6425</v>
       </c>
       <c r="J296" t="n">
-        <v>0.6153719523514718</v>
+        <v>146.6625</v>
       </c>
       <c r="K296" t="n">
-        <v>0.5850236882300103</v>
+        <v>12559.2775</v>
       </c>
     </row>
     <row r="297">
@@ -13206,16 +13206,16 @@
         <v>29.6</v>
       </c>
       <c r="H297" t="n">
-        <v>0.4082424484202461</v>
+        <v>104</v>
       </c>
       <c r="I297" t="n">
-        <v>0.5043277797153839</v>
+        <v>29.954</v>
       </c>
       <c r="J297" t="n">
-        <v>0.7208820137425456</v>
+        <v>160.036</v>
       </c>
       <c r="K297" t="n">
-        <v>0.5339121452911697</v>
+        <v>11888.136</v>
       </c>
     </row>
     <row r="298">
@@ -13249,16 +13249,16 @@
         <v>19.5</v>
       </c>
       <c r="H298" t="n">
-        <v>0.4164389414912473</v>
+        <v>105</v>
       </c>
       <c r="I298" t="n">
-        <v>0.4446513827762679</v>
+        <v>28.04</v>
       </c>
       <c r="J298" t="n">
-        <v>0.5370247804012381</v>
+        <v>137.93</v>
       </c>
       <c r="K298" t="n">
-        <v>0.4867791934171696</v>
+        <v>11297.3</v>
       </c>
     </row>
     <row r="299">
@@ -13292,16 +13292,16 @@
         <v>20</v>
       </c>
       <c r="H299" t="n">
-        <v>0.1577428532995831</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="I299" t="n">
-        <v>0.143126587608664</v>
+        <v>18.02</v>
       </c>
       <c r="J299" t="n">
-        <v>0.4137188927225456</v>
+        <v>125.08</v>
       </c>
       <c r="K299" t="n">
-        <v>0.1641960914138666</v>
+        <v>7275.13</v>
       </c>
     </row>
     <row r="300">
@@ -13335,16 +13335,16 @@
         <v>23.5</v>
       </c>
       <c r="H300" t="n">
-        <v>0.2679031870087039</v>
+        <v>86.75</v>
       </c>
       <c r="I300" t="n">
-        <v>0.3063639898994026</v>
+        <v>23.71</v>
       </c>
       <c r="J300" t="n">
-        <v>0.7567113156424456</v>
+        <v>165.2875</v>
       </c>
       <c r="K300" t="n">
-        <v>0.3458073296268766</v>
+        <v>9605.3475</v>
       </c>
     </row>
     <row r="301">
@@ -13378,16 +13378,16 @@
         <v>19.5</v>
       </c>
       <c r="H301" t="n">
-        <v>0.4631531751216404</v>
+        <v>110.75</v>
       </c>
       <c r="I301" t="n">
-        <v>0.5012959270673096</v>
+        <v>29.855</v>
       </c>
       <c r="J301" t="n">
-        <v>0.7186752301552574</v>
+        <v>159.7275</v>
       </c>
       <c r="K301" t="n">
-        <v>0.5521134010106261</v>
+        <v>12122.8975</v>
       </c>
     </row>
     <row r="302">
@@ -13421,16 +13421,16 @@
         <v>22</v>
       </c>
       <c r="H302" t="n">
-        <v>0.4205312259932071</v>
+        <v>105.5</v>
       </c>
       <c r="I302" t="n">
-        <v>0.441482215976871</v>
+        <v>27.94</v>
       </c>
       <c r="J302" t="n">
-        <v>0.5895050342386621</v>
+        <v>143.7</v>
       </c>
       <c r="K302" t="n">
-        <v>0.4825170149659042</v>
+        <v>11244.8725</v>
       </c>
     </row>
     <row r="303">
@@ -13464,16 +13464,16 @@
         <v>20.5</v>
       </c>
       <c r="H303" t="n">
-        <v>0.2051947611068653</v>
+        <v>78.5</v>
       </c>
       <c r="I303" t="n">
-        <v>0.1889077310608567</v>
+        <v>19.775</v>
       </c>
       <c r="J303" t="n">
-        <v>0.3660510812158951</v>
+        <v>120.175</v>
       </c>
       <c r="K303" t="n">
-        <v>0.1807819619392656</v>
+        <v>7513.959999999999</v>
       </c>
     </row>
     <row r="304">
@@ -13507,16 +13507,16 @@
         <v>19</v>
       </c>
       <c r="H304" t="n">
-        <v>0.1943764935201569</v>
+        <v>77</v>
       </c>
       <c r="I304" t="n">
-        <v>0.1959048851083648</v>
+        <v>20.0275</v>
       </c>
       <c r="J304" t="n">
-        <v>0.5668547601715361</v>
+        <v>141.175</v>
       </c>
       <c r="K304" t="n">
-        <v>0.220508122532277</v>
+        <v>8054.4625</v>
       </c>
     </row>
     <row r="305">
@@ -13550,16 +13550,16 @@
         <v>20</v>
       </c>
       <c r="H305" t="n">
-        <v>0.3897574718106844</v>
+        <v>101.75</v>
       </c>
       <c r="I305" t="n">
-        <v>0.4179212894167328</v>
+        <v>27.2</v>
       </c>
       <c r="J305" t="n">
-        <v>0.6701103647717581</v>
+        <v>153.29</v>
       </c>
       <c r="K305" t="n">
-        <v>0.4584963970314069</v>
+        <v>10951.835</v>
       </c>
     </row>
     <row r="306">
@@ -13593,16 +13593,16 @@
         <v>19.6</v>
       </c>
       <c r="H306" t="n">
-        <v>0.3359408707392572</v>
+        <v>95.2</v>
       </c>
       <c r="I306" t="n">
-        <v>0.4008292116577968</v>
+        <v>26.666</v>
       </c>
       <c r="J306" t="n">
-        <v>0.7722631524733152</v>
+        <v>167.732</v>
       </c>
       <c r="K306" t="n">
-        <v>0.4596683940653569</v>
+        <v>10966.046</v>
       </c>
     </row>
     <row r="307">
@@ -13636,16 +13636,16 @@
         <v>19.2</v>
       </c>
       <c r="H307" t="n">
-        <v>0.2889438729558442</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I307" t="n">
-        <v>0.3112252367915463</v>
+        <v>23.864</v>
       </c>
       <c r="J307" t="n">
-        <v>0.5294474829436048</v>
+        <v>137.118</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3413966761013014</v>
+        <v>9552.678</v>
       </c>
     </row>
     <row r="308">
@@ -13679,16 +13679,16 @@
         <v>22.4</v>
       </c>
       <c r="H308" t="n">
-        <v>0.8320202353380828</v>
+        <v>171.4</v>
       </c>
       <c r="I308" t="n">
-        <v>0.7442223991282679</v>
+        <v>39.184</v>
       </c>
       <c r="J308" t="n">
-        <v>0.03166287361863934</v>
+        <v>70.536</v>
       </c>
       <c r="K308" t="n">
-        <v>0.5312329171722789</v>
+        <v>11853.926</v>
       </c>
     </row>
     <row r="309">
@@ -13722,16 +13722,16 @@
         <v>20.5</v>
       </c>
       <c r="H309" t="n">
-        <v>0.7293521505573221</v>
+        <v>149.25</v>
       </c>
       <c r="I309" t="n">
-        <v>0.7066554757407058</v>
+        <v>37.4525</v>
       </c>
       <c r="J309" t="n">
-        <v>0.2582216388222998</v>
+        <v>108.6425</v>
       </c>
       <c r="K309" t="n">
-        <v>0.6455006573901045</v>
+        <v>13413.04</v>
       </c>
     </row>
     <row r="310">
@@ -13765,16 +13765,16 @@
         <v>17.2</v>
       </c>
       <c r="H310" t="n">
-        <v>0.6560377706954769</v>
+        <v>137</v>
       </c>
       <c r="I310" t="n">
-        <v>0.6179776600601821</v>
+        <v>33.888</v>
       </c>
       <c r="J310" t="n">
-        <v>0.15862765340229</v>
+        <v>96.38000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>0.5352449631910422</v>
+        <v>11905.186</v>
       </c>
     </row>
     <row r="311">
@@ -13808,16 +13808,16 @@
         <v>20.4</v>
       </c>
       <c r="H311" t="n">
-        <v>0.6117235583057103</v>
+        <v>130.4</v>
       </c>
       <c r="I311" t="n">
-        <v>0.5033485414445197</v>
+        <v>29.922</v>
       </c>
       <c r="J311" t="n">
-        <v>0.3076183370043967</v>
+        <v>114.046</v>
       </c>
       <c r="K311" t="n">
-        <v>0.4270216015690863</v>
+        <v>10572.81</v>
       </c>
     </row>
     <row r="312">
@@ -13851,16 +13851,16 @@
         <v>18.8</v>
       </c>
       <c r="H312" t="n">
-        <v>0.8297214273469853</v>
+        <v>170.8</v>
       </c>
       <c r="I312" t="n">
-        <v>0.7603086059090338</v>
+        <v>39.98200000000001</v>
       </c>
       <c r="J312" t="n">
-        <v>0.07659577082574076</v>
+        <v>82.762</v>
       </c>
       <c r="K312" t="n">
-        <v>0.6112189224674545</v>
+        <v>12919.718</v>
       </c>
     </row>
     <row r="313">
@@ -13894,16 +13894,16 @@
         <v>19</v>
       </c>
       <c r="H313" t="n">
-        <v>0.7481042469487278</v>
+        <v>152.75</v>
       </c>
       <c r="I313" t="n">
-        <v>0.6797496444417472</v>
+        <v>36.305</v>
       </c>
       <c r="J313" t="n">
-        <v>0.07500970579027499</v>
+        <v>82.42750000000001</v>
       </c>
       <c r="K313" t="n">
-        <v>0.5156507901644218</v>
+        <v>11656.5725</v>
       </c>
     </row>
     <row r="314">
@@ -13937,16 +13937,16 @@
         <v>21.6</v>
       </c>
       <c r="H314" t="n">
-        <v>0.5064139559412348</v>
+        <v>116.2</v>
       </c>
       <c r="I314" t="n">
-        <v>0.4594889426572313</v>
+        <v>28.51</v>
       </c>
       <c r="J314" t="n">
-        <v>0.1796712591572975</v>
+        <v>99.20399999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>0.3898962151614834</v>
+        <v>10130.068</v>
       </c>
     </row>
     <row r="315">
@@ -13980,16 +13980,16 @@
         <v>18.5</v>
       </c>
       <c r="H315" t="n">
-        <v>0.8488183454089091</v>
+        <v>176</v>
       </c>
       <c r="I315" t="n">
-        <v>0.854545116159832</v>
+        <v>45.74</v>
       </c>
       <c r="J315" t="n">
-        <v>0.2444997593774788</v>
+        <v>107.085</v>
       </c>
       <c r="K315" t="n">
-        <v>0.8079633602253244</v>
+        <v>16338.675</v>
       </c>
     </row>
     <row r="316">
@@ -14023,16 +14023,16 @@
         <v>16.8</v>
       </c>
       <c r="H316" t="n">
-        <v>0.6033249411321204</v>
+        <v>129.2</v>
       </c>
       <c r="I316" t="n">
-        <v>0.5282612441313123</v>
+        <v>30.74399999999999</v>
       </c>
       <c r="J316" t="n">
-        <v>0.1548929995214395</v>
+        <v>95.86000000000001</v>
       </c>
       <c r="K316" t="n">
-        <v>0.4560761767810442</v>
+        <v>10922.514</v>
       </c>
     </row>
     <row r="317">
@@ -14066,16 +14066,16 @@
         <v>18.5</v>
       </c>
       <c r="H317" t="n">
-        <v>0.4164389414912473</v>
+        <v>105</v>
       </c>
       <c r="I317" t="n">
-        <v>0.3428256282933866</v>
+        <v>24.8575</v>
       </c>
       <c r="J317" t="n">
-        <v>0.07601488524289619</v>
+        <v>82.64</v>
       </c>
       <c r="K317" t="n">
-        <v>0.2499141258542467</v>
+        <v>8433.8325</v>
       </c>
     </row>
     <row r="318">
@@ -14109,16 +14109,16 @@
         <v>19</v>
       </c>
       <c r="H318" t="n">
-        <v>0.6719613308379615</v>
+        <v>139.5</v>
       </c>
       <c r="I318" t="n">
-        <v>0.6132338140039967</v>
+        <v>33.7125</v>
       </c>
       <c r="J318" t="n">
-        <v>0.1826057842564567</v>
+        <v>99.58499999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>0.4812647041913835</v>
+        <v>11229.495</v>
       </c>
     </row>
     <row r="319">
@@ -14152,16 +14152,16 @@
         <v>22</v>
       </c>
       <c r="H319" t="n">
-        <v>0.7728064382102569</v>
+        <v>157.6666666666667</v>
       </c>
       <c r="I319" t="n">
-        <v>0.752032381891324</v>
+        <v>39.56666666666667</v>
       </c>
       <c r="J319" t="n">
-        <v>0.1569223693586859</v>
+        <v>96.14333333333333</v>
       </c>
       <c r="K319" t="n">
-        <v>0.6759929569220908</v>
+        <v>13877.05</v>
       </c>
     </row>
     <row r="320">
@@ -14195,16 +14195,16 @@
         <v>21.5</v>
       </c>
       <c r="H320" t="n">
-        <v>0.7896213367604104</v>
+        <v>161.25</v>
       </c>
       <c r="I320" t="n">
-        <v>0.7442430400124146</v>
+        <v>39.185</v>
       </c>
       <c r="J320" t="n">
-        <v>0.3715422361329234</v>
+        <v>120.7425</v>
       </c>
       <c r="K320" t="n">
-        <v>0.686230271763363</v>
+        <v>14039.1275</v>
       </c>
     </row>
     <row r="321">
@@ -14238,16 +14238,16 @@
         <v>19.2</v>
       </c>
       <c r="H321" t="n">
-        <v>0.5372902245594187</v>
+        <v>120.2</v>
       </c>
       <c r="I321" t="n">
-        <v>0.5005905756538623</v>
+        <v>29.832</v>
       </c>
       <c r="J321" t="n">
-        <v>0.1197290374880305</v>
+        <v>90.602</v>
       </c>
       <c r="K321" t="n">
-        <v>0.3869162221816604</v>
+        <v>10094.628</v>
       </c>
     </row>
     <row r="322">
@@ -14281,16 +14281,16 @@
         <v>18</v>
       </c>
       <c r="H322" t="n">
-        <v>0.6495334141260398</v>
+        <v>136</v>
       </c>
       <c r="I322" t="n">
-        <v>0.611944095255995</v>
+        <v>33.665</v>
       </c>
       <c r="J322" t="n">
-        <v>0.1694796961464785</v>
+        <v>97.8575</v>
       </c>
       <c r="K322" t="n">
-        <v>0.5902815907684504</v>
+        <v>12630.6125</v>
       </c>
     </row>
     <row r="323">
@@ -14324,16 +14324,16 @@
         <v>21.33333333333333</v>
       </c>
       <c r="H323" t="n">
-        <v>0.4490287111607099</v>
+        <v>109</v>
       </c>
       <c r="I323" t="n">
-        <v>0.3515459539572696</v>
+        <v>25.13</v>
       </c>
       <c r="J323" t="n">
-        <v>0.1402500281446921</v>
+        <v>93.75666666666666</v>
       </c>
       <c r="K323" t="n">
-        <v>0.284161026595848</v>
+        <v>8860.746666666666</v>
       </c>
     </row>
     <row r="324">
@@ -14367,16 +14367,16 @@
         <v>18.4</v>
       </c>
       <c r="H324" t="n">
-        <v>0.5847855917153468</v>
+        <v>126.6</v>
       </c>
       <c r="I324" t="n">
-        <v>0.5254388297980486</v>
+        <v>30.65</v>
       </c>
       <c r="J324" t="n">
-        <v>0.2158110829290258</v>
+        <v>103.72</v>
       </c>
       <c r="K324" t="n">
-        <v>0.4275805797307304</v>
+        <v>10579.504</v>
       </c>
     </row>
     <row r="325">
@@ -14410,16 +14410,16 @@
         <v>18.66666666666667</v>
       </c>
       <c r="H325" t="n">
-        <v>0.6135760534317087</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="I325" t="n">
-        <v>0.5913073730745073</v>
+        <v>32.91666666666666</v>
       </c>
       <c r="J325" t="n">
-        <v>0.3316703607251496</v>
+        <v>116.5933333333333</v>
       </c>
       <c r="K325" t="n">
-        <v>0.5698406298852386</v>
+        <v>12355.88666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MTT_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K325"/>
+  <dimension ref="A1:N325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -524,14 +539,21 @@
         <v>61.8</v>
       </c>
       <c r="I2" t="n">
-        <v>16.444</v>
+        <v>62.17399999999999</v>
       </c>
       <c r="J2" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L2" t="n">
         <v>163.184</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>6528.83</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -567,13 +589,22 @@
         <v>54.25</v>
       </c>
       <c r="I3" t="n">
-        <v>14.1775</v>
+        <v>54.58</v>
       </c>
       <c r="J3" t="n">
+        <v>48.295</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21.6325</v>
+      </c>
+      <c r="L3" t="n">
         <v>153.2125</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>5510.422500000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +641,22 @@
         <v>44</v>
       </c>
       <c r="I4" t="n">
-        <v>10.145</v>
+        <v>44.1</v>
       </c>
       <c r="J4" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.525</v>
+      </c>
+      <c r="L4" t="n">
         <v>117.96</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3796.44</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="5">
@@ -653,13 +693,22 @@
         <v>63.4</v>
       </c>
       <c r="I5" t="n">
-        <v>16.75</v>
+        <v>63.78400000000001</v>
       </c>
       <c r="J5" t="n">
+        <v>57.61399999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="L5" t="n">
         <v>173.34</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>6687.386</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -696,13 +745,22 @@
         <v>41</v>
       </c>
       <c r="I6" t="n">
-        <v>10.57</v>
+        <v>41.3325</v>
       </c>
       <c r="J6" t="n">
+        <v>36.3875</v>
+      </c>
+      <c r="K6" t="n">
+        <v>16.0925</v>
+      </c>
+      <c r="L6" t="n">
         <v>171.9375</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>4088.4475</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="7">
@@ -739,13 +797,22 @@
         <v>56.2</v>
       </c>
       <c r="I7" t="n">
-        <v>14.626</v>
+        <v>56.60600000000001</v>
       </c>
       <c r="J7" t="n">
+        <v>50.03599999999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22.286</v>
+      </c>
+      <c r="L7" t="n">
         <v>143.384</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>5734.658</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="8">
@@ -782,13 +849,22 @@
         <v>62.8</v>
       </c>
       <c r="I8" t="n">
-        <v>16.55</v>
+        <v>63.048</v>
       </c>
       <c r="J8" t="n">
+        <v>60.098</v>
+      </c>
+      <c r="K8" t="n">
+        <v>25.05399999999999</v>
+      </c>
+      <c r="L8" t="n">
         <v>165.812</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>6589.93</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="9">
@@ -825,13 +901,22 @@
         <v>62.8</v>
       </c>
       <c r="I9" t="n">
-        <v>16.224</v>
+        <v>63.04600000000001</v>
       </c>
       <c r="J9" t="n">
+        <v>56.80799999999999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24.682</v>
+      </c>
+      <c r="L9" t="n">
         <v>155.28</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>6322.86</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-10.16</v>
       </c>
     </row>
     <row r="10">
@@ -868,13 +953,22 @@
         <v>45</v>
       </c>
       <c r="I10" t="n">
-        <v>11.642</v>
+        <v>45.54</v>
       </c>
       <c r="J10" t="n">
+        <v>38.966</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.586</v>
+      </c>
+      <c r="L10" t="n">
         <v>174.874</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>4710.397999999999</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="11">
@@ -911,13 +1005,22 @@
         <v>40</v>
       </c>
       <c r="I11" t="n">
-        <v>10.06</v>
+        <v>40.3225</v>
       </c>
       <c r="J11" t="n">
+        <v>35.8825</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.2475</v>
+      </c>
+      <c r="L11" t="n">
         <v>161.92</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>4017.9725</v>
+      </c>
+      <c r="N11" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="12">
@@ -954,13 +1057,22 @@
         <v>39</v>
       </c>
       <c r="I12" t="n">
-        <v>9.610000000000001</v>
+        <v>39.2375</v>
       </c>
       <c r="J12" t="n">
+        <v>34.46</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.5975</v>
+      </c>
+      <c r="L12" t="n">
         <v>137.4475</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3764.9425</v>
+      </c>
+      <c r="N12" t="n">
+        <v>19.21</v>
       </c>
     </row>
     <row r="13">
@@ -997,13 +1109,22 @@
         <v>51.2</v>
       </c>
       <c r="I13" t="n">
-        <v>13.162</v>
+        <v>51.98</v>
       </c>
       <c r="J13" t="n">
+        <v>47.554</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20.016</v>
+      </c>
+      <c r="L13" t="n">
         <v>147.922</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>5163.52</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="14">
@@ -1040,13 +1161,22 @@
         <v>45.8</v>
       </c>
       <c r="I14" t="n">
-        <v>11.084</v>
+        <v>46.412</v>
       </c>
       <c r="J14" t="n">
+        <v>38.89999999999999</v>
+      </c>
+      <c r="K14" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="L14" t="n">
         <v>137.822</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>4218.411999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>26.99</v>
       </c>
     </row>
     <row r="15">
@@ -1083,13 +1213,22 @@
         <v>45.6</v>
       </c>
       <c r="I15" t="n">
-        <v>11.998</v>
+        <v>46.078</v>
       </c>
       <c r="J15" t="n">
+        <v>44.672</v>
+      </c>
+      <c r="K15" t="n">
+        <v>18.194</v>
+      </c>
+      <c r="L15" t="n">
         <v>154.764</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>4796.368</v>
+      </c>
+      <c r="N15" t="n">
+        <v>22.39</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1265,22 @@
         <v>45.75</v>
       </c>
       <c r="I16" t="n">
-        <v>11.7625</v>
+        <v>46.195</v>
       </c>
       <c r="J16" t="n">
+        <v>41.7525</v>
+      </c>
+      <c r="K16" t="n">
+        <v>17.925</v>
+      </c>
+      <c r="L16" t="n">
         <v>167.04</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>4574.085</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="17">
@@ -1169,13 +1317,22 @@
         <v>43</v>
       </c>
       <c r="I17" t="n">
-        <v>10.538</v>
+        <v>43.528</v>
       </c>
       <c r="J17" t="n">
+        <v>39.838</v>
+      </c>
+      <c r="K17" t="n">
+        <v>16.134</v>
+      </c>
+      <c r="L17" t="n">
         <v>136.432</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>3941.98</v>
+      </c>
+      <c r="N17" t="n">
+        <v>23.05</v>
       </c>
     </row>
     <row r="18">
@@ -1212,13 +1369,22 @@
         <v>45.6</v>
       </c>
       <c r="I18" t="n">
-        <v>11.546</v>
+        <v>46.278</v>
       </c>
       <c r="J18" t="n">
+        <v>41.316</v>
+      </c>
+      <c r="K18" t="n">
+        <v>17.592</v>
+      </c>
+      <c r="L18" t="n">
         <v>161.826</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>4497.066</v>
+      </c>
+      <c r="N18" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1421,22 @@
         <v>55.5</v>
       </c>
       <c r="I19" t="n">
-        <v>14.3275</v>
+        <v>55.91749999999999</v>
       </c>
       <c r="J19" t="n">
+        <v>48.95999999999999</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21.805</v>
+      </c>
+      <c r="L19" t="n">
         <v>147.005</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>5558.764999999999</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="20">
@@ -1298,14 +1473,21 @@
         <v>162.6</v>
       </c>
       <c r="I20" t="n">
-        <v>43.534</v>
+        <v>153.862</v>
       </c>
       <c r="J20" t="n">
+        <v>144.34</v>
+      </c>
+      <c r="K20" t="n">
+        <v>66.78799999999998</v>
+      </c>
+      <c r="L20" t="n">
         <v>127.974</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>15918.314</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1341,13 +1523,22 @@
         <v>142.75</v>
       </c>
       <c r="I21" t="n">
-        <v>38.3775</v>
+        <v>139.925</v>
       </c>
       <c r="J21" t="n">
+        <v>123.7475</v>
+      </c>
+      <c r="K21" t="n">
+        <v>58.6675</v>
+      </c>
+      <c r="L21" t="n">
         <v>135.3175</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>14010.35</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="22">
@@ -1384,13 +1575,22 @@
         <v>120.6</v>
       </c>
       <c r="I22" t="n">
-        <v>30.728</v>
+        <v>120.73</v>
       </c>
       <c r="J22" t="n">
+        <v>106.108</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47.256</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.414</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>11216.966</v>
+      </c>
+      <c r="N22" t="n">
+        <v>30.27</v>
       </c>
     </row>
     <row r="23">
@@ -1427,13 +1627,22 @@
         <v>156.2</v>
       </c>
       <c r="I23" t="n">
-        <v>41.878</v>
+        <v>147.49</v>
       </c>
       <c r="J23" t="n">
+        <v>129.648</v>
+      </c>
+      <c r="K23" t="n">
+        <v>63.80399999999999</v>
+      </c>
+      <c r="L23" t="n">
         <v>143.976</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>15539.71</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="24">
@@ -1470,13 +1679,22 @@
         <v>161.6</v>
       </c>
       <c r="I24" t="n">
-        <v>45.44600000000001</v>
+        <v>161.974</v>
       </c>
       <c r="J24" t="n">
+        <v>146.348</v>
+      </c>
+      <c r="K24" t="n">
+        <v>69.48599999999999</v>
+      </c>
+      <c r="L24" t="n">
         <v>150.536</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>16680.038</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="25">
@@ -1513,13 +1731,22 @@
         <v>150.2</v>
       </c>
       <c r="I25" t="n">
-        <v>42.116</v>
+        <v>150.238</v>
       </c>
       <c r="J25" t="n">
+        <v>140.18</v>
+      </c>
+      <c r="K25" t="n">
+        <v>63.904</v>
+      </c>
+      <c r="L25" t="n">
         <v>172.688</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>16385.752</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.779999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1556,13 +1783,22 @@
         <v>154.3333333333333</v>
       </c>
       <c r="I26" t="n">
-        <v>39.41666666666666</v>
+        <v>154.5966666666667</v>
       </c>
       <c r="J26" t="n">
+        <v>141.9666666666667</v>
+      </c>
+      <c r="K26" t="n">
+        <v>60.69</v>
+      </c>
+      <c r="L26" t="n">
         <v>125.6033333333333</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>13964.33333333333</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11.92</v>
       </c>
     </row>
     <row r="27">
@@ -1599,13 +1835,22 @@
         <v>136.2</v>
       </c>
       <c r="I27" t="n">
-        <v>37.162</v>
+        <v>135.884</v>
       </c>
       <c r="J27" t="n">
+        <v>117.312</v>
+      </c>
+      <c r="K27" t="n">
+        <v>57.184</v>
+      </c>
+      <c r="L27" t="n">
         <v>123.844</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>12276.214</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.65</v>
       </c>
     </row>
     <row r="28">
@@ -1642,13 +1887,22 @@
         <v>139.8</v>
       </c>
       <c r="I28" t="n">
-        <v>38.59</v>
+        <v>139.974</v>
       </c>
       <c r="J28" t="n">
+        <v>126.898</v>
+      </c>
+      <c r="K28" t="n">
+        <v>59.076</v>
+      </c>
+      <c r="L28" t="n">
         <v>146.394</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>14719.204</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="29">
@@ -1685,13 +1939,22 @@
         <v>142.5</v>
       </c>
       <c r="I29" t="n">
-        <v>38.355</v>
+        <v>142.78</v>
       </c>
       <c r="J29" t="n">
+        <v>121.15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>58.8525</v>
+      </c>
+      <c r="L29" t="n">
         <v>127.0775</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>14286.5725</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="30">
@@ -1728,13 +1991,22 @@
         <v>126</v>
       </c>
       <c r="I30" t="n">
-        <v>33.178</v>
+        <v>126.564</v>
       </c>
       <c r="J30" t="n">
+        <v>113.284</v>
+      </c>
+      <c r="K30" t="n">
+        <v>51.124</v>
+      </c>
+      <c r="L30" t="n">
         <v>126.392</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>12078.422</v>
+      </c>
+      <c r="N30" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="31">
@@ -1771,13 +2043,22 @@
         <v>146</v>
       </c>
       <c r="I31" t="n">
-        <v>39.23</v>
+        <v>146.2975</v>
       </c>
       <c r="J31" t="n">
+        <v>128.775</v>
+      </c>
+      <c r="K31" t="n">
+        <v>60.23</v>
+      </c>
+      <c r="L31" t="n">
         <v>139.6975</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>14584.175</v>
+      </c>
+      <c r="N31" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="32">
@@ -1814,13 +2095,22 @@
         <v>136.75</v>
       </c>
       <c r="I32" t="n">
-        <v>38.075</v>
+        <v>136.91</v>
       </c>
       <c r="J32" t="n">
+        <v>116.625</v>
+      </c>
+      <c r="K32" t="n">
+        <v>58.485</v>
+      </c>
+      <c r="L32" t="n">
         <v>150.3575</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>14286.235</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="33">
@@ -1857,13 +2147,22 @@
         <v>154.8</v>
       </c>
       <c r="I33" t="n">
-        <v>43.04199999999999</v>
+        <v>143.802</v>
       </c>
       <c r="J33" t="n">
+        <v>130.858</v>
+      </c>
+      <c r="K33" t="n">
+        <v>66.04400000000001</v>
+      </c>
+      <c r="L33" t="n">
         <v>151.046</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>15675.44</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="34">
@@ -1900,13 +2199,22 @@
         <v>147.25</v>
       </c>
       <c r="I34" t="n">
-        <v>39.2375</v>
+        <v>147.7225</v>
       </c>
       <c r="J34" t="n">
+        <v>126.6775</v>
+      </c>
+      <c r="K34" t="n">
+        <v>60.1375</v>
+      </c>
+      <c r="L34" t="n">
         <v>132.1025</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>14645.2725</v>
+      </c>
+      <c r="N34" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="35">
@@ -1943,13 +2251,22 @@
         <v>126.6</v>
       </c>
       <c r="I35" t="n">
-        <v>33.33</v>
+        <v>126.964</v>
       </c>
       <c r="J35" t="n">
+        <v>112.412</v>
+      </c>
+      <c r="K35" t="n">
+        <v>51.39000000000001</v>
+      </c>
+      <c r="L35" t="n">
         <v>125.65</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>12250.756</v>
+      </c>
+      <c r="N35" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="36">
@@ -1986,13 +2303,22 @@
         <v>144.5</v>
       </c>
       <c r="I36" t="n">
-        <v>39.735</v>
+        <v>145.125</v>
       </c>
       <c r="J36" t="n">
+        <v>118.9675</v>
+      </c>
+      <c r="K36" t="n">
+        <v>60.28000000000001</v>
+      </c>
+      <c r="L36" t="n">
         <v>147.29</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>15848.1175</v>
+      </c>
+      <c r="N36" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="37">
@@ -2029,13 +2355,22 @@
         <v>131.5</v>
       </c>
       <c r="I37" t="n">
-        <v>33.685</v>
+        <v>131.6275</v>
       </c>
       <c r="J37" t="n">
+        <v>114.4425</v>
+      </c>
+      <c r="K37" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="L37" t="n">
         <v>123.79</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>11943.53</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9.91</v>
       </c>
     </row>
     <row r="38">
@@ -2072,14 +2407,21 @@
         <v>128</v>
       </c>
       <c r="I38" t="n">
-        <v>31.5</v>
+        <v>128.24</v>
       </c>
       <c r="J38" t="n">
+        <v>119.32</v>
+      </c>
+      <c r="K38" t="n">
+        <v>48.756</v>
+      </c>
+      <c r="L38" t="n">
         <v>106.794</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>10787.114</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2115,13 +2457,22 @@
         <v>125.25</v>
       </c>
       <c r="I39" t="n">
-        <v>32.3975</v>
+        <v>125.5075</v>
       </c>
       <c r="J39" t="n">
+        <v>115.53</v>
+      </c>
+      <c r="K39" t="n">
+        <v>50.065</v>
+      </c>
+      <c r="L39" t="n">
         <v>118.2625</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>11491.285</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="40">
@@ -2158,13 +2509,22 @@
         <v>72.59999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>17.42</v>
+        <v>72.502</v>
       </c>
       <c r="J40" t="n">
+        <v>64.65600000000001</v>
+      </c>
+      <c r="K40" t="n">
+        <v>26.742</v>
+      </c>
+      <c r="L40" t="n">
         <v>123.294</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>6386.172</v>
+      </c>
+      <c r="N40" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="41">
@@ -2201,13 +2561,22 @@
         <v>128.5</v>
       </c>
       <c r="I41" t="n">
-        <v>32.3425</v>
+        <v>128.3575</v>
       </c>
       <c r="J41" t="n">
+        <v>117.04</v>
+      </c>
+      <c r="K41" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="L41" t="n">
         <v>111.3225</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>10798.175</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="42">
@@ -2244,13 +2613,22 @@
         <v>127.8</v>
       </c>
       <c r="I42" t="n">
-        <v>31.324</v>
+        <v>128.104</v>
       </c>
       <c r="J42" t="n">
+        <v>123.544</v>
+      </c>
+      <c r="K42" t="n">
+        <v>48.628</v>
+      </c>
+      <c r="L42" t="n">
         <v>104.742</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>10317.342</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="43">
@@ -2287,13 +2665,22 @@
         <v>108.2</v>
       </c>
       <c r="I43" t="n">
-        <v>26.14</v>
+        <v>108.52</v>
       </c>
       <c r="J43" t="n">
+        <v>100.34</v>
+      </c>
+      <c r="K43" t="n">
+        <v>40.476</v>
+      </c>
+      <c r="L43" t="n">
         <v>106.964</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>8947.166000000001</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10.85</v>
       </c>
     </row>
     <row r="44">
@@ -2330,13 +2717,22 @@
         <v>93.25</v>
       </c>
       <c r="I44" t="n">
-        <v>24.1025</v>
+        <v>92.4725</v>
       </c>
       <c r="J44" t="n">
+        <v>80.8175</v>
+      </c>
+      <c r="K44" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="L44" t="n">
         <v>140.995</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>8624.377500000001</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="45">
@@ -2373,13 +2769,22 @@
         <v>124.4</v>
       </c>
       <c r="I45" t="n">
-        <v>30.67</v>
+        <v>124.618</v>
       </c>
       <c r="J45" t="n">
+        <v>114.424</v>
+      </c>
+      <c r="K45" t="n">
+        <v>47.458</v>
+      </c>
+      <c r="L45" t="n">
         <v>111.092</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>10638.702</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="46">
@@ -2416,13 +2821,22 @@
         <v>109.8</v>
       </c>
       <c r="I46" t="n">
-        <v>27.348</v>
+        <v>110.062</v>
       </c>
       <c r="J46" t="n">
+        <v>97.792</v>
+      </c>
+      <c r="K46" t="n">
+        <v>42.246</v>
+      </c>
+      <c r="L46" t="n">
         <v>113.388</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>9650.784000000001</v>
+      </c>
+      <c r="N46" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="47">
@@ -2459,13 +2873,22 @@
         <v>114.4</v>
       </c>
       <c r="I47" t="n">
-        <v>28.046</v>
+        <v>114.49</v>
       </c>
       <c r="J47" t="n">
+        <v>107.446</v>
+      </c>
+      <c r="K47" t="n">
+        <v>43.39999999999999</v>
+      </c>
+      <c r="L47" t="n">
         <v>109.606</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>10003.226</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="48">
@@ -2502,13 +2925,22 @@
         <v>85.2</v>
       </c>
       <c r="I48" t="n">
-        <v>21.894</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="J48" t="n">
+        <v>72.63800000000001</v>
+      </c>
+      <c r="K48" t="n">
+        <v>33.44600000000001</v>
+      </c>
+      <c r="L48" t="n">
         <v>128.038</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>8285.182000000001</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13.09</v>
       </c>
     </row>
     <row r="49">
@@ -2545,13 +2977,22 @@
         <v>92</v>
       </c>
       <c r="I49" t="n">
-        <v>22.5575</v>
+        <v>92.38999999999999</v>
       </c>
       <c r="J49" t="n">
+        <v>83.83999999999999</v>
+      </c>
+      <c r="K49" t="n">
+        <v>35.16249999999999</v>
+      </c>
+      <c r="L49" t="n">
         <v>108.285</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>7447.6525</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="50">
@@ -2588,13 +3029,22 @@
         <v>118</v>
       </c>
       <c r="I50" t="n">
-        <v>29.8775</v>
+        <v>118.13</v>
       </c>
       <c r="J50" t="n">
+        <v>110.4175</v>
+      </c>
+      <c r="K50" t="n">
+        <v>46.20999999999999</v>
+      </c>
+      <c r="L50" t="n">
         <v>102.85</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>9882.497499999999</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="51">
@@ -2631,13 +3081,22 @@
         <v>106.2</v>
       </c>
       <c r="I51" t="n">
-        <v>27.108</v>
+        <v>105.566</v>
       </c>
       <c r="J51" t="n">
+        <v>98.65800000000002</v>
+      </c>
+      <c r="K51" t="n">
+        <v>41.60600000000001</v>
+      </c>
+      <c r="L51" t="n">
         <v>125.13</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>9492.828000000001</v>
+      </c>
+      <c r="N51" t="n">
+        <v>11.93</v>
       </c>
     </row>
     <row r="52">
@@ -2674,13 +3133,22 @@
         <v>95</v>
       </c>
       <c r="I52" t="n">
-        <v>24.725</v>
+        <v>95.49250000000001</v>
       </c>
       <c r="J52" t="n">
+        <v>87.2775</v>
+      </c>
+      <c r="K52" t="n">
+        <v>37.965</v>
+      </c>
+      <c r="L52" t="n">
         <v>128.6175</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>9284.075000000001</v>
+      </c>
+      <c r="N52" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="53">
@@ -2717,13 +3185,22 @@
         <v>83.33333333333333</v>
       </c>
       <c r="I53" t="n">
-        <v>21.44333333333333</v>
+        <v>83.61333333333333</v>
       </c>
       <c r="J53" t="n">
+        <v>74.89666666666666</v>
+      </c>
+      <c r="K53" t="n">
+        <v>32.76333333333333</v>
+      </c>
+      <c r="L53" t="n">
         <v>135.8066666666667</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>8185.126666666666</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="54">
@@ -2760,13 +3237,22 @@
         <v>92.40000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>23.468</v>
+        <v>92.89</v>
       </c>
       <c r="J54" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="K54" t="n">
+        <v>35.922</v>
+      </c>
+      <c r="L54" t="n">
         <v>130.234</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>8689.092000000001</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7.159999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -2803,13 +3289,22 @@
         <v>102.25</v>
       </c>
       <c r="I55" t="n">
-        <v>23.25</v>
+        <v>102.785</v>
       </c>
       <c r="J55" t="n">
+        <v>94.90750000000001</v>
+      </c>
+      <c r="K55" t="n">
+        <v>36.15000000000001</v>
+      </c>
+      <c r="L55" t="n">
         <v>98.1225</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>7386.5225</v>
+      </c>
+      <c r="N55" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="56">
@@ -2846,14 +3341,21 @@
         <v>88.2</v>
       </c>
       <c r="I56" t="n">
-        <v>22.648</v>
+        <v>88.66799999999999</v>
       </c>
       <c r="J56" t="n">
+        <v>77.536</v>
+      </c>
+      <c r="K56" t="n">
+        <v>34.358</v>
+      </c>
+      <c r="L56" t="n">
         <v>144.168</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>8858.762000000001</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2889,13 +3391,22 @@
         <v>83.2</v>
       </c>
       <c r="I57" t="n">
-        <v>22.054</v>
+        <v>83.57000000000001</v>
       </c>
       <c r="J57" t="n">
+        <v>77.60400000000001</v>
+      </c>
+      <c r="K57" t="n">
+        <v>33.34200000000001</v>
+      </c>
+      <c r="L57" t="n">
         <v>167.508</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>8709.990000000002</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="58">
@@ -2932,13 +3443,22 @@
         <v>51</v>
       </c>
       <c r="I58" t="n">
-        <v>13.035</v>
+        <v>50.81</v>
       </c>
       <c r="J58" t="n">
+        <v>46.95</v>
+      </c>
+      <c r="K58" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="L58" t="n">
         <v>179.42</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>5156.42</v>
+      </c>
+      <c r="N58" t="n">
+        <v>36.17</v>
       </c>
     </row>
     <row r="59">
@@ -2975,13 +3495,22 @@
         <v>74.25</v>
       </c>
       <c r="I59" t="n">
-        <v>18.5075</v>
+        <v>74.5325</v>
       </c>
       <c r="J59" t="n">
+        <v>65.8125</v>
+      </c>
+      <c r="K59" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="L59" t="n">
         <v>154.3925</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>7170.19</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="60">
@@ -3018,13 +3547,22 @@
         <v>77.5</v>
       </c>
       <c r="I60" t="n">
-        <v>19.05</v>
+        <v>77.545</v>
       </c>
       <c r="J60" t="n">
+        <v>69.9225</v>
+      </c>
+      <c r="K60" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="L60" t="n">
         <v>139.0925</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>7241.7225</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="61">
@@ -3061,13 +3599,22 @@
         <v>82.8</v>
       </c>
       <c r="I61" t="n">
-        <v>21.32</v>
+        <v>83.102</v>
       </c>
       <c r="J61" t="n">
+        <v>74.24799999999999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>32.452</v>
+      </c>
+      <c r="L61" t="n">
         <v>148.978</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>8236.022000000001</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10.11</v>
       </c>
     </row>
     <row r="62">
@@ -3104,13 +3651,22 @@
         <v>77.75</v>
       </c>
       <c r="I62" t="n">
-        <v>20.8075</v>
+        <v>77.88249999999999</v>
       </c>
       <c r="J62" t="n">
+        <v>72.26249999999999</v>
+      </c>
+      <c r="K62" t="n">
+        <v>31.4575</v>
+      </c>
+      <c r="L62" t="n">
         <v>169.0225</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>8358.4</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="63">
@@ -3147,13 +3703,22 @@
         <v>74.8</v>
       </c>
       <c r="I63" t="n">
-        <v>18.446</v>
+        <v>75.11799999999999</v>
       </c>
       <c r="J63" t="n">
+        <v>68.95</v>
+      </c>
+      <c r="K63" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="L63" t="n">
         <v>140.892</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>6979.564</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7.720000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -3190,13 +3755,22 @@
         <v>75.2</v>
       </c>
       <c r="I64" t="n">
-        <v>19.018</v>
+        <v>75.724</v>
       </c>
       <c r="J64" t="n">
+        <v>67.944</v>
+      </c>
+      <c r="K64" t="n">
+        <v>28.982</v>
+      </c>
+      <c r="L64" t="n">
         <v>142.508</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>7291.744000000001</v>
+      </c>
+      <c r="N64" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="65">
@@ -3233,13 +3807,22 @@
         <v>75</v>
       </c>
       <c r="I65" t="n">
-        <v>19.542</v>
+        <v>75.45399999999999</v>
       </c>
       <c r="J65" t="n">
+        <v>69.15200000000002</v>
+      </c>
+      <c r="K65" t="n">
+        <v>29.572</v>
+      </c>
+      <c r="L65" t="n">
         <v>158.292</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>7740.770000000001</v>
+      </c>
+      <c r="N65" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="66">
@@ -3276,13 +3859,22 @@
         <v>73.2</v>
       </c>
       <c r="I66" t="n">
-        <v>18.422</v>
+        <v>73.508</v>
       </c>
       <c r="J66" t="n">
+        <v>69.01599999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>28.044</v>
+      </c>
+      <c r="L66" t="n">
         <v>143.626</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>7110.55</v>
+      </c>
+      <c r="N66" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="67">
@@ -3319,13 +3911,22 @@
         <v>65.25</v>
       </c>
       <c r="I67" t="n">
-        <v>16.555</v>
+        <v>65.39</v>
       </c>
       <c r="J67" t="n">
+        <v>58.43000000000001</v>
+      </c>
+      <c r="K67" t="n">
+        <v>25.1025</v>
+      </c>
+      <c r="L67" t="n">
         <v>149.575</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>6482.3675</v>
+      </c>
+      <c r="N67" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="68">
@@ -3362,13 +3963,22 @@
         <v>68.8</v>
       </c>
       <c r="I68" t="n">
-        <v>17.238</v>
+        <v>68.946</v>
       </c>
       <c r="J68" t="n">
+        <v>61.904</v>
+      </c>
+      <c r="K68" t="n">
+        <v>26.176</v>
+      </c>
+      <c r="L68" t="n">
         <v>149.792</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>6722.842</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14.44</v>
       </c>
     </row>
     <row r="69">
@@ -3405,13 +4015,22 @@
         <v>69.8</v>
       </c>
       <c r="I69" t="n">
-        <v>17.314</v>
+        <v>69.816</v>
       </c>
       <c r="J69" t="n">
+        <v>64.18599999999999</v>
+      </c>
+      <c r="K69" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="L69" t="n">
         <v>142.24</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>6690.3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="70">
@@ -3448,13 +4067,22 @@
         <v>64.59999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>16.6</v>
+        <v>64.788</v>
       </c>
       <c r="J70" t="n">
+        <v>57.078</v>
+      </c>
+      <c r="K70" t="n">
+        <v>25.138</v>
+      </c>
+      <c r="L70" t="n">
         <v>158.36</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>6552.698</v>
+      </c>
+      <c r="N70" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="71">
@@ -3491,13 +4119,22 @@
         <v>59.25</v>
       </c>
       <c r="I71" t="n">
-        <v>14.7625</v>
+        <v>59.69</v>
       </c>
       <c r="J71" t="n">
+        <v>55.91749999999999</v>
+      </c>
+      <c r="K71" t="n">
+        <v>22.4425</v>
+      </c>
+      <c r="L71" t="n">
         <v>151.05</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>5674.622499999999</v>
+      </c>
+      <c r="N71" t="n">
+        <v>17.93</v>
       </c>
     </row>
     <row r="72">
@@ -3534,13 +4171,22 @@
         <v>77.25</v>
       </c>
       <c r="I72" t="n">
-        <v>20.5625</v>
+        <v>77.63500000000001</v>
       </c>
       <c r="J72" t="n">
+        <v>70.005</v>
+      </c>
+      <c r="K72" t="n">
+        <v>31.0275</v>
+      </c>
+      <c r="L72" t="n">
         <v>169.845</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>8347.327499999999</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="73">
@@ -3577,13 +4223,22 @@
         <v>67.25</v>
       </c>
       <c r="I73" t="n">
-        <v>17.3725</v>
+        <v>67.6575</v>
       </c>
       <c r="J73" t="n">
+        <v>65.39250000000001</v>
+      </c>
+      <c r="K73" t="n">
+        <v>26.375</v>
+      </c>
+      <c r="L73" t="n">
         <v>155.135</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>6761.33</v>
+      </c>
+      <c r="N73" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="74">
@@ -3620,14 +4275,21 @@
         <v>76</v>
       </c>
       <c r="I74" t="n">
-        <v>21.618</v>
+        <v>76.32599999999999</v>
       </c>
       <c r="J74" t="n">
+        <v>64.994</v>
+      </c>
+      <c r="K74" t="n">
+        <v>32.276</v>
+      </c>
+      <c r="L74" t="n">
         <v>167.566</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>9199.476000000001</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3663,13 +4325,22 @@
         <v>72.40000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>19.116</v>
+        <v>72.70599999999999</v>
       </c>
       <c r="J75" t="n">
+        <v>62.38</v>
+      </c>
+      <c r="K75" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="L75" t="n">
         <v>137.792</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>7475.204000000001</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="76">
@@ -3706,13 +4377,22 @@
         <v>47</v>
       </c>
       <c r="I76" t="n">
-        <v>12.594</v>
+        <v>47.48399999999999</v>
       </c>
       <c r="J76" t="n">
+        <v>40.376</v>
+      </c>
+      <c r="K76" t="n">
+        <v>18.878</v>
+      </c>
+      <c r="L76" t="n">
         <v>166.256</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>5255.456</v>
+      </c>
+      <c r="N76" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="77">
@@ -3749,13 +4429,22 @@
         <v>81.5</v>
       </c>
       <c r="I77" t="n">
-        <v>22.46</v>
+        <v>81.995</v>
       </c>
       <c r="J77" t="n">
+        <v>71.7675</v>
+      </c>
+      <c r="K77" t="n">
+        <v>33.6725</v>
+      </c>
+      <c r="L77" t="n">
         <v>170.49</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>9347.4125</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="78">
@@ -3792,13 +4481,22 @@
         <v>70.59999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>18.942</v>
+        <v>70.82599999999999</v>
       </c>
       <c r="J78" t="n">
+        <v>61.236</v>
+      </c>
+      <c r="K78" t="n">
+        <v>28.408</v>
+      </c>
+      <c r="L78" t="n">
         <v>169.988</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>7819.762</v>
+      </c>
+      <c r="N78" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="79">
@@ -3835,13 +4533,22 @@
         <v>68</v>
       </c>
       <c r="I79" t="n">
-        <v>19.175</v>
+        <v>68.325</v>
       </c>
       <c r="J79" t="n">
+        <v>58.6875</v>
+      </c>
+      <c r="K79" t="n">
+        <v>28.8775</v>
+      </c>
+      <c r="L79" t="n">
         <v>169.36</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>7881.687500000001</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="80">
@@ -3878,13 +4585,22 @@
         <v>77</v>
       </c>
       <c r="I80" t="n">
-        <v>21.545</v>
+        <v>77.4675</v>
       </c>
       <c r="J80" t="n">
+        <v>67.23999999999999</v>
+      </c>
+      <c r="K80" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="L80" t="n">
         <v>171.4475</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>9016.057499999999</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="81">
@@ -3921,13 +4637,22 @@
         <v>71.59999999999999</v>
       </c>
       <c r="I81" t="n">
-        <v>19.982</v>
+        <v>71.83399999999999</v>
       </c>
       <c r="J81" t="n">
+        <v>63.584</v>
+      </c>
+      <c r="K81" t="n">
+        <v>29.956</v>
+      </c>
+      <c r="L81" t="n">
         <v>168.344</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>8311.950000000001</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-3.91</v>
       </c>
     </row>
     <row r="82">
@@ -3964,13 +4689,22 @@
         <v>72.5</v>
       </c>
       <c r="I82" t="n">
-        <v>19.8625</v>
+        <v>72.6825</v>
       </c>
       <c r="J82" t="n">
+        <v>65.895</v>
+      </c>
+      <c r="K82" t="n">
+        <v>29.8825</v>
+      </c>
+      <c r="L82" t="n">
         <v>156.9225</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>8128.184999999999</v>
+      </c>
+      <c r="N82" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row r="83">
@@ -4007,13 +4741,22 @@
         <v>61.5</v>
       </c>
       <c r="I83" t="n">
-        <v>16.73</v>
+        <v>62.04</v>
       </c>
       <c r="J83" t="n">
+        <v>52.82</v>
+      </c>
+      <c r="K83" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="L83" t="n">
         <v>149.205</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>7072.365</v>
+      </c>
+      <c r="N83" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="84">
@@ -4050,13 +4793,22 @@
         <v>63</v>
       </c>
       <c r="I84" t="n">
-        <v>16.675</v>
+        <v>63.46749999999999</v>
       </c>
       <c r="J84" t="n">
+        <v>55.1675</v>
+      </c>
+      <c r="K84" t="n">
+        <v>25.1375</v>
+      </c>
+      <c r="L84" t="n">
         <v>156.2</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>6828.215</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14.57</v>
       </c>
     </row>
     <row r="85">
@@ -4093,13 +4845,22 @@
         <v>56</v>
       </c>
       <c r="I85" t="n">
-        <v>15.36</v>
+        <v>56.202</v>
       </c>
       <c r="J85" t="n">
+        <v>48.15599999999999</v>
+      </c>
+      <c r="K85" t="n">
+        <v>23.086</v>
+      </c>
+      <c r="L85" t="n">
         <v>166.274</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>6335.522</v>
+      </c>
+      <c r="N85" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="86">
@@ -4136,13 +4897,22 @@
         <v>61.2</v>
       </c>
       <c r="I86" t="n">
-        <v>15.592</v>
+        <v>61.502</v>
       </c>
       <c r="J86" t="n">
+        <v>54.864</v>
+      </c>
+      <c r="K86" t="n">
+        <v>23.608</v>
+      </c>
+      <c r="L86" t="n">
         <v>163.806</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>6191.412</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="87">
@@ -4179,13 +4949,22 @@
         <v>66.2</v>
       </c>
       <c r="I87" t="n">
-        <v>17.996</v>
+        <v>66.532</v>
       </c>
       <c r="J87" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="K87" t="n">
+        <v>27.122</v>
+      </c>
+      <c r="L87" t="n">
         <v>163.614</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>7298.584</v>
+      </c>
+      <c r="N87" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="88">
@@ -4222,13 +5001,22 @@
         <v>61.4</v>
       </c>
       <c r="I88" t="n">
-        <v>16.35</v>
+        <v>61.63599999999999</v>
       </c>
       <c r="J88" t="n">
+        <v>53.52200000000001</v>
+      </c>
+      <c r="K88" t="n">
+        <v>24.642</v>
+      </c>
+      <c r="L88" t="n">
         <v>160.226</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>6645.216</v>
+      </c>
+      <c r="N88" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="89">
@@ -4265,13 +5053,22 @@
         <v>73</v>
       </c>
       <c r="I89" t="n">
-        <v>20.492</v>
+        <v>73.30800000000001</v>
       </c>
       <c r="J89" t="n">
+        <v>65.46599999999999</v>
+      </c>
+      <c r="K89" t="n">
+        <v>30.656</v>
+      </c>
+      <c r="L89" t="n">
         <v>172.216</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>8639.155999999999</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="90">
@@ -4308,13 +5105,22 @@
         <v>63.2</v>
       </c>
       <c r="I90" t="n">
-        <v>16.55</v>
+        <v>63.65</v>
       </c>
       <c r="J90" t="n">
+        <v>58.354</v>
+      </c>
+      <c r="K90" t="n">
+        <v>24.854</v>
+      </c>
+      <c r="L90" t="n">
         <v>171.832</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>6725.892</v>
+      </c>
+      <c r="N90" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="91">
@@ -4351,13 +5157,22 @@
         <v>67.59999999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>17.734</v>
+        <v>68.078</v>
       </c>
       <c r="J91" t="n">
+        <v>59.088</v>
+      </c>
+      <c r="K91" t="n">
+        <v>26.818</v>
+      </c>
+      <c r="L91" t="n">
         <v>149.6</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>6973.762000000001</v>
+      </c>
+      <c r="N91" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="92">
@@ -4394,14 +5209,21 @@
         <v>133.6666666666667</v>
       </c>
       <c r="I92" t="n">
-        <v>36.95666666666666</v>
+        <v>133.9133333333333</v>
       </c>
       <c r="J92" t="n">
+        <v>121.9566666666667</v>
+      </c>
+      <c r="K92" t="n">
+        <v>56.02333333333333</v>
+      </c>
+      <c r="L92" t="n">
         <v>146.68</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>15526.60666666667</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4437,13 +5259,22 @@
         <v>172.2</v>
       </c>
       <c r="I93" t="n">
-        <v>47.748</v>
+        <v>172.574</v>
       </c>
       <c r="J93" t="n">
+        <v>162.382</v>
+      </c>
+      <c r="K93" t="n">
+        <v>72.176</v>
+      </c>
+      <c r="L93" t="n">
         <v>133.548</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>18619.364</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4480,13 +5311,22 @@
         <v>148.6666666666667</v>
       </c>
       <c r="I94" t="n">
-        <v>35.38</v>
+        <v>148.6733333333333</v>
       </c>
       <c r="J94" t="n">
+        <v>140.29</v>
+      </c>
+      <c r="K94" t="n">
+        <v>53.79666666666666</v>
+      </c>
+      <c r="L94" t="n">
         <v>117.07</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>13289.28666666667</v>
+      </c>
+      <c r="N94" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="95">
@@ -4523,13 +5363,22 @@
         <v>158.75</v>
       </c>
       <c r="I95" t="n">
-        <v>41.005</v>
+        <v>151.0775</v>
       </c>
       <c r="J95" t="n">
+        <v>149.0675</v>
+      </c>
+      <c r="K95" t="n">
+        <v>61.69</v>
+      </c>
+      <c r="L95" t="n">
         <v>94.9975</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>16021.9425</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="96">
@@ -4566,13 +5415,22 @@
         <v>136.6</v>
       </c>
       <c r="I96" t="n">
-        <v>38.246</v>
+        <v>136.492</v>
       </c>
       <c r="J96" t="n">
+        <v>123.948</v>
+      </c>
+      <c r="K96" t="n">
+        <v>57.372</v>
+      </c>
+      <c r="L96" t="n">
         <v>149.82</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>16414.192</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-3.569999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4609,13 +5467,22 @@
         <v>123.6</v>
       </c>
       <c r="I97" t="n">
-        <v>35.084</v>
+        <v>124.082</v>
       </c>
       <c r="J97" t="n">
+        <v>114.156</v>
+      </c>
+      <c r="K97" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="L97" t="n">
         <v>178.83</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>15148.98</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="98">
@@ -4652,13 +5519,22 @@
         <v>125</v>
       </c>
       <c r="I98" t="n">
-        <v>37.14666666666667</v>
+        <v>125.2</v>
       </c>
       <c r="J98" t="n">
+        <v>113.4666666666667</v>
+      </c>
+      <c r="K98" t="n">
+        <v>54.84333333333333</v>
+      </c>
+      <c r="L98" t="n">
         <v>206.5333333333333</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>16354.04666666667</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="99">
@@ -4695,13 +5571,22 @@
         <v>143</v>
       </c>
       <c r="I99" t="n">
-        <v>40.71</v>
+        <v>143.196</v>
       </c>
       <c r="J99" t="n">
+        <v>126.968</v>
+      </c>
+      <c r="K99" t="n">
+        <v>61.502</v>
+      </c>
+      <c r="L99" t="n">
         <v>159.412</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>16383.096</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-6.55</v>
       </c>
     </row>
     <row r="100">
@@ -4738,13 +5623,22 @@
         <v>82.8</v>
       </c>
       <c r="I100" t="n">
-        <v>20.014</v>
+        <v>83.166</v>
       </c>
       <c r="J100" t="n">
+        <v>75.922</v>
+      </c>
+      <c r="K100" t="n">
+        <v>30.356</v>
+      </c>
+      <c r="L100" t="n">
         <v>127.752</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>7754.707999999999</v>
+      </c>
+      <c r="N100" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="101">
@@ -4781,13 +5675,22 @@
         <v>119.4</v>
       </c>
       <c r="I101" t="n">
-        <v>33.394</v>
+        <v>119.854</v>
       </c>
       <c r="J101" t="n">
+        <v>107.714</v>
+      </c>
+      <c r="K101" t="n">
+        <v>49.134</v>
+      </c>
+      <c r="L101" t="n">
         <v>119.858</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>14253.696</v>
+      </c>
+      <c r="N101" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="102">
@@ -4824,13 +5727,22 @@
         <v>106</v>
       </c>
       <c r="I102" t="n">
-        <v>28.685</v>
+        <v>106.31</v>
       </c>
       <c r="J102" t="n">
+        <v>99.35499999999999</v>
+      </c>
+      <c r="K102" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="L102" t="n">
         <v>145.895</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>11180.915</v>
+      </c>
+      <c r="N102" t="n">
+        <v>7.58</v>
       </c>
     </row>
     <row r="103">
@@ -4867,13 +5779,22 @@
         <v>73</v>
       </c>
       <c r="I103" t="n">
-        <v>20.725</v>
+        <v>72.60499999999999</v>
       </c>
       <c r="J103" t="n">
+        <v>69.58500000000001</v>
+      </c>
+      <c r="K103" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L103" t="n">
         <v>179.095</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>8917.779999999999</v>
+      </c>
+      <c r="N103" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="104">
@@ -4910,13 +5831,22 @@
         <v>94</v>
       </c>
       <c r="I104" t="n">
-        <v>24.97</v>
+        <v>94.03399999999999</v>
       </c>
       <c r="J104" t="n">
+        <v>83.57199999999999</v>
+      </c>
+      <c r="K104" t="n">
+        <v>37.504</v>
+      </c>
+      <c r="L104" t="n">
         <v>134.702</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>10438.068</v>
+      </c>
+      <c r="N104" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="105">
@@ -4953,13 +5883,22 @@
         <v>138.8</v>
       </c>
       <c r="I105" t="n">
-        <v>36.28</v>
+        <v>139.174</v>
       </c>
       <c r="J105" t="n">
+        <v>128.106</v>
+      </c>
+      <c r="K105" t="n">
+        <v>54.98200000000001</v>
+      </c>
+      <c r="L105" t="n">
         <v>156.648</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>14054.51</v>
+      </c>
+      <c r="N105" t="n">
+        <v>13.06</v>
       </c>
     </row>
     <row r="106">
@@ -4996,13 +5935,22 @@
         <v>127.25</v>
       </c>
       <c r="I106" t="n">
-        <v>35.715</v>
+        <v>127.685</v>
       </c>
       <c r="J106" t="n">
+        <v>116.5375</v>
+      </c>
+      <c r="K106" t="n">
+        <v>53.755</v>
+      </c>
+      <c r="L106" t="n">
         <v>166.3375</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>14497.0275</v>
+      </c>
+      <c r="N106" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="107">
@@ -5039,13 +5987,22 @@
         <v>145.5</v>
       </c>
       <c r="I107" t="n">
-        <v>40.635</v>
+        <v>145.545</v>
       </c>
       <c r="J107" t="n">
+        <v>131.965</v>
+      </c>
+      <c r="K107" t="n">
+        <v>61.21</v>
+      </c>
+      <c r="L107" t="n">
         <v>149.835</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>16473.49</v>
+      </c>
+      <c r="N107" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -5082,13 +6039,22 @@
         <v>87</v>
       </c>
       <c r="I108" t="n">
-        <v>24.485</v>
+        <v>87.44750000000001</v>
       </c>
       <c r="J108" t="n">
+        <v>78.81</v>
+      </c>
+      <c r="K108" t="n">
+        <v>36.6475</v>
+      </c>
+      <c r="L108" t="n">
         <v>207.035</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>10219.04</v>
+      </c>
+      <c r="N108" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="109">
@@ -5125,13 +6091,22 @@
         <v>113.8</v>
       </c>
       <c r="I109" t="n">
-        <v>28.55399999999999</v>
+        <v>113.55</v>
       </c>
       <c r="J109" t="n">
+        <v>102.218</v>
+      </c>
+      <c r="K109" t="n">
+        <v>43.21</v>
+      </c>
+      <c r="L109" t="n">
         <v>141.238</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>11283.304</v>
+      </c>
+      <c r="N109" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -5168,14 +6143,21 @@
         <v>98.75</v>
       </c>
       <c r="I110" t="n">
-        <v>27.015</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="J110" t="n">
+        <v>86.60499999999999</v>
+      </c>
+      <c r="K110" t="n">
+        <v>40.285</v>
+      </c>
+      <c r="L110" t="n">
         <v>153.515</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>10756.425</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5211,13 +6193,22 @@
         <v>83.59999999999999</v>
       </c>
       <c r="I111" t="n">
-        <v>22.172</v>
+        <v>83.83799999999999</v>
       </c>
       <c r="J111" t="n">
+        <v>75.054</v>
+      </c>
+      <c r="K111" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="L111" t="n">
         <v>174.74</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>9063.574000000001</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="112">
@@ -5254,13 +6245,22 @@
         <v>54.4</v>
       </c>
       <c r="I112" t="n">
-        <v>15.116</v>
+        <v>54.72799999999999</v>
       </c>
       <c r="J112" t="n">
+        <v>48.15600000000001</v>
+      </c>
+      <c r="K112" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="L112" t="n">
         <v>185.114</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>6913</v>
+      </c>
+      <c r="N112" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="113">
@@ -5297,13 +6297,22 @@
         <v>107.5</v>
       </c>
       <c r="I113" t="n">
-        <v>28.6675</v>
+        <v>107.395</v>
       </c>
       <c r="J113" t="n">
+        <v>98.51249999999999</v>
+      </c>
+      <c r="K113" t="n">
+        <v>43.5925</v>
+      </c>
+      <c r="L113" t="n">
         <v>127.2125</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>11484.1975</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -5340,13 +6349,22 @@
         <v>91</v>
       </c>
       <c r="I114" t="n">
-        <v>24.626</v>
+        <v>91.416</v>
       </c>
       <c r="J114" t="n">
+        <v>84.17400000000001</v>
+      </c>
+      <c r="K114" t="n">
+        <v>36.564</v>
+      </c>
+      <c r="L114" t="n">
         <v>141.26</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>10350.584</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="115">
@@ -5383,13 +6401,22 @@
         <v>94.8</v>
       </c>
       <c r="I115" t="n">
-        <v>25.462</v>
+        <v>94.90600000000001</v>
       </c>
       <c r="J115" t="n">
+        <v>84.84400000000001</v>
+      </c>
+      <c r="K115" t="n">
+        <v>38.384</v>
+      </c>
+      <c r="L115" t="n">
         <v>143.71</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>10466.382</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="116">
@@ -5426,13 +6453,22 @@
         <v>98.8</v>
       </c>
       <c r="I116" t="n">
-        <v>26.17</v>
+        <v>99.26599999999999</v>
       </c>
       <c r="J116" t="n">
+        <v>87.05999999999999</v>
+      </c>
+      <c r="K116" t="n">
+        <v>39.498</v>
+      </c>
+      <c r="L116" t="n">
         <v>131.154</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>10768.964</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="117">
@@ -5469,13 +6505,22 @@
         <v>93</v>
       </c>
       <c r="I117" t="n">
-        <v>24.898</v>
+        <v>93.36399999999999</v>
       </c>
       <c r="J117" t="n">
+        <v>85.45199999999998</v>
+      </c>
+      <c r="K117" t="n">
+        <v>37.524</v>
+      </c>
+      <c r="L117" t="n">
         <v>143.328</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>10286.96</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-10.16</v>
       </c>
     </row>
     <row r="118">
@@ -5512,13 +6557,22 @@
         <v>83.59999999999999</v>
       </c>
       <c r="I118" t="n">
-        <v>22.778</v>
+        <v>84.038</v>
       </c>
       <c r="J118" t="n">
+        <v>72.03599999999999</v>
+      </c>
+      <c r="K118" t="n">
+        <v>34.01600000000001</v>
+      </c>
+      <c r="L118" t="n">
         <v>147.01</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>9712.994000000001</v>
+      </c>
+      <c r="N118" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="119">
@@ -5555,13 +6609,22 @@
         <v>76.8</v>
       </c>
       <c r="I119" t="n">
-        <v>20.786</v>
+        <v>77.19800000000001</v>
       </c>
       <c r="J119" t="n">
+        <v>70.962</v>
+      </c>
+      <c r="K119" t="n">
+        <v>30.696</v>
+      </c>
+      <c r="L119" t="n">
         <v>134.184</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>9104.32</v>
+      </c>
+      <c r="N119" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="120">
@@ -5598,13 +6661,22 @@
         <v>71.2</v>
       </c>
       <c r="I120" t="n">
-        <v>19.636</v>
+        <v>71.298</v>
       </c>
       <c r="J120" t="n">
+        <v>63.452</v>
+      </c>
+      <c r="K120" t="n">
+        <v>28.438</v>
+      </c>
+      <c r="L120" t="n">
         <v>164.838</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>8921.466</v>
+      </c>
+      <c r="N120" t="n">
+        <v>19.21</v>
       </c>
     </row>
     <row r="121">
@@ -5641,13 +6713,22 @@
         <v>79.75</v>
       </c>
       <c r="I121" t="n">
-        <v>21.24</v>
+        <v>80.14749999999999</v>
       </c>
       <c r="J121" t="n">
+        <v>69.83750000000001</v>
+      </c>
+      <c r="K121" t="n">
+        <v>31.7225</v>
+      </c>
+      <c r="L121" t="n">
         <v>149.775</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>9105.587500000001</v>
+      </c>
+      <c r="N121" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="122">
@@ -5684,13 +6765,22 @@
         <v>70</v>
       </c>
       <c r="I122" t="n">
-        <v>19.32</v>
+        <v>70.154</v>
       </c>
       <c r="J122" t="n">
+        <v>61.23599999999999</v>
+      </c>
+      <c r="K122" t="n">
+        <v>27.862</v>
+      </c>
+      <c r="L122" t="n">
         <v>225.452</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>8877.134</v>
+      </c>
+      <c r="N122" t="n">
+        <v>26.99</v>
       </c>
     </row>
     <row r="123">
@@ -5727,13 +6817,22 @@
         <v>64.59999999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>17.544</v>
+        <v>65.05800000000001</v>
       </c>
       <c r="J123" t="n">
+        <v>57.41399999999999</v>
+      </c>
+      <c r="K123" t="n">
+        <v>25.992</v>
+      </c>
+      <c r="L123" t="n">
         <v>199.71</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>7556.714</v>
+      </c>
+      <c r="N123" t="n">
+        <v>22.39</v>
       </c>
     </row>
     <row r="124">
@@ -5770,13 +6869,22 @@
         <v>75.25</v>
       </c>
       <c r="I124" t="n">
-        <v>19.2575</v>
+        <v>75.7075</v>
       </c>
       <c r="J124" t="n">
+        <v>64.05499999999999</v>
+      </c>
+      <c r="K124" t="n">
+        <v>28.825</v>
+      </c>
+      <c r="L124" t="n">
         <v>128.6375</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>7976.855</v>
+      </c>
+      <c r="N124" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="125">
@@ -5813,13 +6921,22 @@
         <v>83.66666666666667</v>
       </c>
       <c r="I125" t="n">
-        <v>21.70333333333333</v>
+        <v>83.83666666666666</v>
       </c>
       <c r="J125" t="n">
+        <v>78.03</v>
+      </c>
+      <c r="K125" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="L125" t="n">
         <v>150.4266666666667</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>8939.186666666666</v>
+      </c>
+      <c r="N125" t="n">
+        <v>23.05</v>
       </c>
     </row>
     <row r="126">
@@ -5856,13 +6973,22 @@
         <v>71</v>
       </c>
       <c r="I126" t="n">
-        <v>18.82666666666667</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="J126" t="n">
+        <v>64.05666666666666</v>
+      </c>
+      <c r="K126" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="L126" t="n">
         <v>157.5866666666667</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>7876.32</v>
+      </c>
+      <c r="N126" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="127">
@@ -5899,13 +7025,22 @@
         <v>78</v>
       </c>
       <c r="I127" t="n">
-        <v>21.876</v>
+        <v>78.268</v>
       </c>
       <c r="J127" t="n">
+        <v>71.16199999999999</v>
+      </c>
+      <c r="K127" t="n">
+        <v>31.772</v>
+      </c>
+      <c r="L127" t="n">
         <v>168.096</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>9833.856000000002</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="128">
@@ -5942,14 +7077,21 @@
         <v>256</v>
       </c>
       <c r="I128" t="n">
-        <v>64.006</v>
+        <v>254.466</v>
       </c>
       <c r="J128" t="n">
+        <v>230.258</v>
+      </c>
+      <c r="K128" t="n">
+        <v>100.026</v>
+      </c>
+      <c r="L128" t="n">
         <v>83.208</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>20564.348</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5985,13 +7127,22 @@
         <v>222.25</v>
       </c>
       <c r="I129" t="n">
-        <v>50.425</v>
+        <v>222.005</v>
       </c>
       <c r="J129" t="n">
+        <v>189.6425</v>
+      </c>
+      <c r="K129" t="n">
+        <v>78.64750000000001</v>
+      </c>
+      <c r="L129" t="n">
         <v>71.92749999999999</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>16094.365</v>
+      </c>
+      <c r="N129" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="130">
@@ -6028,13 +7179,22 @@
         <v>167.75</v>
       </c>
       <c r="I130" t="n">
-        <v>35.555</v>
+        <v>168.2625</v>
       </c>
       <c r="J130" t="n">
+        <v>152.4175</v>
+      </c>
+      <c r="K130" t="n">
+        <v>54.5325</v>
+      </c>
+      <c r="L130" t="n">
         <v>62.44</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>12159.3425</v>
+      </c>
+      <c r="N130" t="n">
+        <v>30.27</v>
       </c>
     </row>
     <row r="131">
@@ -6071,13 +7231,22 @@
         <v>232.6</v>
       </c>
       <c r="I131" t="n">
-        <v>55.54600000000001</v>
+        <v>232.87</v>
       </c>
       <c r="J131" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="K131" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="L131" t="n">
         <v>77.976</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>17823.932</v>
+      </c>
+      <c r="N131" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="132">
@@ -6114,13 +7283,22 @@
         <v>232.5</v>
       </c>
       <c r="I132" t="n">
-        <v>46.4375</v>
+        <v>232.6525</v>
       </c>
       <c r="J132" t="n">
+        <v>208.845</v>
+      </c>
+      <c r="K132" t="n">
+        <v>72.00750000000001</v>
+      </c>
+      <c r="L132" t="n">
         <v>50.0925</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>13433.7775</v>
+      </c>
+      <c r="N132" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="133">
@@ -6157,13 +7335,22 @@
         <v>240.75</v>
       </c>
       <c r="I133" t="n">
-        <v>58.4325</v>
+        <v>233.8225</v>
       </c>
       <c r="J133" t="n">
+        <v>224.0175</v>
+      </c>
+      <c r="K133" t="n">
+        <v>91.35250000000001</v>
+      </c>
+      <c r="L133" t="n">
         <v>77.7775</v>
       </c>
-      <c r="K133" t="n">
+      <c r="M133" t="n">
         <v>17935.625</v>
+      </c>
+      <c r="N133" t="n">
+        <v>7.78</v>
       </c>
     </row>
     <row r="134">
@@ -6200,13 +7387,22 @@
         <v>196.5</v>
       </c>
       <c r="I134" t="n">
-        <v>43.845</v>
+        <v>196.855</v>
       </c>
       <c r="J134" t="n">
+        <v>177.74</v>
+      </c>
+      <c r="K134" t="n">
+        <v>67.645</v>
+      </c>
+      <c r="L134" t="n">
         <v>58.14</v>
       </c>
-      <c r="K134" t="n">
+      <c r="M134" t="n">
         <v>13872.015</v>
+      </c>
+      <c r="N134" t="n">
+        <v>11.92</v>
       </c>
     </row>
     <row r="135">
@@ -6243,13 +7439,22 @@
         <v>232</v>
       </c>
       <c r="I135" t="n">
-        <v>55.354</v>
+        <v>230.256</v>
       </c>
       <c r="J135" t="n">
+        <v>213.756</v>
+      </c>
+      <c r="K135" t="n">
+        <v>86.49800000000002</v>
+      </c>
+      <c r="L135" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="K135" t="n">
+      <c r="M135" t="n">
         <v>17051.03</v>
+      </c>
+      <c r="N135" t="n">
+        <v>8.65</v>
       </c>
     </row>
     <row r="136">
@@ -6286,13 +7491,22 @@
         <v>213</v>
       </c>
       <c r="I136" t="n">
-        <v>47.762</v>
+        <v>213.018</v>
       </c>
       <c r="J136" t="n">
+        <v>193.368</v>
+      </c>
+      <c r="K136" t="n">
+        <v>74.292</v>
+      </c>
+      <c r="L136" t="n">
         <v>67.8</v>
       </c>
-      <c r="K136" t="n">
+      <c r="M136" t="n">
         <v>15055.496</v>
+      </c>
+      <c r="N136" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="137">
@@ -6329,13 +7543,22 @@
         <v>214.4</v>
       </c>
       <c r="I137" t="n">
-        <v>49.538</v>
+        <v>211.606</v>
       </c>
       <c r="J137" t="n">
+        <v>186.054</v>
+      </c>
+      <c r="K137" t="n">
+        <v>76.87800000000001</v>
+      </c>
+      <c r="L137" t="n">
         <v>67.736</v>
       </c>
-      <c r="K137" t="n">
+      <c r="M137" t="n">
         <v>15647.004</v>
+      </c>
+      <c r="N137" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="138">
@@ -6372,13 +7595,22 @@
         <v>211</v>
       </c>
       <c r="I138" t="n">
-        <v>47.6175</v>
+        <v>211.1875</v>
       </c>
       <c r="J138" t="n">
+        <v>178.4075</v>
+      </c>
+      <c r="K138" t="n">
+        <v>74</v>
+      </c>
+      <c r="L138" t="n">
         <v>68.45</v>
       </c>
-      <c r="K138" t="n">
+      <c r="M138" t="n">
         <v>15252.0325</v>
+      </c>
+      <c r="N138" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="139">
@@ -6415,13 +7647,22 @@
         <v>204.6</v>
       </c>
       <c r="I139" t="n">
-        <v>46.86799999999999</v>
+        <v>204.97</v>
       </c>
       <c r="J139" t="n">
+        <v>181.162</v>
+      </c>
+      <c r="K139" t="n">
+        <v>72.92999999999999</v>
+      </c>
+      <c r="L139" t="n">
         <v>69.208</v>
       </c>
-      <c r="K139" t="n">
+      <c r="M139" t="n">
         <v>14781.716</v>
+      </c>
+      <c r="N139" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="140">
@@ -6458,13 +7699,22 @@
         <v>203.75</v>
       </c>
       <c r="I140" t="n">
-        <v>45.745</v>
+        <v>203.645</v>
       </c>
       <c r="J140" t="n">
+        <v>173.965</v>
+      </c>
+      <c r="K140" t="n">
+        <v>70.8275</v>
+      </c>
+      <c r="L140" t="n">
         <v>67.7325</v>
       </c>
-      <c r="K140" t="n">
+      <c r="M140" t="n">
         <v>14843.1775</v>
+      </c>
+      <c r="N140" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="141">
@@ -6501,13 +7751,22 @@
         <v>213.4</v>
       </c>
       <c r="I141" t="n">
-        <v>49.558</v>
+        <v>213.89</v>
       </c>
       <c r="J141" t="n">
+        <v>174.116</v>
+      </c>
+      <c r="K141" t="n">
+        <v>77.08800000000001</v>
+      </c>
+      <c r="L141" t="n">
         <v>71.854</v>
       </c>
-      <c r="K141" t="n">
+      <c r="M141" t="n">
         <v>16288.91</v>
+      </c>
+      <c r="N141" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="142">
@@ -6544,13 +7803,22 @@
         <v>201.5</v>
       </c>
       <c r="I142" t="n">
-        <v>45.98999999999999</v>
+        <v>201.63</v>
       </c>
       <c r="J142" t="n">
+        <v>168.265</v>
+      </c>
+      <c r="K142" t="n">
+        <v>71.27500000000001</v>
+      </c>
+      <c r="L142" t="n">
         <v>67.29000000000001</v>
       </c>
-      <c r="K142" t="n">
+      <c r="M142" t="n">
         <v>14877.9225</v>
+      </c>
+      <c r="N142" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="143">
@@ -6587,13 +7855,22 @@
         <v>223.8</v>
       </c>
       <c r="I143" t="n">
-        <v>53.102</v>
+        <v>222.878</v>
       </c>
       <c r="J143" t="n">
+        <v>193.166</v>
+      </c>
+      <c r="K143" t="n">
+        <v>82.782</v>
+      </c>
+      <c r="L143" t="n">
         <v>70.226</v>
       </c>
-      <c r="K143" t="n">
+      <c r="M143" t="n">
         <v>16525.214</v>
+      </c>
+      <c r="N143" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="144">
@@ -6630,13 +7907,22 @@
         <v>211.5</v>
       </c>
       <c r="I144" t="n">
-        <v>47.5375</v>
+        <v>211.7775</v>
       </c>
       <c r="J144" t="n">
+        <v>180.2575</v>
+      </c>
+      <c r="K144" t="n">
+        <v>73.78749999999999</v>
+      </c>
+      <c r="L144" t="n">
         <v>64.85249999999999</v>
       </c>
-      <c r="K144" t="n">
+      <c r="M144" t="n">
         <v>15166.7275</v>
+      </c>
+      <c r="N144" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="145">
@@ -6673,13 +7959,22 @@
         <v>224.4</v>
       </c>
       <c r="I145" t="n">
-        <v>53.084</v>
+        <v>222.208</v>
       </c>
       <c r="J145" t="n">
+        <v>187.802</v>
+      </c>
+      <c r="K145" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="L145" t="n">
         <v>69.56399999999999</v>
       </c>
-      <c r="K145" t="n">
+      <c r="M145" t="n">
         <v>16672.094</v>
+      </c>
+      <c r="N145" t="n">
+        <v>9.91</v>
       </c>
     </row>
     <row r="146">
@@ -6716,14 +8011,21 @@
         <v>110</v>
       </c>
       <c r="I146" t="n">
-        <v>25.814</v>
+        <v>110.666</v>
       </c>
       <c r="J146" t="n">
+        <v>99.73600000000002</v>
+      </c>
+      <c r="K146" t="n">
+        <v>39.78400000000001</v>
+      </c>
+      <c r="L146" t="n">
         <v>118.92</v>
       </c>
-      <c r="K146" t="n">
+      <c r="M146" t="n">
         <v>8948.822</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6759,13 +8061,22 @@
         <v>125.6</v>
       </c>
       <c r="I147" t="n">
-        <v>30.568</v>
+        <v>125.894</v>
       </c>
       <c r="J147" t="n">
+        <v>110.534</v>
+      </c>
+      <c r="K147" t="n">
+        <v>46.636</v>
+      </c>
+      <c r="L147" t="n">
         <v>105.49</v>
       </c>
-      <c r="K147" t="n">
+      <c r="M147" t="n">
         <v>11450.976</v>
+      </c>
+      <c r="N147" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="148">
@@ -6802,13 +8113,22 @@
         <v>73.33333333333333</v>
       </c>
       <c r="I148" t="n">
-        <v>18.23666666666667</v>
+        <v>73.66333333333334</v>
       </c>
       <c r="J148" t="n">
+        <v>68.52</v>
+      </c>
+      <c r="K148" t="n">
+        <v>27.60666666666667</v>
+      </c>
+      <c r="L148" t="n">
         <v>131.6266666666667</v>
       </c>
-      <c r="K148" t="n">
+      <c r="M148" t="n">
         <v>7253.533333333333</v>
+      </c>
+      <c r="N148" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="149">
@@ -6845,13 +8165,22 @@
         <v>100.2</v>
       </c>
       <c r="I149" t="n">
-        <v>24.732</v>
+        <v>100.606</v>
       </c>
       <c r="J149" t="n">
+        <v>87.25999999999999</v>
+      </c>
+      <c r="K149" t="n">
+        <v>37.546</v>
+      </c>
+      <c r="L149" t="n">
         <v>115.896</v>
       </c>
-      <c r="K149" t="n">
+      <c r="M149" t="n">
         <v>10126.09</v>
+      </c>
+      <c r="N149" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="150">
@@ -6888,13 +8217,22 @@
         <v>97.5</v>
       </c>
       <c r="I150" t="n">
-        <v>24.87</v>
+        <v>97.75500000000001</v>
       </c>
       <c r="J150" t="n">
+        <v>92.6425</v>
+      </c>
+      <c r="K150" t="n">
+        <v>37.9175</v>
+      </c>
+      <c r="L150" t="n">
         <v>121.7</v>
       </c>
-      <c r="K150" t="n">
+      <c r="M150" t="n">
         <v>9720.682499999999</v>
+      </c>
+      <c r="N150" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="151">
@@ -6931,13 +8269,22 @@
         <v>80</v>
       </c>
       <c r="I151" t="n">
-        <v>18.84</v>
+        <v>79.92666666666666</v>
       </c>
       <c r="J151" t="n">
+        <v>71.76333333333334</v>
+      </c>
+      <c r="K151" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="L151" t="n">
         <v>98.67999999999999</v>
       </c>
-      <c r="K151" t="n">
+      <c r="M151" t="n">
         <v>6978.373333333333</v>
+      </c>
+      <c r="N151" t="n">
+        <v>10.85</v>
       </c>
     </row>
     <row r="152">
@@ -6974,13 +8321,22 @@
         <v>93.8</v>
       </c>
       <c r="I152" t="n">
-        <v>22.444</v>
+        <v>93.96599999999999</v>
       </c>
       <c r="J152" t="n">
+        <v>80.75399999999999</v>
+      </c>
+      <c r="K152" t="n">
+        <v>34.256</v>
+      </c>
+      <c r="L152" t="n">
         <v>127.228</v>
       </c>
-      <c r="K152" t="n">
+      <c r="M152" t="n">
         <v>8935.897999999999</v>
+      </c>
+      <c r="N152" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="153">
@@ -7017,13 +8373,22 @@
         <v>95.5</v>
       </c>
       <c r="I153" t="n">
-        <v>23.5</v>
+        <v>95.41</v>
       </c>
       <c r="J153" t="n">
+        <v>84.765</v>
+      </c>
+      <c r="K153" t="n">
+        <v>35.735</v>
+      </c>
+      <c r="L153" t="n">
         <v>145.355</v>
       </c>
-      <c r="K153" t="n">
+      <c r="M153" t="n">
         <v>9182.765000000001</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="154">
@@ -7060,13 +8425,22 @@
         <v>105.6</v>
       </c>
       <c r="I154" t="n">
-        <v>24.518</v>
+        <v>105.838</v>
       </c>
       <c r="J154" t="n">
+        <v>98.19000000000001</v>
+      </c>
+      <c r="K154" t="n">
+        <v>37.64400000000001</v>
+      </c>
+      <c r="L154" t="n">
         <v>122.26</v>
       </c>
-      <c r="K154" t="n">
+      <c r="M154" t="n">
         <v>8863.691999999999</v>
+      </c>
+      <c r="N154" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="155">
@@ -7103,13 +8477,22 @@
         <v>104.4</v>
       </c>
       <c r="I155" t="n">
-        <v>24.496</v>
+        <v>104.7</v>
       </c>
       <c r="J155" t="n">
+        <v>99.066</v>
+      </c>
+      <c r="K155" t="n">
+        <v>37.336</v>
+      </c>
+      <c r="L155" t="n">
         <v>114.13</v>
       </c>
-      <c r="K155" t="n">
+      <c r="M155" t="n">
         <v>9834.103999999999</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="156">
@@ -7146,13 +8529,22 @@
         <v>118.25</v>
       </c>
       <c r="I156" t="n">
-        <v>29.9525</v>
+        <v>118.465</v>
       </c>
       <c r="J156" t="n">
+        <v>111.1725</v>
+      </c>
+      <c r="K156" t="n">
+        <v>45.5525</v>
+      </c>
+      <c r="L156" t="n">
         <v>164.3325</v>
       </c>
-      <c r="K156" t="n">
+      <c r="M156" t="n">
         <v>11321.1325</v>
+      </c>
+      <c r="N156" t="n">
+        <v>13.09</v>
       </c>
     </row>
     <row r="157">
@@ -7189,13 +8581,22 @@
         <v>104</v>
       </c>
       <c r="I157" t="n">
-        <v>23.7925</v>
+        <v>104.3775</v>
       </c>
       <c r="J157" t="n">
+        <v>95.4075</v>
+      </c>
+      <c r="K157" t="n">
+        <v>36.885</v>
+      </c>
+      <c r="L157" t="n">
         <v>104.9875</v>
       </c>
-      <c r="K157" t="n">
+      <c r="M157" t="n">
         <v>7807.1775</v>
+      </c>
+      <c r="N157" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="158">
@@ -7232,13 +8633,22 @@
         <v>89.2</v>
       </c>
       <c r="I158" t="n">
-        <v>20.698</v>
+        <v>89.404</v>
       </c>
       <c r="J158" t="n">
+        <v>82.09200000000001</v>
+      </c>
+      <c r="K158" t="n">
+        <v>32.018</v>
+      </c>
+      <c r="L158" t="n">
         <v>101.232</v>
       </c>
-      <c r="K158" t="n">
+      <c r="M158" t="n">
         <v>7223.842</v>
+      </c>
+      <c r="N158" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="159">
@@ -7275,13 +8685,22 @@
         <v>90</v>
       </c>
       <c r="I159" t="n">
-        <v>21.286</v>
+        <v>90.208</v>
       </c>
       <c r="J159" t="n">
+        <v>78.538</v>
+      </c>
+      <c r="K159" t="n">
+        <v>32.578</v>
+      </c>
+      <c r="L159" t="n">
         <v>112.838</v>
       </c>
-      <c r="K159" t="n">
+      <c r="M159" t="n">
         <v>8237.402</v>
+      </c>
+      <c r="N159" t="n">
+        <v>11.93</v>
       </c>
     </row>
     <row r="160">
@@ -7318,13 +8737,22 @@
         <v>91.59999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>22.686</v>
+        <v>92.08799999999999</v>
       </c>
       <c r="J160" t="n">
+        <v>82.49799999999999</v>
+      </c>
+      <c r="K160" t="n">
+        <v>34.312</v>
+      </c>
+      <c r="L160" t="n">
         <v>123.658</v>
       </c>
-      <c r="K160" t="n">
+      <c r="M160" t="n">
         <v>9437.218000000001</v>
+      </c>
+      <c r="N160" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="161">
@@ -7361,13 +8789,22 @@
         <v>85.5</v>
       </c>
       <c r="I161" t="n">
-        <v>21.5075</v>
+        <v>85.76750000000001</v>
       </c>
       <c r="J161" t="n">
+        <v>75.1225</v>
+      </c>
+      <c r="K161" t="n">
+        <v>32.955</v>
+      </c>
+      <c r="L161" t="n">
         <v>126.3775</v>
       </c>
-      <c r="K161" t="n">
+      <c r="M161" t="n">
         <v>8012.5375</v>
+      </c>
+      <c r="N161" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="162">
@@ -7404,13 +8841,22 @@
         <v>111.2</v>
       </c>
       <c r="I162" t="n">
-        <v>26.136</v>
+        <v>111.542</v>
       </c>
       <c r="J162" t="n">
+        <v>103.896</v>
+      </c>
+      <c r="K162" t="n">
+        <v>40.122</v>
+      </c>
+      <c r="L162" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="K162" t="n">
+      <c r="M162" t="n">
         <v>9151.422</v>
+      </c>
+      <c r="N162" t="n">
+        <v>7.159999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -7447,13 +8893,22 @@
         <v>109.4</v>
       </c>
       <c r="I163" t="n">
-        <v>22.114</v>
+        <v>109.794</v>
       </c>
       <c r="J163" t="n">
+        <v>101.812</v>
+      </c>
+      <c r="K163" t="n">
+        <v>34.532</v>
+      </c>
+      <c r="L163" t="n">
         <v>79.66800000000001</v>
       </c>
-      <c r="K163" t="n">
+      <c r="M163" t="n">
         <v>6582.836</v>
+      </c>
+      <c r="N163" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="164">
@@ -7490,14 +8945,21 @@
         <v>141</v>
       </c>
       <c r="I164" t="n">
-        <v>42.832</v>
+        <v>139.376</v>
       </c>
       <c r="J164" t="n">
+        <v>129.048</v>
+      </c>
+      <c r="K164" t="n">
+        <v>64.05199999999999</v>
+      </c>
+      <c r="L164" t="n">
         <v>152.08</v>
       </c>
-      <c r="K164" t="n">
+      <c r="M164" t="n">
         <v>17092.026</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7533,13 +8995,22 @@
         <v>142.2</v>
       </c>
       <c r="I165" t="n">
-        <v>40.83199999999999</v>
+        <v>139.64</v>
       </c>
       <c r="J165" t="n">
+        <v>127.102</v>
+      </c>
+      <c r="K165" t="n">
+        <v>61.23199999999999</v>
+      </c>
+      <c r="L165" t="n">
         <v>139.262</v>
       </c>
-      <c r="K165" t="n">
+      <c r="M165" t="n">
         <v>16379.202</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="166">
@@ -7576,13 +9047,22 @@
         <v>79.40000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>20.842</v>
+        <v>79.276</v>
       </c>
       <c r="J166" t="n">
+        <v>69.21799999999999</v>
+      </c>
+      <c r="K166" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="L166" t="n">
         <v>147.988</v>
       </c>
-      <c r="K166" t="n">
+      <c r="M166" t="n">
         <v>8908.6</v>
+      </c>
+      <c r="N166" t="n">
+        <v>36.17</v>
       </c>
     </row>
     <row r="167">
@@ -7619,13 +9099,22 @@
         <v>131</v>
       </c>
       <c r="I167" t="n">
-        <v>38.308</v>
+        <v>131.258</v>
       </c>
       <c r="J167" t="n">
+        <v>113.552</v>
+      </c>
+      <c r="K167" t="n">
+        <v>57.65799999999999</v>
+      </c>
+      <c r="L167" t="n">
         <v>143.428</v>
       </c>
-      <c r="K167" t="n">
+      <c r="M167" t="n">
         <v>16103.33</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="168">
@@ -7662,13 +9151,22 @@
         <v>136.6</v>
       </c>
       <c r="I168" t="n">
-        <v>39.748</v>
+        <v>136.152</v>
       </c>
       <c r="J168" t="n">
+        <v>128.308</v>
+      </c>
+      <c r="K168" t="n">
+        <v>59.536</v>
+      </c>
+      <c r="L168" t="n">
         <v>152.232</v>
       </c>
-      <c r="K168" t="n">
+      <c r="M168" t="n">
         <v>16181.754</v>
+      </c>
+      <c r="N168" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="169">
@@ -7705,13 +9203,22 @@
         <v>118.75</v>
       </c>
       <c r="I169" t="n">
-        <v>34.34</v>
+        <v>115.36</v>
       </c>
       <c r="J169" t="n">
+        <v>108.0675</v>
+      </c>
+      <c r="K169" t="n">
+        <v>51.1825</v>
+      </c>
+      <c r="L169" t="n">
         <v>148.055</v>
       </c>
-      <c r="K169" t="n">
+      <c r="M169" t="n">
         <v>14177.475</v>
+      </c>
+      <c r="N169" t="n">
+        <v>10.11</v>
       </c>
     </row>
     <row r="170">
@@ -7748,13 +9255,22 @@
         <v>136.6</v>
       </c>
       <c r="I170" t="n">
-        <v>40.33</v>
+        <v>131.594</v>
       </c>
       <c r="J170" t="n">
+        <v>122.474</v>
+      </c>
+      <c r="K170" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="L170" t="n">
         <v>170.942</v>
       </c>
-      <c r="K170" t="n">
+      <c r="M170" t="n">
         <v>16805.4</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="171">
@@ -7791,13 +9307,22 @@
         <v>127.2</v>
       </c>
       <c r="I171" t="n">
-        <v>35.362</v>
+        <v>127.636</v>
       </c>
       <c r="J171" t="n">
+        <v>119.724</v>
+      </c>
+      <c r="K171" t="n">
+        <v>52.89200000000001</v>
+      </c>
+      <c r="L171" t="n">
         <v>142.026</v>
       </c>
-      <c r="K171" t="n">
+      <c r="M171" t="n">
         <v>14736.516</v>
+      </c>
+      <c r="N171" t="n">
+        <v>7.720000000000001</v>
       </c>
     </row>
     <row r="172">
@@ -7834,13 +9359,22 @@
         <v>112.25</v>
       </c>
       <c r="I172" t="n">
-        <v>31.99</v>
+        <v>112.4275</v>
       </c>
       <c r="J172" t="n">
+        <v>104.21</v>
+      </c>
+      <c r="K172" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="L172" t="n">
         <v>151.11</v>
       </c>
-      <c r="K172" t="n">
+      <c r="M172" t="n">
         <v>13531.5</v>
+      </c>
+      <c r="N172" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="173">
@@ -7877,13 +9411,22 @@
         <v>100.8</v>
       </c>
       <c r="I173" t="n">
-        <v>27.928</v>
+        <v>101.008</v>
       </c>
       <c r="J173" t="n">
+        <v>89.07400000000001</v>
+      </c>
+      <c r="K173" t="n">
+        <v>41.708</v>
+      </c>
+      <c r="L173" t="n">
         <v>139.914</v>
       </c>
-      <c r="K173" t="n">
+      <c r="M173" t="n">
         <v>11899.808</v>
+      </c>
+      <c r="N173" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="174">
@@ -7920,13 +9463,22 @@
         <v>108</v>
       </c>
       <c r="I174" t="n">
-        <v>28.7325</v>
+        <v>108.15</v>
       </c>
       <c r="J174" t="n">
+        <v>91.55249999999999</v>
+      </c>
+      <c r="K174" t="n">
+        <v>43.1125</v>
+      </c>
+      <c r="L174" t="n">
         <v>132.8425</v>
       </c>
-      <c r="K174" t="n">
+      <c r="M174" t="n">
         <v>11841.255</v>
+      </c>
+      <c r="N174" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="175">
@@ -7963,13 +9515,22 @@
         <v>129.2</v>
       </c>
       <c r="I175" t="n">
-        <v>34.626</v>
+        <v>129.178</v>
       </c>
       <c r="J175" t="n">
+        <v>117.78</v>
+      </c>
+      <c r="K175" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="L175" t="n">
         <v>145.032</v>
       </c>
-      <c r="K175" t="n">
+      <c r="M175" t="n">
         <v>14060.726</v>
+      </c>
+      <c r="N175" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="176">
@@ -8006,13 +9567,22 @@
         <v>126.8</v>
       </c>
       <c r="I176" t="n">
-        <v>36.374</v>
+        <v>125.62</v>
       </c>
       <c r="J176" t="n">
+        <v>117.104</v>
+      </c>
+      <c r="K176" t="n">
+        <v>54.706</v>
+      </c>
+      <c r="L176" t="n">
         <v>149.986</v>
       </c>
-      <c r="K176" t="n">
+      <c r="M176" t="n">
         <v>14770.618</v>
+      </c>
+      <c r="N176" t="n">
+        <v>14.44</v>
       </c>
     </row>
     <row r="177">
@@ -8049,13 +9619,22 @@
         <v>116.75</v>
       </c>
       <c r="I177" t="n">
-        <v>32.795</v>
+        <v>116.7875</v>
       </c>
       <c r="J177" t="n">
+        <v>106.56</v>
+      </c>
+      <c r="K177" t="n">
+        <v>49.1375</v>
+      </c>
+      <c r="L177" t="n">
         <v>134.9725</v>
       </c>
-      <c r="K177" t="n">
+      <c r="M177" t="n">
         <v>13697.8425</v>
+      </c>
+      <c r="N177" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="178">
@@ -8092,13 +9671,22 @@
         <v>126.5</v>
       </c>
       <c r="I178" t="n">
-        <v>36.365</v>
+        <v>126.68</v>
       </c>
       <c r="J178" t="n">
+        <v>115.195</v>
+      </c>
+      <c r="K178" t="n">
+        <v>54.52</v>
+      </c>
+      <c r="L178" t="n">
         <v>149.165</v>
       </c>
-      <c r="K178" t="n">
+      <c r="M178" t="n">
         <v>15375.5675</v>
+      </c>
+      <c r="N178" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="179">
@@ -8135,13 +9723,22 @@
         <v>131.2</v>
       </c>
       <c r="I179" t="n">
-        <v>37.618</v>
+        <v>131.122</v>
       </c>
       <c r="J179" t="n">
+        <v>116.84</v>
+      </c>
+      <c r="K179" t="n">
+        <v>56.51600000000001</v>
+      </c>
+      <c r="L179" t="n">
         <v>134.216</v>
       </c>
-      <c r="K179" t="n">
+      <c r="M179" t="n">
         <v>15084.296</v>
+      </c>
+      <c r="N179" t="n">
+        <v>17.93</v>
       </c>
     </row>
     <row r="180">
@@ -8178,13 +9775,22 @@
         <v>126.75</v>
       </c>
       <c r="I180" t="n">
-        <v>34.675</v>
+        <v>126.93</v>
       </c>
       <c r="J180" t="n">
+        <v>117.375</v>
+      </c>
+      <c r="K180" t="n">
+        <v>52.06249999999999</v>
+      </c>
+      <c r="L180" t="n">
         <v>125.8</v>
       </c>
-      <c r="K180" t="n">
+      <c r="M180" t="n">
         <v>14183.4975</v>
+      </c>
+      <c r="N180" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="181">
@@ -8221,13 +9827,22 @@
         <v>122.4</v>
       </c>
       <c r="I181" t="n">
-        <v>34.83</v>
+        <v>122.2</v>
       </c>
       <c r="J181" t="n">
+        <v>110.534</v>
+      </c>
+      <c r="K181" t="n">
+        <v>52.13399999999999</v>
+      </c>
+      <c r="L181" t="n">
         <v>144.988</v>
       </c>
-      <c r="K181" t="n">
+      <c r="M181" t="n">
         <v>14638.726</v>
+      </c>
+      <c r="N181" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="182">
@@ -8264,14 +9879,21 @@
         <v>101.5</v>
       </c>
       <c r="I182" t="n">
-        <v>29.3275</v>
+        <v>101.7775</v>
       </c>
       <c r="J182" t="n">
+        <v>88.19749999999999</v>
+      </c>
+      <c r="K182" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="L182" t="n">
         <v>167.29</v>
       </c>
-      <c r="K182" t="n">
+      <c r="M182" t="n">
         <v>12886.09</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8307,13 +9929,22 @@
         <v>112.8</v>
       </c>
       <c r="I183" t="n">
-        <v>30.394</v>
+        <v>112.812</v>
       </c>
       <c r="J183" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="K183" t="n">
+        <v>45.27200000000001</v>
+      </c>
+      <c r="L183" t="n">
         <v>145.586</v>
       </c>
-      <c r="K183" t="n">
+      <c r="M183" t="n">
         <v>12897.156</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="184">
@@ -8350,13 +9981,22 @@
         <v>67.5</v>
       </c>
       <c r="I184" t="n">
-        <v>18.595</v>
+        <v>67.4875</v>
       </c>
       <c r="J184" t="n">
+        <v>57.17749999999999</v>
+      </c>
+      <c r="K184" t="n">
+        <v>27.125</v>
+      </c>
+      <c r="L184" t="n">
         <v>181.6775</v>
       </c>
-      <c r="K184" t="n">
+      <c r="M184" t="n">
         <v>8290.7125</v>
+      </c>
+      <c r="N184" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="185">
@@ -8393,13 +10033,22 @@
         <v>134.2</v>
       </c>
       <c r="I185" t="n">
-        <v>38.86999999999999</v>
+        <v>134.342</v>
       </c>
       <c r="J185" t="n">
+        <v>119.79</v>
+      </c>
+      <c r="K185" t="n">
+        <v>57.306</v>
+      </c>
+      <c r="L185" t="n">
         <v>175.734</v>
       </c>
-      <c r="K185" t="n">
+      <c r="M185" t="n">
         <v>17152.098</v>
+      </c>
+      <c r="N185" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="186">
@@ -8436,13 +10085,22 @@
         <v>102.8</v>
       </c>
       <c r="I186" t="n">
-        <v>29.66</v>
+        <v>103.152</v>
       </c>
       <c r="J186" t="n">
+        <v>94.30199999999999</v>
+      </c>
+      <c r="K186" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="L186" t="n">
         <v>180.26</v>
       </c>
-      <c r="K186" t="n">
+      <c r="M186" t="n">
         <v>13380.166</v>
+      </c>
+      <c r="N186" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="187">
@@ -8479,13 +10137,22 @@
         <v>130</v>
       </c>
       <c r="I187" t="n">
-        <v>38.078</v>
+        <v>130.25</v>
       </c>
       <c r="J187" t="n">
+        <v>125.622</v>
+      </c>
+      <c r="K187" t="n">
+        <v>55.85200000000001</v>
+      </c>
+      <c r="L187" t="n">
         <v>178.78</v>
       </c>
-      <c r="K187" t="n">
+      <c r="M187" t="n">
         <v>17063.144</v>
+      </c>
+      <c r="N187" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="188">
@@ -8522,13 +10189,22 @@
         <v>119.25</v>
       </c>
       <c r="I188" t="n">
-        <v>35.405</v>
+        <v>119.47</v>
       </c>
       <c r="J188" t="n">
+        <v>109.2425</v>
+      </c>
+      <c r="K188" t="n">
+        <v>51.8825</v>
+      </c>
+      <c r="L188" t="n">
         <v>189.77</v>
       </c>
-      <c r="K188" t="n">
+      <c r="M188" t="n">
         <v>15855.0925</v>
+      </c>
+      <c r="N188" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="189">
@@ -8565,13 +10241,22 @@
         <v>138.2</v>
       </c>
       <c r="I189" t="n">
-        <v>41.766</v>
+        <v>138.3</v>
       </c>
       <c r="J189" t="n">
+        <v>119.992</v>
+      </c>
+      <c r="K189" t="n">
+        <v>61.48999999999999</v>
+      </c>
+      <c r="L189" t="n">
         <v>175.302</v>
       </c>
-      <c r="K189" t="n">
+      <c r="M189" t="n">
         <v>18597.14</v>
+      </c>
+      <c r="N189" t="n">
+        <v>-3.91</v>
       </c>
     </row>
     <row r="190">
@@ -8608,13 +10293,22 @@
         <v>96</v>
       </c>
       <c r="I190" t="n">
-        <v>26.94</v>
+        <v>95.91000000000001</v>
       </c>
       <c r="J190" t="n">
+        <v>81.82666666666667</v>
+      </c>
+      <c r="K190" t="n">
+        <v>39.54333333333334</v>
+      </c>
+      <c r="L190" t="n">
         <v>175.5733333333334</v>
       </c>
-      <c r="K190" t="n">
+      <c r="M190" t="n">
         <v>11940.90666666667</v>
+      </c>
+      <c r="N190" t="n">
+        <v>6.760000000000001</v>
       </c>
     </row>
     <row r="191">
@@ -8651,13 +10345,22 @@
         <v>116.6</v>
       </c>
       <c r="I191" t="n">
-        <v>33.75</v>
+        <v>116.972</v>
       </c>
       <c r="J191" t="n">
+        <v>99.602</v>
+      </c>
+      <c r="K191" t="n">
+        <v>49.104</v>
+      </c>
+      <c r="L191" t="n">
         <v>187.632</v>
       </c>
-      <c r="K191" t="n">
+      <c r="M191" t="n">
         <v>15299.104</v>
+      </c>
+      <c r="N191" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="192">
@@ -8694,13 +10397,22 @@
         <v>109</v>
       </c>
       <c r="I192" t="n">
-        <v>32.11</v>
+        <v>109.0725</v>
       </c>
       <c r="J192" t="n">
+        <v>92.56</v>
+      </c>
+      <c r="K192" t="n">
+        <v>46.925</v>
+      </c>
+      <c r="L192" t="n">
         <v>178.485</v>
       </c>
-      <c r="K192" t="n">
+      <c r="M192" t="n">
         <v>14491.73</v>
+      </c>
+      <c r="N192" t="n">
+        <v>14.57</v>
       </c>
     </row>
     <row r="193">
@@ -8737,13 +10449,22 @@
         <v>106.4</v>
       </c>
       <c r="I193" t="n">
-        <v>30.906</v>
+        <v>106.376</v>
       </c>
       <c r="J193" t="n">
+        <v>93.16399999999999</v>
+      </c>
+      <c r="K193" t="n">
+        <v>45.108</v>
+      </c>
+      <c r="L193" t="n">
         <v>185.344</v>
       </c>
-      <c r="K193" t="n">
+      <c r="M193" t="n">
         <v>13906.428</v>
+      </c>
+      <c r="N193" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="194">
@@ -8780,13 +10501,22 @@
         <v>120.2</v>
       </c>
       <c r="I194" t="n">
-        <v>36.062</v>
+        <v>120.526</v>
       </c>
       <c r="J194" t="n">
+        <v>106.508</v>
+      </c>
+      <c r="K194" t="n">
+        <v>52.51000000000001</v>
+      </c>
+      <c r="L194" t="n">
         <v>189.182</v>
       </c>
-      <c r="K194" t="n">
+      <c r="M194" t="n">
         <v>16333.582</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="195">
@@ -8823,13 +10553,22 @@
         <v>131.5</v>
       </c>
       <c r="I195" t="n">
-        <v>38.9375</v>
+        <v>131.375</v>
       </c>
       <c r="J195" t="n">
+        <v>111.6725</v>
+      </c>
+      <c r="K195" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="L195" t="n">
         <v>176.8275</v>
       </c>
-      <c r="K195" t="n">
+      <c r="M195" t="n">
         <v>17156.96</v>
+      </c>
+      <c r="N195" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="196">
@@ -8866,13 +10605,22 @@
         <v>116.5</v>
       </c>
       <c r="I196" t="n">
-        <v>32.505</v>
+        <v>116.3675</v>
       </c>
       <c r="J196" t="n">
+        <v>100.86</v>
+      </c>
+      <c r="K196" t="n">
+        <v>47.9225</v>
+      </c>
+      <c r="L196" t="n">
         <v>165.9975</v>
       </c>
-      <c r="K196" t="n">
+      <c r="M196" t="n">
         <v>14411.895</v>
+      </c>
+      <c r="N196" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="197">
@@ -8909,13 +10657,22 @@
         <v>126.6</v>
       </c>
       <c r="I197" t="n">
-        <v>35.506</v>
+        <v>126.762</v>
       </c>
       <c r="J197" t="n">
+        <v>111.874</v>
+      </c>
+      <c r="K197" t="n">
+        <v>52.67</v>
+      </c>
+      <c r="L197" t="n">
         <v>169.166</v>
       </c>
-      <c r="K197" t="n">
+      <c r="M197" t="n">
         <v>15348.924</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="198">
@@ -8952,13 +10709,22 @@
         <v>98.59999999999999</v>
       </c>
       <c r="I198" t="n">
-        <v>28.818</v>
+        <v>98.99399999999999</v>
       </c>
       <c r="J198" t="n">
+        <v>88.86600000000001</v>
+      </c>
+      <c r="K198" t="n">
+        <v>42.146</v>
+      </c>
+      <c r="L198" t="n">
         <v>194.466</v>
       </c>
-      <c r="K198" t="n">
+      <c r="M198" t="n">
         <v>12882.174</v>
+      </c>
+      <c r="N198" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="199">
@@ -8995,13 +10761,22 @@
         <v>125.5</v>
       </c>
       <c r="I199" t="n">
-        <v>35.25750000000001</v>
+        <v>125.9275</v>
       </c>
       <c r="J199" t="n">
+        <v>107.1475</v>
+      </c>
+      <c r="K199" t="n">
+        <v>52.005</v>
+      </c>
+      <c r="L199" t="n">
         <v>165.8775</v>
       </c>
-      <c r="K199" t="n">
+      <c r="M199" t="n">
         <v>15299.0675</v>
+      </c>
+      <c r="N199" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="200">
@@ -9038,14 +10813,21 @@
         <v>256.8</v>
       </c>
       <c r="I200" t="n">
-        <v>57.86800000000001</v>
+        <v>256.88</v>
       </c>
       <c r="J200" t="n">
+        <v>239.916</v>
+      </c>
+      <c r="K200" t="n">
+        <v>87.61199999999999</v>
+      </c>
+      <c r="L200" t="n">
         <v>129.958</v>
       </c>
-      <c r="K200" t="n">
+      <c r="M200" t="n">
         <v>20544.272</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9081,13 +10863,22 @@
         <v>283.4</v>
       </c>
       <c r="I201" t="n">
-        <v>83.69800000000001</v>
+        <v>280.56</v>
       </c>
       <c r="J201" t="n">
+        <v>263.794</v>
+      </c>
+      <c r="K201" t="n">
+        <v>124.384</v>
+      </c>
+      <c r="L201" t="n">
         <v>185.224</v>
       </c>
-      <c r="K201" t="n">
+      <c r="M201" t="n">
         <v>34880.332</v>
+      </c>
+      <c r="N201" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="202">
@@ -9124,13 +10915,22 @@
         <v>219</v>
       </c>
       <c r="I202" t="n">
-        <v>62.77500000000001</v>
+        <v>218.4875</v>
       </c>
       <c r="J202" t="n">
+        <v>199.1175</v>
+      </c>
+      <c r="K202" t="n">
+        <v>93.82250000000001</v>
+      </c>
+      <c r="L202" t="n">
         <v>185.4675</v>
       </c>
-      <c r="K202" t="n">
+      <c r="M202" t="n">
         <v>26306.805</v>
+      </c>
+      <c r="N202" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="203">
@@ -9167,13 +10967,22 @@
         <v>265.4</v>
       </c>
       <c r="I203" t="n">
-        <v>75.03400000000001</v>
+        <v>265.066</v>
       </c>
       <c r="J203" t="n">
+        <v>247.294</v>
+      </c>
+      <c r="K203" t="n">
+        <v>111.586</v>
+      </c>
+      <c r="L203" t="n">
         <v>176.85</v>
       </c>
-      <c r="K203" t="n">
+      <c r="M203" t="n">
         <v>30825.388</v>
+      </c>
+      <c r="N203" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="204">
@@ -9210,13 +11019,22 @@
         <v>264.5</v>
       </c>
       <c r="I204" t="n">
-        <v>76.00999999999999</v>
+        <v>258.895</v>
       </c>
       <c r="J204" t="n">
+        <v>248.67</v>
+      </c>
+      <c r="K204" t="n">
+        <v>112.87</v>
+      </c>
+      <c r="L204" t="n">
         <v>185.5875</v>
       </c>
-      <c r="K204" t="n">
+      <c r="M204" t="n">
         <v>30350.975</v>
+      </c>
+      <c r="N204" t="n">
+        <v>-3.57</v>
       </c>
     </row>
     <row r="205">
@@ -9253,13 +11071,22 @@
         <v>277</v>
       </c>
       <c r="I205" t="n">
-        <v>74.15599999999999</v>
+        <v>274.322</v>
       </c>
       <c r="J205" t="n">
+        <v>261.308</v>
+      </c>
+      <c r="K205" t="n">
+        <v>110.71</v>
+      </c>
+      <c r="L205" t="n">
         <v>153.018</v>
       </c>
-      <c r="K205" t="n">
+      <c r="M205" t="n">
         <v>28633.92</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="206">
@@ -9296,13 +11123,22 @@
         <v>260.25</v>
       </c>
       <c r="I206" t="n">
-        <v>64.3425</v>
+        <v>260.32</v>
       </c>
       <c r="J206" t="n">
+        <v>239.6125</v>
+      </c>
+      <c r="K206" t="n">
+        <v>96.89250000000001</v>
+      </c>
+      <c r="L206" t="n">
         <v>150.76</v>
       </c>
-      <c r="K206" t="n">
+      <c r="M206" t="n">
         <v>25024.24</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="207">
@@ -9339,13 +11175,22 @@
         <v>259.2</v>
       </c>
       <c r="I207" t="n">
-        <v>64.22999999999999</v>
+        <v>259.0939999999999</v>
       </c>
       <c r="J207" t="n">
+        <v>240.786</v>
+      </c>
+      <c r="K207" t="n">
+        <v>96.55999999999999</v>
+      </c>
+      <c r="L207" t="n">
         <v>143.558</v>
       </c>
-      <c r="K207" t="n">
+      <c r="M207" t="n">
         <v>25054.396</v>
+      </c>
+      <c r="N207" t="n">
+        <v>-6.55</v>
       </c>
     </row>
     <row r="208">
@@ -9382,13 +11227,22 @@
         <v>267.25</v>
       </c>
       <c r="I208" t="n">
-        <v>69.7925</v>
+        <v>266.1075</v>
       </c>
       <c r="J208" t="n">
+        <v>249.425</v>
+      </c>
+      <c r="K208" t="n">
+        <v>104.76</v>
+      </c>
+      <c r="L208" t="n">
         <v>143.86</v>
       </c>
-      <c r="K208" t="n">
+      <c r="M208" t="n">
         <v>25637.8025</v>
+      </c>
+      <c r="N208" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="209">
@@ -9425,13 +11279,22 @@
         <v>276.75</v>
       </c>
       <c r="I209" t="n">
-        <v>74.545</v>
+        <v>277.255</v>
       </c>
       <c r="J209" t="n">
+        <v>259.23</v>
+      </c>
+      <c r="K209" t="n">
+        <v>111.03</v>
+      </c>
+      <c r="L209" t="n">
         <v>141.445</v>
       </c>
-      <c r="K209" t="n">
+      <c r="M209" t="n">
         <v>31901.815</v>
+      </c>
+      <c r="N209" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="210">
@@ -9468,13 +11331,22 @@
         <v>269</v>
       </c>
       <c r="I210" t="n">
-        <v>82.41499999999999</v>
+        <v>261.6625</v>
       </c>
       <c r="J210" t="n">
+        <v>245.0625</v>
+      </c>
+      <c r="K210" t="n">
+        <v>121.8325</v>
+      </c>
+      <c r="L210" t="n">
         <v>203.6425</v>
       </c>
-      <c r="K210" t="n">
+      <c r="M210" t="n">
         <v>33727.0425</v>
+      </c>
+      <c r="N210" t="n">
+        <v>7.58</v>
       </c>
     </row>
     <row r="211">
@@ -9511,13 +11383,22 @@
         <v>203.4</v>
       </c>
       <c r="I211" t="n">
-        <v>50.912</v>
+        <v>203.292</v>
       </c>
       <c r="J211" t="n">
+        <v>180.02</v>
+      </c>
+      <c r="K211" t="n">
+        <v>76.55</v>
+      </c>
+      <c r="L211" t="n">
         <v>138.718</v>
       </c>
-      <c r="K211" t="n">
+      <c r="M211" t="n">
         <v>19639.294</v>
+      </c>
+      <c r="N211" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="212">
@@ -9554,13 +11435,22 @@
         <v>210.4</v>
       </c>
       <c r="I212" t="n">
-        <v>59.436</v>
+        <v>210.736</v>
       </c>
       <c r="J212" t="n">
+        <v>193.768</v>
+      </c>
+      <c r="K212" t="n">
+        <v>88.83400000000002</v>
+      </c>
+      <c r="L212" t="n">
         <v>167.662</v>
       </c>
-      <c r="K212" t="n">
+      <c r="M212" t="n">
         <v>25435.552</v>
+      </c>
+      <c r="N212" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="213">
@@ -9597,13 +11487,22 @@
         <v>225</v>
       </c>
       <c r="I213" t="n">
-        <v>62.84000000000001</v>
+        <v>224.956</v>
       </c>
       <c r="J213" t="n">
+        <v>198.398</v>
+      </c>
+      <c r="K213" t="n">
+        <v>93.502</v>
+      </c>
+      <c r="L213" t="n">
         <v>175.884</v>
       </c>
-      <c r="K213" t="n">
+      <c r="M213" t="n">
         <v>26767.248</v>
+      </c>
+      <c r="N213" t="n">
+        <v>13.06</v>
       </c>
     </row>
     <row r="214">
@@ -9640,13 +11539,22 @@
         <v>241.5</v>
       </c>
       <c r="I214" t="n">
-        <v>64.41</v>
+        <v>241.625</v>
       </c>
       <c r="J214" t="n">
+        <v>222.5125</v>
+      </c>
+      <c r="K214" t="n">
+        <v>96.095</v>
+      </c>
+      <c r="L214" t="n">
         <v>150.79</v>
       </c>
-      <c r="K214" t="n">
+      <c r="M214" t="n">
         <v>26434.4</v>
+      </c>
+      <c r="N214" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="215">
@@ -9683,13 +11591,22 @@
         <v>273.3333333333333</v>
       </c>
       <c r="I215" t="n">
-        <v>73.92999999999999</v>
+        <v>273.6466666666667</v>
       </c>
       <c r="J215" t="n">
+        <v>241.01</v>
+      </c>
+      <c r="K215" t="n">
+        <v>110.1766666666667</v>
+      </c>
+      <c r="L215" t="n">
         <v>160.8766666666667</v>
       </c>
-      <c r="K215" t="n">
+      <c r="M215" t="n">
         <v>30898.52333333333</v>
+      </c>
+      <c r="N215" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -9726,13 +11643,22 @@
         <v>236.75</v>
       </c>
       <c r="I216" t="n">
-        <v>68.07000000000001</v>
+        <v>236.9275</v>
       </c>
       <c r="J216" t="n">
+        <v>213.96</v>
+      </c>
+      <c r="K216" t="n">
+        <v>101.3825</v>
+      </c>
+      <c r="L216" t="n">
         <v>189.8725</v>
       </c>
-      <c r="K216" t="n">
+      <c r="M216" t="n">
         <v>28728.8325</v>
+      </c>
+      <c r="N216" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="217">
@@ -9769,13 +11695,22 @@
         <v>240.8</v>
       </c>
       <c r="I217" t="n">
-        <v>66.904</v>
+        <v>240.784</v>
       </c>
       <c r="J217" t="n">
+        <v>214.496</v>
+      </c>
+      <c r="K217" t="n">
+        <v>99.402</v>
+      </c>
+      <c r="L217" t="n">
         <v>177.872</v>
       </c>
-      <c r="K217" t="n">
+      <c r="M217" t="n">
         <v>28403.252</v>
+      </c>
+      <c r="N217" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="218">
@@ -9812,14 +11747,21 @@
         <v>55.75</v>
       </c>
       <c r="I218" t="n">
-        <v>15.02</v>
+        <v>55.4175</v>
       </c>
       <c r="J218" t="n">
+        <v>53.2375</v>
+      </c>
+      <c r="K218" t="n">
+        <v>21.885</v>
+      </c>
+      <c r="L218" t="n">
         <v>202.635</v>
       </c>
-      <c r="K218" t="n">
+      <c r="M218" t="n">
         <v>6602.725</v>
       </c>
+      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9855,13 +11797,22 @@
         <v>76.25</v>
       </c>
       <c r="I219" t="n">
-        <v>21.2075</v>
+        <v>76.46000000000001</v>
       </c>
       <c r="J219" t="n">
+        <v>70.75749999999999</v>
+      </c>
+      <c r="K219" t="n">
+        <v>30.8125</v>
+      </c>
+      <c r="L219" t="n">
         <v>165.835</v>
       </c>
-      <c r="K219" t="n">
+      <c r="M219" t="n">
         <v>9473.3575</v>
+      </c>
+      <c r="N219" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="220">
@@ -9898,13 +11849,22 @@
         <v>61.6</v>
       </c>
       <c r="I220" t="n">
-        <v>17.628</v>
+        <v>62.04200000000001</v>
       </c>
       <c r="J220" t="n">
+        <v>54.194</v>
+      </c>
+      <c r="K220" t="n">
+        <v>25.642</v>
+      </c>
+      <c r="L220" t="n">
         <v>207.828</v>
       </c>
-      <c r="K220" t="n">
+      <c r="M220" t="n">
         <v>8011.516000000001</v>
+      </c>
+      <c r="N220" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="221">
@@ -9941,13 +11901,22 @@
         <v>70.59999999999999</v>
       </c>
       <c r="I221" t="n">
-        <v>20.744</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="J221" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="K221" t="n">
+        <v>30.168</v>
+      </c>
+      <c r="L221" t="n">
         <v>187.768</v>
       </c>
-      <c r="K221" t="n">
+      <c r="M221" t="n">
         <v>9466.734</v>
+      </c>
+      <c r="N221" t="n">
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="222">
@@ -9984,13 +11953,22 @@
         <v>95</v>
       </c>
       <c r="I222" t="n">
-        <v>28.91</v>
+        <v>95.49250000000001</v>
       </c>
       <c r="J222" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="K222" t="n">
+        <v>41.6975</v>
+      </c>
+      <c r="L222" t="n">
         <v>211.455</v>
       </c>
-      <c r="K222" t="n">
+      <c r="M222" t="n">
         <v>13521.965</v>
+      </c>
+      <c r="N222" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="223">
@@ -10027,13 +12005,22 @@
         <v>79</v>
       </c>
       <c r="I223" t="n">
-        <v>23.46666666666667</v>
+        <v>79.58999999999999</v>
       </c>
       <c r="J223" t="n">
+        <v>74.00333333333333</v>
+      </c>
+      <c r="K223" t="n">
+        <v>34.05333333333333</v>
+      </c>
+      <c r="L223" t="n">
         <v>212.2466666666667</v>
       </c>
-      <c r="K223" t="n">
+      <c r="M223" t="n">
         <v>10711.38</v>
+      </c>
+      <c r="N223" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="224">
@@ -10070,13 +12057,22 @@
         <v>82.2</v>
       </c>
       <c r="I224" t="n">
-        <v>24.574</v>
+        <v>82.76599999999999</v>
       </c>
       <c r="J224" t="n">
+        <v>73.376</v>
+      </c>
+      <c r="K224" t="n">
+        <v>35.366</v>
+      </c>
+      <c r="L224" t="n">
         <v>235.574</v>
       </c>
-      <c r="K224" t="n">
+      <c r="M224" t="n">
         <v>11430.696</v>
+      </c>
+      <c r="N224" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="225">
@@ -10113,13 +12109,22 @@
         <v>83.8</v>
       </c>
       <c r="I225" t="n">
-        <v>24.428</v>
+        <v>84.03599999999999</v>
       </c>
       <c r="J225" t="n">
+        <v>76.19199999999998</v>
+      </c>
+      <c r="K225" t="n">
+        <v>35.53400000000001</v>
+      </c>
+      <c r="L225" t="n">
         <v>193.956</v>
       </c>
-      <c r="K225" t="n">
+      <c r="M225" t="n">
         <v>11115.674</v>
+      </c>
+      <c r="N225" t="n">
+        <v>-10.16</v>
       </c>
     </row>
     <row r="226">
@@ -10156,13 +12161,22 @@
         <v>79.75</v>
       </c>
       <c r="I226" t="n">
-        <v>23.8925</v>
+        <v>80.23</v>
       </c>
       <c r="J226" t="n">
+        <v>67.32249999999999</v>
+      </c>
+      <c r="K226" t="n">
+        <v>34.4775</v>
+      </c>
+      <c r="L226" t="n">
         <v>193.9775</v>
       </c>
-      <c r="K226" t="n">
+      <c r="M226" t="n">
         <v>11116.17</v>
+      </c>
+      <c r="N226" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="227">
@@ -10199,13 +12213,22 @@
         <v>47</v>
       </c>
       <c r="I227" t="n">
-        <v>13.665</v>
+        <v>47.11749999999999</v>
       </c>
       <c r="J227" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="K227" t="n">
+        <v>19.7775</v>
+      </c>
+      <c r="L227" t="n">
         <v>257.935</v>
       </c>
-      <c r="K227" t="n">
+      <c r="M227" t="n">
         <v>6319.485</v>
+      </c>
+      <c r="N227" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="228">
@@ -10242,13 +12265,22 @@
         <v>61.6</v>
       </c>
       <c r="I228" t="n">
-        <v>17.714</v>
+        <v>61.638</v>
       </c>
       <c r="J228" t="n">
+        <v>53.45800000000001</v>
+      </c>
+      <c r="K228" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="L228" t="n">
         <v>187.51</v>
       </c>
-      <c r="K228" t="n">
+      <c r="M228" t="n">
         <v>8208.683999999999</v>
+      </c>
+      <c r="N228" t="n">
+        <v>19.21</v>
       </c>
     </row>
     <row r="229">
@@ -10285,13 +12317,22 @@
         <v>65.59999999999999</v>
       </c>
       <c r="I229" t="n">
-        <v>18.134</v>
+        <v>65.79599999999999</v>
       </c>
       <c r="J229" t="n">
+        <v>59.424</v>
+      </c>
+      <c r="K229" t="n">
+        <v>26.474</v>
+      </c>
+      <c r="L229" t="n">
         <v>208.228</v>
       </c>
-      <c r="K229" t="n">
+      <c r="M229" t="n">
         <v>8116.81</v>
+      </c>
+      <c r="N229" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="230">
@@ -10319,22 +12360,31 @@
         <v>9.6</v>
       </c>
       <c r="F230" t="n">
-        <v>53.6</v>
+        <v>36.8</v>
       </c>
       <c r="G230" t="n">
-        <v>44</v>
+        <v>27.2</v>
       </c>
       <c r="H230" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="I230" t="n">
-        <v>12.908</v>
+        <v>42.522</v>
       </c>
       <c r="J230" t="n">
-        <v>198.182</v>
+        <v>39.372</v>
       </c>
       <c r="K230" t="n">
-        <v>5897.505999999999</v>
+        <v>18.296</v>
+      </c>
+      <c r="L230" t="n">
+        <v>295.072</v>
+      </c>
+      <c r="M230" t="n">
+        <v>6129.708000000001</v>
+      </c>
+      <c r="N230" t="n">
+        <v>26.99</v>
       </c>
     </row>
     <row r="231">
@@ -10371,13 +12421,22 @@
         <v>58.6</v>
       </c>
       <c r="I231" t="n">
-        <v>16.322</v>
+        <v>58.95399999999999</v>
       </c>
       <c r="J231" t="n">
+        <v>51.44199999999999</v>
+      </c>
+      <c r="K231" t="n">
+        <v>23.752</v>
+      </c>
+      <c r="L231" t="n">
         <v>173.546</v>
       </c>
-      <c r="K231" t="n">
+      <c r="M231" t="n">
         <v>7382.844</v>
+      </c>
+      <c r="N231" t="n">
+        <v>22.39</v>
       </c>
     </row>
     <row r="232">
@@ -10414,13 +12473,22 @@
         <v>64.2</v>
       </c>
       <c r="I232" t="n">
-        <v>18.048</v>
+        <v>64.25399999999999</v>
       </c>
       <c r="J232" t="n">
+        <v>57.88199999999999</v>
+      </c>
+      <c r="K232" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="L232" t="n">
         <v>181.104</v>
       </c>
-      <c r="K232" t="n">
+      <c r="M232" t="n">
         <v>8258.621999999999</v>
+      </c>
+      <c r="N232" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="233">
@@ -10457,13 +12525,22 @@
         <v>49.4</v>
       </c>
       <c r="I233" t="n">
-        <v>13.856</v>
+        <v>49.496</v>
       </c>
       <c r="J233" t="n">
+        <v>43.794</v>
+      </c>
+      <c r="K233" t="n">
+        <v>20.136</v>
+      </c>
+      <c r="L233" t="n">
         <v>189.51</v>
       </c>
-      <c r="K233" t="n">
+      <c r="M233" t="n">
         <v>6283.976000000001</v>
+      </c>
+      <c r="N233" t="n">
+        <v>23.05</v>
       </c>
     </row>
     <row r="234">
@@ -10500,13 +12577,22 @@
         <v>52.6</v>
       </c>
       <c r="I234" t="n">
-        <v>15.29</v>
+        <v>53.12</v>
       </c>
       <c r="J234" t="n">
+        <v>46.748</v>
+      </c>
+      <c r="K234" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="L234" t="n">
         <v>195.742</v>
       </c>
-      <c r="K234" t="n">
+      <c r="M234" t="n">
         <v>6949.67</v>
+      </c>
+      <c r="N234" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="235">
@@ -10543,13 +12629,22 @@
         <v>77.33333333333333</v>
       </c>
       <c r="I235" t="n">
-        <v>21.16</v>
+        <v>77.91333333333333</v>
       </c>
       <c r="J235" t="n">
+        <v>73.44333333333333</v>
+      </c>
+      <c r="K235" t="n">
+        <v>31.00333333333333</v>
+      </c>
+      <c r="L235" t="n">
         <v>182.3066666666666</v>
       </c>
-      <c r="K235" t="n">
+      <c r="M235" t="n">
         <v>9269.393333333333</v>
+      </c>
+      <c r="N235" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="236">
@@ -10586,14 +12681,21 @@
         <v>196</v>
       </c>
       <c r="I236" t="n">
-        <v>55.774</v>
+        <v>194.37</v>
       </c>
       <c r="J236" t="n">
+        <v>173.584</v>
+      </c>
+      <c r="K236" t="n">
+        <v>83.57599999999999</v>
+      </c>
+      <c r="L236" t="n">
         <v>173.406</v>
       </c>
-      <c r="K236" t="n">
+      <c r="M236" t="n">
         <v>22309.752</v>
       </c>
+      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10629,13 +12731,22 @@
         <v>201.6666666666667</v>
       </c>
       <c r="I237" t="n">
-        <v>53.68666666666667</v>
+        <v>202.1066666666667</v>
       </c>
       <c r="J237" t="n">
+        <v>178.5266666666666</v>
+      </c>
+      <c r="K237" t="n">
+        <v>81.46333333333332</v>
+      </c>
+      <c r="L237" t="n">
         <v>140.15</v>
       </c>
-      <c r="K237" t="n">
+      <c r="M237" t="n">
         <v>20929.94</v>
+      </c>
+      <c r="N237" t="n">
+        <v>5.900000000000001</v>
       </c>
     </row>
     <row r="238">
@@ -10672,13 +12783,22 @@
         <v>145.2</v>
       </c>
       <c r="I238" t="n">
-        <v>39.826</v>
+        <v>145.408</v>
       </c>
       <c r="J238" t="n">
+        <v>129.042</v>
+      </c>
+      <c r="K238" t="n">
+        <v>59.91400000000001</v>
+      </c>
+      <c r="L238" t="n">
         <v>189.594</v>
       </c>
-      <c r="K238" t="n">
+      <c r="M238" t="n">
         <v>16284.066</v>
+      </c>
+      <c r="N238" t="n">
+        <v>30.27</v>
       </c>
     </row>
     <row r="239">
@@ -10715,13 +12835,22 @@
         <v>195.5</v>
       </c>
       <c r="I239" t="n">
-        <v>53.2475</v>
+        <v>196.095</v>
       </c>
       <c r="J239" t="n">
+        <v>175.6425</v>
+      </c>
+      <c r="K239" t="n">
+        <v>80.33000000000001</v>
+      </c>
+      <c r="L239" t="n">
         <v>141.72</v>
       </c>
-      <c r="K239" t="n">
+      <c r="M239" t="n">
         <v>22289.95</v>
+      </c>
+      <c r="N239" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="240">
@@ -10758,13 +12887,22 @@
         <v>193.8</v>
       </c>
       <c r="I240" t="n">
-        <v>53.35</v>
+        <v>194.04</v>
       </c>
       <c r="J240" t="n">
+        <v>177.404</v>
+      </c>
+      <c r="K240" t="n">
+        <v>80.21000000000001</v>
+      </c>
+      <c r="L240" t="n">
         <v>183.122</v>
       </c>
-      <c r="K240" t="n">
+      <c r="M240" t="n">
         <v>21778.136</v>
+      </c>
+      <c r="N240" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="241">
@@ -10801,13 +12939,22 @@
         <v>175.8</v>
       </c>
       <c r="I241" t="n">
-        <v>48.28</v>
+        <v>172.172</v>
       </c>
       <c r="J241" t="n">
+        <v>163.654</v>
+      </c>
+      <c r="K241" t="n">
+        <v>73.02200000000002</v>
+      </c>
+      <c r="L241" t="n">
         <v>157.294</v>
       </c>
-      <c r="K241" t="n">
+      <c r="M241" t="n">
         <v>18619.062</v>
+      </c>
+      <c r="N241" t="n">
+        <v>7.779999999999999</v>
       </c>
     </row>
     <row r="242">
@@ -10844,13 +12991,22 @@
         <v>175.6</v>
       </c>
       <c r="I242" t="n">
-        <v>47.302</v>
+        <v>176.064</v>
       </c>
       <c r="J242" t="n">
+        <v>163.324</v>
+      </c>
+      <c r="K242" t="n">
+        <v>71.90600000000001</v>
+      </c>
+      <c r="L242" t="n">
         <v>144.648</v>
       </c>
-      <c r="K242" t="n">
+      <c r="M242" t="n">
         <v>18591.33</v>
+      </c>
+      <c r="N242" t="n">
+        <v>11.92</v>
       </c>
     </row>
     <row r="243">
@@ -10887,13 +13043,22 @@
         <v>194.75</v>
       </c>
       <c r="I243" t="n">
-        <v>58.47499999999999</v>
+        <v>195.0075</v>
       </c>
       <c r="J243" t="n">
+        <v>185.45</v>
+      </c>
+      <c r="K243" t="n">
+        <v>87.5025</v>
+      </c>
+      <c r="L243" t="n">
         <v>195.225</v>
       </c>
-      <c r="K243" t="n">
+      <c r="M243" t="n">
         <v>24534.6525</v>
+      </c>
+      <c r="N243" t="n">
+        <v>8.65</v>
       </c>
     </row>
     <row r="244">
@@ -10930,13 +13095,22 @@
         <v>172.5</v>
       </c>
       <c r="I244" t="n">
-        <v>44.97</v>
+        <v>172.7925</v>
       </c>
       <c r="J244" t="n">
+        <v>154.015</v>
+      </c>
+      <c r="K244" t="n">
+        <v>68.3625</v>
+      </c>
+      <c r="L244" t="n">
         <v>138.245</v>
       </c>
-      <c r="K244" t="n">
+      <c r="M244" t="n">
         <v>17546.2225</v>
+      </c>
+      <c r="N244" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="245">
@@ -10973,13 +13147,22 @@
         <v>190.8</v>
       </c>
       <c r="I245" t="n">
-        <v>52.566</v>
+        <v>190.882</v>
       </c>
       <c r="J245" t="n">
+        <v>167.882</v>
+      </c>
+      <c r="K245" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="L245" t="n">
         <v>164.66</v>
       </c>
-      <c r="K245" t="n">
+      <c r="M245" t="n">
         <v>21380.694</v>
+      </c>
+      <c r="N245" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="246">
@@ -11016,13 +13199,22 @@
         <v>186.4</v>
       </c>
       <c r="I246" t="n">
-        <v>47.854</v>
+        <v>186.524</v>
       </c>
       <c r="J246" t="n">
+        <v>160.702</v>
+      </c>
+      <c r="K246" t="n">
+        <v>72.98800000000001</v>
+      </c>
+      <c r="L246" t="n">
         <v>129.506</v>
       </c>
-      <c r="K246" t="n">
+      <c r="M246" t="n">
         <v>18499.734</v>
+      </c>
+      <c r="N246" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="247">
@@ -11059,13 +13251,22 @@
         <v>179.6</v>
       </c>
       <c r="I247" t="n">
-        <v>48.172</v>
+        <v>179.884</v>
       </c>
       <c r="J247" t="n">
+        <v>156.48</v>
+      </c>
+      <c r="K247" t="n">
+        <v>72.702</v>
+      </c>
+      <c r="L247" t="n">
         <v>165.788</v>
       </c>
-      <c r="K247" t="n">
+      <c r="M247" t="n">
         <v>19268.512</v>
+      </c>
+      <c r="N247" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="248">
@@ -11102,13 +13303,22 @@
         <v>197</v>
       </c>
       <c r="I248" t="n">
-        <v>54.038</v>
+        <v>196.988</v>
       </c>
       <c r="J248" t="n">
+        <v>171.104</v>
+      </c>
+      <c r="K248" t="n">
+        <v>81.374</v>
+      </c>
+      <c r="L248" t="n">
         <v>165.238</v>
       </c>
-      <c r="K248" t="n">
+      <c r="M248" t="n">
         <v>22078.24</v>
+      </c>
+      <c r="N248" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="249">
@@ -11145,13 +13355,22 @@
         <v>187.25</v>
       </c>
       <c r="I249" t="n">
-        <v>50.535</v>
+        <v>187.715</v>
       </c>
       <c r="J249" t="n">
+        <v>167.4275</v>
+      </c>
+      <c r="K249" t="n">
+        <v>76.485</v>
+      </c>
+      <c r="L249" t="n">
         <v>169.505</v>
       </c>
-      <c r="K249" t="n">
+      <c r="M249" t="n">
         <v>19975.365</v>
+      </c>
+      <c r="N249" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="250">
@@ -11188,13 +13407,22 @@
         <v>187.75</v>
       </c>
       <c r="I250" t="n">
-        <v>50.1125</v>
+        <v>188.22</v>
       </c>
       <c r="J250" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="K250" t="n">
+        <v>75.435</v>
+      </c>
+      <c r="L250" t="n">
         <v>153.06</v>
       </c>
-      <c r="K250" t="n">
+      <c r="M250" t="n">
         <v>20235.6825</v>
+      </c>
+      <c r="N250" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="251">
@@ -11231,13 +13459,22 @@
         <v>181.2</v>
       </c>
       <c r="I251" t="n">
-        <v>50.366</v>
+        <v>181.628</v>
       </c>
       <c r="J251" t="n">
+        <v>164.528</v>
+      </c>
+      <c r="K251" t="n">
+        <v>75.39599999999999</v>
+      </c>
+      <c r="L251" t="n">
         <v>172.938</v>
       </c>
-      <c r="K251" t="n">
+      <c r="M251" t="n">
         <v>20881.026</v>
+      </c>
+      <c r="N251" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="252">
@@ -11274,13 +13511,22 @@
         <v>176.4</v>
       </c>
       <c r="I252" t="n">
-        <v>49.002</v>
+        <v>176.864</v>
       </c>
       <c r="J252" t="n">
+        <v>150.71</v>
+      </c>
+      <c r="K252" t="n">
+        <v>73.892</v>
+      </c>
+      <c r="L252" t="n">
         <v>167.642</v>
       </c>
-      <c r="K252" t="n">
+      <c r="M252" t="n">
         <v>19912.986</v>
+      </c>
+      <c r="N252" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="253">
@@ -11317,13 +13563,22 @@
         <v>187.2</v>
       </c>
       <c r="I253" t="n">
-        <v>51.126</v>
+        <v>187.734</v>
       </c>
       <c r="J253" t="n">
+        <v>162.38</v>
+      </c>
+      <c r="K253" t="n">
+        <v>77.04600000000001</v>
+      </c>
+      <c r="L253" t="n">
         <v>152.44</v>
       </c>
-      <c r="K253" t="n">
+      <c r="M253" t="n">
         <v>20698.95</v>
+      </c>
+      <c r="N253" t="n">
+        <v>9.91</v>
       </c>
     </row>
     <row r="254">
@@ -11360,14 +13615,21 @@
         <v>170</v>
       </c>
       <c r="I254" t="n">
-        <v>32.39666666666667</v>
+        <v>170.47</v>
       </c>
       <c r="J254" t="n">
+        <v>146.4366666666666</v>
+      </c>
+      <c r="K254" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="L254" t="n">
         <v>40.90666666666667</v>
       </c>
-      <c r="K254" t="n">
+      <c r="M254" t="n">
         <v>8358.303333333331</v>
       </c>
+      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11403,13 +13665,22 @@
         <v>146</v>
       </c>
       <c r="I255" t="n">
-        <v>32.194</v>
+        <v>146.144</v>
       </c>
       <c r="J255" t="n">
+        <v>139.508</v>
+      </c>
+      <c r="K255" t="n">
+        <v>49.104</v>
+      </c>
+      <c r="L255" t="n">
         <v>73.95400000000001</v>
       </c>
-      <c r="K255" t="n">
+      <c r="M255" t="n">
         <v>11441.066</v>
+      </c>
+      <c r="N255" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="256">
@@ -11446,13 +13717,22 @@
         <v>117.5</v>
       </c>
       <c r="I256" t="n">
-        <v>25.44</v>
+        <v>117.71</v>
       </c>
       <c r="J256" t="n">
+        <v>105.22</v>
+      </c>
+      <c r="K256" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="L256" t="n">
         <v>98.35499999999999</v>
       </c>
-      <c r="K256" t="n">
+      <c r="M256" t="n">
         <v>9275.190000000001</v>
+      </c>
+      <c r="N256" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="257">
@@ -11489,13 +13769,22 @@
         <v>178</v>
       </c>
       <c r="I257" t="n">
-        <v>35.618</v>
+        <v>178.074</v>
       </c>
       <c r="J257" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="K257" t="n">
+        <v>55.038</v>
+      </c>
+      <c r="L257" t="n">
         <v>62.59400000000001</v>
       </c>
-      <c r="K257" t="n">
+      <c r="M257" t="n">
         <v>10495.882</v>
+      </c>
+      <c r="N257" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="258">
@@ -11532,13 +13821,22 @@
         <v>174.8</v>
       </c>
       <c r="I258" t="n">
-        <v>33.684</v>
+        <v>175.19</v>
       </c>
       <c r="J258" t="n">
+        <v>162.114</v>
+      </c>
+      <c r="K258" t="n">
+        <v>52.064</v>
+      </c>
+      <c r="L258" t="n">
         <v>36.75</v>
       </c>
-      <c r="K258" t="n">
+      <c r="M258" t="n">
         <v>9834.66</v>
+      </c>
+      <c r="N258" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="259">
@@ -11575,13 +13873,22 @@
         <v>142.6</v>
       </c>
       <c r="I259" t="n">
-        <v>28.25</v>
+        <v>142.86</v>
       </c>
       <c r="J259" t="n">
+        <v>132.598</v>
+      </c>
+      <c r="K259" t="n">
+        <v>43.646</v>
+      </c>
+      <c r="L259" t="n">
         <v>80.83799999999999</v>
       </c>
-      <c r="K259" t="n">
+      <c r="M259" t="n">
         <v>8632.639999999999</v>
+      </c>
+      <c r="N259" t="n">
+        <v>10.85</v>
       </c>
     </row>
     <row r="260">
@@ -11618,13 +13925,22 @@
         <v>158</v>
       </c>
       <c r="I260" t="n">
-        <v>30.1575</v>
+        <v>158.2875</v>
       </c>
       <c r="J260" t="n">
+        <v>149.15</v>
+      </c>
+      <c r="K260" t="n">
+        <v>46.655</v>
+      </c>
+      <c r="L260" t="n">
         <v>45.1675</v>
       </c>
-      <c r="K260" t="n">
+      <c r="M260" t="n">
         <v>8188.835</v>
+      </c>
+      <c r="N260" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="261">
@@ -11661,13 +13977,22 @@
         <v>161.2</v>
       </c>
       <c r="I261" t="n">
-        <v>31.09</v>
+        <v>161.708</v>
       </c>
       <c r="J261" t="n">
+        <v>147.892</v>
+      </c>
+      <c r="K261" t="n">
+        <v>48.098</v>
+      </c>
+      <c r="L261" t="n">
         <v>42.48399999999999</v>
       </c>
-      <c r="K261" t="n">
+      <c r="M261" t="n">
         <v>9256.202000000001</v>
+      </c>
+      <c r="N261" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="262">
@@ -11704,13 +14029,22 @@
         <v>129.75</v>
       </c>
       <c r="I262" t="n">
-        <v>26.685</v>
+        <v>129.61</v>
       </c>
       <c r="J262" t="n">
+        <v>118.3775</v>
+      </c>
+      <c r="K262" t="n">
+        <v>40.65000000000001</v>
+      </c>
+      <c r="L262" t="n">
         <v>106.1425</v>
       </c>
-      <c r="K262" t="n">
+      <c r="M262" t="n">
         <v>8657.59</v>
+      </c>
+      <c r="N262" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="263">
@@ -11747,13 +14081,22 @@
         <v>162</v>
       </c>
       <c r="I263" t="n">
-        <v>32.362</v>
+        <v>162.246</v>
       </c>
       <c r="J263" t="n">
+        <v>145.076</v>
+      </c>
+      <c r="K263" t="n">
+        <v>49.886</v>
+      </c>
+      <c r="L263" t="n">
         <v>47.912</v>
       </c>
-      <c r="K263" t="n">
+      <c r="M263" t="n">
         <v>9900.859999999999</v>
+      </c>
+      <c r="N263" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="264">
@@ -11790,13 +14133,22 @@
         <v>139.4</v>
       </c>
       <c r="I264" t="n">
-        <v>28.25</v>
+        <v>139.172</v>
       </c>
       <c r="J264" t="n">
+        <v>133.47</v>
+      </c>
+      <c r="K264" t="n">
+        <v>43.222</v>
+      </c>
+      <c r="L264" t="n">
         <v>59.98</v>
       </c>
-      <c r="K264" t="n">
+      <c r="M264" t="n">
         <v>9584.866</v>
+      </c>
+      <c r="N264" t="n">
+        <v>13.09</v>
       </c>
     </row>
     <row r="265">
@@ -11833,13 +14185,22 @@
         <v>153.8</v>
       </c>
       <c r="I265" t="n">
-        <v>29.788</v>
+        <v>154.332</v>
       </c>
       <c r="J265" t="n">
+        <v>140.18</v>
+      </c>
+      <c r="K265" t="n">
+        <v>45.95400000000001</v>
+      </c>
+      <c r="L265" t="n">
         <v>47.444</v>
       </c>
-      <c r="K265" t="n">
+      <c r="M265" t="n">
         <v>8919.77</v>
+      </c>
+      <c r="N265" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="266">
@@ -11876,13 +14237,22 @@
         <v>127.75</v>
       </c>
       <c r="I266" t="n">
-        <v>25.365</v>
+        <v>127.77</v>
       </c>
       <c r="J266" t="n">
+        <v>120.7325</v>
+      </c>
+      <c r="K266" t="n">
+        <v>38.8525</v>
+      </c>
+      <c r="L266" t="n">
         <v>71.03749999999999</v>
       </c>
-      <c r="K266" t="n">
+      <c r="M266" t="n">
         <v>8101.4225</v>
+      </c>
+      <c r="N266" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="267">
@@ -11919,13 +14289,22 @@
         <v>160.75</v>
       </c>
       <c r="I267" t="n">
-        <v>32.295</v>
+        <v>161.2225</v>
       </c>
       <c r="J267" t="n">
+        <v>150.0725</v>
+      </c>
+      <c r="K267" t="n">
+        <v>50.0275</v>
+      </c>
+      <c r="L267" t="n">
         <v>46.4875</v>
       </c>
-      <c r="K267" t="n">
+      <c r="M267" t="n">
         <v>9287.262500000001</v>
+      </c>
+      <c r="N267" t="n">
+        <v>11.93</v>
       </c>
     </row>
     <row r="268">
@@ -11962,13 +14341,22 @@
         <v>122.25</v>
       </c>
       <c r="I268" t="n">
-        <v>25.0475</v>
+        <v>122.15</v>
       </c>
       <c r="J268" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="K268" t="n">
+        <v>38.195</v>
+      </c>
+      <c r="L268" t="n">
         <v>67.715</v>
       </c>
-      <c r="K268" t="n">
+      <c r="M268" t="n">
         <v>8739.517500000002</v>
+      </c>
+      <c r="N268" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="269">
@@ -12005,13 +14393,22 @@
         <v>157.8</v>
       </c>
       <c r="I269" t="n">
-        <v>30.97</v>
+        <v>158.084</v>
       </c>
       <c r="J269" t="n">
+        <v>154.666</v>
+      </c>
+      <c r="K269" t="n">
+        <v>47.642</v>
+      </c>
+      <c r="L269" t="n">
         <v>46.326</v>
       </c>
-      <c r="K269" t="n">
+      <c r="M269" t="n">
         <v>9141.74</v>
+      </c>
+      <c r="N269" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="270">
@@ -12048,13 +14445,22 @@
         <v>173.5</v>
       </c>
       <c r="I270" t="n">
-        <v>35.2125</v>
+        <v>173.6325</v>
       </c>
       <c r="J270" t="n">
+        <v>161.8125</v>
+      </c>
+      <c r="K270" t="n">
+        <v>53.94750000000001</v>
+      </c>
+      <c r="L270" t="n">
         <v>58.39</v>
       </c>
-      <c r="K270" t="n">
+      <c r="M270" t="n">
         <v>11952.4675</v>
+      </c>
+      <c r="N270" t="n">
+        <v>7.16</v>
       </c>
     </row>
     <row r="271">
@@ -12091,13 +14497,22 @@
         <v>143.2</v>
       </c>
       <c r="I271" t="n">
-        <v>27.478</v>
+        <v>143.328</v>
       </c>
       <c r="J271" t="n">
+        <v>128.774</v>
+      </c>
+      <c r="K271" t="n">
+        <v>42.476</v>
+      </c>
+      <c r="L271" t="n">
         <v>64.78399999999999</v>
       </c>
-      <c r="K271" t="n">
+      <c r="M271" t="n">
         <v>7692.992000000001</v>
+      </c>
+      <c r="N271" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="272">
@@ -12134,14 +14549,21 @@
         <v>131</v>
       </c>
       <c r="I272" t="n">
-        <v>34.856</v>
+        <v>131.258</v>
       </c>
       <c r="J272" t="n">
+        <v>120.862</v>
+      </c>
+      <c r="K272" t="n">
+        <v>53.74799999999999</v>
+      </c>
+      <c r="L272" t="n">
         <v>137.518</v>
       </c>
-      <c r="K272" t="n">
+      <c r="M272" t="n">
         <v>12783.242</v>
       </c>
+      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -12177,13 +14599,22 @@
         <v>113.25</v>
       </c>
       <c r="I273" t="n">
-        <v>28.04</v>
+        <v>113.7675</v>
       </c>
       <c r="J273" t="n">
+        <v>101.3575</v>
+      </c>
+      <c r="K273" t="n">
+        <v>43.3525</v>
+      </c>
+      <c r="L273" t="n">
         <v>125.2</v>
       </c>
-      <c r="K273" t="n">
+      <c r="M273" t="n">
         <v>9953.855000000001</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="274">
@@ -12220,13 +14651,22 @@
         <v>91</v>
       </c>
       <c r="I274" t="n">
-        <v>21.668</v>
+        <v>90.946</v>
       </c>
       <c r="J274" t="n">
+        <v>84.77799999999999</v>
+      </c>
+      <c r="K274" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="L274" t="n">
         <v>123.762</v>
       </c>
-      <c r="K274" t="n">
+      <c r="M274" t="n">
         <v>7731.460000000001</v>
+      </c>
+      <c r="N274" t="n">
+        <v>36.17</v>
       </c>
     </row>
     <row r="275">
@@ -12263,13 +14703,22 @@
         <v>126.8</v>
       </c>
       <c r="I275" t="n">
-        <v>31.696</v>
+        <v>127.232</v>
       </c>
       <c r="J275" t="n">
+        <v>114.422</v>
+      </c>
+      <c r="K275" t="n">
+        <v>49.12</v>
+      </c>
+      <c r="L275" t="n">
         <v>115.724</v>
       </c>
-      <c r="K275" t="n">
+      <c r="M275" t="n">
         <v>11017.802</v>
+      </c>
+      <c r="N275" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="276">
@@ -12306,13 +14755,22 @@
         <v>115.75</v>
       </c>
       <c r="I276" t="n">
-        <v>29.68</v>
+        <v>116.2025</v>
       </c>
       <c r="J276" t="n">
+        <v>102.535</v>
+      </c>
+      <c r="K276" t="n">
+        <v>45.9825</v>
+      </c>
+      <c r="L276" t="n">
         <v>122.655</v>
       </c>
-      <c r="K276" t="n">
+      <c r="M276" t="n">
         <v>10556.7</v>
+      </c>
+      <c r="N276" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="277">
@@ -12349,13 +14807,22 @@
         <v>116.8</v>
       </c>
       <c r="I277" t="n">
-        <v>29.714</v>
+        <v>117.174</v>
       </c>
       <c r="J277" t="n">
+        <v>108.722</v>
+      </c>
+      <c r="K277" t="n">
+        <v>46.04</v>
+      </c>
+      <c r="L277" t="n">
         <v>129.184</v>
       </c>
-      <c r="K277" t="n">
+      <c r="M277" t="n">
         <v>10396.042</v>
+      </c>
+      <c r="N277" t="n">
+        <v>10.11</v>
       </c>
     </row>
     <row r="278">
@@ -12392,13 +14859,22 @@
         <v>137.8</v>
       </c>
       <c r="I278" t="n">
-        <v>34.108</v>
+        <v>138.098</v>
       </c>
       <c r="J278" t="n">
+        <v>126.364</v>
+      </c>
+      <c r="K278" t="n">
+        <v>52.798</v>
+      </c>
+      <c r="L278" t="n">
         <v>118.808</v>
       </c>
-      <c r="K278" t="n">
+      <c r="M278" t="n">
         <v>11911.328</v>
+      </c>
+      <c r="N278" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="279">
@@ -12435,13 +14911,22 @@
         <v>134</v>
       </c>
       <c r="I279" t="n">
-        <v>33.2725</v>
+        <v>134.2275</v>
       </c>
       <c r="J279" t="n">
+        <v>129.865</v>
+      </c>
+      <c r="K279" t="n">
+        <v>51.4875</v>
+      </c>
+      <c r="L279" t="n">
         <v>124.9</v>
       </c>
-      <c r="K279" t="n">
+      <c r="M279" t="n">
         <v>11763.3925</v>
+      </c>
+      <c r="N279" t="n">
+        <v>7.72</v>
       </c>
     </row>
     <row r="280">
@@ -12478,13 +14963,22 @@
         <v>117</v>
       </c>
       <c r="I280" t="n">
-        <v>28.26</v>
+        <v>117.0375</v>
       </c>
       <c r="J280" t="n">
+        <v>109.2425</v>
+      </c>
+      <c r="K280" t="n">
+        <v>43.8275</v>
+      </c>
+      <c r="L280" t="n">
         <v>113.82</v>
       </c>
-      <c r="K280" t="n">
+      <c r="M280" t="n">
         <v>9765.102500000001</v>
+      </c>
+      <c r="N280" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="281">
@@ -12521,13 +15015,22 @@
         <v>119.6666666666667</v>
       </c>
       <c r="I281" t="n">
-        <v>29.09333333333333</v>
+        <v>120.0566666666667</v>
       </c>
       <c r="J281" t="n">
+        <v>99.26666666666667</v>
+      </c>
+      <c r="K281" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="L281" t="n">
         <v>115.1366666666667</v>
       </c>
-      <c r="K281" t="n">
+      <c r="M281" t="n">
         <v>10292.07666666667</v>
+      </c>
+      <c r="N281" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="282">
@@ -12564,13 +15067,22 @@
         <v>126.2</v>
       </c>
       <c r="I282" t="n">
-        <v>31.824</v>
+        <v>126.43</v>
       </c>
       <c r="J282" t="n">
+        <v>116.572</v>
+      </c>
+      <c r="K282" t="n">
+        <v>49.356</v>
+      </c>
+      <c r="L282" t="n">
         <v>118.88</v>
       </c>
-      <c r="K282" t="n">
+      <c r="M282" t="n">
         <v>11101.48</v>
+      </c>
+      <c r="N282" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="283">
@@ -12607,13 +15119,22 @@
         <v>113.4</v>
       </c>
       <c r="I283" t="n">
-        <v>29.186</v>
+        <v>113.956</v>
       </c>
       <c r="J283" t="n">
+        <v>105.638</v>
+      </c>
+      <c r="K283" t="n">
+        <v>45.078</v>
+      </c>
+      <c r="L283" t="n">
         <v>125.136</v>
       </c>
-      <c r="K283" t="n">
+      <c r="M283" t="n">
         <v>10468.328</v>
+      </c>
+      <c r="N283" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="284">
@@ -12650,13 +15171,22 @@
         <v>112.6</v>
       </c>
       <c r="I284" t="n">
-        <v>27.398</v>
+        <v>112.95</v>
       </c>
       <c r="J284" t="n">
+        <v>105.038</v>
+      </c>
+      <c r="K284" t="n">
+        <v>42.446</v>
+      </c>
+      <c r="L284" t="n">
         <v>118.418</v>
       </c>
-      <c r="K284" t="n">
+      <c r="M284" t="n">
         <v>9584.194</v>
+      </c>
+      <c r="N284" t="n">
+        <v>14.44</v>
       </c>
     </row>
     <row r="285">
@@ -12693,13 +15223,22 @@
         <v>111.8</v>
       </c>
       <c r="I285" t="n">
-        <v>27.788</v>
+        <v>112.142</v>
       </c>
       <c r="J285" t="n">
+        <v>99.334</v>
+      </c>
+      <c r="K285" t="n">
+        <v>42.938</v>
+      </c>
+      <c r="L285" t="n">
         <v>124.67</v>
       </c>
-      <c r="K285" t="n">
+      <c r="M285" t="n">
         <v>10014.096</v>
+      </c>
+      <c r="N285" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="286">
@@ -12736,13 +15275,22 @@
         <v>130.6</v>
       </c>
       <c r="I286" t="n">
-        <v>32.04199999999999</v>
+        <v>122.136</v>
       </c>
       <c r="J286" t="n">
+        <v>122.402</v>
+      </c>
+      <c r="K286" t="n">
+        <v>49.584</v>
+      </c>
+      <c r="L286" t="n">
         <v>115.008</v>
       </c>
-      <c r="K286" t="n">
+      <c r="M286" t="n">
         <v>10891.494</v>
+      </c>
+      <c r="N286" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="287">
@@ -12779,13 +15327,22 @@
         <v>108.6666666666667</v>
       </c>
       <c r="I287" t="n">
-        <v>26.06333333333333</v>
+        <v>108.7666666666667</v>
       </c>
       <c r="J287" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="K287" t="n">
+        <v>40.41999999999999</v>
+      </c>
+      <c r="L287" t="n">
         <v>114.5033333333333</v>
       </c>
-      <c r="K287" t="n">
+      <c r="M287" t="n">
         <v>9116.513333333334</v>
+      </c>
+      <c r="N287" t="n">
+        <v>17.93</v>
       </c>
     </row>
     <row r="288">
@@ -12822,13 +15379,22 @@
         <v>124.75</v>
       </c>
       <c r="I288" t="n">
-        <v>30.9225</v>
+        <v>125.0875</v>
       </c>
       <c r="J288" t="n">
+        <v>109.325</v>
+      </c>
+      <c r="K288" t="n">
+        <v>47.9125</v>
+      </c>
+      <c r="L288" t="n">
         <v>116.7375</v>
       </c>
-      <c r="K288" t="n">
+      <c r="M288" t="n">
         <v>10921.925</v>
+      </c>
+      <c r="N288" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="289">
@@ -12865,13 +15431,22 @@
         <v>122.25</v>
       </c>
       <c r="I289" t="n">
-        <v>29.77</v>
+        <v>122.5725</v>
       </c>
       <c r="J289" t="n">
+        <v>112.7625</v>
+      </c>
+      <c r="K289" t="n">
+        <v>46.0625</v>
+      </c>
+      <c r="L289" t="n">
         <v>121.93</v>
       </c>
-      <c r="K289" t="n">
+      <c r="M289" t="n">
         <v>10471.3225</v>
+      </c>
+      <c r="N289" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="290">
@@ -12908,14 +15483,21 @@
         <v>116</v>
       </c>
       <c r="I290" t="n">
-        <v>32.052</v>
+        <v>116.57</v>
       </c>
       <c r="J290" t="n">
+        <v>107.716</v>
+      </c>
+      <c r="K290" t="n">
+        <v>48.098</v>
+      </c>
+      <c r="L290" t="n">
         <v>144.616</v>
       </c>
-      <c r="K290" t="n">
+      <c r="M290" t="n">
         <v>13187.788</v>
       </c>
+      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12951,13 +15533,22 @@
         <v>115.6</v>
       </c>
       <c r="I291" t="n">
-        <v>31.736</v>
+        <v>116.102</v>
       </c>
       <c r="J291" t="n">
+        <v>107.316</v>
+      </c>
+      <c r="K291" t="n">
+        <v>48.132</v>
+      </c>
+      <c r="L291" t="n">
         <v>140.296</v>
       </c>
-      <c r="K291" t="n">
+      <c r="M291" t="n">
         <v>12527.556</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="292">
@@ -12994,13 +15585,22 @@
         <v>94.2</v>
       </c>
       <c r="I292" t="n">
-        <v>25.904</v>
+        <v>94.29999999999998</v>
       </c>
       <c r="J292" t="n">
+        <v>84.64399999999999</v>
+      </c>
+      <c r="K292" t="n">
+        <v>39.09</v>
+      </c>
+      <c r="L292" t="n">
         <v>149.606</v>
       </c>
-      <c r="K292" t="n">
+      <c r="M292" t="n">
         <v>10616.026</v>
+      </c>
+      <c r="N292" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="293">
@@ -13037,13 +15637,22 @@
         <v>139.6</v>
       </c>
       <c r="I293" t="n">
-        <v>39.18</v>
+        <v>139.976</v>
       </c>
       <c r="J293" t="n">
+        <v>122.808</v>
+      </c>
+      <c r="K293" t="n">
+        <v>58.90799999999999</v>
+      </c>
+      <c r="L293" t="n">
         <v>135.098</v>
       </c>
-      <c r="K293" t="n">
+      <c r="M293" t="n">
         <v>15726.446</v>
+      </c>
+      <c r="N293" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="294">
@@ -13080,13 +15689,22 @@
         <v>75</v>
       </c>
       <c r="I294" t="n">
-        <v>19.83</v>
+        <v>75.52199999999999</v>
       </c>
       <c r="J294" t="n">
+        <v>66.068</v>
+      </c>
+      <c r="K294" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="L294" t="n">
         <v>138.644</v>
       </c>
-      <c r="K294" t="n">
+      <c r="M294" t="n">
         <v>7855.488</v>
+      </c>
+      <c r="N294" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="295">
@@ -13123,13 +15741,22 @@
         <v>109.25</v>
       </c>
       <c r="I295" t="n">
-        <v>30.0075</v>
+        <v>109.745</v>
       </c>
       <c r="J295" t="n">
+        <v>103.1225</v>
+      </c>
+      <c r="K295" t="n">
+        <v>45.5625</v>
+      </c>
+      <c r="L295" t="n">
         <v>145.7025</v>
       </c>
-      <c r="K295" t="n">
+      <c r="M295" t="n">
         <v>11858.815</v>
+      </c>
+      <c r="N295" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="296">
@@ -13166,13 +15793,22 @@
         <v>109</v>
       </c>
       <c r="I296" t="n">
-        <v>30.6425</v>
+        <v>109.495</v>
       </c>
       <c r="J296" t="n">
+        <v>91.88499999999999</v>
+      </c>
+      <c r="K296" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="L296" t="n">
         <v>146.6625</v>
       </c>
-      <c r="K296" t="n">
+      <c r="M296" t="n">
         <v>12559.2775</v>
+      </c>
+      <c r="N296" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="297">
@@ -13209,13 +15845,22 @@
         <v>104</v>
       </c>
       <c r="I297" t="n">
-        <v>29.954</v>
+        <v>101.546</v>
       </c>
       <c r="J297" t="n">
+        <v>93.96599999999999</v>
+      </c>
+      <c r="K297" t="n">
+        <v>44.916</v>
+      </c>
+      <c r="L297" t="n">
         <v>160.036</v>
       </c>
-      <c r="K297" t="n">
+      <c r="M297" t="n">
         <v>11888.136</v>
+      </c>
+      <c r="N297" t="n">
+        <v>-3.91</v>
       </c>
     </row>
     <row r="298">
@@ -13252,13 +15897,22 @@
         <v>105</v>
       </c>
       <c r="I298" t="n">
-        <v>28.04</v>
+        <v>105.47</v>
       </c>
       <c r="J298" t="n">
+        <v>98.595</v>
+      </c>
+      <c r="K298" t="n">
+        <v>42.345</v>
+      </c>
+      <c r="L298" t="n">
         <v>137.93</v>
       </c>
-      <c r="K298" t="n">
+      <c r="M298" t="n">
         <v>11297.3</v>
+      </c>
+      <c r="N298" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row r="299">
@@ -13295,13 +15949,22 @@
         <v>71.66666666666667</v>
       </c>
       <c r="I299" t="n">
-        <v>18.02</v>
+        <v>71.76666666666667</v>
       </c>
       <c r="J299" t="n">
+        <v>62.71333333333333</v>
+      </c>
+      <c r="K299" t="n">
+        <v>27.18333333333333</v>
+      </c>
+      <c r="L299" t="n">
         <v>125.08</v>
       </c>
-      <c r="K299" t="n">
+      <c r="M299" t="n">
         <v>7275.13</v>
+      </c>
+      <c r="N299" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="300">
@@ -13338,13 +16001,22 @@
         <v>86.75</v>
       </c>
       <c r="I300" t="n">
-        <v>23.71</v>
+        <v>87.10749999999999</v>
       </c>
       <c r="J300" t="n">
+        <v>75.36999999999999</v>
+      </c>
+      <c r="K300" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="L300" t="n">
         <v>165.2875</v>
       </c>
-      <c r="K300" t="n">
+      <c r="M300" t="n">
         <v>9605.3475</v>
+      </c>
+      <c r="N300" t="n">
+        <v>14.57</v>
       </c>
     </row>
     <row r="301">
@@ -13381,13 +16053,22 @@
         <v>110.75</v>
       </c>
       <c r="I301" t="n">
-        <v>29.855</v>
+        <v>111.255</v>
       </c>
       <c r="J301" t="n">
+        <v>91.05250000000001</v>
+      </c>
+      <c r="K301" t="n">
+        <v>45.0075</v>
+      </c>
+      <c r="L301" t="n">
         <v>159.7275</v>
       </c>
-      <c r="K301" t="n">
+      <c r="M301" t="n">
         <v>12122.8975</v>
+      </c>
+      <c r="N301" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="302">
@@ -13424,13 +16105,22 @@
         <v>105.5</v>
       </c>
       <c r="I302" t="n">
-        <v>27.94</v>
+        <v>105.8025</v>
       </c>
       <c r="J302" t="n">
+        <v>91.55250000000001</v>
+      </c>
+      <c r="K302" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="L302" t="n">
         <v>143.7</v>
       </c>
-      <c r="K302" t="n">
+      <c r="M302" t="n">
         <v>11244.8725</v>
+      </c>
+      <c r="N302" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="303">
@@ -13467,13 +16157,22 @@
         <v>78.5</v>
       </c>
       <c r="I303" t="n">
-        <v>19.775</v>
+        <v>78.7225</v>
       </c>
       <c r="J303" t="n">
+        <v>74.19999999999999</v>
+      </c>
+      <c r="K303" t="n">
+        <v>30.075</v>
+      </c>
+      <c r="L303" t="n">
         <v>120.175</v>
       </c>
-      <c r="K303" t="n">
+      <c r="M303" t="n">
         <v>7513.959999999999</v>
+      </c>
+      <c r="N303" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="304">
@@ -13510,13 +16209,22 @@
         <v>77</v>
       </c>
       <c r="I304" t="n">
-        <v>20.0275</v>
+        <v>77.63499999999999</v>
       </c>
       <c r="J304" t="n">
+        <v>68.33</v>
+      </c>
+      <c r="K304" t="n">
+        <v>30.2825</v>
+      </c>
+      <c r="L304" t="n">
         <v>141.175</v>
       </c>
-      <c r="K304" t="n">
+      <c r="M304" t="n">
         <v>8054.4625</v>
+      </c>
+      <c r="N304" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="305">
@@ -13553,13 +16261,22 @@
         <v>101.75</v>
       </c>
       <c r="I305" t="n">
-        <v>27.2</v>
+        <v>101.9475</v>
       </c>
       <c r="J305" t="n">
+        <v>92.6425</v>
+      </c>
+      <c r="K305" t="n">
+        <v>41.2075</v>
+      </c>
+      <c r="L305" t="n">
         <v>153.29</v>
       </c>
-      <c r="K305" t="n">
+      <c r="M305" t="n">
         <v>10951.835</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="306">
@@ -13596,13 +16313,22 @@
         <v>95.2</v>
       </c>
       <c r="I306" t="n">
-        <v>26.666</v>
+        <v>95.578</v>
       </c>
       <c r="J306" t="n">
+        <v>90.81200000000001</v>
+      </c>
+      <c r="K306" t="n">
+        <v>40.23999999999999</v>
+      </c>
+      <c r="L306" t="n">
         <v>167.732</v>
       </c>
-      <c r="K306" t="n">
+      <c r="M306" t="n">
         <v>10966.046</v>
+      </c>
+      <c r="N306" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="307">
@@ -13639,13 +16365,22 @@
         <v>89.40000000000001</v>
       </c>
       <c r="I307" t="n">
-        <v>23.864</v>
+        <v>89.74000000000001</v>
       </c>
       <c r="J307" t="n">
+        <v>78.94000000000001</v>
+      </c>
+      <c r="K307" t="n">
+        <v>36.174</v>
+      </c>
+      <c r="L307" t="n">
         <v>137.118</v>
       </c>
-      <c r="K307" t="n">
+      <c r="M307" t="n">
         <v>9552.678</v>
+      </c>
+      <c r="N307" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="308">
@@ -13682,14 +16417,21 @@
         <v>171.4</v>
       </c>
       <c r="I308" t="n">
-        <v>39.184</v>
+        <v>168.08</v>
       </c>
       <c r="J308" t="n">
+        <v>156.61</v>
+      </c>
+      <c r="K308" t="n">
+        <v>60.99400000000001</v>
+      </c>
+      <c r="L308" t="n">
         <v>70.536</v>
       </c>
-      <c r="K308" t="n">
+      <c r="M308" t="n">
         <v>11853.926</v>
       </c>
+      <c r="N308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13725,13 +16467,22 @@
         <v>149.25</v>
       </c>
       <c r="I309" t="n">
-        <v>37.4525</v>
+        <v>148.2275</v>
       </c>
       <c r="J309" t="n">
+        <v>143.87</v>
+      </c>
+      <c r="K309" t="n">
+        <v>57.7775</v>
+      </c>
+      <c r="L309" t="n">
         <v>108.6425</v>
       </c>
-      <c r="K309" t="n">
+      <c r="M309" t="n">
         <v>13413.04</v>
+      </c>
+      <c r="N309" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="310">
@@ -13768,13 +16519,22 @@
         <v>137</v>
       </c>
       <c r="I310" t="n">
-        <v>33.888</v>
+        <v>136.76</v>
       </c>
       <c r="J310" t="n">
+        <v>122.542</v>
+      </c>
+      <c r="K310" t="n">
+        <v>52.34400000000001</v>
+      </c>
+      <c r="L310" t="n">
         <v>96.38000000000001</v>
       </c>
-      <c r="K310" t="n">
+      <c r="M310" t="n">
         <v>11905.186</v>
+      </c>
+      <c r="N310" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="311">
@@ -13811,13 +16571,22 @@
         <v>130.4</v>
       </c>
       <c r="I311" t="n">
-        <v>29.922</v>
+        <v>130.252</v>
       </c>
       <c r="J311" t="n">
+        <v>120.596</v>
+      </c>
+      <c r="K311" t="n">
+        <v>46.034</v>
+      </c>
+      <c r="L311" t="n">
         <v>114.046</v>
       </c>
-      <c r="K311" t="n">
+      <c r="M311" t="n">
         <v>10572.81</v>
+      </c>
+      <c r="N311" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="312">
@@ -13854,13 +16623,22 @@
         <v>170.8</v>
       </c>
       <c r="I312" t="n">
-        <v>39.98200000000001</v>
+        <v>170.764</v>
       </c>
       <c r="J312" t="n">
+        <v>153.128</v>
+      </c>
+      <c r="K312" t="n">
+        <v>62.26800000000001</v>
+      </c>
+      <c r="L312" t="n">
         <v>82.762</v>
       </c>
-      <c r="K312" t="n">
+      <c r="M312" t="n">
         <v>12919.718</v>
+      </c>
+      <c r="N312" t="n">
+        <v>-3.569999999999999</v>
       </c>
     </row>
     <row r="313">
@@ -13897,13 +16675,22 @@
         <v>152.75</v>
       </c>
       <c r="I313" t="n">
-        <v>36.305</v>
+        <v>153.09</v>
       </c>
       <c r="J313" t="n">
+        <v>142.275</v>
+      </c>
+      <c r="K313" t="n">
+        <v>56.5925</v>
+      </c>
+      <c r="L313" t="n">
         <v>82.42750000000001</v>
       </c>
-      <c r="K313" t="n">
+      <c r="M313" t="n">
         <v>11656.5725</v>
+      </c>
+      <c r="N313" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="314">
@@ -13940,13 +16727,22 @@
         <v>116.2</v>
       </c>
       <c r="I314" t="n">
-        <v>28.51</v>
+        <v>116.166</v>
       </c>
       <c r="J314" t="n">
+        <v>107.648</v>
+      </c>
+      <c r="K314" t="n">
+        <v>43.974</v>
+      </c>
+      <c r="L314" t="n">
         <v>99.20399999999999</v>
       </c>
-      <c r="K314" t="n">
+      <c r="M314" t="n">
         <v>10130.068</v>
+      </c>
+      <c r="N314" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="315">
@@ -13983,13 +16779,22 @@
         <v>176</v>
       </c>
       <c r="I315" t="n">
-        <v>45.74</v>
+        <v>176.225</v>
       </c>
       <c r="J315" t="n">
+        <v>168.0125</v>
+      </c>
+      <c r="K315" t="n">
+        <v>70.74000000000001</v>
+      </c>
+      <c r="L315" t="n">
         <v>107.085</v>
       </c>
-      <c r="K315" t="n">
+      <c r="M315" t="n">
         <v>16338.675</v>
+      </c>
+      <c r="N315" t="n">
+        <v>-6.55</v>
       </c>
     </row>
     <row r="316">
@@ -14026,13 +16831,22 @@
         <v>129.2</v>
       </c>
       <c r="I316" t="n">
-        <v>30.74399999999999</v>
+        <v>129.512</v>
       </c>
       <c r="J316" t="n">
+        <v>114.958</v>
+      </c>
+      <c r="K316" t="n">
+        <v>47.686</v>
+      </c>
+      <c r="L316" t="n">
         <v>95.86000000000001</v>
       </c>
-      <c r="K316" t="n">
+      <c r="M316" t="n">
         <v>10922.514</v>
+      </c>
+      <c r="N316" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="317">
@@ -14069,13 +16883,22 @@
         <v>105</v>
       </c>
       <c r="I317" t="n">
-        <v>24.8575</v>
+        <v>105.13</v>
       </c>
       <c r="J317" t="n">
+        <v>96.16250000000001</v>
+      </c>
+      <c r="K317" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="L317" t="n">
         <v>82.64</v>
       </c>
-      <c r="K317" t="n">
+      <c r="M317" t="n">
         <v>8433.8325</v>
+      </c>
+      <c r="N317" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="318">
@@ -14112,13 +16935,22 @@
         <v>139.5</v>
       </c>
       <c r="I318" t="n">
-        <v>33.7125</v>
+        <v>139.7575</v>
       </c>
       <c r="J318" t="n">
+        <v>127.515</v>
+      </c>
+      <c r="K318" t="n">
+        <v>52.2625</v>
+      </c>
+      <c r="L318" t="n">
         <v>99.58499999999999</v>
       </c>
-      <c r="K318" t="n">
+      <c r="M318" t="n">
         <v>11229.495</v>
+      </c>
+      <c r="N318" t="n">
+        <v>7.58</v>
       </c>
     </row>
     <row r="319">
@@ -14155,13 +16987,22 @@
         <v>157.6666666666667</v>
       </c>
       <c r="I319" t="n">
-        <v>39.56666666666667</v>
+        <v>157.73</v>
       </c>
       <c r="J319" t="n">
+        <v>147.5566666666666</v>
+      </c>
+      <c r="K319" t="n">
+        <v>61.40000000000001</v>
+      </c>
+      <c r="L319" t="n">
         <v>96.14333333333333</v>
       </c>
-      <c r="K319" t="n">
+      <c r="M319" t="n">
         <v>13877.05</v>
+      </c>
+      <c r="N319" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="320">
@@ -14198,13 +17039,22 @@
         <v>161.25</v>
       </c>
       <c r="I320" t="n">
-        <v>39.185</v>
+        <v>160.8875</v>
       </c>
       <c r="J320" t="n">
+        <v>151.5825</v>
+      </c>
+      <c r="K320" t="n">
+        <v>60.45500000000001</v>
+      </c>
+      <c r="L320" t="n">
         <v>120.7425</v>
       </c>
-      <c r="K320" t="n">
+      <c r="M320" t="n">
         <v>14039.1275</v>
+      </c>
+      <c r="N320" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="321">
@@ -14241,13 +17091,22 @@
         <v>120.2</v>
       </c>
       <c r="I321" t="n">
-        <v>29.832</v>
+        <v>120.728</v>
       </c>
       <c r="J321" t="n">
+        <v>108.788</v>
+      </c>
+      <c r="K321" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L321" t="n">
         <v>90.602</v>
       </c>
-      <c r="K321" t="n">
+      <c r="M321" t="n">
         <v>10094.628</v>
+      </c>
+      <c r="N321" t="n">
+        <v>13.06</v>
       </c>
     </row>
     <row r="322">
@@ -14284,13 +17143,22 @@
         <v>136</v>
       </c>
       <c r="I322" t="n">
-        <v>33.665</v>
+        <v>136.1525</v>
       </c>
       <c r="J322" t="n">
+        <v>114.5225</v>
+      </c>
+      <c r="K322" t="n">
+        <v>51.4675</v>
+      </c>
+      <c r="L322" t="n">
         <v>97.8575</v>
       </c>
-      <c r="K322" t="n">
+      <c r="M322" t="n">
         <v>12630.6125</v>
+      </c>
+      <c r="N322" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="323">
@@ -14327,13 +17195,22 @@
         <v>109</v>
       </c>
       <c r="I323" t="n">
-        <v>25.13</v>
+        <v>108.7666666666667</v>
       </c>
       <c r="J323" t="n">
+        <v>93.12</v>
+      </c>
+      <c r="K323" t="n">
+        <v>38.76</v>
+      </c>
+      <c r="L323" t="n">
         <v>93.75666666666666</v>
       </c>
-      <c r="K323" t="n">
+      <c r="M323" t="n">
         <v>8860.746666666666</v>
+      </c>
+      <c r="N323" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="324">
@@ -14370,13 +17247,22 @@
         <v>126.6</v>
       </c>
       <c r="I324" t="n">
-        <v>30.65</v>
+        <v>126.632</v>
       </c>
       <c r="J324" t="n">
+        <v>115.028</v>
+      </c>
+      <c r="K324" t="n">
+        <v>47.512</v>
+      </c>
+      <c r="L324" t="n">
         <v>103.72</v>
       </c>
-      <c r="K324" t="n">
+      <c r="M324" t="n">
         <v>10579.504</v>
+      </c>
+      <c r="N324" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="325">
@@ -14413,13 +17299,22 @@
         <v>130.6666666666667</v>
       </c>
       <c r="I325" t="n">
-        <v>32.91666666666666</v>
+        <v>130.8933333333333</v>
       </c>
       <c r="J325" t="n">
+        <v>114.9133333333333</v>
+      </c>
+      <c r="K325" t="n">
+        <v>50.26333333333334</v>
+      </c>
+      <c r="L325" t="n">
         <v>116.5933333333333</v>
       </c>
-      <c r="K325" t="n">
+      <c r="M325" t="n">
         <v>12355.88666666667</v>
+      </c>
+      <c r="N325" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MTT_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED.xlsx
@@ -690,22 +690,22 @@
         <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>63.4</v>
+        <v>68.25</v>
       </c>
       <c r="I5" t="n">
-        <v>63.78400000000001</v>
+        <v>68.58</v>
       </c>
       <c r="J5" t="n">
-        <v>57.61399999999999</v>
+        <v>62.88</v>
       </c>
       <c r="K5" t="n">
-        <v>25.37</v>
+        <v>27.4675</v>
       </c>
       <c r="L5" t="n">
-        <v>173.34</v>
+        <v>173.565</v>
       </c>
       <c r="M5" t="n">
-        <v>6687.386</v>
+        <v>7226.992499999999</v>
       </c>
       <c r="N5" t="n">
         <v>-8.369999999999999</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F9" t="n">
         <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="H9" t="n">
-        <v>62.8</v>
+        <v>63.5</v>
       </c>
       <c r="I9" t="n">
-        <v>63.04600000000001</v>
+        <v>63.7175</v>
       </c>
       <c r="J9" t="n">
-        <v>56.80799999999999</v>
+        <v>57.2625</v>
       </c>
       <c r="K9" t="n">
-        <v>24.682</v>
+        <v>24.825</v>
       </c>
       <c r="L9" t="n">
-        <v>155.28</v>
+        <v>151.0875</v>
       </c>
       <c r="M9" t="n">
-        <v>6322.86</v>
+        <v>6315.407499999999</v>
       </c>
       <c r="N9" t="n">
         <v>-10.16</v>
@@ -1045,31 +1045,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12.5</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>30.5</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="G12" t="n">
         <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>39</v>
+        <v>40.66666666666666</v>
       </c>
       <c r="I12" t="n">
-        <v>39.2375</v>
+        <v>40.80333333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>34.46</v>
+        <v>36.22333333333334</v>
       </c>
       <c r="K12" t="n">
-        <v>14.5975</v>
+        <v>15.16666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>137.4475</v>
+        <v>140.1833333333333</v>
       </c>
       <c r="M12" t="n">
-        <v>3764.9425</v>
+        <v>3915.906666666667</v>
       </c>
       <c r="N12" t="n">
         <v>19.21</v>
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F17" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="G17" t="n">
         <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>43</v>
+        <v>38.5</v>
       </c>
       <c r="I17" t="n">
-        <v>43.528</v>
+        <v>39.235</v>
       </c>
       <c r="J17" t="n">
-        <v>39.838</v>
+        <v>37.64</v>
       </c>
       <c r="K17" t="n">
-        <v>16.134</v>
+        <v>14.1575</v>
       </c>
       <c r="L17" t="n">
-        <v>136.432</v>
+        <v>131.795</v>
       </c>
       <c r="M17" t="n">
-        <v>3941.98</v>
+        <v>3365.315</v>
       </c>
       <c r="N17" t="n">
         <v>23.05</v>
@@ -1366,22 +1366,22 @@
         <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>45.6</v>
+        <v>46.25</v>
       </c>
       <c r="I18" t="n">
-        <v>46.278</v>
+        <v>46.86499999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>41.316</v>
+        <v>42.925</v>
       </c>
       <c r="K18" t="n">
-        <v>17.592</v>
+        <v>17.745</v>
       </c>
       <c r="L18" t="n">
-        <v>161.826</v>
+        <v>154.87</v>
       </c>
       <c r="M18" t="n">
-        <v>4497.066</v>
+        <v>4471.9</v>
       </c>
       <c r="N18" t="n">
         <v>18.8</v>
@@ -1464,28 +1464,28 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="G20" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="H20" t="n">
-        <v>162.6</v>
+        <v>172.5</v>
       </c>
       <c r="I20" t="n">
-        <v>153.862</v>
+        <v>161.39</v>
       </c>
       <c r="J20" t="n">
-        <v>144.34</v>
+        <v>150.9125</v>
       </c>
       <c r="K20" t="n">
-        <v>66.78799999999998</v>
+        <v>71.32499999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>127.974</v>
+        <v>134.06</v>
       </c>
       <c r="M20" t="n">
-        <v>15918.314</v>
+        <v>17216.645</v>
       </c>
       <c r="N20" t="inlineStr"/>
     </row>
@@ -1774,28 +1774,28 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>30.66666666666667</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>20.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="H26" t="n">
-        <v>154.3333333333333</v>
+        <v>154.5</v>
       </c>
       <c r="I26" t="n">
-        <v>154.5966666666667</v>
+        <v>154.595</v>
       </c>
       <c r="J26" t="n">
-        <v>141.9666666666667</v>
+        <v>135.82</v>
       </c>
       <c r="K26" t="n">
-        <v>60.69</v>
+        <v>61.35</v>
       </c>
       <c r="L26" t="n">
-        <v>125.6033333333333</v>
+        <v>130.305</v>
       </c>
       <c r="M26" t="n">
-        <v>13964.33333333333</v>
+        <v>14576.62</v>
       </c>
       <c r="N26" t="n">
         <v>11.92</v>
@@ -1826,28 +1826,28 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>45.6</v>
+        <v>35.5</v>
       </c>
       <c r="G27" t="n">
-        <v>35.6</v>
+        <v>25.5</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2</v>
+        <v>140.25</v>
       </c>
       <c r="I27" t="n">
-        <v>135.884</v>
+        <v>140.01</v>
       </c>
       <c r="J27" t="n">
-        <v>117.312</v>
+        <v>117.2125</v>
       </c>
       <c r="K27" t="n">
-        <v>57.184</v>
+        <v>57.94</v>
       </c>
       <c r="L27" t="n">
-        <v>123.844</v>
+        <v>129.45</v>
       </c>
       <c r="M27" t="n">
-        <v>12276.214</v>
+        <v>13292.7025</v>
       </c>
       <c r="N27" t="n">
         <v>8.65</v>
@@ -1979,31 +1979,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="F30" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="H30" t="n">
-        <v>126</v>
+        <v>128.75</v>
       </c>
       <c r="I30" t="n">
-        <v>126.564</v>
+        <v>129.28</v>
       </c>
       <c r="J30" t="n">
-        <v>113.284</v>
+        <v>113.015</v>
       </c>
       <c r="K30" t="n">
-        <v>51.124</v>
+        <v>52.005</v>
       </c>
       <c r="L30" t="n">
-        <v>126.392</v>
+        <v>124.2425</v>
       </c>
       <c r="M30" t="n">
-        <v>12078.422</v>
+        <v>12274.6025</v>
       </c>
       <c r="N30" t="n">
         <v>16.11</v>
@@ -2343,31 +2343,31 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.5</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="F37" t="n">
-        <v>31</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="G37" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="H37" t="n">
-        <v>131.5</v>
+        <v>130.3333333333333</v>
       </c>
       <c r="I37" t="n">
-        <v>131.6275</v>
+        <v>130.5666666666667</v>
       </c>
       <c r="J37" t="n">
-        <v>114.4425</v>
+        <v>109.6633333333333</v>
       </c>
       <c r="K37" t="n">
-        <v>51.95</v>
+        <v>52.63999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>123.79</v>
+        <v>125.01</v>
       </c>
       <c r="M37" t="n">
-        <v>11943.53</v>
+        <v>12368.44666666666</v>
       </c>
       <c r="N37" t="n">
         <v>9.91</v>
@@ -2610,22 +2610,22 @@
         <v>20</v>
       </c>
       <c r="H42" t="n">
-        <v>127.8</v>
+        <v>124.5</v>
       </c>
       <c r="I42" t="n">
-        <v>128.104</v>
+        <v>124.835</v>
       </c>
       <c r="J42" t="n">
-        <v>123.544</v>
+        <v>119.9725</v>
       </c>
       <c r="K42" t="n">
-        <v>48.628</v>
+        <v>47.66500000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>104.742</v>
+        <v>106.69</v>
       </c>
       <c r="M42" t="n">
-        <v>10317.342</v>
+        <v>10212.955</v>
       </c>
       <c r="N42" t="n">
         <v>-3.2</v>
@@ -2653,31 +2653,31 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
         <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="H43" t="n">
-        <v>108.2</v>
+        <v>101.75</v>
       </c>
       <c r="I43" t="n">
-        <v>108.52</v>
+        <v>102.0325</v>
       </c>
       <c r="J43" t="n">
-        <v>100.34</v>
+        <v>93.315</v>
       </c>
       <c r="K43" t="n">
-        <v>40.476</v>
+        <v>36.8875</v>
       </c>
       <c r="L43" t="n">
-        <v>106.964</v>
+        <v>104.8775</v>
       </c>
       <c r="M43" t="n">
-        <v>8947.166000000001</v>
+        <v>8105.3025</v>
       </c>
       <c r="N43" t="n">
         <v>10.85</v>
@@ -2766,22 +2766,22 @@
         <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>124.4</v>
+        <v>120.25</v>
       </c>
       <c r="I45" t="n">
-        <v>124.618</v>
+        <v>120.56</v>
       </c>
       <c r="J45" t="n">
-        <v>114.424</v>
+        <v>111.17</v>
       </c>
       <c r="K45" t="n">
-        <v>47.458</v>
+        <v>45.0175</v>
       </c>
       <c r="L45" t="n">
-        <v>111.092</v>
+        <v>108.275</v>
       </c>
       <c r="M45" t="n">
-        <v>10638.702</v>
+        <v>10075.68</v>
       </c>
       <c r="N45" t="n">
         <v>1.84</v>
@@ -3020,28 +3020,28 @@
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>35.5</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
-        <v>25.5</v>
+        <v>20</v>
       </c>
       <c r="H50" t="n">
-        <v>118</v>
+        <v>110.5</v>
       </c>
       <c r="I50" t="n">
-        <v>118.13</v>
+        <v>110.67</v>
       </c>
       <c r="J50" t="n">
-        <v>110.4175</v>
+        <v>104.135</v>
       </c>
       <c r="K50" t="n">
-        <v>46.20999999999999</v>
+        <v>42.525</v>
       </c>
       <c r="L50" t="n">
-        <v>102.85</v>
+        <v>108.575</v>
       </c>
       <c r="M50" t="n">
-        <v>9882.497499999999</v>
+        <v>9925.285</v>
       </c>
       <c r="N50" t="n">
         <v>12.53</v>
@@ -3639,31 +3639,31 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
         <v>30</v>
       </c>
       <c r="G62" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="H62" t="n">
-        <v>77.75</v>
+        <v>74</v>
       </c>
       <c r="I62" t="n">
-        <v>77.88249999999999</v>
+        <v>73.94</v>
       </c>
       <c r="J62" t="n">
-        <v>72.26249999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>31.4575</v>
+        <v>28.995</v>
       </c>
       <c r="L62" t="n">
-        <v>169.0225</v>
+        <v>159.625</v>
       </c>
       <c r="M62" t="n">
-        <v>8358.4</v>
+        <v>7591.91</v>
       </c>
       <c r="N62" t="n">
         <v>1.33</v>
@@ -3743,31 +3743,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F64" t="n">
         <v>30</v>
       </c>
       <c r="G64" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="H64" t="n">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="I64" t="n">
-        <v>75.724</v>
+        <v>75.6225</v>
       </c>
       <c r="J64" t="n">
-        <v>67.944</v>
+        <v>67.155</v>
       </c>
       <c r="K64" t="n">
-        <v>28.982</v>
+        <v>28.9</v>
       </c>
       <c r="L64" t="n">
-        <v>142.508</v>
+        <v>137.8275</v>
       </c>
       <c r="M64" t="n">
-        <v>7291.744000000001</v>
+        <v>7257.8425</v>
       </c>
       <c r="N64" t="n">
         <v>14.99</v>
@@ -4003,31 +4003,31 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F69" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="G69" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="H69" t="n">
-        <v>69.8</v>
+        <v>67.75</v>
       </c>
       <c r="I69" t="n">
-        <v>69.816</v>
+        <v>67.81999999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>64.18599999999999</v>
+        <v>64.30250000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>26.36</v>
+        <v>25.3825</v>
       </c>
       <c r="L69" t="n">
-        <v>142.24</v>
+        <v>142.0975</v>
       </c>
       <c r="M69" t="n">
-        <v>6690.3</v>
+        <v>6405.487499999999</v>
       </c>
       <c r="N69" t="n">
         <v>15.16</v>
@@ -4521,31 +4521,31 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>11</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="F79" t="n">
-        <v>30.5</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="G79" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="H79" t="n">
-        <v>68</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="I79" t="n">
-        <v>68.325</v>
+        <v>73.55</v>
       </c>
       <c r="J79" t="n">
-        <v>58.6875</v>
+        <v>63.27</v>
       </c>
       <c r="K79" t="n">
-        <v>28.8775</v>
+        <v>31.74666666666667</v>
       </c>
       <c r="L79" t="n">
-        <v>169.36</v>
+        <v>167.44</v>
       </c>
       <c r="M79" t="n">
-        <v>7881.687500000001</v>
+        <v>8752.790000000001</v>
       </c>
       <c r="N79" t="n">
         <v>-1.61</v>
@@ -4677,34 +4677,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10.5</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="F82" t="n">
-        <v>31</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="G82" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="H82" t="n">
-        <v>72.5</v>
+        <v>73.66666666666667</v>
       </c>
       <c r="I82" t="n">
-        <v>72.6825</v>
+        <v>73.66</v>
       </c>
       <c r="J82" t="n">
-        <v>65.895</v>
+        <v>65.27999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>29.8825</v>
+        <v>31.04333333333333</v>
       </c>
       <c r="L82" t="n">
-        <v>156.9225</v>
+        <v>164.5933333333333</v>
       </c>
       <c r="M82" t="n">
-        <v>8128.184999999999</v>
+        <v>8753.813333333334</v>
       </c>
       <c r="N82" t="n">
-        <v>6.76</v>
+        <v>6.760000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4885,31 +4885,31 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F86" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="G86" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="H86" t="n">
-        <v>61.2</v>
+        <v>60.5</v>
       </c>
       <c r="I86" t="n">
-        <v>61.502</v>
+        <v>60.78</v>
       </c>
       <c r="J86" t="n">
-        <v>54.864</v>
+        <v>53.405</v>
       </c>
       <c r="K86" t="n">
-        <v>23.608</v>
+        <v>23.73</v>
       </c>
       <c r="L86" t="n">
-        <v>163.806</v>
+        <v>168.4975</v>
       </c>
       <c r="M86" t="n">
-        <v>6191.412</v>
+        <v>6327.2625</v>
       </c>
       <c r="N86" t="n">
         <v>5.7</v>
@@ -5041,31 +5041,31 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
         <v>30</v>
       </c>
       <c r="G89" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="H89" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I89" t="n">
-        <v>73.30800000000001</v>
+        <v>72.2675</v>
       </c>
       <c r="J89" t="n">
-        <v>65.46599999999999</v>
+        <v>65.8175</v>
       </c>
       <c r="K89" t="n">
-        <v>30.656</v>
+        <v>31.01</v>
       </c>
       <c r="L89" t="n">
-        <v>172.216</v>
+        <v>179.985</v>
       </c>
       <c r="M89" t="n">
-        <v>8639.155999999999</v>
+        <v>8887.7575</v>
       </c>
       <c r="N89" t="n">
         <v>0.31</v>
@@ -5403,34 +5403,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="F96" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G96" t="n">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="H96" t="n">
-        <v>136.6</v>
+        <v>121.75</v>
       </c>
       <c r="I96" t="n">
-        <v>136.492</v>
+        <v>121.6525</v>
       </c>
       <c r="J96" t="n">
-        <v>123.948</v>
+        <v>108.9075</v>
       </c>
       <c r="K96" t="n">
-        <v>57.372</v>
+        <v>50.6</v>
       </c>
       <c r="L96" t="n">
-        <v>149.82</v>
+        <v>147.7725</v>
       </c>
       <c r="M96" t="n">
-        <v>16414.192</v>
+        <v>14821.69</v>
       </c>
       <c r="N96" t="n">
-        <v>-3.569999999999999</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="97">
@@ -5455,31 +5455,31 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="F97" t="n">
-        <v>28.4</v>
+        <v>31</v>
       </c>
       <c r="G97" t="n">
-        <v>17.2</v>
+        <v>19.5</v>
       </c>
       <c r="H97" t="n">
-        <v>123.6</v>
+        <v>113</v>
       </c>
       <c r="I97" t="n">
-        <v>124.082</v>
+        <v>113.5175</v>
       </c>
       <c r="J97" t="n">
-        <v>114.156</v>
+        <v>105.385</v>
       </c>
       <c r="K97" t="n">
-        <v>52.42</v>
+        <v>46.98999999999999</v>
       </c>
       <c r="L97" t="n">
-        <v>178.83</v>
+        <v>178.5675</v>
       </c>
       <c r="M97" t="n">
-        <v>15148.98</v>
+        <v>13110.065</v>
       </c>
       <c r="N97" t="n">
         <v>0.38</v>
@@ -5559,31 +5559,31 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F99" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="G99" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="H99" t="n">
-        <v>143</v>
+        <v>131.5</v>
       </c>
       <c r="I99" t="n">
-        <v>143.196</v>
+        <v>131.6275</v>
       </c>
       <c r="J99" t="n">
-        <v>126.968</v>
+        <v>116.455</v>
       </c>
       <c r="K99" t="n">
-        <v>61.502</v>
+        <v>57.935</v>
       </c>
       <c r="L99" t="n">
-        <v>159.412</v>
+        <v>171.8275</v>
       </c>
       <c r="M99" t="n">
-        <v>16383.096</v>
+        <v>15981.045</v>
       </c>
       <c r="N99" t="n">
         <v>-6.55</v>
@@ -5923,31 +5923,31 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>11.5</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="F106" t="n">
         <v>30</v>
       </c>
       <c r="G106" t="n">
-        <v>18.5</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>127.25</v>
+        <v>136.6666666666667</v>
       </c>
       <c r="I106" t="n">
-        <v>127.685</v>
+        <v>137.0466666666667</v>
       </c>
       <c r="J106" t="n">
-        <v>116.5375</v>
+        <v>126.8766666666667</v>
       </c>
       <c r="K106" t="n">
-        <v>53.755</v>
+        <v>59.20333333333334</v>
       </c>
       <c r="L106" t="n">
-        <v>166.3375</v>
+        <v>185.2633333333333</v>
       </c>
       <c r="M106" t="n">
-        <v>14497.0275</v>
+        <v>16649.48333333333</v>
       </c>
       <c r="N106" t="n">
         <v>9.33</v>
@@ -6027,31 +6027,31 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>12.5</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="F108" t="n">
         <v>30</v>
       </c>
       <c r="G108" t="n">
-        <v>17.5</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>87</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="I108" t="n">
-        <v>87.44750000000001</v>
+        <v>66.96333333333334</v>
       </c>
       <c r="J108" t="n">
-        <v>78.81</v>
+        <v>64.05666666666667</v>
       </c>
       <c r="K108" t="n">
-        <v>36.6475</v>
+        <v>26.69</v>
       </c>
       <c r="L108" t="n">
-        <v>207.035</v>
+        <v>213.15</v>
       </c>
       <c r="M108" t="n">
-        <v>10219.04</v>
+        <v>7222.003333333334</v>
       </c>
       <c r="N108" t="n">
         <v>17.73</v>
@@ -6181,31 +6181,31 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>11.2</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="F111" t="n">
-        <v>30.4</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="G111" t="n">
-        <v>19.2</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>83.59999999999999</v>
+        <v>81.66666666666667</v>
       </c>
       <c r="I111" t="n">
-        <v>83.83799999999999</v>
+        <v>82.16333333333333</v>
       </c>
       <c r="J111" t="n">
-        <v>75.054</v>
+        <v>72.66333333333333</v>
       </c>
       <c r="K111" t="n">
-        <v>33.35</v>
+        <v>32.55</v>
       </c>
       <c r="L111" t="n">
-        <v>174.74</v>
+        <v>197.88</v>
       </c>
       <c r="M111" t="n">
-        <v>9063.574000000001</v>
+        <v>8618.283333333333</v>
       </c>
       <c r="N111" t="n">
         <v>-1.08</v>
@@ -6337,31 +6337,31 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="F114" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="G114" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="H114" t="n">
         <v>91</v>
       </c>
       <c r="I114" t="n">
-        <v>91.416</v>
+        <v>91.38249999999999</v>
       </c>
       <c r="J114" t="n">
-        <v>84.17400000000001</v>
+        <v>83</v>
       </c>
       <c r="K114" t="n">
-        <v>36.564</v>
+        <v>36.455</v>
       </c>
       <c r="L114" t="n">
-        <v>141.26</v>
+        <v>134.9375</v>
       </c>
       <c r="M114" t="n">
-        <v>10350.584</v>
+        <v>10297.4875</v>
       </c>
       <c r="N114" t="n">
         <v>-2.17</v>
@@ -6814,22 +6814,22 @@
         <v>18</v>
       </c>
       <c r="H123" t="n">
-        <v>64.59999999999999</v>
+        <v>75.25</v>
       </c>
       <c r="I123" t="n">
-        <v>65.05800000000001</v>
+        <v>75.705</v>
       </c>
       <c r="J123" t="n">
-        <v>57.41399999999999</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>25.992</v>
+        <v>29.7175</v>
       </c>
       <c r="L123" t="n">
-        <v>199.71</v>
+        <v>147.385</v>
       </c>
       <c r="M123" t="n">
-        <v>7556.714</v>
+        <v>8497.950000000001</v>
       </c>
       <c r="N123" t="n">
         <v>22.39</v>
@@ -7167,31 +7167,31 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>11</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="F130" t="n">
         <v>30</v>
       </c>
       <c r="G130" t="n">
-        <v>19</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>167.75</v>
+        <v>164</v>
       </c>
       <c r="I130" t="n">
-        <v>168.2625</v>
+        <v>164.6566666666667</v>
       </c>
       <c r="J130" t="n">
-        <v>152.4175</v>
+        <v>152.6966666666667</v>
       </c>
       <c r="K130" t="n">
-        <v>54.5325</v>
+        <v>52.98666666666666</v>
       </c>
       <c r="L130" t="n">
-        <v>62.44</v>
+        <v>62.02666666666666</v>
       </c>
       <c r="M130" t="n">
-        <v>12159.3425</v>
+        <v>11989.31</v>
       </c>
       <c r="N130" t="n">
         <v>30.27</v>
@@ -7430,28 +7430,28 @@
         <v>10</v>
       </c>
       <c r="F135" t="n">
-        <v>34.4</v>
+        <v>30</v>
       </c>
       <c r="G135" t="n">
-        <v>24.4</v>
+        <v>20</v>
       </c>
       <c r="H135" t="n">
-        <v>232</v>
+        <v>227.5</v>
       </c>
       <c r="I135" t="n">
-        <v>230.256</v>
+        <v>227.7075</v>
       </c>
       <c r="J135" t="n">
-        <v>213.756</v>
+        <v>206.245</v>
       </c>
       <c r="K135" t="n">
-        <v>86.49800000000002</v>
+        <v>82.045</v>
       </c>
       <c r="L135" t="n">
-        <v>77.09999999999999</v>
+        <v>75.235</v>
       </c>
       <c r="M135" t="n">
-        <v>17051.03</v>
+        <v>16685.8475</v>
       </c>
       <c r="N135" t="n">
         <v>8.65</v>
@@ -7482,28 +7482,28 @@
         <v>10</v>
       </c>
       <c r="F136" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="G136" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="H136" t="n">
-        <v>213</v>
+        <v>208.75</v>
       </c>
       <c r="I136" t="n">
-        <v>213.018</v>
+        <v>208.925</v>
       </c>
       <c r="J136" t="n">
-        <v>193.368</v>
+        <v>184.6975</v>
       </c>
       <c r="K136" t="n">
-        <v>74.292</v>
+        <v>72.01249999999999</v>
       </c>
       <c r="L136" t="n">
-        <v>67.8</v>
+        <v>64.3175</v>
       </c>
       <c r="M136" t="n">
-        <v>15055.496</v>
+        <v>14577.4025</v>
       </c>
       <c r="N136" t="n">
         <v>13.83</v>
@@ -7534,28 +7534,28 @@
         <v>10</v>
       </c>
       <c r="F137" t="n">
-        <v>34.8</v>
+        <v>30.5</v>
       </c>
       <c r="G137" t="n">
-        <v>24.8</v>
+        <v>20.5</v>
       </c>
       <c r="H137" t="n">
-        <v>214.4</v>
+        <v>208</v>
       </c>
       <c r="I137" t="n">
-        <v>211.606</v>
+        <v>208.335</v>
       </c>
       <c r="J137" t="n">
-        <v>186.054</v>
+        <v>177.3175</v>
       </c>
       <c r="K137" t="n">
-        <v>76.87800000000001</v>
+        <v>69.61750000000001</v>
       </c>
       <c r="L137" t="n">
-        <v>67.736</v>
+        <v>61.645</v>
       </c>
       <c r="M137" t="n">
-        <v>15647.004</v>
+        <v>14451.485</v>
       </c>
       <c r="N137" t="n">
         <v>11.26</v>
@@ -8520,28 +8520,28 @@
         <v>12</v>
       </c>
       <c r="F156" t="n">
-        <v>32.5</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="G156" t="n">
-        <v>20.5</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>118.25</v>
+        <v>118.6666666666667</v>
       </c>
       <c r="I156" t="n">
-        <v>118.465</v>
+        <v>118.7166666666667</v>
       </c>
       <c r="J156" t="n">
-        <v>111.1725</v>
+        <v>114.1366666666667</v>
       </c>
       <c r="K156" t="n">
-        <v>45.5525</v>
+        <v>45.14333333333334</v>
       </c>
       <c r="L156" t="n">
-        <v>164.3325</v>
+        <v>167.6666666666667</v>
       </c>
       <c r="M156" t="n">
-        <v>11321.1325</v>
+        <v>11202.96333333333</v>
       </c>
       <c r="N156" t="n">
         <v>13.09</v>
@@ -8572,28 +8572,28 @@
         <v>12</v>
       </c>
       <c r="F157" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="G157" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="H157" t="n">
-        <v>104</v>
+        <v>67.5</v>
       </c>
       <c r="I157" t="n">
-        <v>104.3775</v>
+        <v>67.905</v>
       </c>
       <c r="J157" t="n">
-        <v>95.4075</v>
+        <v>60.53</v>
       </c>
       <c r="K157" t="n">
-        <v>36.885</v>
+        <v>28.185</v>
       </c>
       <c r="L157" t="n">
-        <v>104.9875</v>
+        <v>142.995</v>
       </c>
       <c r="M157" t="n">
-        <v>7807.1775</v>
+        <v>7684.115</v>
       </c>
       <c r="N157" t="n">
         <v>8.59</v>
@@ -8832,31 +8832,31 @@
         <v>12</v>
       </c>
       <c r="F162" t="n">
-        <v>27.2</v>
+        <v>26</v>
       </c>
       <c r="G162" t="n">
-        <v>15.2</v>
+        <v>14</v>
       </c>
       <c r="H162" t="n">
-        <v>111.2</v>
+        <v>106</v>
       </c>
       <c r="I162" t="n">
-        <v>111.542</v>
+        <v>106.4775</v>
       </c>
       <c r="J162" t="n">
-        <v>103.896</v>
+        <v>98.17750000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>40.122</v>
+        <v>39.335</v>
       </c>
       <c r="L162" t="n">
-        <v>92.73999999999999</v>
+        <v>101.395</v>
       </c>
       <c r="M162" t="n">
-        <v>9151.422</v>
+        <v>9804.005000000001</v>
       </c>
       <c r="N162" t="n">
-        <v>7.159999999999999</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="163">
@@ -9142,28 +9142,28 @@
         <v>10</v>
       </c>
       <c r="F168" t="n">
-        <v>34.4</v>
+        <v>35.5</v>
       </c>
       <c r="G168" t="n">
-        <v>24.4</v>
+        <v>25.5</v>
       </c>
       <c r="H168" t="n">
-        <v>136.6</v>
+        <v>133</v>
       </c>
       <c r="I168" t="n">
-        <v>136.152</v>
+        <v>132.38</v>
       </c>
       <c r="J168" t="n">
-        <v>128.308</v>
+        <v>122.9925</v>
       </c>
       <c r="K168" t="n">
-        <v>59.536</v>
+        <v>57.61000000000001</v>
       </c>
       <c r="L168" t="n">
-        <v>152.232</v>
+        <v>149.9325</v>
       </c>
       <c r="M168" t="n">
-        <v>16181.754</v>
+        <v>15467.0725</v>
       </c>
       <c r="N168" t="n">
         <v>4.58</v>
@@ -9503,31 +9503,31 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="F175" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="G175" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="H175" t="n">
-        <v>129.2</v>
+        <v>130.25</v>
       </c>
       <c r="I175" t="n">
-        <v>129.178</v>
+        <v>130.285</v>
       </c>
       <c r="J175" t="n">
-        <v>117.78</v>
+        <v>121.485</v>
       </c>
       <c r="K175" t="n">
-        <v>52.25</v>
+        <v>51.365</v>
       </c>
       <c r="L175" t="n">
-        <v>145.032</v>
+        <v>127.005</v>
       </c>
       <c r="M175" t="n">
-        <v>14060.726</v>
+        <v>13495.525</v>
       </c>
       <c r="N175" t="n">
         <v>14.05</v>
@@ -9558,28 +9558,28 @@
         <v>10</v>
       </c>
       <c r="F176" t="n">
-        <v>34.8</v>
+        <v>38</v>
       </c>
       <c r="G176" t="n">
-        <v>24.8</v>
+        <v>28</v>
       </c>
       <c r="H176" t="n">
-        <v>126.8</v>
+        <v>108.3333333333333</v>
       </c>
       <c r="I176" t="n">
-        <v>125.62</v>
+        <v>106.5266666666667</v>
       </c>
       <c r="J176" t="n">
-        <v>117.104</v>
+        <v>97.69666666666667</v>
       </c>
       <c r="K176" t="n">
-        <v>54.706</v>
+        <v>46.72666666666667</v>
       </c>
       <c r="L176" t="n">
-        <v>149.986</v>
+        <v>155.6666666666667</v>
       </c>
       <c r="M176" t="n">
-        <v>14770.618</v>
+        <v>12815.77333333333</v>
       </c>
       <c r="N176" t="n">
         <v>14.44</v>
@@ -10021,31 +10021,31 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="F185" t="n">
         <v>30</v>
       </c>
       <c r="G185" t="n">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="H185" t="n">
-        <v>134.2</v>
+        <v>140</v>
       </c>
       <c r="I185" t="n">
-        <v>134.342</v>
+        <v>140.01</v>
       </c>
       <c r="J185" t="n">
-        <v>119.79</v>
+        <v>126.3475</v>
       </c>
       <c r="K185" t="n">
-        <v>57.306</v>
+        <v>60.8375</v>
       </c>
       <c r="L185" t="n">
-        <v>175.734</v>
+        <v>179.035</v>
       </c>
       <c r="M185" t="n">
-        <v>17152.098</v>
+        <v>18307.5475</v>
       </c>
       <c r="N185" t="n">
         <v>-15.83</v>
@@ -10281,34 +10281,34 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>10.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="F190" t="n">
         <v>30</v>
       </c>
       <c r="G190" t="n">
-        <v>19.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="H190" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I190" t="n">
-        <v>95.91000000000001</v>
+        <v>98.93000000000001</v>
       </c>
       <c r="J190" t="n">
-        <v>81.82666666666667</v>
+        <v>83.505</v>
       </c>
       <c r="K190" t="n">
-        <v>39.54333333333334</v>
+        <v>41</v>
       </c>
       <c r="L190" t="n">
-        <v>175.5733333333334</v>
+        <v>197.535</v>
       </c>
       <c r="M190" t="n">
-        <v>11940.90666666667</v>
+        <v>12626.555</v>
       </c>
       <c r="N190" t="n">
-        <v>6.760000000000001</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="191">
@@ -10489,31 +10489,31 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="F194" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="G194" t="n">
         <v>20</v>
       </c>
       <c r="H194" t="n">
-        <v>120.2</v>
+        <v>112.25</v>
       </c>
       <c r="I194" t="n">
-        <v>120.526</v>
+        <v>112.68</v>
       </c>
       <c r="J194" t="n">
-        <v>106.508</v>
+        <v>98.00749999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>52.51000000000001</v>
+        <v>49.2275</v>
       </c>
       <c r="L194" t="n">
-        <v>189.182</v>
+        <v>180.18</v>
       </c>
       <c r="M194" t="n">
-        <v>16333.582</v>
+        <v>15155.3275</v>
       </c>
       <c r="N194" t="n">
         <v>5.7</v>
@@ -10602,22 +10602,22 @@
         <v>20</v>
       </c>
       <c r="H196" t="n">
-        <v>116.5</v>
+        <v>126</v>
       </c>
       <c r="I196" t="n">
-        <v>116.3675</v>
+        <v>125.925</v>
       </c>
       <c r="J196" t="n">
-        <v>100.86</v>
+        <v>111.34</v>
       </c>
       <c r="K196" t="n">
-        <v>47.9225</v>
+        <v>52.46</v>
       </c>
       <c r="L196" t="n">
-        <v>165.9975</v>
+        <v>156.95</v>
       </c>
       <c r="M196" t="n">
-        <v>14411.895</v>
+        <v>15750.295</v>
       </c>
       <c r="N196" t="n">
         <v>13.77</v>
@@ -11120,22 +11120,22 @@
         <v>20</v>
       </c>
       <c r="H206" t="n">
-        <v>260.25</v>
+        <v>251.6666666666667</v>
       </c>
       <c r="I206" t="n">
-        <v>260.32</v>
+        <v>251.9633333333333</v>
       </c>
       <c r="J206" t="n">
-        <v>239.6125</v>
+        <v>228.49</v>
       </c>
       <c r="K206" t="n">
-        <v>96.89250000000001</v>
+        <v>101.2466666666667</v>
       </c>
       <c r="L206" t="n">
-        <v>150.76</v>
+        <v>174.6933333333334</v>
       </c>
       <c r="M206" t="n">
-        <v>25024.24</v>
+        <v>27821.55</v>
       </c>
       <c r="N206" t="n">
         <v>3.66</v>
@@ -11270,28 +11270,28 @@
         <v>10</v>
       </c>
       <c r="F209" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G209" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H209" t="n">
-        <v>276.75</v>
+        <v>274</v>
       </c>
       <c r="I209" t="n">
-        <v>277.255</v>
+        <v>274.6566666666667</v>
       </c>
       <c r="J209" t="n">
-        <v>259.23</v>
+        <v>255.5433333333333</v>
       </c>
       <c r="K209" t="n">
-        <v>111.03</v>
+        <v>106.7233333333333</v>
       </c>
       <c r="L209" t="n">
-        <v>141.445</v>
+        <v>140.1233333333333</v>
       </c>
       <c r="M209" t="n">
-        <v>31901.815</v>
+        <v>29734.52666666667</v>
       </c>
       <c r="N209" t="n">
         <v>10.32</v>
@@ -11536,22 +11536,22 @@
         <v>20</v>
       </c>
       <c r="H214" t="n">
-        <v>241.5</v>
+        <v>241</v>
       </c>
       <c r="I214" t="n">
-        <v>241.625</v>
+        <v>241.12</v>
       </c>
       <c r="J214" t="n">
-        <v>222.5125</v>
+        <v>208.93</v>
       </c>
       <c r="K214" t="n">
-        <v>96.095</v>
+        <v>103.37</v>
       </c>
       <c r="L214" t="n">
-        <v>150.79</v>
+        <v>178.705</v>
       </c>
       <c r="M214" t="n">
-        <v>26434.4</v>
+        <v>29330.75</v>
       </c>
       <c r="N214" t="n">
         <v>9.33</v>
@@ -11640,22 +11640,22 @@
         <v>20</v>
       </c>
       <c r="H216" t="n">
-        <v>236.75</v>
+        <v>219</v>
       </c>
       <c r="I216" t="n">
-        <v>236.9275</v>
+        <v>219.5466666666667</v>
       </c>
       <c r="J216" t="n">
-        <v>213.96</v>
+        <v>198.31</v>
       </c>
       <c r="K216" t="n">
-        <v>101.3825</v>
+        <v>90.89999999999999</v>
       </c>
       <c r="L216" t="n">
-        <v>189.8725</v>
+        <v>187.34</v>
       </c>
       <c r="M216" t="n">
-        <v>28728.8325</v>
+        <v>25493.12</v>
       </c>
       <c r="N216" t="n">
         <v>17.73</v>
@@ -11996,28 +11996,28 @@
         <v>12</v>
       </c>
       <c r="F223" t="n">
-        <v>31.33333333333333</v>
+        <v>30</v>
       </c>
       <c r="G223" t="n">
-        <v>19.33333333333333</v>
+        <v>18</v>
       </c>
       <c r="H223" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I223" t="n">
-        <v>79.58999999999999</v>
+        <v>84.50999999999999</v>
       </c>
       <c r="J223" t="n">
-        <v>74.00333333333333</v>
+        <v>77.47</v>
       </c>
       <c r="K223" t="n">
-        <v>34.05333333333333</v>
+        <v>37.13</v>
       </c>
       <c r="L223" t="n">
-        <v>212.2466666666667</v>
+        <v>225.745</v>
       </c>
       <c r="M223" t="n">
-        <v>10711.38</v>
+        <v>11796.975</v>
       </c>
       <c r="N223" t="n">
         <v>-9.16</v>
@@ -12253,31 +12253,31 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>11.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="F228" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="G228" t="n">
-        <v>20</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="H228" t="n">
-        <v>61.6</v>
+        <v>59.66666666666666</v>
       </c>
       <c r="I228" t="n">
-        <v>61.638</v>
+        <v>59.69333333333333</v>
       </c>
       <c r="J228" t="n">
-        <v>53.45800000000001</v>
+        <v>49.41333333333333</v>
       </c>
       <c r="K228" t="n">
-        <v>25.49</v>
+        <v>25.20333333333333</v>
       </c>
       <c r="L228" t="n">
-        <v>187.51</v>
+        <v>191.0233333333333</v>
       </c>
       <c r="M228" t="n">
-        <v>8208.683999999999</v>
+        <v>8339.073333333334</v>
       </c>
       <c r="N228" t="n">
         <v>19.21</v>
@@ -12565,31 +12565,31 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="F234" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="G234" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="H234" t="n">
-        <v>52.6</v>
+        <v>46.75</v>
       </c>
       <c r="I234" t="n">
-        <v>53.12</v>
+        <v>47.2</v>
       </c>
       <c r="J234" t="n">
-        <v>46.748</v>
+        <v>42.0025</v>
       </c>
       <c r="K234" t="n">
-        <v>22.19</v>
+        <v>19.435</v>
       </c>
       <c r="L234" t="n">
-        <v>195.742</v>
+        <v>187.3</v>
       </c>
       <c r="M234" t="n">
-        <v>6949.67</v>
+        <v>6050.952499999999</v>
       </c>
       <c r="N234" t="n">
         <v>18.8</v>
@@ -12620,28 +12620,28 @@
         <v>12</v>
       </c>
       <c r="F235" t="n">
-        <v>31.33333333333333</v>
+        <v>31</v>
       </c>
       <c r="G235" t="n">
-        <v>19.33333333333333</v>
+        <v>19</v>
       </c>
       <c r="H235" t="n">
-        <v>77.33333333333333</v>
+        <v>73.5</v>
       </c>
       <c r="I235" t="n">
-        <v>77.91333333333333</v>
+        <v>73.94499999999999</v>
       </c>
       <c r="J235" t="n">
-        <v>73.44333333333333</v>
+        <v>69.41999999999999</v>
       </c>
       <c r="K235" t="n">
-        <v>31.00333333333333</v>
+        <v>29.9</v>
       </c>
       <c r="L235" t="n">
-        <v>182.3066666666666</v>
+        <v>173.065</v>
       </c>
       <c r="M235" t="n">
-        <v>9269.393333333333</v>
+        <v>9087.165000000001</v>
       </c>
       <c r="N235" t="n">
         <v>-0.89</v>
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="F239" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G239" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H239" t="n">
-        <v>195.5</v>
+        <v>198.6666666666667</v>
       </c>
       <c r="I239" t="n">
-        <v>196.095</v>
+        <v>199.31</v>
       </c>
       <c r="J239" t="n">
-        <v>175.6425</v>
+        <v>181.3166666666667</v>
       </c>
       <c r="K239" t="n">
-        <v>80.33000000000001</v>
+        <v>82.76333333333334</v>
       </c>
       <c r="L239" t="n">
-        <v>141.72</v>
+        <v>150.3833333333333</v>
       </c>
       <c r="M239" t="n">
-        <v>22289.95</v>
+        <v>23692.54333333333</v>
       </c>
       <c r="N239" t="n">
         <v>4.04</v>
@@ -13092,22 +13092,22 @@
         <v>20</v>
       </c>
       <c r="H244" t="n">
-        <v>172.5</v>
+        <v>179.6666666666667</v>
       </c>
       <c r="I244" t="n">
-        <v>172.7925</v>
+        <v>179.9733333333334</v>
       </c>
       <c r="J244" t="n">
-        <v>154.015</v>
+        <v>160.6366666666667</v>
       </c>
       <c r="K244" t="n">
-        <v>68.3625</v>
+        <v>70.83</v>
       </c>
       <c r="L244" t="n">
-        <v>138.245</v>
+        <v>141.73</v>
       </c>
       <c r="M244" t="n">
-        <v>17546.2225</v>
+        <v>18232.78</v>
       </c>
       <c r="N244" t="n">
         <v>13.83</v>
@@ -13346,28 +13346,28 @@
         <v>10</v>
       </c>
       <c r="F249" t="n">
-        <v>30.5</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="G249" t="n">
-        <v>20.5</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="H249" t="n">
-        <v>187.25</v>
+        <v>180.6666666666667</v>
       </c>
       <c r="I249" t="n">
-        <v>187.715</v>
+        <v>181.2033333333333</v>
       </c>
       <c r="J249" t="n">
-        <v>167.4275</v>
+        <v>163.2066666666667</v>
       </c>
       <c r="K249" t="n">
-        <v>76.485</v>
+        <v>74.84333333333332</v>
       </c>
       <c r="L249" t="n">
-        <v>169.505</v>
+        <v>179.8833333333333</v>
       </c>
       <c r="M249" t="n">
-        <v>19975.365</v>
+        <v>19698.27666666667</v>
       </c>
       <c r="N249" t="n">
         <v>9.24</v>
@@ -13404,22 +13404,22 @@
         <v>20</v>
       </c>
       <c r="H250" t="n">
-        <v>187.75</v>
+        <v>196.6666666666667</v>
       </c>
       <c r="I250" t="n">
-        <v>188.22</v>
+        <v>197.19</v>
       </c>
       <c r="J250" t="n">
-        <v>162.9</v>
+        <v>166.7833333333333</v>
       </c>
       <c r="K250" t="n">
-        <v>75.435</v>
+        <v>80.22333333333334</v>
       </c>
       <c r="L250" t="n">
-        <v>153.06</v>
+        <v>166.4433333333333</v>
       </c>
       <c r="M250" t="n">
-        <v>20235.6825</v>
+        <v>22077.19333333333</v>
       </c>
       <c r="N250" t="n">
         <v>9.73</v>
@@ -13653,31 +13653,31 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="F255" t="n">
-        <v>25.2</v>
+        <v>24</v>
       </c>
       <c r="G255" t="n">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
       <c r="H255" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I255" t="n">
-        <v>146.144</v>
+        <v>134.305</v>
       </c>
       <c r="J255" t="n">
-        <v>139.508</v>
+        <v>127.6025</v>
       </c>
       <c r="K255" t="n">
-        <v>49.104</v>
+        <v>44.265</v>
       </c>
       <c r="L255" t="n">
-        <v>73.95400000000001</v>
+        <v>77.97750000000001</v>
       </c>
       <c r="M255" t="n">
-        <v>11441.066</v>
+        <v>11036.0475</v>
       </c>
       <c r="N255" t="n">
         <v>-1.18</v>
@@ -13864,28 +13864,28 @@
         <v>10</v>
       </c>
       <c r="F259" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G259" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H259" t="n">
-        <v>142.6</v>
+        <v>117.6666666666667</v>
       </c>
       <c r="I259" t="n">
-        <v>142.86</v>
+        <v>117.93</v>
       </c>
       <c r="J259" t="n">
-        <v>132.598</v>
+        <v>107.98</v>
       </c>
       <c r="K259" t="n">
-        <v>43.646</v>
+        <v>36.73</v>
       </c>
       <c r="L259" t="n">
-        <v>80.83799999999999</v>
+        <v>96.32666666666667</v>
       </c>
       <c r="M259" t="n">
-        <v>8632.639999999999</v>
+        <v>7706.486666666667</v>
       </c>
       <c r="N259" t="n">
         <v>10.85</v>
@@ -13916,28 +13916,28 @@
         <v>10</v>
       </c>
       <c r="F260" t="n">
-        <v>29.5</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="G260" t="n">
-        <v>19.5</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="H260" t="n">
-        <v>158</v>
+        <v>157.6666666666667</v>
       </c>
       <c r="I260" t="n">
-        <v>158.2875</v>
+        <v>158.0633333333334</v>
       </c>
       <c r="J260" t="n">
-        <v>149.15</v>
+        <v>149.57</v>
       </c>
       <c r="K260" t="n">
-        <v>46.655</v>
+        <v>45.42666666666667</v>
       </c>
       <c r="L260" t="n">
-        <v>45.1675</v>
+        <v>39.24333333333334</v>
       </c>
       <c r="M260" t="n">
-        <v>8188.835</v>
+        <v>7377.96</v>
       </c>
       <c r="N260" t="n">
         <v>10.3</v>
@@ -14020,28 +14020,28 @@
         <v>10</v>
       </c>
       <c r="F262" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="G262" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="H262" t="n">
-        <v>129.75</v>
+        <v>114</v>
       </c>
       <c r="I262" t="n">
-        <v>129.61</v>
+        <v>113.5666666666667</v>
       </c>
       <c r="J262" t="n">
-        <v>118.3775</v>
+        <v>105.0733333333333</v>
       </c>
       <c r="K262" t="n">
-        <v>40.65000000000001</v>
+        <v>36.9</v>
       </c>
       <c r="L262" t="n">
-        <v>106.1425</v>
+        <v>127.7233333333333</v>
       </c>
       <c r="M262" t="n">
-        <v>8657.59</v>
+        <v>9088.873333333333</v>
       </c>
       <c r="N262" t="n">
         <v>12.23</v>
@@ -14639,31 +14639,31 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="F274" t="n">
         <v>30</v>
       </c>
       <c r="G274" t="n">
-        <v>21.6</v>
+        <v>21</v>
       </c>
       <c r="H274" t="n">
-        <v>91</v>
+        <v>92.5</v>
       </c>
       <c r="I274" t="n">
-        <v>90.946</v>
+        <v>92.7225</v>
       </c>
       <c r="J274" t="n">
-        <v>84.77799999999999</v>
+        <v>86.4375</v>
       </c>
       <c r="K274" t="n">
-        <v>33.53</v>
+        <v>34.4425</v>
       </c>
       <c r="L274" t="n">
-        <v>123.762</v>
+        <v>124.96</v>
       </c>
       <c r="M274" t="n">
-        <v>7731.460000000001</v>
+        <v>8021.26</v>
       </c>
       <c r="N274" t="n">
         <v>36.17</v>
@@ -14850,28 +14850,28 @@
         <v>10</v>
       </c>
       <c r="F278" t="n">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="G278" t="n">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="H278" t="n">
-        <v>137.8</v>
+        <v>130</v>
       </c>
       <c r="I278" t="n">
-        <v>138.098</v>
+        <v>130.0033333333333</v>
       </c>
       <c r="J278" t="n">
-        <v>126.364</v>
+        <v>117.9366666666667</v>
       </c>
       <c r="K278" t="n">
-        <v>52.798</v>
+        <v>48.94333333333334</v>
       </c>
       <c r="L278" t="n">
-        <v>118.808</v>
+        <v>118.2266666666667</v>
       </c>
       <c r="M278" t="n">
-        <v>11911.328</v>
+        <v>10873.09666666667</v>
       </c>
       <c r="N278" t="n">
         <v>1.33</v>
@@ -14960,22 +14960,22 @@
         <v>20</v>
       </c>
       <c r="H280" t="n">
-        <v>117</v>
+        <v>115.6666666666667</v>
       </c>
       <c r="I280" t="n">
-        <v>117.0375</v>
+        <v>115.6966666666667</v>
       </c>
       <c r="J280" t="n">
-        <v>109.2425</v>
+        <v>112.68</v>
       </c>
       <c r="K280" t="n">
-        <v>43.8275</v>
+        <v>43.91333333333333</v>
       </c>
       <c r="L280" t="n">
-        <v>113.82</v>
+        <v>118.51</v>
       </c>
       <c r="M280" t="n">
-        <v>9765.102500000001</v>
+        <v>9845.993333333334</v>
       </c>
       <c r="N280" t="n">
         <v>14.99</v>
@@ -15003,31 +15003,31 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.33333333333333</v>
+        <v>12</v>
       </c>
       <c r="F281" t="n">
         <v>30</v>
       </c>
       <c r="G281" t="n">
-        <v>18.66666666666667</v>
+        <v>18</v>
       </c>
       <c r="H281" t="n">
-        <v>119.6666666666667</v>
+        <v>117.5</v>
       </c>
       <c r="I281" t="n">
-        <v>120.0566666666667</v>
+        <v>118.045</v>
       </c>
       <c r="J281" t="n">
-        <v>99.26666666666667</v>
+        <v>92.72499999999999</v>
       </c>
       <c r="K281" t="n">
-        <v>45.04</v>
+        <v>44.925</v>
       </c>
       <c r="L281" t="n">
-        <v>115.1366666666667</v>
+        <v>113.885</v>
       </c>
       <c r="M281" t="n">
-        <v>10292.07666666667</v>
+        <v>10383.225</v>
       </c>
       <c r="N281" t="n">
         <v>20.7</v>
@@ -15625,31 +15625,31 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="F293" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G293" t="n">
-        <v>23.6</v>
+        <v>19.5</v>
       </c>
       <c r="H293" t="n">
-        <v>139.6</v>
+        <v>127.5</v>
       </c>
       <c r="I293" t="n">
-        <v>139.976</v>
+        <v>127.8525</v>
       </c>
       <c r="J293" t="n">
-        <v>122.808</v>
+        <v>115.0275</v>
       </c>
       <c r="K293" t="n">
-        <v>58.90799999999999</v>
+        <v>50.8125</v>
       </c>
       <c r="L293" t="n">
-        <v>135.098</v>
+        <v>127.2175</v>
       </c>
       <c r="M293" t="n">
-        <v>15726.446</v>
+        <v>13447.7825</v>
       </c>
       <c r="N293" t="n">
         <v>-15.83</v>
@@ -15732,28 +15732,28 @@
         <v>10</v>
       </c>
       <c r="F295" t="n">
-        <v>30.5</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="G295" t="n">
-        <v>20.5</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="H295" t="n">
-        <v>109.25</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="I295" t="n">
-        <v>109.745</v>
+        <v>112.12</v>
       </c>
       <c r="J295" t="n">
-        <v>103.1225</v>
+        <v>104.2966666666667</v>
       </c>
       <c r="K295" t="n">
-        <v>45.5625</v>
+        <v>46.44666666666667</v>
       </c>
       <c r="L295" t="n">
-        <v>145.7025</v>
+        <v>143.2366666666667</v>
       </c>
       <c r="M295" t="n">
-        <v>11858.815</v>
+        <v>12002.77666666667</v>
       </c>
       <c r="N295" t="n">
         <v>-1.61</v>
@@ -15937,31 +15937,31 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>11.33333333333333</v>
+        <v>11</v>
       </c>
       <c r="F299" t="n">
-        <v>31.33333333333333</v>
+        <v>32</v>
       </c>
       <c r="G299" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H299" t="n">
-        <v>71.66666666666667</v>
+        <v>51</v>
       </c>
       <c r="I299" t="n">
-        <v>71.76666666666667</v>
+        <v>51.31</v>
       </c>
       <c r="J299" t="n">
-        <v>62.71333333333333</v>
+        <v>44.435</v>
       </c>
       <c r="K299" t="n">
-        <v>27.18333333333333</v>
+        <v>18.47</v>
       </c>
       <c r="L299" t="n">
-        <v>125.08</v>
+        <v>118.16</v>
       </c>
       <c r="M299" t="n">
-        <v>7275.13</v>
+        <v>4959.37</v>
       </c>
       <c r="N299" t="n">
         <v>6.29</v>
@@ -16301,31 +16301,31 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="F306" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="G306" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="H306" t="n">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
       <c r="I306" t="n">
-        <v>95.578</v>
+        <v>95.91249999999999</v>
       </c>
       <c r="J306" t="n">
-        <v>90.81200000000001</v>
+        <v>90.03999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>40.23999999999999</v>
+        <v>40.41</v>
       </c>
       <c r="L306" t="n">
-        <v>167.732</v>
+        <v>162.395</v>
       </c>
       <c r="M306" t="n">
-        <v>10966.046</v>
+        <v>11009.0675</v>
       </c>
       <c r="N306" t="n">
         <v>14.9</v>
@@ -16353,31 +16353,31 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F307" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="G307" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="H307" t="n">
-        <v>89.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="I307" t="n">
-        <v>89.74000000000001</v>
+        <v>92.39</v>
       </c>
       <c r="J307" t="n">
-        <v>78.94000000000001</v>
+        <v>80.065</v>
       </c>
       <c r="K307" t="n">
-        <v>36.174</v>
+        <v>37.215</v>
       </c>
       <c r="L307" t="n">
-        <v>137.118</v>
+        <v>133.56</v>
       </c>
       <c r="M307" t="n">
-        <v>9552.678</v>
+        <v>9841.0375</v>
       </c>
       <c r="N307" t="n">
         <v>8.68</v>
@@ -16455,31 +16455,31 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>9</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="F309" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="G309" t="n">
-        <v>20.5</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="H309" t="n">
-        <v>149.25</v>
+        <v>154.3333333333333</v>
       </c>
       <c r="I309" t="n">
-        <v>148.2275</v>
+        <v>153.37</v>
       </c>
       <c r="J309" t="n">
-        <v>143.87</v>
+        <v>149.46</v>
       </c>
       <c r="K309" t="n">
-        <v>57.7775</v>
+        <v>59.96</v>
       </c>
       <c r="L309" t="n">
-        <v>108.6425</v>
+        <v>111.5966666666666</v>
       </c>
       <c r="M309" t="n">
-        <v>13413.04</v>
+        <v>13492.56</v>
       </c>
       <c r="N309" t="n">
         <v>-9.890000000000001</v>
@@ -16767,31 +16767,31 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F315" t="n">
         <v>30</v>
       </c>
       <c r="G315" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="H315" t="n">
-        <v>176</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="I315" t="n">
-        <v>176.225</v>
+        <v>163.4266666666666</v>
       </c>
       <c r="J315" t="n">
-        <v>168.0125</v>
+        <v>159.2933333333333</v>
       </c>
       <c r="K315" t="n">
-        <v>70.74000000000001</v>
+        <v>63.53333333333333</v>
       </c>
       <c r="L315" t="n">
-        <v>107.085</v>
+        <v>95.36</v>
       </c>
       <c r="M315" t="n">
-        <v>16338.675</v>
+        <v>14092.15666666667</v>
       </c>
       <c r="N315" t="n">
         <v>-6.55</v>
@@ -16975,31 +16975,31 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F319" t="n">
         <v>30</v>
       </c>
       <c r="G319" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H319" t="n">
-        <v>157.6666666666667</v>
+        <v>158.5</v>
       </c>
       <c r="I319" t="n">
-        <v>157.73</v>
+        <v>158.625</v>
       </c>
       <c r="J319" t="n">
-        <v>147.5566666666666</v>
+        <v>148.9</v>
       </c>
       <c r="K319" t="n">
-        <v>61.40000000000001</v>
+        <v>60.66</v>
       </c>
       <c r="L319" t="n">
-        <v>96.14333333333333</v>
+        <v>81.435</v>
       </c>
       <c r="M319" t="n">
-        <v>13877.05</v>
+        <v>13417.035</v>
       </c>
       <c r="N319" t="n">
         <v>11.84</v>
@@ -17131,31 +17131,31 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="F322" t="n">
         <v>30</v>
       </c>
       <c r="G322" t="n">
-        <v>18</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="H322" t="n">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="I322" t="n">
-        <v>136.1525</v>
+        <v>107.2</v>
       </c>
       <c r="J322" t="n">
-        <v>114.5225</v>
+        <v>91.55</v>
       </c>
       <c r="K322" t="n">
-        <v>51.4675</v>
+        <v>38.66999999999999</v>
       </c>
       <c r="L322" t="n">
-        <v>97.8575</v>
+        <v>80.64333333333333</v>
       </c>
       <c r="M322" t="n">
-        <v>12630.6125</v>
+        <v>8821.879999999999</v>
       </c>
       <c r="N322" t="n">
         <v>9.33</v>

--- a/Analyzer Results/RESULTS_MTT_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N325"/>
+  <dimension ref="A1:M325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -553,7 +548,6 @@
       <c r="M2" t="n">
         <v>6528.83</v>
       </c>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -603,9 +597,6 @@
       <c r="M3" t="n">
         <v>5510.422500000001</v>
       </c>
-      <c r="N3" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -655,9 +646,6 @@
       <c r="M4" t="n">
         <v>3796.44</v>
       </c>
-      <c r="N4" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -707,9 +695,6 @@
       <c r="M5" t="n">
         <v>7226.992499999999</v>
       </c>
-      <c r="N5" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -759,9 +744,6 @@
       <c r="M6" t="n">
         <v>4088.4475</v>
       </c>
-      <c r="N6" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -811,9 +793,6 @@
       <c r="M7" t="n">
         <v>5734.658</v>
       </c>
-      <c r="N7" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -863,9 +842,6 @@
       <c r="M8" t="n">
         <v>6589.93</v>
       </c>
-      <c r="N8" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -915,9 +891,6 @@
       <c r="M9" t="n">
         <v>6315.407499999999</v>
       </c>
-      <c r="N9" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -967,9 +940,6 @@
       <c r="M10" t="n">
         <v>4710.397999999999</v>
       </c>
-      <c r="N10" t="n">
-        <v>5.22</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1019,9 +989,6 @@
       <c r="M11" t="n">
         <v>4017.9725</v>
       </c>
-      <c r="N11" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1071,9 +1038,6 @@
       <c r="M12" t="n">
         <v>3915.906666666667</v>
       </c>
-      <c r="N12" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1123,9 +1087,6 @@
       <c r="M13" t="n">
         <v>5163.52</v>
       </c>
-      <c r="N13" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1175,9 +1136,6 @@
       <c r="M14" t="n">
         <v>4218.411999999999</v>
       </c>
-      <c r="N14" t="n">
-        <v>26.99</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1227,9 +1185,6 @@
       <c r="M15" t="n">
         <v>4796.368</v>
       </c>
-      <c r="N15" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1279,9 +1234,6 @@
       <c r="M16" t="n">
         <v>4574.085</v>
       </c>
-      <c r="N16" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1331,9 +1283,6 @@
       <c r="M17" t="n">
         <v>3365.315</v>
       </c>
-      <c r="N17" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1383,9 +1332,6 @@
       <c r="M18" t="n">
         <v>4471.9</v>
       </c>
-      <c r="N18" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1435,9 +1381,6 @@
       <c r="M19" t="n">
         <v>5558.764999999999</v>
       </c>
-      <c r="N19" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1487,7 +1430,6 @@
       <c r="M20" t="n">
         <v>17216.645</v>
       </c>
-      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1537,9 +1479,6 @@
       <c r="M21" t="n">
         <v>14010.35</v>
       </c>
-      <c r="N21" t="n">
-        <v>5.9</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1589,9 +1528,6 @@
       <c r="M22" t="n">
         <v>11216.966</v>
       </c>
-      <c r="N22" t="n">
-        <v>30.27</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1641,9 +1577,6 @@
       <c r="M23" t="n">
         <v>15539.71</v>
       </c>
-      <c r="N23" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1693,9 +1626,6 @@
       <c r="M24" t="n">
         <v>16680.038</v>
       </c>
-      <c r="N24" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1745,9 +1675,6 @@
       <c r="M25" t="n">
         <v>16385.752</v>
       </c>
-      <c r="N25" t="n">
-        <v>7.779999999999999</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1797,9 +1724,6 @@
       <c r="M26" t="n">
         <v>14576.62</v>
       </c>
-      <c r="N26" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1849,9 +1773,6 @@
       <c r="M27" t="n">
         <v>13292.7025</v>
       </c>
-      <c r="N27" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1901,9 +1822,6 @@
       <c r="M28" t="n">
         <v>14719.204</v>
       </c>
-      <c r="N28" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1953,9 +1871,6 @@
       <c r="M29" t="n">
         <v>14286.5725</v>
       </c>
-      <c r="N29" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2005,9 +1920,6 @@
       <c r="M30" t="n">
         <v>12274.6025</v>
       </c>
-      <c r="N30" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2057,9 +1969,6 @@
       <c r="M31" t="n">
         <v>14584.175</v>
       </c>
-      <c r="N31" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2109,9 +2018,6 @@
       <c r="M32" t="n">
         <v>14286.235</v>
       </c>
-      <c r="N32" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2161,9 +2067,6 @@
       <c r="M33" t="n">
         <v>15675.44</v>
       </c>
-      <c r="N33" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2213,9 +2116,6 @@
       <c r="M34" t="n">
         <v>14645.2725</v>
       </c>
-      <c r="N34" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2265,9 +2165,6 @@
       <c r="M35" t="n">
         <v>12250.756</v>
       </c>
-      <c r="N35" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2317,9 +2214,6 @@
       <c r="M36" t="n">
         <v>15848.1175</v>
       </c>
-      <c r="N36" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2369,9 +2263,6 @@
       <c r="M37" t="n">
         <v>12368.44666666666</v>
       </c>
-      <c r="N37" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2421,7 +2312,6 @@
       <c r="M38" t="n">
         <v>10787.114</v>
       </c>
-      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2471,9 +2361,6 @@
       <c r="M39" t="n">
         <v>11491.285</v>
       </c>
-      <c r="N39" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2523,9 +2410,6 @@
       <c r="M40" t="n">
         <v>6386.172</v>
       </c>
-      <c r="N40" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2575,9 +2459,6 @@
       <c r="M41" t="n">
         <v>10798.175</v>
       </c>
-      <c r="N41" t="n">
-        <v>-3.31</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2627,9 +2508,6 @@
       <c r="M42" t="n">
         <v>10212.955</v>
       </c>
-      <c r="N42" t="n">
-        <v>-3.2</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2679,9 +2557,6 @@
       <c r="M43" t="n">
         <v>8105.3025</v>
       </c>
-      <c r="N43" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2731,9 +2606,6 @@
       <c r="M44" t="n">
         <v>8624.377500000001</v>
       </c>
-      <c r="N44" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2783,9 +2655,6 @@
       <c r="M45" t="n">
         <v>10075.68</v>
       </c>
-      <c r="N45" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2835,9 +2704,6 @@
       <c r="M46" t="n">
         <v>9650.784000000001</v>
       </c>
-      <c r="N46" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2887,9 +2753,6 @@
       <c r="M47" t="n">
         <v>10003.226</v>
       </c>
-      <c r="N47" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2939,9 +2802,6 @@
       <c r="M48" t="n">
         <v>8285.182000000001</v>
       </c>
-      <c r="N48" t="n">
-        <v>13.09</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2991,9 +2851,6 @@
       <c r="M49" t="n">
         <v>7447.6525</v>
       </c>
-      <c r="N49" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3043,9 +2900,6 @@
       <c r="M50" t="n">
         <v>9925.285</v>
       </c>
-      <c r="N50" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3095,9 +2949,6 @@
       <c r="M51" t="n">
         <v>9492.828000000001</v>
       </c>
-      <c r="N51" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3147,9 +2998,6 @@
       <c r="M52" t="n">
         <v>9284.075000000001</v>
       </c>
-      <c r="N52" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3199,9 +3047,6 @@
       <c r="M53" t="n">
         <v>8185.126666666666</v>
       </c>
-      <c r="N53" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3251,9 +3096,6 @@
       <c r="M54" t="n">
         <v>8689.092000000001</v>
       </c>
-      <c r="N54" t="n">
-        <v>7.159999999999999</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3303,9 +3145,6 @@
       <c r="M55" t="n">
         <v>7386.5225</v>
       </c>
-      <c r="N55" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3355,7 +3194,6 @@
       <c r="M56" t="n">
         <v>8858.762000000001</v>
       </c>
-      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3405,9 +3243,6 @@
       <c r="M57" t="n">
         <v>8709.990000000002</v>
       </c>
-      <c r="N57" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3457,9 +3292,6 @@
       <c r="M58" t="n">
         <v>5156.42</v>
       </c>
-      <c r="N58" t="n">
-        <v>36.17</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3509,9 +3341,6 @@
       <c r="M59" t="n">
         <v>7170.19</v>
       </c>
-      <c r="N59" t="n">
-        <v>5.65</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3561,9 +3390,6 @@
       <c r="M60" t="n">
         <v>7241.7225</v>
       </c>
-      <c r="N60" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3613,9 +3439,6 @@
       <c r="M61" t="n">
         <v>8236.022000000001</v>
       </c>
-      <c r="N61" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3665,9 +3488,6 @@
       <c r="M62" t="n">
         <v>7591.91</v>
       </c>
-      <c r="N62" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3717,9 +3537,6 @@
       <c r="M63" t="n">
         <v>6979.564</v>
       </c>
-      <c r="N63" t="n">
-        <v>7.720000000000001</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3769,9 +3586,6 @@
       <c r="M64" t="n">
         <v>7257.8425</v>
       </c>
-      <c r="N64" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3821,9 +3635,6 @@
       <c r="M65" t="n">
         <v>7740.770000000001</v>
       </c>
-      <c r="N65" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3873,9 +3684,6 @@
       <c r="M66" t="n">
         <v>7110.55</v>
       </c>
-      <c r="N66" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3925,9 +3733,6 @@
       <c r="M67" t="n">
         <v>6482.3675</v>
       </c>
-      <c r="N67" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3977,9 +3782,6 @@
       <c r="M68" t="n">
         <v>6722.842</v>
       </c>
-      <c r="N68" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4029,9 +3831,6 @@
       <c r="M69" t="n">
         <v>6405.487499999999</v>
       </c>
-      <c r="N69" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4081,9 +3880,6 @@
       <c r="M70" t="n">
         <v>6552.698</v>
       </c>
-      <c r="N70" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4133,9 +3929,6 @@
       <c r="M71" t="n">
         <v>5674.622499999999</v>
       </c>
-      <c r="N71" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4185,9 +3978,6 @@
       <c r="M72" t="n">
         <v>8347.327499999999</v>
       </c>
-      <c r="N72" t="n">
-        <v>6.01</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4237,9 +4027,6 @@
       <c r="M73" t="n">
         <v>6761.33</v>
       </c>
-      <c r="N73" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4289,7 +4076,6 @@
       <c r="M74" t="n">
         <v>9199.476000000001</v>
       </c>
-      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4339,9 +4125,6 @@
       <c r="M75" t="n">
         <v>7475.204000000001</v>
       </c>
-      <c r="N75" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4391,9 +4174,6 @@
       <c r="M76" t="n">
         <v>5255.456</v>
       </c>
-      <c r="N76" t="n">
-        <v>29.27</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4443,9 +4223,6 @@
       <c r="M77" t="n">
         <v>9347.4125</v>
       </c>
-      <c r="N77" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4495,9 +4272,6 @@
       <c r="M78" t="n">
         <v>7819.762</v>
       </c>
-      <c r="N78" t="n">
-        <v>17.75</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4547,9 +4321,6 @@
       <c r="M79" t="n">
         <v>8752.790000000001</v>
       </c>
-      <c r="N79" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4599,9 +4370,6 @@
       <c r="M80" t="n">
         <v>9016.057499999999</v>
       </c>
-      <c r="N80" t="n">
-        <v>-0.03</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4651,9 +4419,6 @@
       <c r="M81" t="n">
         <v>8311.950000000001</v>
       </c>
-      <c r="N81" t="n">
-        <v>-3.91</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4703,9 +4468,6 @@
       <c r="M82" t="n">
         <v>8753.813333333334</v>
       </c>
-      <c r="N82" t="n">
-        <v>6.760000000000001</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4755,9 +4517,6 @@
       <c r="M83" t="n">
         <v>7072.365</v>
       </c>
-      <c r="N83" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4807,9 +4566,6 @@
       <c r="M84" t="n">
         <v>6828.215</v>
       </c>
-      <c r="N84" t="n">
-        <v>14.57</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4859,9 +4615,6 @@
       <c r="M85" t="n">
         <v>6335.522</v>
       </c>
-      <c r="N85" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4911,9 +4664,6 @@
       <c r="M86" t="n">
         <v>6327.2625</v>
       </c>
-      <c r="N86" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4963,9 +4713,6 @@
       <c r="M87" t="n">
         <v>7298.584</v>
       </c>
-      <c r="N87" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5015,9 +4762,6 @@
       <c r="M88" t="n">
         <v>6645.216</v>
       </c>
-      <c r="N88" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5067,9 +4811,6 @@
       <c r="M89" t="n">
         <v>8887.7575</v>
       </c>
-      <c r="N89" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5119,9 +4860,6 @@
       <c r="M90" t="n">
         <v>6725.892</v>
       </c>
-      <c r="N90" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5171,9 +4909,6 @@
       <c r="M91" t="n">
         <v>6973.762000000001</v>
       </c>
-      <c r="N91" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5223,7 +4958,6 @@
       <c r="M92" t="n">
         <v>15526.60666666667</v>
       </c>
-      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5273,9 +5007,6 @@
       <c r="M93" t="n">
         <v>18619.364</v>
       </c>
-      <c r="N93" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5325,9 +5056,6 @@
       <c r="M94" t="n">
         <v>13289.28666666667</v>
       </c>
-      <c r="N94" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5377,9 +5105,6 @@
       <c r="M95" t="n">
         <v>16021.9425</v>
       </c>
-      <c r="N95" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5429,9 +5154,6 @@
       <c r="M96" t="n">
         <v>14821.69</v>
       </c>
-      <c r="N96" t="n">
-        <v>-3.57</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5481,9 +5203,6 @@
       <c r="M97" t="n">
         <v>13110.065</v>
       </c>
-      <c r="N97" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5533,9 +5252,6 @@
       <c r="M98" t="n">
         <v>16354.04666666667</v>
       </c>
-      <c r="N98" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5585,9 +5301,6 @@
       <c r="M99" t="n">
         <v>15981.045</v>
       </c>
-      <c r="N99" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5637,9 +5350,6 @@
       <c r="M100" t="n">
         <v>7754.707999999999</v>
       </c>
-      <c r="N100" t="n">
-        <v>12.31</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5689,9 +5399,6 @@
       <c r="M101" t="n">
         <v>14253.696</v>
       </c>
-      <c r="N101" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5741,9 +5448,6 @@
       <c r="M102" t="n">
         <v>11180.915</v>
       </c>
-      <c r="N102" t="n">
-        <v>7.58</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5793,9 +5497,6 @@
       <c r="M103" t="n">
         <v>8917.779999999999</v>
       </c>
-      <c r="N103" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5845,9 +5546,6 @@
       <c r="M104" t="n">
         <v>10438.068</v>
       </c>
-      <c r="N104" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5897,9 +5595,6 @@
       <c r="M105" t="n">
         <v>14054.51</v>
       </c>
-      <c r="N105" t="n">
-        <v>13.06</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5949,9 +5644,6 @@
       <c r="M106" t="n">
         <v>16649.48333333333</v>
       </c>
-      <c r="N106" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6001,9 +5693,6 @@
       <c r="M107" t="n">
         <v>16473.49</v>
       </c>
-      <c r="N107" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6053,9 +5742,6 @@
       <c r="M108" t="n">
         <v>7222.003333333334</v>
       </c>
-      <c r="N108" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6105,9 +5791,6 @@
       <c r="M109" t="n">
         <v>11283.304</v>
       </c>
-      <c r="N109" t="n">
-        <v>9.119999999999999</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6157,7 +5840,6 @@
       <c r="M110" t="n">
         <v>10756.425</v>
       </c>
-      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6207,9 +5889,6 @@
       <c r="M111" t="n">
         <v>8618.283333333333</v>
       </c>
-      <c r="N111" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6259,9 +5938,6 @@
       <c r="M112" t="n">
         <v>6913</v>
       </c>
-      <c r="N112" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6311,9 +5987,6 @@
       <c r="M113" t="n">
         <v>11484.1975</v>
       </c>
-      <c r="N113" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6363,9 +6036,6 @@
       <c r="M114" t="n">
         <v>10297.4875</v>
       </c>
-      <c r="N114" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6415,9 +6085,6 @@
       <c r="M115" t="n">
         <v>10466.382</v>
       </c>
-      <c r="N115" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6467,9 +6134,6 @@
       <c r="M116" t="n">
         <v>10768.964</v>
       </c>
-      <c r="N116" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6519,9 +6183,6 @@
       <c r="M117" t="n">
         <v>10286.96</v>
       </c>
-      <c r="N117" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6571,9 +6232,6 @@
       <c r="M118" t="n">
         <v>9712.994000000001</v>
       </c>
-      <c r="N118" t="n">
-        <v>5.22</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6623,9 +6281,6 @@
       <c r="M119" t="n">
         <v>9104.32</v>
       </c>
-      <c r="N119" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6675,9 +6330,6 @@
       <c r="M120" t="n">
         <v>8921.466</v>
       </c>
-      <c r="N120" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6727,9 +6379,6 @@
       <c r="M121" t="n">
         <v>9105.587500000001</v>
       </c>
-      <c r="N121" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6779,9 +6428,6 @@
       <c r="M122" t="n">
         <v>8877.134</v>
       </c>
-      <c r="N122" t="n">
-        <v>26.99</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6831,9 +6477,6 @@
       <c r="M123" t="n">
         <v>8497.950000000001</v>
       </c>
-      <c r="N123" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6883,9 +6526,6 @@
       <c r="M124" t="n">
         <v>7976.855</v>
       </c>
-      <c r="N124" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6935,9 +6575,6 @@
       <c r="M125" t="n">
         <v>8939.186666666666</v>
       </c>
-      <c r="N125" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6987,9 +6624,6 @@
       <c r="M126" t="n">
         <v>7876.32</v>
       </c>
-      <c r="N126" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7039,9 +6673,6 @@
       <c r="M127" t="n">
         <v>9833.856000000002</v>
       </c>
-      <c r="N127" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7091,7 +6722,6 @@
       <c r="M128" t="n">
         <v>20564.348</v>
       </c>
-      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7141,9 +6771,6 @@
       <c r="M129" t="n">
         <v>16094.365</v>
       </c>
-      <c r="N129" t="n">
-        <v>5.9</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7193,9 +6820,6 @@
       <c r="M130" t="n">
         <v>11989.31</v>
       </c>
-      <c r="N130" t="n">
-        <v>30.27</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7245,9 +6869,6 @@
       <c r="M131" t="n">
         <v>17823.932</v>
       </c>
-      <c r="N131" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7297,9 +6918,6 @@
       <c r="M132" t="n">
         <v>13433.7775</v>
       </c>
-      <c r="N132" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7349,9 +6967,6 @@
       <c r="M133" t="n">
         <v>17935.625</v>
       </c>
-      <c r="N133" t="n">
-        <v>7.78</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7401,9 +7016,6 @@
       <c r="M134" t="n">
         <v>13872.015</v>
       </c>
-      <c r="N134" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7453,9 +7065,6 @@
       <c r="M135" t="n">
         <v>16685.8475</v>
       </c>
-      <c r="N135" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7505,9 +7114,6 @@
       <c r="M136" t="n">
         <v>14577.4025</v>
       </c>
-      <c r="N136" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7557,9 +7163,6 @@
       <c r="M137" t="n">
         <v>14451.485</v>
       </c>
-      <c r="N137" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7609,9 +7212,6 @@
       <c r="M138" t="n">
         <v>15252.0325</v>
       </c>
-      <c r="N138" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7661,9 +7261,6 @@
       <c r="M139" t="n">
         <v>14781.716</v>
       </c>
-      <c r="N139" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7713,9 +7310,6 @@
       <c r="M140" t="n">
         <v>14843.1775</v>
       </c>
-      <c r="N140" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7765,9 +7359,6 @@
       <c r="M141" t="n">
         <v>16288.91</v>
       </c>
-      <c r="N141" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7817,9 +7408,6 @@
       <c r="M142" t="n">
         <v>14877.9225</v>
       </c>
-      <c r="N142" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7869,9 +7457,6 @@
       <c r="M143" t="n">
         <v>16525.214</v>
       </c>
-      <c r="N143" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7921,9 +7506,6 @@
       <c r="M144" t="n">
         <v>15166.7275</v>
       </c>
-      <c r="N144" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7973,9 +7555,6 @@
       <c r="M145" t="n">
         <v>16672.094</v>
       </c>
-      <c r="N145" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8025,7 +7604,6 @@
       <c r="M146" t="n">
         <v>8948.822</v>
       </c>
-      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8075,9 +7653,6 @@
       <c r="M147" t="n">
         <v>11450.976</v>
       </c>
-      <c r="N147" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8127,9 +7702,6 @@
       <c r="M148" t="n">
         <v>7253.533333333333</v>
       </c>
-      <c r="N148" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8179,9 +7751,6 @@
       <c r="M149" t="n">
         <v>10126.09</v>
       </c>
-      <c r="N149" t="n">
-        <v>-3.31</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8231,9 +7800,6 @@
       <c r="M150" t="n">
         <v>9720.682499999999</v>
       </c>
-      <c r="N150" t="n">
-        <v>-3.2</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8283,9 +7849,6 @@
       <c r="M151" t="n">
         <v>6978.373333333333</v>
       </c>
-      <c r="N151" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8335,9 +7898,6 @@
       <c r="M152" t="n">
         <v>8935.897999999999</v>
       </c>
-      <c r="N152" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8387,9 +7947,6 @@
       <c r="M153" t="n">
         <v>9182.765000000001</v>
       </c>
-      <c r="N153" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8439,9 +7996,6 @@
       <c r="M154" t="n">
         <v>8863.691999999999</v>
       </c>
-      <c r="N154" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8491,9 +8045,6 @@
       <c r="M155" t="n">
         <v>9834.103999999999</v>
       </c>
-      <c r="N155" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8543,9 +8094,6 @@
       <c r="M156" t="n">
         <v>11202.96333333333</v>
       </c>
-      <c r="N156" t="n">
-        <v>13.09</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8595,9 +8143,6 @@
       <c r="M157" t="n">
         <v>7684.115</v>
       </c>
-      <c r="N157" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8647,9 +8192,6 @@
       <c r="M158" t="n">
         <v>7223.842</v>
       </c>
-      <c r="N158" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8699,9 +8241,6 @@
       <c r="M159" t="n">
         <v>8237.402</v>
       </c>
-      <c r="N159" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8751,9 +8290,6 @@
       <c r="M160" t="n">
         <v>9437.218000000001</v>
       </c>
-      <c r="N160" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8803,9 +8339,6 @@
       <c r="M161" t="n">
         <v>8012.5375</v>
       </c>
-      <c r="N161" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8855,9 +8388,6 @@
       <c r="M162" t="n">
         <v>9804.005000000001</v>
       </c>
-      <c r="N162" t="n">
-        <v>7.16</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8907,9 +8437,6 @@
       <c r="M163" t="n">
         <v>6582.836</v>
       </c>
-      <c r="N163" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8959,7 +8486,6 @@
       <c r="M164" t="n">
         <v>17092.026</v>
       </c>
-      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9009,9 +8535,6 @@
       <c r="M165" t="n">
         <v>16379.202</v>
       </c>
-      <c r="N165" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9061,9 +8584,6 @@
       <c r="M166" t="n">
         <v>8908.6</v>
       </c>
-      <c r="N166" t="n">
-        <v>36.17</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9113,9 +8633,6 @@
       <c r="M167" t="n">
         <v>16103.33</v>
       </c>
-      <c r="N167" t="n">
-        <v>5.65</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9165,9 +8682,6 @@
       <c r="M168" t="n">
         <v>15467.0725</v>
       </c>
-      <c r="N168" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9217,9 +8731,6 @@
       <c r="M169" t="n">
         <v>14177.475</v>
       </c>
-      <c r="N169" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9269,9 +8780,6 @@
       <c r="M170" t="n">
         <v>16805.4</v>
       </c>
-      <c r="N170" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9321,9 +8829,6 @@
       <c r="M171" t="n">
         <v>14736.516</v>
       </c>
-      <c r="N171" t="n">
-        <v>7.720000000000001</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9373,9 +8878,6 @@
       <c r="M172" t="n">
         <v>13531.5</v>
       </c>
-      <c r="N172" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9425,9 +8927,6 @@
       <c r="M173" t="n">
         <v>11899.808</v>
       </c>
-      <c r="N173" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9477,9 +8976,6 @@
       <c r="M174" t="n">
         <v>11841.255</v>
       </c>
-      <c r="N174" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9529,9 +9025,6 @@
       <c r="M175" t="n">
         <v>13495.525</v>
       </c>
-      <c r="N175" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9581,9 +9074,6 @@
       <c r="M176" t="n">
         <v>12815.77333333333</v>
       </c>
-      <c r="N176" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9633,9 +9123,6 @@
       <c r="M177" t="n">
         <v>13697.8425</v>
       </c>
-      <c r="N177" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9685,9 +9172,6 @@
       <c r="M178" t="n">
         <v>15375.5675</v>
       </c>
-      <c r="N178" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9737,9 +9221,6 @@
       <c r="M179" t="n">
         <v>15084.296</v>
       </c>
-      <c r="N179" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9789,9 +9270,6 @@
       <c r="M180" t="n">
         <v>14183.4975</v>
       </c>
-      <c r="N180" t="n">
-        <v>6.01</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9841,9 +9319,6 @@
       <c r="M181" t="n">
         <v>14638.726</v>
       </c>
-      <c r="N181" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9893,7 +9368,6 @@
       <c r="M182" t="n">
         <v>12886.09</v>
       </c>
-      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9943,9 +9417,6 @@
       <c r="M183" t="n">
         <v>12897.156</v>
       </c>
-      <c r="N183" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9995,9 +9466,6 @@
       <c r="M184" t="n">
         <v>8290.7125</v>
       </c>
-      <c r="N184" t="n">
-        <v>29.27</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10047,9 +9515,6 @@
       <c r="M185" t="n">
         <v>18307.5475</v>
       </c>
-      <c r="N185" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10099,9 +9564,6 @@
       <c r="M186" t="n">
         <v>13380.166</v>
       </c>
-      <c r="N186" t="n">
-        <v>17.75</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10151,9 +9613,6 @@
       <c r="M187" t="n">
         <v>17063.144</v>
       </c>
-      <c r="N187" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10203,9 +9662,6 @@
       <c r="M188" t="n">
         <v>15855.0925</v>
       </c>
-      <c r="N188" t="n">
-        <v>-0.03</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10255,9 +9711,6 @@
       <c r="M189" t="n">
         <v>18597.14</v>
       </c>
-      <c r="N189" t="n">
-        <v>-3.91</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10307,9 +9760,6 @@
       <c r="M190" t="n">
         <v>12626.555</v>
       </c>
-      <c r="N190" t="n">
-        <v>6.76</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10359,9 +9809,6 @@
       <c r="M191" t="n">
         <v>15299.104</v>
       </c>
-      <c r="N191" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10411,9 +9858,6 @@
       <c r="M192" t="n">
         <v>14491.73</v>
       </c>
-      <c r="N192" t="n">
-        <v>14.57</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10463,9 +9907,6 @@
       <c r="M193" t="n">
         <v>13906.428</v>
       </c>
-      <c r="N193" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10515,9 +9956,6 @@
       <c r="M194" t="n">
         <v>15155.3275</v>
       </c>
-      <c r="N194" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10567,9 +10005,6 @@
       <c r="M195" t="n">
         <v>17156.96</v>
       </c>
-      <c r="N195" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10619,9 +10054,6 @@
       <c r="M196" t="n">
         <v>15750.295</v>
       </c>
-      <c r="N196" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10671,9 +10103,6 @@
       <c r="M197" t="n">
         <v>15348.924</v>
       </c>
-      <c r="N197" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10723,9 +10152,6 @@
       <c r="M198" t="n">
         <v>12882.174</v>
       </c>
-      <c r="N198" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10775,9 +10201,6 @@
       <c r="M199" t="n">
         <v>15299.0675</v>
       </c>
-      <c r="N199" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10827,7 +10250,6 @@
       <c r="M200" t="n">
         <v>20544.272</v>
       </c>
-      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10877,9 +10299,6 @@
       <c r="M201" t="n">
         <v>34880.332</v>
       </c>
-      <c r="N201" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10929,9 +10348,6 @@
       <c r="M202" t="n">
         <v>26306.805</v>
       </c>
-      <c r="N202" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10981,9 +10397,6 @@
       <c r="M203" t="n">
         <v>30825.388</v>
       </c>
-      <c r="N203" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11033,9 +10446,6 @@
       <c r="M204" t="n">
         <v>30350.975</v>
       </c>
-      <c r="N204" t="n">
-        <v>-3.57</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11085,9 +10495,6 @@
       <c r="M205" t="n">
         <v>28633.92</v>
       </c>
-      <c r="N205" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11137,9 +10544,6 @@
       <c r="M206" t="n">
         <v>27821.55</v>
       </c>
-      <c r="N206" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11189,9 +10593,6 @@
       <c r="M207" t="n">
         <v>25054.396</v>
       </c>
-      <c r="N207" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11241,9 +10642,6 @@
       <c r="M208" t="n">
         <v>25637.8025</v>
       </c>
-      <c r="N208" t="n">
-        <v>12.31</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11293,9 +10691,6 @@
       <c r="M209" t="n">
         <v>29734.52666666667</v>
       </c>
-      <c r="N209" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11345,9 +10740,6 @@
       <c r="M210" t="n">
         <v>33727.0425</v>
       </c>
-      <c r="N210" t="n">
-        <v>7.58</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11397,9 +10789,6 @@
       <c r="M211" t="n">
         <v>19639.294</v>
       </c>
-      <c r="N211" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11449,9 +10838,6 @@
       <c r="M212" t="n">
         <v>25435.552</v>
       </c>
-      <c r="N212" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11501,9 +10887,6 @@
       <c r="M213" t="n">
         <v>26767.248</v>
       </c>
-      <c r="N213" t="n">
-        <v>13.06</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11553,9 +10936,6 @@
       <c r="M214" t="n">
         <v>29330.75</v>
       </c>
-      <c r="N214" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11605,9 +10985,6 @@
       <c r="M215" t="n">
         <v>30898.52333333333</v>
       </c>
-      <c r="N215" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11657,9 +11034,6 @@
       <c r="M216" t="n">
         <v>25493.12</v>
       </c>
-      <c r="N216" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11709,9 +11083,6 @@
       <c r="M217" t="n">
         <v>28403.252</v>
       </c>
-      <c r="N217" t="n">
-        <v>9.119999999999999</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11761,7 +11132,6 @@
       <c r="M218" t="n">
         <v>6602.725</v>
       </c>
-      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11811,9 +11181,6 @@
       <c r="M219" t="n">
         <v>9473.3575</v>
       </c>
-      <c r="N219" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11863,9 +11230,6 @@
       <c r="M220" t="n">
         <v>8011.516000000001</v>
       </c>
-      <c r="N220" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11915,9 +11279,6 @@
       <c r="M221" t="n">
         <v>9466.734</v>
       </c>
-      <c r="N221" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11967,9 +11328,6 @@
       <c r="M222" t="n">
         <v>13521.965</v>
       </c>
-      <c r="N222" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12019,9 +11377,6 @@
       <c r="M223" t="n">
         <v>11796.975</v>
       </c>
-      <c r="N223" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12071,9 +11426,6 @@
       <c r="M224" t="n">
         <v>11430.696</v>
       </c>
-      <c r="N224" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12123,9 +11475,6 @@
       <c r="M225" t="n">
         <v>11115.674</v>
       </c>
-      <c r="N225" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12175,9 +11524,6 @@
       <c r="M226" t="n">
         <v>11116.17</v>
       </c>
-      <c r="N226" t="n">
-        <v>5.22</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12227,9 +11573,6 @@
       <c r="M227" t="n">
         <v>6319.485</v>
       </c>
-      <c r="N227" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12279,9 +11622,6 @@
       <c r="M228" t="n">
         <v>8339.073333333334</v>
       </c>
-      <c r="N228" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12331,9 +11671,6 @@
       <c r="M229" t="n">
         <v>8116.81</v>
       </c>
-      <c r="N229" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12383,9 +11720,6 @@
       <c r="M230" t="n">
         <v>6129.708000000001</v>
       </c>
-      <c r="N230" t="n">
-        <v>26.99</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12435,9 +11769,6 @@
       <c r="M231" t="n">
         <v>7382.844</v>
       </c>
-      <c r="N231" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12487,9 +11818,6 @@
       <c r="M232" t="n">
         <v>8258.621999999999</v>
       </c>
-      <c r="N232" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12539,9 +11867,6 @@
       <c r="M233" t="n">
         <v>6283.976000000001</v>
       </c>
-      <c r="N233" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12591,9 +11916,6 @@
       <c r="M234" t="n">
         <v>6050.952499999999</v>
       </c>
-      <c r="N234" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12643,9 +11965,6 @@
       <c r="M235" t="n">
         <v>9087.165000000001</v>
       </c>
-      <c r="N235" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12695,7 +12014,6 @@
       <c r="M236" t="n">
         <v>22309.752</v>
       </c>
-      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12745,9 +12063,6 @@
       <c r="M237" t="n">
         <v>20929.94</v>
       </c>
-      <c r="N237" t="n">
-        <v>5.900000000000001</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12797,9 +12112,6 @@
       <c r="M238" t="n">
         <v>16284.066</v>
       </c>
-      <c r="N238" t="n">
-        <v>30.27</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12849,9 +12161,6 @@
       <c r="M239" t="n">
         <v>23692.54333333333</v>
       </c>
-      <c r="N239" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12901,9 +12210,6 @@
       <c r="M240" t="n">
         <v>21778.136</v>
       </c>
-      <c r="N240" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -12953,9 +12259,6 @@
       <c r="M241" t="n">
         <v>18619.062</v>
       </c>
-      <c r="N241" t="n">
-        <v>7.779999999999999</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13005,9 +12308,6 @@
       <c r="M242" t="n">
         <v>18591.33</v>
       </c>
-      <c r="N242" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13057,9 +12357,6 @@
       <c r="M243" t="n">
         <v>24534.6525</v>
       </c>
-      <c r="N243" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13109,9 +12406,6 @@
       <c r="M244" t="n">
         <v>18232.78</v>
       </c>
-      <c r="N244" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13161,9 +12455,6 @@
       <c r="M245" t="n">
         <v>21380.694</v>
       </c>
-      <c r="N245" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13213,9 +12504,6 @@
       <c r="M246" t="n">
         <v>18499.734</v>
       </c>
-      <c r="N246" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13265,9 +12553,6 @@
       <c r="M247" t="n">
         <v>19268.512</v>
       </c>
-      <c r="N247" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13317,9 +12602,6 @@
       <c r="M248" t="n">
         <v>22078.24</v>
       </c>
-      <c r="N248" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13369,9 +12651,6 @@
       <c r="M249" t="n">
         <v>19698.27666666667</v>
       </c>
-      <c r="N249" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13421,9 +12700,6 @@
       <c r="M250" t="n">
         <v>22077.19333333333</v>
       </c>
-      <c r="N250" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13473,9 +12749,6 @@
       <c r="M251" t="n">
         <v>20881.026</v>
       </c>
-      <c r="N251" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13525,9 +12798,6 @@
       <c r="M252" t="n">
         <v>19912.986</v>
       </c>
-      <c r="N252" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13577,9 +12847,6 @@
       <c r="M253" t="n">
         <v>20698.95</v>
       </c>
-      <c r="N253" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13629,7 +12896,6 @@
       <c r="M254" t="n">
         <v>8358.303333333331</v>
       </c>
-      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13679,9 +12945,6 @@
       <c r="M255" t="n">
         <v>11036.0475</v>
       </c>
-      <c r="N255" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13731,9 +12994,6 @@
       <c r="M256" t="n">
         <v>9275.190000000001</v>
       </c>
-      <c r="N256" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13783,9 +13043,6 @@
       <c r="M257" t="n">
         <v>10495.882</v>
       </c>
-      <c r="N257" t="n">
-        <v>-3.31</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13835,9 +13092,6 @@
       <c r="M258" t="n">
         <v>9834.66</v>
       </c>
-      <c r="N258" t="n">
-        <v>-3.2</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13887,9 +13141,6 @@
       <c r="M259" t="n">
         <v>7706.486666666667</v>
       </c>
-      <c r="N259" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13939,9 +13190,6 @@
       <c r="M260" t="n">
         <v>7377.96</v>
       </c>
-      <c r="N260" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -13991,9 +13239,6 @@
       <c r="M261" t="n">
         <v>9256.202000000001</v>
       </c>
-      <c r="N261" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14043,9 +13288,6 @@
       <c r="M262" t="n">
         <v>9088.873333333333</v>
       </c>
-      <c r="N262" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14095,9 +13337,6 @@
       <c r="M263" t="n">
         <v>9900.859999999999</v>
       </c>
-      <c r="N263" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14147,9 +13386,6 @@
       <c r="M264" t="n">
         <v>9584.866</v>
       </c>
-      <c r="N264" t="n">
-        <v>13.09</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14199,9 +13435,6 @@
       <c r="M265" t="n">
         <v>8919.77</v>
       </c>
-      <c r="N265" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14251,9 +13484,6 @@
       <c r="M266" t="n">
         <v>8101.4225</v>
       </c>
-      <c r="N266" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14303,9 +13533,6 @@
       <c r="M267" t="n">
         <v>9287.262500000001</v>
       </c>
-      <c r="N267" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14355,9 +13582,6 @@
       <c r="M268" t="n">
         <v>8739.517500000002</v>
       </c>
-      <c r="N268" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14407,9 +13631,6 @@
       <c r="M269" t="n">
         <v>9141.74</v>
       </c>
-      <c r="N269" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -14459,9 +13680,6 @@
       <c r="M270" t="n">
         <v>11952.4675</v>
       </c>
-      <c r="N270" t="n">
-        <v>7.16</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -14511,9 +13729,6 @@
       <c r="M271" t="n">
         <v>7692.992000000001</v>
       </c>
-      <c r="N271" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14563,7 +13778,6 @@
       <c r="M272" t="n">
         <v>12783.242</v>
       </c>
-      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14613,9 +13827,6 @@
       <c r="M273" t="n">
         <v>9953.855000000001</v>
       </c>
-      <c r="N273" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14665,9 +13876,6 @@
       <c r="M274" t="n">
         <v>8021.26</v>
       </c>
-      <c r="N274" t="n">
-        <v>36.17</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -14717,9 +13925,6 @@
       <c r="M275" t="n">
         <v>11017.802</v>
       </c>
-      <c r="N275" t="n">
-        <v>5.65</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14769,9 +13974,6 @@
       <c r="M276" t="n">
         <v>10556.7</v>
       </c>
-      <c r="N276" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14821,9 +14023,6 @@
       <c r="M277" t="n">
         <v>10396.042</v>
       </c>
-      <c r="N277" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14873,9 +14072,6 @@
       <c r="M278" t="n">
         <v>10873.09666666667</v>
       </c>
-      <c r="N278" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14925,9 +14121,6 @@
       <c r="M279" t="n">
         <v>11763.3925</v>
       </c>
-      <c r="N279" t="n">
-        <v>7.72</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -14977,9 +14170,6 @@
       <c r="M280" t="n">
         <v>9845.993333333334</v>
       </c>
-      <c r="N280" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15029,9 +14219,6 @@
       <c r="M281" t="n">
         <v>10383.225</v>
       </c>
-      <c r="N281" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15081,9 +14268,6 @@
       <c r="M282" t="n">
         <v>11101.48</v>
       </c>
-      <c r="N282" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15133,9 +14317,6 @@
       <c r="M283" t="n">
         <v>10468.328</v>
       </c>
-      <c r="N283" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15185,9 +14366,6 @@
       <c r="M284" t="n">
         <v>9584.194</v>
       </c>
-      <c r="N284" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15237,9 +14415,6 @@
       <c r="M285" t="n">
         <v>10014.096</v>
       </c>
-      <c r="N285" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15289,9 +14464,6 @@
       <c r="M286" t="n">
         <v>10891.494</v>
       </c>
-      <c r="N286" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15341,9 +14513,6 @@
       <c r="M287" t="n">
         <v>9116.513333333334</v>
       </c>
-      <c r="N287" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15393,9 +14562,6 @@
       <c r="M288" t="n">
         <v>10921.925</v>
       </c>
-      <c r="N288" t="n">
-        <v>6.01</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -15445,9 +14611,6 @@
       <c r="M289" t="n">
         <v>10471.3225</v>
       </c>
-      <c r="N289" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -15497,7 +14660,6 @@
       <c r="M290" t="n">
         <v>13187.788</v>
       </c>
-      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -15547,9 +14709,6 @@
       <c r="M291" t="n">
         <v>12527.556</v>
       </c>
-      <c r="N291" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15599,9 +14758,6 @@
       <c r="M292" t="n">
         <v>10616.026</v>
       </c>
-      <c r="N292" t="n">
-        <v>29.27</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15651,9 +14807,6 @@
       <c r="M293" t="n">
         <v>13447.7825</v>
       </c>
-      <c r="N293" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -15703,9 +14856,6 @@
       <c r="M294" t="n">
         <v>7855.488</v>
       </c>
-      <c r="N294" t="n">
-        <v>17.75</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -15755,9 +14905,6 @@
       <c r="M295" t="n">
         <v>12002.77666666667</v>
       </c>
-      <c r="N295" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -15807,9 +14954,6 @@
       <c r="M296" t="n">
         <v>12559.2775</v>
       </c>
-      <c r="N296" t="n">
-        <v>-0.03</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -15859,9 +15003,6 @@
       <c r="M297" t="n">
         <v>11888.136</v>
       </c>
-      <c r="N297" t="n">
-        <v>-3.91</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -15911,9 +15052,6 @@
       <c r="M298" t="n">
         <v>11297.3</v>
       </c>
-      <c r="N298" t="n">
-        <v>6.76</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -15963,9 +15101,6 @@
       <c r="M299" t="n">
         <v>4959.37</v>
       </c>
-      <c r="N299" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16015,9 +15150,6 @@
       <c r="M300" t="n">
         <v>9605.3475</v>
       </c>
-      <c r="N300" t="n">
-        <v>14.57</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16067,9 +15199,6 @@
       <c r="M301" t="n">
         <v>12122.8975</v>
       </c>
-      <c r="N301" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16119,9 +15248,6 @@
       <c r="M302" t="n">
         <v>11244.8725</v>
       </c>
-      <c r="N302" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16171,9 +15297,6 @@
       <c r="M303" t="n">
         <v>7513.959999999999</v>
       </c>
-      <c r="N303" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16223,9 +15346,6 @@
       <c r="M304" t="n">
         <v>8054.4625</v>
       </c>
-      <c r="N304" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16275,9 +15395,6 @@
       <c r="M305" t="n">
         <v>10951.835</v>
       </c>
-      <c r="N305" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16327,9 +15444,6 @@
       <c r="M306" t="n">
         <v>11009.0675</v>
       </c>
-      <c r="N306" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -16379,9 +15493,6 @@
       <c r="M307" t="n">
         <v>9841.0375</v>
       </c>
-      <c r="N307" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -16431,7 +15542,6 @@
       <c r="M308" t="n">
         <v>11853.926</v>
       </c>
-      <c r="N308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -16481,9 +15591,6 @@
       <c r="M309" t="n">
         <v>13492.56</v>
       </c>
-      <c r="N309" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -16533,9 +15640,6 @@
       <c r="M310" t="n">
         <v>11905.186</v>
       </c>
-      <c r="N310" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -16585,9 +15689,6 @@
       <c r="M311" t="n">
         <v>10572.81</v>
       </c>
-      <c r="N311" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -16637,9 +15738,6 @@
       <c r="M312" t="n">
         <v>12919.718</v>
       </c>
-      <c r="N312" t="n">
-        <v>-3.569999999999999</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -16689,9 +15787,6 @@
       <c r="M313" t="n">
         <v>11656.5725</v>
       </c>
-      <c r="N313" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -16741,9 +15836,6 @@
       <c r="M314" t="n">
         <v>10130.068</v>
       </c>
-      <c r="N314" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -16793,9 +15885,6 @@
       <c r="M315" t="n">
         <v>14092.15666666667</v>
       </c>
-      <c r="N315" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -16845,9 +15934,6 @@
       <c r="M316" t="n">
         <v>10922.514</v>
       </c>
-      <c r="N316" t="n">
-        <v>12.31</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -16897,9 +15983,6 @@
       <c r="M317" t="n">
         <v>8433.8325</v>
       </c>
-      <c r="N317" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -16949,9 +16032,6 @@
       <c r="M318" t="n">
         <v>11229.495</v>
       </c>
-      <c r="N318" t="n">
-        <v>7.58</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17001,9 +16081,6 @@
       <c r="M319" t="n">
         <v>13417.035</v>
       </c>
-      <c r="N319" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17053,9 +16130,6 @@
       <c r="M320" t="n">
         <v>14039.1275</v>
       </c>
-      <c r="N320" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17105,9 +16179,6 @@
       <c r="M321" t="n">
         <v>10094.628</v>
       </c>
-      <c r="N321" t="n">
-        <v>13.06</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17157,9 +16228,6 @@
       <c r="M322" t="n">
         <v>8821.879999999999</v>
       </c>
-      <c r="N322" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17209,9 +16277,6 @@
       <c r="M323" t="n">
         <v>8860.746666666666</v>
       </c>
-      <c r="N323" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17261,9 +16326,6 @@
       <c r="M324" t="n">
         <v>10579.504</v>
       </c>
-      <c r="N324" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17312,9 +16374,6 @@
       </c>
       <c r="M325" t="n">
         <v>12355.88666666667</v>
-      </c>
-      <c r="N325" t="n">
-        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MTT_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED.xlsx
@@ -678,22 +678,22 @@
         <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>68.25</v>
+        <v>63.4</v>
       </c>
       <c r="I5" t="n">
-        <v>68.58</v>
+        <v>63.78400000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>62.88</v>
+        <v>57.61399999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>27.4675</v>
+        <v>25.37</v>
       </c>
       <c r="L5" t="n">
-        <v>173.565</v>
+        <v>173.34</v>
       </c>
       <c r="M5" t="n">
-        <v>7226.992499999999</v>
+        <v>6687.386</v>
       </c>
     </row>
     <row r="6">
@@ -865,31 +865,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F9" t="n">
         <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="H9" t="n">
-        <v>63.5</v>
+        <v>62.8</v>
       </c>
       <c r="I9" t="n">
-        <v>63.7175</v>
+        <v>63.04600000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>57.2625</v>
+        <v>56.80799999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>24.825</v>
+        <v>24.682</v>
       </c>
       <c r="L9" t="n">
-        <v>151.0875</v>
+        <v>155.28</v>
       </c>
       <c r="M9" t="n">
-        <v>6315.407499999999</v>
+        <v>6322.86</v>
       </c>
     </row>
     <row r="10">
@@ -1012,31 +1012,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12.66666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="F12" t="n">
-        <v>30.66666666666667</v>
+        <v>30.5</v>
       </c>
       <c r="G12" t="n">
         <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>40.66666666666666</v>
+        <v>39</v>
       </c>
       <c r="I12" t="n">
-        <v>40.80333333333333</v>
+        <v>39.2375</v>
       </c>
       <c r="J12" t="n">
-        <v>36.22333333333334</v>
+        <v>34.46</v>
       </c>
       <c r="K12" t="n">
-        <v>15.16666666666666</v>
+        <v>14.5975</v>
       </c>
       <c r="L12" t="n">
-        <v>140.1833333333333</v>
+        <v>137.4475</v>
       </c>
       <c r="M12" t="n">
-        <v>3915.906666666667</v>
+        <v>3764.9425</v>
       </c>
     </row>
     <row r="13">
@@ -1257,31 +1257,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F17" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="G17" t="n">
         <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>38.5</v>
+        <v>43</v>
       </c>
       <c r="I17" t="n">
-        <v>39.235</v>
+        <v>43.528</v>
       </c>
       <c r="J17" t="n">
-        <v>37.64</v>
+        <v>39.838</v>
       </c>
       <c r="K17" t="n">
-        <v>14.1575</v>
+        <v>16.134</v>
       </c>
       <c r="L17" t="n">
-        <v>131.795</v>
+        <v>136.432</v>
       </c>
       <c r="M17" t="n">
-        <v>3365.315</v>
+        <v>3941.98</v>
       </c>
     </row>
     <row r="18">
@@ -1315,22 +1315,22 @@
         <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>46.25</v>
+        <v>45.6</v>
       </c>
       <c r="I18" t="n">
-        <v>46.86499999999999</v>
+        <v>46.278</v>
       </c>
       <c r="J18" t="n">
-        <v>42.925</v>
+        <v>41.316</v>
       </c>
       <c r="K18" t="n">
-        <v>17.745</v>
+        <v>17.592</v>
       </c>
       <c r="L18" t="n">
-        <v>154.87</v>
+        <v>161.826</v>
       </c>
       <c r="M18" t="n">
-        <v>4471.9</v>
+        <v>4497.066</v>
       </c>
     </row>
     <row r="19">
@@ -1407,28 +1407,28 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="G20" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="H20" t="n">
-        <v>172.5</v>
+        <v>162.6</v>
       </c>
       <c r="I20" t="n">
-        <v>161.39</v>
+        <v>153.862</v>
       </c>
       <c r="J20" t="n">
-        <v>150.9125</v>
+        <v>144.34</v>
       </c>
       <c r="K20" t="n">
-        <v>71.32499999999999</v>
+        <v>66.78799999999998</v>
       </c>
       <c r="L20" t="n">
-        <v>134.06</v>
+        <v>127.974</v>
       </c>
       <c r="M20" t="n">
-        <v>17216.645</v>
+        <v>15918.314</v>
       </c>
     </row>
     <row r="21">
@@ -1701,28 +1701,28 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>154.5</v>
+        <v>154.3333333333333</v>
       </c>
       <c r="I26" t="n">
-        <v>154.595</v>
+        <v>154.5966666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>135.82</v>
+        <v>141.9666666666667</v>
       </c>
       <c r="K26" t="n">
-        <v>61.35</v>
+        <v>60.69</v>
       </c>
       <c r="L26" t="n">
-        <v>130.305</v>
+        <v>125.6033333333333</v>
       </c>
       <c r="M26" t="n">
-        <v>14576.62</v>
+        <v>13964.33333333333</v>
       </c>
     </row>
     <row r="27">
@@ -1750,28 +1750,28 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>35.5</v>
+        <v>45.6</v>
       </c>
       <c r="G27" t="n">
-        <v>25.5</v>
+        <v>35.6</v>
       </c>
       <c r="H27" t="n">
-        <v>140.25</v>
+        <v>136.2</v>
       </c>
       <c r="I27" t="n">
-        <v>140.01</v>
+        <v>135.884</v>
       </c>
       <c r="J27" t="n">
-        <v>117.2125</v>
+        <v>117.312</v>
       </c>
       <c r="K27" t="n">
-        <v>57.94</v>
+        <v>57.184</v>
       </c>
       <c r="L27" t="n">
-        <v>129.45</v>
+        <v>123.844</v>
       </c>
       <c r="M27" t="n">
-        <v>13292.7025</v>
+        <v>12276.214</v>
       </c>
     </row>
     <row r="28">
@@ -1894,31 +1894,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="G30" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="H30" t="n">
-        <v>128.75</v>
+        <v>126</v>
       </c>
       <c r="I30" t="n">
-        <v>129.28</v>
+        <v>126.564</v>
       </c>
       <c r="J30" t="n">
-        <v>113.015</v>
+        <v>113.284</v>
       </c>
       <c r="K30" t="n">
-        <v>52.005</v>
+        <v>51.124</v>
       </c>
       <c r="L30" t="n">
-        <v>124.2425</v>
+        <v>126.392</v>
       </c>
       <c r="M30" t="n">
-        <v>12274.6025</v>
+        <v>12078.422</v>
       </c>
     </row>
     <row r="31">
@@ -2237,31 +2237,31 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.66666666666667</v>
+        <v>10.5</v>
       </c>
       <c r="F37" t="n">
-        <v>30.66666666666667</v>
+        <v>31</v>
       </c>
       <c r="G37" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3333333333333</v>
+        <v>131.5</v>
       </c>
       <c r="I37" t="n">
-        <v>130.5666666666667</v>
+        <v>131.6275</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6633333333333</v>
+        <v>114.4425</v>
       </c>
       <c r="K37" t="n">
-        <v>52.63999999999999</v>
+        <v>51.95</v>
       </c>
       <c r="L37" t="n">
-        <v>125.01</v>
+        <v>123.79</v>
       </c>
       <c r="M37" t="n">
-        <v>12368.44666666666</v>
+        <v>11943.53</v>
       </c>
     </row>
     <row r="38">
@@ -2491,22 +2491,22 @@
         <v>20</v>
       </c>
       <c r="H42" t="n">
-        <v>124.5</v>
+        <v>127.8</v>
       </c>
       <c r="I42" t="n">
-        <v>124.835</v>
+        <v>128.104</v>
       </c>
       <c r="J42" t="n">
-        <v>119.9725</v>
+        <v>123.544</v>
       </c>
       <c r="K42" t="n">
-        <v>47.66500000000001</v>
+        <v>48.628</v>
       </c>
       <c r="L42" t="n">
-        <v>106.69</v>
+        <v>104.742</v>
       </c>
       <c r="M42" t="n">
-        <v>10212.955</v>
+        <v>10317.342</v>
       </c>
     </row>
     <row r="43">
@@ -2531,31 +2531,31 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F43" t="n">
         <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="H43" t="n">
-        <v>101.75</v>
+        <v>108.2</v>
       </c>
       <c r="I43" t="n">
-        <v>102.0325</v>
+        <v>108.52</v>
       </c>
       <c r="J43" t="n">
-        <v>93.315</v>
+        <v>100.34</v>
       </c>
       <c r="K43" t="n">
-        <v>36.8875</v>
+        <v>40.476</v>
       </c>
       <c r="L43" t="n">
-        <v>104.8775</v>
+        <v>106.964</v>
       </c>
       <c r="M43" t="n">
-        <v>8105.3025</v>
+        <v>8947.166000000001</v>
       </c>
     </row>
     <row r="44">
@@ -2638,22 +2638,22 @@
         <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>120.25</v>
+        <v>124.4</v>
       </c>
       <c r="I45" t="n">
-        <v>120.56</v>
+        <v>124.618</v>
       </c>
       <c r="J45" t="n">
-        <v>111.17</v>
+        <v>114.424</v>
       </c>
       <c r="K45" t="n">
-        <v>45.0175</v>
+        <v>47.458</v>
       </c>
       <c r="L45" t="n">
-        <v>108.275</v>
+        <v>111.092</v>
       </c>
       <c r="M45" t="n">
-        <v>10075.68</v>
+        <v>10638.702</v>
       </c>
     </row>
     <row r="46">
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>35.5</v>
       </c>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>25.5</v>
       </c>
       <c r="H50" t="n">
-        <v>110.5</v>
+        <v>118</v>
       </c>
       <c r="I50" t="n">
-        <v>110.67</v>
+        <v>118.13</v>
       </c>
       <c r="J50" t="n">
-        <v>104.135</v>
+        <v>110.4175</v>
       </c>
       <c r="K50" t="n">
-        <v>42.525</v>
+        <v>46.20999999999999</v>
       </c>
       <c r="L50" t="n">
-        <v>108.575</v>
+        <v>102.85</v>
       </c>
       <c r="M50" t="n">
-        <v>9925.285</v>
+        <v>9882.497499999999</v>
       </c>
     </row>
     <row r="51">
@@ -3462,31 +3462,31 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="F62" t="n">
         <v>30</v>
       </c>
       <c r="G62" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="H62" t="n">
-        <v>74</v>
+        <v>77.75</v>
       </c>
       <c r="I62" t="n">
-        <v>73.94</v>
+        <v>77.88249999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>73.09999999999999</v>
+        <v>72.26249999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>28.995</v>
+        <v>31.4575</v>
       </c>
       <c r="L62" t="n">
-        <v>159.625</v>
+        <v>169.0225</v>
       </c>
       <c r="M62" t="n">
-        <v>7591.91</v>
+        <v>8358.4</v>
       </c>
     </row>
     <row r="63">
@@ -3560,31 +3560,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F64" t="n">
         <v>30</v>
       </c>
       <c r="G64" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="H64" t="n">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="I64" t="n">
-        <v>75.6225</v>
+        <v>75.724</v>
       </c>
       <c r="J64" t="n">
-        <v>67.155</v>
+        <v>67.944</v>
       </c>
       <c r="K64" t="n">
-        <v>28.9</v>
+        <v>28.982</v>
       </c>
       <c r="L64" t="n">
-        <v>137.8275</v>
+        <v>142.508</v>
       </c>
       <c r="M64" t="n">
-        <v>7257.8425</v>
+        <v>7291.744000000001</v>
       </c>
     </row>
     <row r="65">
@@ -3805,31 +3805,31 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F69" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="G69" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="H69" t="n">
-        <v>67.75</v>
+        <v>69.8</v>
       </c>
       <c r="I69" t="n">
-        <v>67.81999999999999</v>
+        <v>69.816</v>
       </c>
       <c r="J69" t="n">
-        <v>64.30250000000001</v>
+        <v>64.18599999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>25.3825</v>
+        <v>26.36</v>
       </c>
       <c r="L69" t="n">
-        <v>142.0975</v>
+        <v>142.24</v>
       </c>
       <c r="M69" t="n">
-        <v>6405.487499999999</v>
+        <v>6690.3</v>
       </c>
     </row>
     <row r="70">
@@ -4295,31 +4295,31 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>10.66666666666667</v>
+        <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>30.66666666666667</v>
+        <v>30.5</v>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="H79" t="n">
-        <v>73.33333333333333</v>
+        <v>68</v>
       </c>
       <c r="I79" t="n">
-        <v>73.55</v>
+        <v>68.325</v>
       </c>
       <c r="J79" t="n">
-        <v>63.27</v>
+        <v>58.6875</v>
       </c>
       <c r="K79" t="n">
-        <v>31.74666666666667</v>
+        <v>28.8775</v>
       </c>
       <c r="L79" t="n">
-        <v>167.44</v>
+        <v>169.36</v>
       </c>
       <c r="M79" t="n">
-        <v>8752.790000000001</v>
+        <v>7881.687500000001</v>
       </c>
     </row>
     <row r="80">
@@ -4442,31 +4442,31 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10.66666666666667</v>
+        <v>10.5</v>
       </c>
       <c r="F82" t="n">
-        <v>30.66666666666667</v>
+        <v>31</v>
       </c>
       <c r="G82" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="H82" t="n">
-        <v>73.66666666666667</v>
+        <v>72.5</v>
       </c>
       <c r="I82" t="n">
-        <v>73.66</v>
+        <v>72.6825</v>
       </c>
       <c r="J82" t="n">
-        <v>65.27999999999999</v>
+        <v>65.895</v>
       </c>
       <c r="K82" t="n">
-        <v>31.04333333333333</v>
+        <v>29.8825</v>
       </c>
       <c r="L82" t="n">
-        <v>164.5933333333333</v>
+        <v>156.9225</v>
       </c>
       <c r="M82" t="n">
-        <v>8753.813333333334</v>
+        <v>8128.184999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4638,31 +4638,31 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F86" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="G86" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="H86" t="n">
-        <v>60.5</v>
+        <v>61.2</v>
       </c>
       <c r="I86" t="n">
-        <v>60.78</v>
+        <v>61.502</v>
       </c>
       <c r="J86" t="n">
-        <v>53.405</v>
+        <v>54.864</v>
       </c>
       <c r="K86" t="n">
-        <v>23.73</v>
+        <v>23.608</v>
       </c>
       <c r="L86" t="n">
-        <v>168.4975</v>
+        <v>163.806</v>
       </c>
       <c r="M86" t="n">
-        <v>6327.2625</v>
+        <v>6191.412</v>
       </c>
     </row>
     <row r="87">
@@ -4785,31 +4785,31 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F89" t="n">
         <v>30</v>
       </c>
       <c r="G89" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="H89" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I89" t="n">
-        <v>72.2675</v>
+        <v>73.30800000000001</v>
       </c>
       <c r="J89" t="n">
-        <v>65.8175</v>
+        <v>65.46599999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>31.01</v>
+        <v>30.656</v>
       </c>
       <c r="L89" t="n">
-        <v>179.985</v>
+        <v>172.216</v>
       </c>
       <c r="M89" t="n">
-        <v>8887.7575</v>
+        <v>8639.155999999999</v>
       </c>
     </row>
     <row r="90">
@@ -5128,31 +5128,31 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F96" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G96" t="n">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="H96" t="n">
-        <v>121.75</v>
+        <v>136.6</v>
       </c>
       <c r="I96" t="n">
-        <v>121.6525</v>
+        <v>136.492</v>
       </c>
       <c r="J96" t="n">
-        <v>108.9075</v>
+        <v>123.948</v>
       </c>
       <c r="K96" t="n">
-        <v>50.6</v>
+        <v>57.372</v>
       </c>
       <c r="L96" t="n">
-        <v>147.7725</v>
+        <v>149.82</v>
       </c>
       <c r="M96" t="n">
-        <v>14821.69</v>
+        <v>16414.192</v>
       </c>
     </row>
     <row r="97">
@@ -5177,31 +5177,31 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="F97" t="n">
-        <v>31</v>
+        <v>28.4</v>
       </c>
       <c r="G97" t="n">
-        <v>19.5</v>
+        <v>17.2</v>
       </c>
       <c r="H97" t="n">
-        <v>113</v>
+        <v>123.6</v>
       </c>
       <c r="I97" t="n">
-        <v>113.5175</v>
+        <v>124.082</v>
       </c>
       <c r="J97" t="n">
-        <v>105.385</v>
+        <v>114.156</v>
       </c>
       <c r="K97" t="n">
-        <v>46.98999999999999</v>
+        <v>52.42</v>
       </c>
       <c r="L97" t="n">
-        <v>178.5675</v>
+        <v>178.83</v>
       </c>
       <c r="M97" t="n">
-        <v>13110.065</v>
+        <v>15148.98</v>
       </c>
     </row>
     <row r="98">
@@ -5275,31 +5275,31 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F99" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="G99" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="H99" t="n">
-        <v>131.5</v>
+        <v>143</v>
       </c>
       <c r="I99" t="n">
-        <v>131.6275</v>
+        <v>143.196</v>
       </c>
       <c r="J99" t="n">
-        <v>116.455</v>
+        <v>126.968</v>
       </c>
       <c r="K99" t="n">
-        <v>57.935</v>
+        <v>61.502</v>
       </c>
       <c r="L99" t="n">
-        <v>171.8275</v>
+        <v>159.412</v>
       </c>
       <c r="M99" t="n">
-        <v>15981.045</v>
+        <v>16383.096</v>
       </c>
     </row>
     <row r="100">
@@ -5618,31 +5618,31 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>11.33333333333333</v>
+        <v>11.5</v>
       </c>
       <c r="F106" t="n">
         <v>30</v>
       </c>
       <c r="G106" t="n">
-        <v>18.66666666666667</v>
+        <v>18.5</v>
       </c>
       <c r="H106" t="n">
-        <v>136.6666666666667</v>
+        <v>127.25</v>
       </c>
       <c r="I106" t="n">
-        <v>137.0466666666667</v>
+        <v>127.685</v>
       </c>
       <c r="J106" t="n">
-        <v>126.8766666666667</v>
+        <v>116.5375</v>
       </c>
       <c r="K106" t="n">
-        <v>59.20333333333334</v>
+        <v>53.755</v>
       </c>
       <c r="L106" t="n">
-        <v>185.2633333333333</v>
+        <v>166.3375</v>
       </c>
       <c r="M106" t="n">
-        <v>16649.48333333333</v>
+        <v>14497.0275</v>
       </c>
     </row>
     <row r="107">
@@ -5716,31 +5716,31 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>12.66666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="F108" t="n">
         <v>30</v>
       </c>
       <c r="G108" t="n">
-        <v>17.33333333333333</v>
+        <v>17.5</v>
       </c>
       <c r="H108" t="n">
-        <v>66.66666666666667</v>
+        <v>87</v>
       </c>
       <c r="I108" t="n">
-        <v>66.96333333333334</v>
+        <v>87.44750000000001</v>
       </c>
       <c r="J108" t="n">
-        <v>64.05666666666667</v>
+        <v>78.81</v>
       </c>
       <c r="K108" t="n">
-        <v>26.69</v>
+        <v>36.6475</v>
       </c>
       <c r="L108" t="n">
-        <v>213.15</v>
+        <v>207.035</v>
       </c>
       <c r="M108" t="n">
-        <v>7222.003333333334</v>
+        <v>10219.04</v>
       </c>
     </row>
     <row r="109">
@@ -5863,31 +5863,31 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>11.33333333333333</v>
+        <v>11.2</v>
       </c>
       <c r="F111" t="n">
-        <v>30.66666666666667</v>
+        <v>30.4</v>
       </c>
       <c r="G111" t="n">
-        <v>19.33333333333333</v>
+        <v>19.2</v>
       </c>
       <c r="H111" t="n">
-        <v>81.66666666666667</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I111" t="n">
-        <v>82.16333333333333</v>
+        <v>83.83799999999999</v>
       </c>
       <c r="J111" t="n">
-        <v>72.66333333333333</v>
+        <v>75.054</v>
       </c>
       <c r="K111" t="n">
-        <v>32.55</v>
+        <v>33.35</v>
       </c>
       <c r="L111" t="n">
-        <v>197.88</v>
+        <v>174.74</v>
       </c>
       <c r="M111" t="n">
-        <v>8618.283333333333</v>
+        <v>9063.574000000001</v>
       </c>
     </row>
     <row r="112">
@@ -6010,31 +6010,31 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="F114" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="G114" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="H114" t="n">
         <v>91</v>
       </c>
       <c r="I114" t="n">
-        <v>91.38249999999999</v>
+        <v>91.416</v>
       </c>
       <c r="J114" t="n">
-        <v>83</v>
+        <v>84.17400000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>36.455</v>
+        <v>36.564</v>
       </c>
       <c r="L114" t="n">
-        <v>134.9375</v>
+        <v>141.26</v>
       </c>
       <c r="M114" t="n">
-        <v>10297.4875</v>
+        <v>10350.584</v>
       </c>
     </row>
     <row r="115">
@@ -6460,22 +6460,22 @@
         <v>18</v>
       </c>
       <c r="H123" t="n">
-        <v>75.25</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>75.705</v>
+        <v>65.05800000000001</v>
       </c>
       <c r="J123" t="n">
-        <v>66.15000000000001</v>
+        <v>57.41399999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>29.7175</v>
+        <v>25.992</v>
       </c>
       <c r="L123" t="n">
-        <v>147.385</v>
+        <v>199.71</v>
       </c>
       <c r="M123" t="n">
-        <v>8497.950000000001</v>
+        <v>7556.714</v>
       </c>
     </row>
     <row r="124">
@@ -6794,31 +6794,31 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>10.66666666666667</v>
+        <v>11</v>
       </c>
       <c r="F130" t="n">
         <v>30</v>
       </c>
       <c r="G130" t="n">
-        <v>19.33333333333333</v>
+        <v>19</v>
       </c>
       <c r="H130" t="n">
-        <v>164</v>
+        <v>167.75</v>
       </c>
       <c r="I130" t="n">
-        <v>164.6566666666667</v>
+        <v>168.2625</v>
       </c>
       <c r="J130" t="n">
-        <v>152.6966666666667</v>
+        <v>152.4175</v>
       </c>
       <c r="K130" t="n">
-        <v>52.98666666666666</v>
+        <v>54.5325</v>
       </c>
       <c r="L130" t="n">
-        <v>62.02666666666666</v>
+        <v>62.44</v>
       </c>
       <c r="M130" t="n">
-        <v>11989.31</v>
+        <v>12159.3425</v>
       </c>
     </row>
     <row r="131">
@@ -7042,28 +7042,28 @@
         <v>10</v>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>34.4</v>
       </c>
       <c r="G135" t="n">
-        <v>20</v>
+        <v>24.4</v>
       </c>
       <c r="H135" t="n">
-        <v>227.5</v>
+        <v>232</v>
       </c>
       <c r="I135" t="n">
-        <v>227.7075</v>
+        <v>230.256</v>
       </c>
       <c r="J135" t="n">
-        <v>206.245</v>
+        <v>213.756</v>
       </c>
       <c r="K135" t="n">
-        <v>82.045</v>
+        <v>86.49800000000002</v>
       </c>
       <c r="L135" t="n">
-        <v>75.235</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="M135" t="n">
-        <v>16685.8475</v>
+        <v>17051.03</v>
       </c>
     </row>
     <row r="136">
@@ -7091,28 +7091,28 @@
         <v>10</v>
       </c>
       <c r="F136" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="G136" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="H136" t="n">
-        <v>208.75</v>
+        <v>213</v>
       </c>
       <c r="I136" t="n">
-        <v>208.925</v>
+        <v>213.018</v>
       </c>
       <c r="J136" t="n">
-        <v>184.6975</v>
+        <v>193.368</v>
       </c>
       <c r="K136" t="n">
-        <v>72.01249999999999</v>
+        <v>74.292</v>
       </c>
       <c r="L136" t="n">
-        <v>64.3175</v>
+        <v>67.8</v>
       </c>
       <c r="M136" t="n">
-        <v>14577.4025</v>
+        <v>15055.496</v>
       </c>
     </row>
     <row r="137">
@@ -7140,28 +7140,28 @@
         <v>10</v>
       </c>
       <c r="F137" t="n">
-        <v>30.5</v>
+        <v>34.8</v>
       </c>
       <c r="G137" t="n">
-        <v>20.5</v>
+        <v>24.8</v>
       </c>
       <c r="H137" t="n">
-        <v>208</v>
+        <v>214.4</v>
       </c>
       <c r="I137" t="n">
-        <v>208.335</v>
+        <v>211.606</v>
       </c>
       <c r="J137" t="n">
-        <v>177.3175</v>
+        <v>186.054</v>
       </c>
       <c r="K137" t="n">
-        <v>69.61750000000001</v>
+        <v>76.87800000000001</v>
       </c>
       <c r="L137" t="n">
-        <v>61.645</v>
+        <v>67.736</v>
       </c>
       <c r="M137" t="n">
-        <v>14451.485</v>
+        <v>15647.004</v>
       </c>
     </row>
     <row r="138">
@@ -8071,28 +8071,28 @@
         <v>12</v>
       </c>
       <c r="F156" t="n">
-        <v>32.66666666666666</v>
+        <v>32.5</v>
       </c>
       <c r="G156" t="n">
-        <v>20.66666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="H156" t="n">
-        <v>118.6666666666667</v>
+        <v>118.25</v>
       </c>
       <c r="I156" t="n">
-        <v>118.7166666666667</v>
+        <v>118.465</v>
       </c>
       <c r="J156" t="n">
-        <v>114.1366666666667</v>
+        <v>111.1725</v>
       </c>
       <c r="K156" t="n">
-        <v>45.14333333333334</v>
+        <v>45.5525</v>
       </c>
       <c r="L156" t="n">
-        <v>167.6666666666667</v>
+        <v>164.3325</v>
       </c>
       <c r="M156" t="n">
-        <v>11202.96333333333</v>
+        <v>11321.1325</v>
       </c>
     </row>
     <row r="157">
@@ -8120,28 +8120,28 @@
         <v>12</v>
       </c>
       <c r="F157" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="G157" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H157" t="n">
-        <v>67.5</v>
+        <v>104</v>
       </c>
       <c r="I157" t="n">
-        <v>67.905</v>
+        <v>104.3775</v>
       </c>
       <c r="J157" t="n">
-        <v>60.53</v>
+        <v>95.4075</v>
       </c>
       <c r="K157" t="n">
-        <v>28.185</v>
+        <v>36.885</v>
       </c>
       <c r="L157" t="n">
-        <v>142.995</v>
+        <v>104.9875</v>
       </c>
       <c r="M157" t="n">
-        <v>7684.115</v>
+        <v>7807.1775</v>
       </c>
     </row>
     <row r="158">
@@ -8365,28 +8365,28 @@
         <v>12</v>
       </c>
       <c r="F162" t="n">
-        <v>26</v>
+        <v>27.2</v>
       </c>
       <c r="G162" t="n">
-        <v>14</v>
+        <v>15.2</v>
       </c>
       <c r="H162" t="n">
-        <v>106</v>
+        <v>111.2</v>
       </c>
       <c r="I162" t="n">
-        <v>106.4775</v>
+        <v>111.542</v>
       </c>
       <c r="J162" t="n">
-        <v>98.17750000000001</v>
+        <v>103.896</v>
       </c>
       <c r="K162" t="n">
-        <v>39.335</v>
+        <v>40.122</v>
       </c>
       <c r="L162" t="n">
-        <v>101.395</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="M162" t="n">
-        <v>9804.005000000001</v>
+        <v>9151.422</v>
       </c>
     </row>
     <row r="163">
@@ -8659,28 +8659,28 @@
         <v>10</v>
       </c>
       <c r="F168" t="n">
-        <v>35.5</v>
+        <v>34.4</v>
       </c>
       <c r="G168" t="n">
-        <v>25.5</v>
+        <v>24.4</v>
       </c>
       <c r="H168" t="n">
-        <v>133</v>
+        <v>136.6</v>
       </c>
       <c r="I168" t="n">
-        <v>132.38</v>
+        <v>136.152</v>
       </c>
       <c r="J168" t="n">
-        <v>122.9925</v>
+        <v>128.308</v>
       </c>
       <c r="K168" t="n">
-        <v>57.61000000000001</v>
+        <v>59.536</v>
       </c>
       <c r="L168" t="n">
-        <v>149.9325</v>
+        <v>152.232</v>
       </c>
       <c r="M168" t="n">
-        <v>15467.0725</v>
+        <v>16181.754</v>
       </c>
     </row>
     <row r="169">
@@ -8999,31 +8999,31 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="F175" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="G175" t="n">
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="H175" t="n">
-        <v>130.25</v>
+        <v>129.2</v>
       </c>
       <c r="I175" t="n">
-        <v>130.285</v>
+        <v>129.178</v>
       </c>
       <c r="J175" t="n">
-        <v>121.485</v>
+        <v>117.78</v>
       </c>
       <c r="K175" t="n">
-        <v>51.365</v>
+        <v>52.25</v>
       </c>
       <c r="L175" t="n">
-        <v>127.005</v>
+        <v>145.032</v>
       </c>
       <c r="M175" t="n">
-        <v>13495.525</v>
+        <v>14060.726</v>
       </c>
     </row>
     <row r="176">
@@ -9051,28 +9051,28 @@
         <v>10</v>
       </c>
       <c r="F176" t="n">
-        <v>38</v>
+        <v>34.8</v>
       </c>
       <c r="G176" t="n">
-        <v>28</v>
+        <v>24.8</v>
       </c>
       <c r="H176" t="n">
-        <v>108.3333333333333</v>
+        <v>126.8</v>
       </c>
       <c r="I176" t="n">
-        <v>106.5266666666667</v>
+        <v>125.62</v>
       </c>
       <c r="J176" t="n">
-        <v>97.69666666666667</v>
+        <v>117.104</v>
       </c>
       <c r="K176" t="n">
-        <v>46.72666666666667</v>
+        <v>54.706</v>
       </c>
       <c r="L176" t="n">
-        <v>155.6666666666667</v>
+        <v>149.986</v>
       </c>
       <c r="M176" t="n">
-        <v>12815.77333333333</v>
+        <v>14770.618</v>
       </c>
     </row>
     <row r="177">
@@ -9489,31 +9489,31 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="F185" t="n">
         <v>30</v>
       </c>
       <c r="G185" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="H185" t="n">
-        <v>140</v>
+        <v>134.2</v>
       </c>
       <c r="I185" t="n">
-        <v>140.01</v>
+        <v>134.342</v>
       </c>
       <c r="J185" t="n">
-        <v>126.3475</v>
+        <v>119.79</v>
       </c>
       <c r="K185" t="n">
-        <v>60.8375</v>
+        <v>57.306</v>
       </c>
       <c r="L185" t="n">
-        <v>179.035</v>
+        <v>175.734</v>
       </c>
       <c r="M185" t="n">
-        <v>18307.5475</v>
+        <v>17152.098</v>
       </c>
     </row>
     <row r="186">
@@ -9734,31 +9734,31 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>10</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="F190" t="n">
         <v>30</v>
       </c>
       <c r="G190" t="n">
-        <v>20</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="H190" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I190" t="n">
-        <v>98.93000000000001</v>
+        <v>95.91000000000001</v>
       </c>
       <c r="J190" t="n">
-        <v>83.505</v>
+        <v>81.82666666666667</v>
       </c>
       <c r="K190" t="n">
-        <v>41</v>
+        <v>39.54333333333334</v>
       </c>
       <c r="L190" t="n">
-        <v>197.535</v>
+        <v>175.5733333333334</v>
       </c>
       <c r="M190" t="n">
-        <v>12626.555</v>
+        <v>11940.90666666667</v>
       </c>
     </row>
     <row r="191">
@@ -9930,31 +9930,31 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="F194" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="G194" t="n">
         <v>20</v>
       </c>
       <c r="H194" t="n">
-        <v>112.25</v>
+        <v>120.2</v>
       </c>
       <c r="I194" t="n">
-        <v>112.68</v>
+        <v>120.526</v>
       </c>
       <c r="J194" t="n">
-        <v>98.00749999999999</v>
+        <v>106.508</v>
       </c>
       <c r="K194" t="n">
-        <v>49.2275</v>
+        <v>52.51000000000001</v>
       </c>
       <c r="L194" t="n">
-        <v>180.18</v>
+        <v>189.182</v>
       </c>
       <c r="M194" t="n">
-        <v>15155.3275</v>
+        <v>16333.582</v>
       </c>
     </row>
     <row r="195">
@@ -10037,22 +10037,22 @@
         <v>20</v>
       </c>
       <c r="H196" t="n">
-        <v>126</v>
+        <v>116.5</v>
       </c>
       <c r="I196" t="n">
-        <v>125.925</v>
+        <v>116.3675</v>
       </c>
       <c r="J196" t="n">
-        <v>111.34</v>
+        <v>100.86</v>
       </c>
       <c r="K196" t="n">
-        <v>52.46</v>
+        <v>47.9225</v>
       </c>
       <c r="L196" t="n">
-        <v>156.95</v>
+        <v>165.9975</v>
       </c>
       <c r="M196" t="n">
-        <v>15750.295</v>
+        <v>14411.895</v>
       </c>
     </row>
     <row r="197">
@@ -10527,22 +10527,22 @@
         <v>20</v>
       </c>
       <c r="H206" t="n">
-        <v>251.6666666666667</v>
+        <v>260.25</v>
       </c>
       <c r="I206" t="n">
-        <v>251.9633333333333</v>
+        <v>260.32</v>
       </c>
       <c r="J206" t="n">
-        <v>228.49</v>
+        <v>239.6125</v>
       </c>
       <c r="K206" t="n">
-        <v>101.2466666666667</v>
+        <v>96.89250000000001</v>
       </c>
       <c r="L206" t="n">
-        <v>174.6933333333334</v>
+        <v>150.76</v>
       </c>
       <c r="M206" t="n">
-        <v>27821.55</v>
+        <v>25024.24</v>
       </c>
     </row>
     <row r="207">
@@ -10668,28 +10668,28 @@
         <v>10</v>
       </c>
       <c r="F209" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G209" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H209" t="n">
-        <v>274</v>
+        <v>276.75</v>
       </c>
       <c r="I209" t="n">
-        <v>274.6566666666667</v>
+        <v>277.255</v>
       </c>
       <c r="J209" t="n">
-        <v>255.5433333333333</v>
+        <v>259.23</v>
       </c>
       <c r="K209" t="n">
-        <v>106.7233333333333</v>
+        <v>111.03</v>
       </c>
       <c r="L209" t="n">
-        <v>140.1233333333333</v>
+        <v>141.445</v>
       </c>
       <c r="M209" t="n">
-        <v>29734.52666666667</v>
+        <v>31901.815</v>
       </c>
     </row>
     <row r="210">
@@ -10919,22 +10919,22 @@
         <v>20</v>
       </c>
       <c r="H214" t="n">
-        <v>241</v>
+        <v>241.5</v>
       </c>
       <c r="I214" t="n">
-        <v>241.12</v>
+        <v>241.625</v>
       </c>
       <c r="J214" t="n">
-        <v>208.93</v>
+        <v>222.5125</v>
       </c>
       <c r="K214" t="n">
-        <v>103.37</v>
+        <v>96.095</v>
       </c>
       <c r="L214" t="n">
-        <v>178.705</v>
+        <v>150.79</v>
       </c>
       <c r="M214" t="n">
-        <v>29330.75</v>
+        <v>26434.4</v>
       </c>
     </row>
     <row r="215">
@@ -11017,22 +11017,22 @@
         <v>20</v>
       </c>
       <c r="H216" t="n">
-        <v>219</v>
+        <v>236.75</v>
       </c>
       <c r="I216" t="n">
-        <v>219.5466666666667</v>
+        <v>236.9275</v>
       </c>
       <c r="J216" t="n">
-        <v>198.31</v>
+        <v>213.96</v>
       </c>
       <c r="K216" t="n">
-        <v>90.89999999999999</v>
+        <v>101.3825</v>
       </c>
       <c r="L216" t="n">
-        <v>187.34</v>
+        <v>189.8725</v>
       </c>
       <c r="M216" t="n">
-        <v>25493.12</v>
+        <v>28728.8325</v>
       </c>
     </row>
     <row r="217">
@@ -11354,28 +11354,28 @@
         <v>12</v>
       </c>
       <c r="F223" t="n">
-        <v>30</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="G223" t="n">
-        <v>18</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="H223" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I223" t="n">
-        <v>84.50999999999999</v>
+        <v>79.58999999999999</v>
       </c>
       <c r="J223" t="n">
-        <v>77.47</v>
+        <v>74.00333333333333</v>
       </c>
       <c r="K223" t="n">
-        <v>37.13</v>
+        <v>34.05333333333333</v>
       </c>
       <c r="L223" t="n">
-        <v>225.745</v>
+        <v>212.2466666666667</v>
       </c>
       <c r="M223" t="n">
-        <v>11796.975</v>
+        <v>10711.38</v>
       </c>
     </row>
     <row r="224">
@@ -11596,31 +11596,31 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>10.66666666666667</v>
+        <v>11.2</v>
       </c>
       <c r="F228" t="n">
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="G228" t="n">
-        <v>19.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="H228" t="n">
-        <v>59.66666666666666</v>
+        <v>61.6</v>
       </c>
       <c r="I228" t="n">
-        <v>59.69333333333333</v>
+        <v>61.638</v>
       </c>
       <c r="J228" t="n">
-        <v>49.41333333333333</v>
+        <v>53.45800000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>25.20333333333333</v>
+        <v>25.49</v>
       </c>
       <c r="L228" t="n">
-        <v>191.0233333333333</v>
+        <v>187.51</v>
       </c>
       <c r="M228" t="n">
-        <v>8339.073333333334</v>
+        <v>8208.683999999999</v>
       </c>
     </row>
     <row r="229">
@@ -11890,31 +11890,31 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="F234" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="G234" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="H234" t="n">
-        <v>46.75</v>
+        <v>52.6</v>
       </c>
       <c r="I234" t="n">
-        <v>47.2</v>
+        <v>53.12</v>
       </c>
       <c r="J234" t="n">
-        <v>42.0025</v>
+        <v>46.748</v>
       </c>
       <c r="K234" t="n">
-        <v>19.435</v>
+        <v>22.19</v>
       </c>
       <c r="L234" t="n">
-        <v>187.3</v>
+        <v>195.742</v>
       </c>
       <c r="M234" t="n">
-        <v>6050.952499999999</v>
+        <v>6949.67</v>
       </c>
     </row>
     <row r="235">
@@ -11942,28 +11942,28 @@
         <v>12</v>
       </c>
       <c r="F235" t="n">
-        <v>31</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="G235" t="n">
-        <v>19</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="H235" t="n">
-        <v>73.5</v>
+        <v>77.33333333333333</v>
       </c>
       <c r="I235" t="n">
-        <v>73.94499999999999</v>
+        <v>77.91333333333333</v>
       </c>
       <c r="J235" t="n">
-        <v>69.41999999999999</v>
+        <v>73.44333333333333</v>
       </c>
       <c r="K235" t="n">
-        <v>29.9</v>
+        <v>31.00333333333333</v>
       </c>
       <c r="L235" t="n">
-        <v>173.065</v>
+        <v>182.3066666666666</v>
       </c>
       <c r="M235" t="n">
-        <v>9087.165000000001</v>
+        <v>9269.393333333333</v>
       </c>
     </row>
     <row r="236">
@@ -12138,28 +12138,28 @@
         <v>10</v>
       </c>
       <c r="F239" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G239" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H239" t="n">
-        <v>198.6666666666667</v>
+        <v>195.5</v>
       </c>
       <c r="I239" t="n">
-        <v>199.31</v>
+        <v>196.095</v>
       </c>
       <c r="J239" t="n">
-        <v>181.3166666666667</v>
+        <v>175.6425</v>
       </c>
       <c r="K239" t="n">
-        <v>82.76333333333334</v>
+        <v>80.33000000000001</v>
       </c>
       <c r="L239" t="n">
-        <v>150.3833333333333</v>
+        <v>141.72</v>
       </c>
       <c r="M239" t="n">
-        <v>23692.54333333333</v>
+        <v>22289.95</v>
       </c>
     </row>
     <row r="240">
@@ -12389,22 +12389,22 @@
         <v>20</v>
       </c>
       <c r="H244" t="n">
-        <v>179.6666666666667</v>
+        <v>172.5</v>
       </c>
       <c r="I244" t="n">
-        <v>179.9733333333334</v>
+        <v>172.7925</v>
       </c>
       <c r="J244" t="n">
-        <v>160.6366666666667</v>
+        <v>154.015</v>
       </c>
       <c r="K244" t="n">
-        <v>70.83</v>
+        <v>68.3625</v>
       </c>
       <c r="L244" t="n">
-        <v>141.73</v>
+        <v>138.245</v>
       </c>
       <c r="M244" t="n">
-        <v>18232.78</v>
+        <v>17546.2225</v>
       </c>
     </row>
     <row r="245">
@@ -12628,28 +12628,28 @@
         <v>10</v>
       </c>
       <c r="F249" t="n">
-        <v>30.66666666666667</v>
+        <v>30.5</v>
       </c>
       <c r="G249" t="n">
-        <v>20.66666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="H249" t="n">
-        <v>180.6666666666667</v>
+        <v>187.25</v>
       </c>
       <c r="I249" t="n">
-        <v>181.2033333333333</v>
+        <v>187.715</v>
       </c>
       <c r="J249" t="n">
-        <v>163.2066666666667</v>
+        <v>167.4275</v>
       </c>
       <c r="K249" t="n">
-        <v>74.84333333333332</v>
+        <v>76.485</v>
       </c>
       <c r="L249" t="n">
-        <v>179.8833333333333</v>
+        <v>169.505</v>
       </c>
       <c r="M249" t="n">
-        <v>19698.27666666667</v>
+        <v>19975.365</v>
       </c>
     </row>
     <row r="250">
@@ -12683,22 +12683,22 @@
         <v>20</v>
       </c>
       <c r="H250" t="n">
-        <v>196.6666666666667</v>
+        <v>187.75</v>
       </c>
       <c r="I250" t="n">
-        <v>197.19</v>
+        <v>188.22</v>
       </c>
       <c r="J250" t="n">
-        <v>166.7833333333333</v>
+        <v>162.9</v>
       </c>
       <c r="K250" t="n">
-        <v>80.22333333333334</v>
+        <v>75.435</v>
       </c>
       <c r="L250" t="n">
-        <v>166.4433333333333</v>
+        <v>153.06</v>
       </c>
       <c r="M250" t="n">
-        <v>22077.19333333333</v>
+        <v>20235.6825</v>
       </c>
     </row>
     <row r="251">
@@ -12919,31 +12919,31 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="F255" t="n">
-        <v>24</v>
+        <v>25.2</v>
       </c>
       <c r="G255" t="n">
-        <v>14.5</v>
+        <v>15.6</v>
       </c>
       <c r="H255" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I255" t="n">
-        <v>134.305</v>
+        <v>146.144</v>
       </c>
       <c r="J255" t="n">
-        <v>127.6025</v>
+        <v>139.508</v>
       </c>
       <c r="K255" t="n">
-        <v>44.265</v>
+        <v>49.104</v>
       </c>
       <c r="L255" t="n">
-        <v>77.97750000000001</v>
+        <v>73.95400000000001</v>
       </c>
       <c r="M255" t="n">
-        <v>11036.0475</v>
+        <v>11441.066</v>
       </c>
     </row>
     <row r="256">
@@ -13118,28 +13118,28 @@
         <v>10</v>
       </c>
       <c r="F259" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G259" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H259" t="n">
-        <v>117.6666666666667</v>
+        <v>142.6</v>
       </c>
       <c r="I259" t="n">
-        <v>117.93</v>
+        <v>142.86</v>
       </c>
       <c r="J259" t="n">
-        <v>107.98</v>
+        <v>132.598</v>
       </c>
       <c r="K259" t="n">
-        <v>36.73</v>
+        <v>43.646</v>
       </c>
       <c r="L259" t="n">
-        <v>96.32666666666667</v>
+        <v>80.83799999999999</v>
       </c>
       <c r="M259" t="n">
-        <v>7706.486666666667</v>
+        <v>8632.639999999999</v>
       </c>
     </row>
     <row r="260">
@@ -13167,28 +13167,28 @@
         <v>10</v>
       </c>
       <c r="F260" t="n">
-        <v>29.33333333333333</v>
+        <v>29.5</v>
       </c>
       <c r="G260" t="n">
-        <v>19.33333333333333</v>
+        <v>19.5</v>
       </c>
       <c r="H260" t="n">
-        <v>157.6666666666667</v>
+        <v>158</v>
       </c>
       <c r="I260" t="n">
-        <v>158.0633333333334</v>
+        <v>158.2875</v>
       </c>
       <c r="J260" t="n">
-        <v>149.57</v>
+        <v>149.15</v>
       </c>
       <c r="K260" t="n">
-        <v>45.42666666666667</v>
+        <v>46.655</v>
       </c>
       <c r="L260" t="n">
-        <v>39.24333333333334</v>
+        <v>45.1675</v>
       </c>
       <c r="M260" t="n">
-        <v>7377.96</v>
+        <v>8188.835</v>
       </c>
     </row>
     <row r="261">
@@ -13265,28 +13265,28 @@
         <v>10</v>
       </c>
       <c r="F262" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="G262" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="H262" t="n">
-        <v>114</v>
+        <v>129.75</v>
       </c>
       <c r="I262" t="n">
-        <v>113.5666666666667</v>
+        <v>129.61</v>
       </c>
       <c r="J262" t="n">
-        <v>105.0733333333333</v>
+        <v>118.3775</v>
       </c>
       <c r="K262" t="n">
-        <v>36.9</v>
+        <v>40.65000000000001</v>
       </c>
       <c r="L262" t="n">
-        <v>127.7233333333333</v>
+        <v>106.1425</v>
       </c>
       <c r="M262" t="n">
-        <v>9088.873333333333</v>
+        <v>8657.59</v>
       </c>
     </row>
     <row r="263">
@@ -13850,31 +13850,31 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="F274" t="n">
         <v>30</v>
       </c>
       <c r="G274" t="n">
-        <v>21</v>
+        <v>21.6</v>
       </c>
       <c r="H274" t="n">
-        <v>92.5</v>
+        <v>91</v>
       </c>
       <c r="I274" t="n">
-        <v>92.7225</v>
+        <v>90.946</v>
       </c>
       <c r="J274" t="n">
-        <v>86.4375</v>
+        <v>84.77799999999999</v>
       </c>
       <c r="K274" t="n">
-        <v>34.4425</v>
+        <v>33.53</v>
       </c>
       <c r="L274" t="n">
-        <v>124.96</v>
+        <v>123.762</v>
       </c>
       <c r="M274" t="n">
-        <v>8021.26</v>
+        <v>7731.460000000001</v>
       </c>
     </row>
     <row r="275">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="F278" t="n">
-        <v>30</v>
+        <v>30.8</v>
       </c>
       <c r="G278" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="H278" t="n">
-        <v>130</v>
+        <v>137.8</v>
       </c>
       <c r="I278" t="n">
-        <v>130.0033333333333</v>
+        <v>138.098</v>
       </c>
       <c r="J278" t="n">
-        <v>117.9366666666667</v>
+        <v>126.364</v>
       </c>
       <c r="K278" t="n">
-        <v>48.94333333333334</v>
+        <v>52.798</v>
       </c>
       <c r="L278" t="n">
-        <v>118.2266666666667</v>
+        <v>118.808</v>
       </c>
       <c r="M278" t="n">
-        <v>10873.09666666667</v>
+        <v>11911.328</v>
       </c>
     </row>
     <row r="279">
@@ -14153,22 +14153,22 @@
         <v>20</v>
       </c>
       <c r="H280" t="n">
-        <v>115.6666666666667</v>
+        <v>117</v>
       </c>
       <c r="I280" t="n">
-        <v>115.6966666666667</v>
+        <v>117.0375</v>
       </c>
       <c r="J280" t="n">
-        <v>112.68</v>
+        <v>109.2425</v>
       </c>
       <c r="K280" t="n">
-        <v>43.91333333333333</v>
+        <v>43.8275</v>
       </c>
       <c r="L280" t="n">
-        <v>118.51</v>
+        <v>113.82</v>
       </c>
       <c r="M280" t="n">
-        <v>9845.993333333334</v>
+        <v>9765.102500000001</v>
       </c>
     </row>
     <row r="281">
@@ -14193,31 +14193,31 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>12</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="F281" t="n">
         <v>30</v>
       </c>
       <c r="G281" t="n">
-        <v>18</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="H281" t="n">
-        <v>117.5</v>
+        <v>119.6666666666667</v>
       </c>
       <c r="I281" t="n">
-        <v>118.045</v>
+        <v>120.0566666666667</v>
       </c>
       <c r="J281" t="n">
-        <v>92.72499999999999</v>
+        <v>99.26666666666667</v>
       </c>
       <c r="K281" t="n">
-        <v>44.925</v>
+        <v>45.04</v>
       </c>
       <c r="L281" t="n">
-        <v>113.885</v>
+        <v>115.1366666666667</v>
       </c>
       <c r="M281" t="n">
-        <v>10383.225</v>
+        <v>10292.07666666667</v>
       </c>
     </row>
     <row r="282">
@@ -14781,31 +14781,31 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="F293" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G293" t="n">
-        <v>19.5</v>
+        <v>23.6</v>
       </c>
       <c r="H293" t="n">
-        <v>127.5</v>
+        <v>139.6</v>
       </c>
       <c r="I293" t="n">
-        <v>127.8525</v>
+        <v>139.976</v>
       </c>
       <c r="J293" t="n">
-        <v>115.0275</v>
+        <v>122.808</v>
       </c>
       <c r="K293" t="n">
-        <v>50.8125</v>
+        <v>58.90799999999999</v>
       </c>
       <c r="L293" t="n">
-        <v>127.2175</v>
+        <v>135.098</v>
       </c>
       <c r="M293" t="n">
-        <v>13447.7825</v>
+        <v>15726.446</v>
       </c>
     </row>
     <row r="294">
@@ -14882,28 +14882,28 @@
         <v>10</v>
       </c>
       <c r="F295" t="n">
-        <v>30.66666666666667</v>
+        <v>30.5</v>
       </c>
       <c r="G295" t="n">
-        <v>20.66666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="H295" t="n">
-        <v>111.6666666666667</v>
+        <v>109.25</v>
       </c>
       <c r="I295" t="n">
-        <v>112.12</v>
+        <v>109.745</v>
       </c>
       <c r="J295" t="n">
-        <v>104.2966666666667</v>
+        <v>103.1225</v>
       </c>
       <c r="K295" t="n">
-        <v>46.44666666666667</v>
+        <v>45.5625</v>
       </c>
       <c r="L295" t="n">
-        <v>143.2366666666667</v>
+        <v>145.7025</v>
       </c>
       <c r="M295" t="n">
-        <v>12002.77666666667</v>
+        <v>11858.815</v>
       </c>
     </row>
     <row r="296">
@@ -15075,31 +15075,31 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>11</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="F299" t="n">
-        <v>32</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="G299" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H299" t="n">
-        <v>51</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="I299" t="n">
-        <v>51.31</v>
+        <v>71.76666666666667</v>
       </c>
       <c r="J299" t="n">
-        <v>44.435</v>
+        <v>62.71333333333333</v>
       </c>
       <c r="K299" t="n">
-        <v>18.47</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="L299" t="n">
-        <v>118.16</v>
+        <v>125.08</v>
       </c>
       <c r="M299" t="n">
-        <v>4959.37</v>
+        <v>7275.13</v>
       </c>
     </row>
     <row r="300">
@@ -15418,31 +15418,31 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="F306" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="G306" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="H306" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="I306" t="n">
-        <v>95.91249999999999</v>
+        <v>95.578</v>
       </c>
       <c r="J306" t="n">
-        <v>90.03999999999999</v>
+        <v>90.81200000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>40.41</v>
+        <v>40.23999999999999</v>
       </c>
       <c r="L306" t="n">
-        <v>162.395</v>
+        <v>167.732</v>
       </c>
       <c r="M306" t="n">
-        <v>11009.0675</v>
+        <v>10966.046</v>
       </c>
     </row>
     <row r="307">
@@ -15467,31 +15467,31 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F307" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="G307" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="H307" t="n">
-        <v>92</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I307" t="n">
-        <v>92.39</v>
+        <v>89.74000000000001</v>
       </c>
       <c r="J307" t="n">
-        <v>80.065</v>
+        <v>78.94000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>37.215</v>
+        <v>36.174</v>
       </c>
       <c r="L307" t="n">
-        <v>133.56</v>
+        <v>137.118</v>
       </c>
       <c r="M307" t="n">
-        <v>9841.0375</v>
+        <v>9552.678</v>
       </c>
     </row>
     <row r="308">
@@ -15565,31 +15565,31 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>11.33333333333333</v>
+        <v>9</v>
       </c>
       <c r="F309" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="G309" t="n">
-        <v>18.66666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="H309" t="n">
-        <v>154.3333333333333</v>
+        <v>149.25</v>
       </c>
       <c r="I309" t="n">
-        <v>153.37</v>
+        <v>148.2275</v>
       </c>
       <c r="J309" t="n">
-        <v>149.46</v>
+        <v>143.87</v>
       </c>
       <c r="K309" t="n">
-        <v>59.96</v>
+        <v>57.7775</v>
       </c>
       <c r="L309" t="n">
-        <v>111.5966666666666</v>
+        <v>108.6425</v>
       </c>
       <c r="M309" t="n">
-        <v>13492.56</v>
+        <v>13413.04</v>
       </c>
     </row>
     <row r="310">
@@ -15859,31 +15859,31 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="F315" t="n">
         <v>30</v>
       </c>
       <c r="G315" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="H315" t="n">
-        <v>163.3333333333333</v>
+        <v>176</v>
       </c>
       <c r="I315" t="n">
-        <v>163.4266666666666</v>
+        <v>176.225</v>
       </c>
       <c r="J315" t="n">
-        <v>159.2933333333333</v>
+        <v>168.0125</v>
       </c>
       <c r="K315" t="n">
-        <v>63.53333333333333</v>
+        <v>70.74000000000001</v>
       </c>
       <c r="L315" t="n">
-        <v>95.36</v>
+        <v>107.085</v>
       </c>
       <c r="M315" t="n">
-        <v>14092.15666666667</v>
+        <v>16338.675</v>
       </c>
     </row>
     <row r="316">
@@ -16055,31 +16055,31 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F319" t="n">
         <v>30</v>
       </c>
       <c r="G319" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H319" t="n">
-        <v>158.5</v>
+        <v>157.6666666666667</v>
       </c>
       <c r="I319" t="n">
-        <v>158.625</v>
+        <v>157.73</v>
       </c>
       <c r="J319" t="n">
-        <v>148.9</v>
+        <v>147.5566666666666</v>
       </c>
       <c r="K319" t="n">
-        <v>60.66</v>
+        <v>61.40000000000001</v>
       </c>
       <c r="L319" t="n">
-        <v>81.435</v>
+        <v>96.14333333333333</v>
       </c>
       <c r="M319" t="n">
-        <v>13417.035</v>
+        <v>13877.05</v>
       </c>
     </row>
     <row r="320">
@@ -16202,31 +16202,31 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.66666666666667</v>
+        <v>12</v>
       </c>
       <c r="F322" t="n">
         <v>30</v>
       </c>
       <c r="G322" t="n">
-        <v>17.33333333333333</v>
+        <v>18</v>
       </c>
       <c r="H322" t="n">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="I322" t="n">
-        <v>107.2</v>
+        <v>136.1525</v>
       </c>
       <c r="J322" t="n">
-        <v>91.55</v>
+        <v>114.5225</v>
       </c>
       <c r="K322" t="n">
-        <v>38.66999999999999</v>
+        <v>51.4675</v>
       </c>
       <c r="L322" t="n">
-        <v>80.64333333333333</v>
+        <v>97.8575</v>
       </c>
       <c r="M322" t="n">
-        <v>8821.879999999999</v>
+        <v>12630.6125</v>
       </c>
     </row>
     <row r="323">
